--- a/calculadora juros/teste_financiamento.xlsx
+++ b/calculadora juros/teste_financiamento.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D2">
-        <v>41.47690571730811</v>
+        <v>4140.215472863134</v>
       </c>
       <c r="E2">
-        <v>458.1435723839748</v>
+        <v>5540.215472863134</v>
       </c>
       <c r="F2">
-        <v>458.1435723839748</v>
+        <v>5540.215472863134</v>
       </c>
       <c r="G2">
-        <v>41.47690571730811</v>
+        <v>4140.215472863134</v>
       </c>
       <c r="H2">
-        <v>49583.33333333334</v>
+        <v>460600</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -455,22 +455,22 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D3">
-        <v>41.13126483633054</v>
+        <v>4127.66936536961</v>
       </c>
       <c r="E3">
-        <v>457.7979315029972</v>
+        <v>5527.66936536961</v>
       </c>
       <c r="F3">
-        <v>915.941503886972</v>
+        <v>11067.88483823275</v>
       </c>
       <c r="G3">
-        <v>82.60817055363866</v>
+        <v>8267.884838232745</v>
       </c>
       <c r="H3">
-        <v>49166.66666666667</v>
+        <v>459200</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,22 +481,22 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D4">
-        <v>40.78562395535297</v>
+        <v>4115.123257876086</v>
       </c>
       <c r="E4">
-        <v>457.4522906220196</v>
+        <v>5515.123257876086</v>
       </c>
       <c r="F4">
-        <v>1373.393794508992</v>
+        <v>16583.00809610883</v>
       </c>
       <c r="G4">
-        <v>123.3937945089916</v>
+        <v>12383.00809610883</v>
       </c>
       <c r="H4">
-        <v>48750.00000000001</v>
+        <v>457800</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -507,22 +507,22 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D5">
-        <v>40.43998307437541</v>
+        <v>4102.577150382561</v>
       </c>
       <c r="E5">
-        <v>457.1066497410421</v>
+        <v>5502.577150382561</v>
       </c>
       <c r="F5">
-        <v>1830.500444250034</v>
+        <v>22085.58524649139</v>
       </c>
       <c r="G5">
-        <v>163.833777583367</v>
+        <v>16485.58524649139</v>
       </c>
       <c r="H5">
-        <v>48333.33333333334</v>
+        <v>456400</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -533,22 +533,22 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D6">
-        <v>40.09434219339784</v>
+        <v>4090.031042889036</v>
       </c>
       <c r="E6">
-        <v>456.7610088600645</v>
+        <v>5490.031042889035</v>
       </c>
       <c r="F6">
-        <v>2287.261453110098</v>
+        <v>27575.61628938043</v>
       </c>
       <c r="G6">
-        <v>203.9281197767649</v>
+        <v>20575.61628938043</v>
       </c>
       <c r="H6">
-        <v>47916.66666666668</v>
+        <v>455000</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -559,22 +559,22 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D7">
-        <v>39.74870131242027</v>
+        <v>4077.484935395511</v>
       </c>
       <c r="E7">
-        <v>456.415367979087</v>
+        <v>5477.484935395511</v>
       </c>
       <c r="F7">
-        <v>2743.676821089185</v>
+        <v>33053.10122477594</v>
       </c>
       <c r="G7">
-        <v>243.6768210891852</v>
+        <v>24653.10122477594</v>
       </c>
       <c r="H7">
-        <v>47500.00000000001</v>
+        <v>453600</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -585,22 +585,22 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D8">
-        <v>39.4030604314427</v>
+        <v>4064.938827901986</v>
       </c>
       <c r="E8">
-        <v>456.0697270981094</v>
+        <v>5464.938827901986</v>
       </c>
       <c r="F8">
-        <v>3199.746548187295</v>
+        <v>38518.04005267792</v>
       </c>
       <c r="G8">
-        <v>283.0798815206279</v>
+        <v>28718.04005267793</v>
       </c>
       <c r="H8">
-        <v>47083.33333333335</v>
+        <v>452200</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -611,22 +611,22 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D9">
-        <v>39.05741955046514</v>
+        <v>4052.392720408462</v>
       </c>
       <c r="E9">
-        <v>455.7240862171318</v>
+        <v>5452.392720408462</v>
       </c>
       <c r="F9">
-        <v>3655.470634404426</v>
+        <v>43970.43277308638</v>
       </c>
       <c r="G9">
-        <v>322.137301071093</v>
+        <v>32770.43277308639</v>
       </c>
       <c r="H9">
-        <v>46666.66666666669</v>
+        <v>450800</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -637,22 +637,22 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D10">
-        <v>38.71177866948756</v>
+        <v>4039.846612914937</v>
       </c>
       <c r="E10">
-        <v>455.3784453361542</v>
+        <v>5439.846612914937</v>
       </c>
       <c r="F10">
-        <v>4110.84907974058</v>
+        <v>49410.27938600132</v>
       </c>
       <c r="G10">
-        <v>360.8490797405806</v>
+        <v>36810.27938600133</v>
       </c>
       <c r="H10">
-        <v>46250.00000000002</v>
+        <v>449400</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -663,22 +663,22 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D11">
-        <v>38.36613778851</v>
+        <v>4027.300505421413</v>
       </c>
       <c r="E11">
-        <v>455.0328044551767</v>
+        <v>5427.300505421413</v>
       </c>
       <c r="F11">
-        <v>4565.881884195757</v>
+        <v>54837.57989142273</v>
       </c>
       <c r="G11">
-        <v>399.2152175290906</v>
+        <v>40837.57989142274</v>
       </c>
       <c r="H11">
-        <v>45833.33333333336</v>
+        <v>448000</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -689,22 +689,22 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D12">
-        <v>38.02049690753243</v>
+        <v>4014.754397927888</v>
       </c>
       <c r="E12">
-        <v>454.6871635741991</v>
+        <v>5414.754397927888</v>
       </c>
       <c r="F12">
-        <v>5020.569047769956</v>
+        <v>60252.33428935062</v>
       </c>
       <c r="G12">
-        <v>437.235714436623</v>
+        <v>44852.33428935063</v>
       </c>
       <c r="H12">
-        <v>45416.66666666669</v>
+        <v>446600</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -715,22 +715,22 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D13">
-        <v>37.67485602655486</v>
+        <v>4002.208290434363</v>
       </c>
       <c r="E13">
-        <v>454.3415226932216</v>
+        <v>5402.208290434363</v>
       </c>
       <c r="F13">
-        <v>5474.910570463178</v>
+        <v>65654.54257978499</v>
       </c>
       <c r="G13">
-        <v>474.9105704631779</v>
+        <v>48854.54257978499</v>
       </c>
       <c r="H13">
-        <v>45000.00000000003</v>
+        <v>445200</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -741,22 +741,22 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D14">
-        <v>37.3292151455773</v>
+        <v>3989.662182940839</v>
       </c>
       <c r="E14">
-        <v>453.995881812244</v>
+        <v>5389.662182940839</v>
       </c>
       <c r="F14">
-        <v>5928.906452275422</v>
+        <v>71044.20476272583</v>
       </c>
       <c r="G14">
-        <v>512.2397856087553</v>
+        <v>52844.20476272583</v>
       </c>
       <c r="H14">
-        <v>44583.33333333336</v>
+        <v>443800</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -767,22 +767,22 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D15">
-        <v>36.98357426459973</v>
+        <v>3977.116075447314</v>
       </c>
       <c r="E15">
-        <v>453.6502409312664</v>
+        <v>5377.116075447314</v>
       </c>
       <c r="F15">
-        <v>6382.556693206689</v>
+        <v>76421.32083817314</v>
       </c>
       <c r="G15">
-        <v>549.223359873355</v>
+        <v>56821.32083817315</v>
       </c>
       <c r="H15">
-        <v>44166.6666666667</v>
+        <v>442400</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -793,22 +793,22 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D16">
-        <v>36.63793338362216</v>
+        <v>3964.569967953789</v>
       </c>
       <c r="E16">
-        <v>453.3046000502889</v>
+        <v>5364.569967953789</v>
       </c>
       <c r="F16">
-        <v>6835.861293256978</v>
+        <v>81785.89080612693</v>
       </c>
       <c r="G16">
-        <v>585.8612932569771</v>
+        <v>60785.89080612693</v>
       </c>
       <c r="H16">
-        <v>43750.00000000004</v>
+        <v>441000</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -819,22 +819,22 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D17">
-        <v>36.2922925026446</v>
+        <v>3952.023860460265</v>
       </c>
       <c r="E17">
-        <v>452.9589591693113</v>
+        <v>5352.023860460265</v>
       </c>
       <c r="F17">
-        <v>7288.820252426289</v>
+        <v>87137.9146665872</v>
       </c>
       <c r="G17">
-        <v>622.1535857596217</v>
+        <v>64737.9146665872</v>
       </c>
       <c r="H17">
-        <v>43333.33333333337</v>
+        <v>439600</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -845,22 +845,22 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D18">
-        <v>35.94665162166702</v>
+        <v>3939.47775296674</v>
       </c>
       <c r="E18">
-        <v>452.6133182883337</v>
+        <v>5339.47775296674</v>
       </c>
       <c r="F18">
-        <v>7741.433570714623</v>
+        <v>92477.39241955393</v>
       </c>
       <c r="G18">
-        <v>658.1002373812887</v>
+        <v>68677.39241955393</v>
       </c>
       <c r="H18">
-        <v>42916.66666666671</v>
+        <v>438200</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -871,22 +871,22 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D19">
-        <v>35.60101074068946</v>
+        <v>3926.931645473215</v>
       </c>
       <c r="E19">
-        <v>452.2676774073561</v>
+        <v>5326.931645473215</v>
       </c>
       <c r="F19">
-        <v>8193.701248121979</v>
+        <v>97804.32406502715</v>
       </c>
       <c r="G19">
-        <v>693.7012481219782</v>
+        <v>72604.32406502715</v>
       </c>
       <c r="H19">
-        <v>42500.00000000004</v>
+        <v>436800</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -897,22 +897,22 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D20">
-        <v>35.25536985971189</v>
+        <v>3914.385537979691</v>
       </c>
       <c r="E20">
-        <v>451.9220365263786</v>
+        <v>5314.385537979691</v>
       </c>
       <c r="F20">
-        <v>8645.623284648358</v>
+        <v>103118.7096030068</v>
       </c>
       <c r="G20">
-        <v>728.9566179816901</v>
+        <v>76518.70960300684</v>
       </c>
       <c r="H20">
-        <v>42083.33333333338</v>
+        <v>435400</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -923,22 +923,22 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D21">
-        <v>34.90972897873432</v>
+        <v>3901.839430486166</v>
       </c>
       <c r="E21">
-        <v>451.576395645401</v>
+        <v>5301.839430486166</v>
       </c>
       <c r="F21">
-        <v>9097.199680293759</v>
+        <v>108420.549033493</v>
       </c>
       <c r="G21">
-        <v>763.8663469604244</v>
+        <v>80420.54903349301</v>
       </c>
       <c r="H21">
-        <v>41666.66666666672</v>
+        <v>434000</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -949,22 +949,22 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D22">
-        <v>34.56408809775676</v>
+        <v>3889.293322992642</v>
       </c>
       <c r="E22">
-        <v>451.2307547644235</v>
+        <v>5289.293322992642</v>
       </c>
       <c r="F22">
-        <v>9548.430435058182</v>
+        <v>113709.8423564856</v>
       </c>
       <c r="G22">
-        <v>798.4304350581812</v>
+        <v>84309.84235648565</v>
       </c>
       <c r="H22">
-        <v>41250.00000000005</v>
+        <v>432600</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -975,22 +975,22 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D23">
-        <v>34.21844721677919</v>
+        <v>3876.747215499117</v>
       </c>
       <c r="E23">
-        <v>450.8851138834459</v>
+        <v>5276.747215499117</v>
       </c>
       <c r="F23">
-        <v>9999.315548941628</v>
+        <v>118986.5895719848</v>
       </c>
       <c r="G23">
-        <v>832.6488822749603</v>
+        <v>88186.58957198476</v>
       </c>
       <c r="H23">
-        <v>40833.33333333339</v>
+        <v>431200</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1001,22 +1001,22 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D24">
-        <v>33.87280633580162</v>
+        <v>3864.201108005592</v>
       </c>
       <c r="E24">
-        <v>450.5394730024683</v>
+        <v>5264.201108005593</v>
       </c>
       <c r="F24">
-        <v>10449.8550219441</v>
+        <v>124250.7906799904</v>
       </c>
       <c r="G24">
-        <v>866.521688610762</v>
+        <v>92050.79067999036</v>
       </c>
       <c r="H24">
-        <v>40416.66666666672</v>
+        <v>429800</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1027,22 +1027,22 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D25">
-        <v>33.52716545482405</v>
+        <v>3851.655000512068</v>
       </c>
       <c r="E25">
-        <v>450.1938321214907</v>
+        <v>5251.655000512068</v>
       </c>
       <c r="F25">
-        <v>10900.04885406559</v>
+        <v>129502.4456805024</v>
       </c>
       <c r="G25">
-        <v>900.0488540655861</v>
+        <v>95902.44568050242</v>
       </c>
       <c r="H25">
-        <v>40000.00000000006</v>
+        <v>428400</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1053,22 +1053,22 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D26">
-        <v>33.18152457384649</v>
+        <v>3839.108893018543</v>
       </c>
       <c r="E26">
-        <v>449.8481912405132</v>
+        <v>5239.108893018543</v>
       </c>
       <c r="F26">
-        <v>11349.8970453061</v>
+        <v>134741.554573521</v>
       </c>
       <c r="G26">
-        <v>933.2303786394325</v>
+        <v>99741.55457352096</v>
       </c>
       <c r="H26">
-        <v>39583.33333333339</v>
+        <v>427000</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1079,22 +1079,22 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D27">
-        <v>32.83588369286893</v>
+        <v>3826.562785525018</v>
       </c>
       <c r="E27">
-        <v>449.5025503595356</v>
+        <v>5226.562785525019</v>
       </c>
       <c r="F27">
-        <v>11799.39959566564</v>
+        <v>139968.117359046</v>
       </c>
       <c r="G27">
-        <v>966.0662623323014</v>
+        <v>103568.117359046</v>
       </c>
       <c r="H27">
-        <v>39166.66666666673</v>
+        <v>425600</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1105,22 +1105,22 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D28">
-        <v>32.49024281189136</v>
+        <v>3814.016678031493</v>
       </c>
       <c r="E28">
-        <v>449.156909478558</v>
+        <v>5214.016678031494</v>
       </c>
       <c r="F28">
-        <v>12248.55650514419</v>
+        <v>145182.1340370775</v>
       </c>
       <c r="G28">
-        <v>998.5565051441928</v>
+        <v>107382.1340370775</v>
       </c>
       <c r="H28">
-        <v>38750.00000000007</v>
+        <v>424200</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1131,22 +1131,22 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D29">
-        <v>32.14460193091379</v>
+        <v>3801.470570537969</v>
       </c>
       <c r="E29">
-        <v>448.8112685975805</v>
+        <v>5201.470570537969</v>
       </c>
       <c r="F29">
-        <v>12697.36777374177</v>
+        <v>150383.6046076154</v>
       </c>
       <c r="G29">
-        <v>1030.701107075107</v>
+        <v>111183.6046076154</v>
       </c>
       <c r="H29">
-        <v>38333.3333333334</v>
+        <v>422800</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1157,22 +1157,22 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D30">
-        <v>31.79896104993622</v>
+        <v>3788.924463044444</v>
       </c>
       <c r="E30">
-        <v>448.4656277166029</v>
+        <v>5188.924463044445</v>
       </c>
       <c r="F30">
-        <v>13145.83340145838</v>
+        <v>155572.5290706599</v>
       </c>
       <c r="G30">
-        <v>1062.500068125043</v>
+        <v>114972.5290706599</v>
       </c>
       <c r="H30">
-        <v>37916.66666666674</v>
+        <v>421400</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1183,22 +1183,22 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D31">
-        <v>31.45332016895865</v>
+        <v>3776.378355550919</v>
       </c>
       <c r="E31">
-        <v>448.1199868356254</v>
+        <v>5176.37835555092</v>
       </c>
       <c r="F31">
-        <v>13593.953388294</v>
+        <v>160748.9074262108</v>
       </c>
       <c r="G31">
-        <v>1093.953388294002</v>
+        <v>118748.9074262108</v>
       </c>
       <c r="H31">
-        <v>37500.00000000007</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1209,22 +1209,22 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D32">
-        <v>31.10767928798108</v>
+        <v>3763.832248057395</v>
       </c>
       <c r="E32">
-        <v>447.7743459546477</v>
+        <v>5163.832248057395</v>
       </c>
       <c r="F32">
-        <v>14041.72773424865</v>
+        <v>165912.7396742682</v>
       </c>
       <c r="G32">
-        <v>1125.061067581983</v>
+        <v>122512.7396742682</v>
       </c>
       <c r="H32">
-        <v>37083.33333333341</v>
+        <v>418600</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1235,22 +1235,22 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D33">
-        <v>30.76203840700352</v>
+        <v>3751.28614056387</v>
       </c>
       <c r="E33">
-        <v>447.4287050736702</v>
+        <v>5151.286140563871</v>
       </c>
       <c r="F33">
-        <v>14489.15643932232</v>
+        <v>171064.0258148321</v>
       </c>
       <c r="G33">
-        <v>1155.823105988986</v>
+        <v>126264.0258148321</v>
       </c>
       <c r="H33">
-        <v>36666.66666666674</v>
+        <v>417200</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1261,22 +1261,22 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D34">
-        <v>30.41639752602595</v>
+        <v>3738.740033070346</v>
       </c>
       <c r="E34">
-        <v>447.0830641926926</v>
+        <v>5138.740033070346</v>
       </c>
       <c r="F34">
-        <v>14936.23950351501</v>
+        <v>176202.7658479024</v>
       </c>
       <c r="G34">
-        <v>1186.239503515012</v>
+        <v>130002.7658479024</v>
       </c>
       <c r="H34">
-        <v>36250.00000000008</v>
+        <v>415800</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1287,22 +1287,22 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D35">
-        <v>30.07075664504839</v>
+        <v>3726.193925576821</v>
       </c>
       <c r="E35">
-        <v>446.7374233117151</v>
+        <v>5126.193925576821</v>
       </c>
       <c r="F35">
-        <v>15382.97692682673</v>
+        <v>181328.9597734792</v>
       </c>
       <c r="G35">
-        <v>1216.31026016006</v>
+        <v>133728.9597734792</v>
       </c>
       <c r="H35">
-        <v>35833.33333333342</v>
+        <v>414400</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1313,22 +1313,22 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D36">
-        <v>29.72511576407082</v>
+        <v>3713.647818083296</v>
       </c>
       <c r="E36">
-        <v>446.3917824307375</v>
+        <v>5113.647818083296</v>
       </c>
       <c r="F36">
-        <v>15829.36870925747</v>
+        <v>186442.6075915625</v>
       </c>
       <c r="G36">
-        <v>1246.035375924131</v>
+        <v>137442.6075915625</v>
       </c>
       <c r="H36">
-        <v>35416.66666666675</v>
+        <v>413000</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1339,22 +1339,22 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D37">
-        <v>29.37947488309325</v>
+        <v>3701.101710589772</v>
       </c>
       <c r="E37">
-        <v>446.0461415497599</v>
+        <v>5101.101710589772</v>
       </c>
       <c r="F37">
-        <v>16275.41485080722</v>
+        <v>191543.7093021523</v>
       </c>
       <c r="G37">
-        <v>1275.414850807224</v>
+        <v>141143.7093021523</v>
       </c>
       <c r="H37">
-        <v>35000.00000000009</v>
+        <v>411600</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1365,22 +1365,22 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D38">
-        <v>29.03383400211568</v>
+        <v>3688.555603096247</v>
       </c>
       <c r="E38">
-        <v>445.7005006687824</v>
+        <v>5088.555603096247</v>
       </c>
       <c r="F38">
-        <v>16721.11535147601</v>
+        <v>196632.2649052485</v>
       </c>
       <c r="G38">
-        <v>1304.44868480934</v>
+        <v>144832.2649052485</v>
       </c>
       <c r="H38">
-        <v>34583.33333333342</v>
+        <v>410200</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1391,22 +1391,22 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D39">
-        <v>28.68819312113812</v>
+        <v>3676.009495602722</v>
       </c>
       <c r="E39">
-        <v>445.3548597878048</v>
+        <v>5076.009495602722</v>
       </c>
       <c r="F39">
-        <v>17166.47021126381</v>
+        <v>201708.2744008513</v>
       </c>
       <c r="G39">
-        <v>1333.136877930478</v>
+        <v>148508.2744008513</v>
       </c>
       <c r="H39">
-        <v>34166.66666666676</v>
+        <v>408800</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1417,22 +1417,22 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D40">
-        <v>28.34255224016055</v>
+        <v>3663.463388109198</v>
       </c>
       <c r="E40">
-        <v>445.0092189068272</v>
+        <v>5063.463388109198</v>
       </c>
       <c r="F40">
-        <v>17611.47943017064</v>
+        <v>206771.7377889605</v>
       </c>
       <c r="G40">
-        <v>1361.479430170639</v>
+        <v>152171.7377889605</v>
       </c>
       <c r="H40">
-        <v>33750.00000000009</v>
+        <v>407400</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1443,22 +1443,22 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D41">
-        <v>27.99691135918298</v>
+        <v>3650.917280615673</v>
       </c>
       <c r="E41">
-        <v>444.6635780258497</v>
+        <v>5050.917280615673</v>
       </c>
       <c r="F41">
-        <v>18056.14300819649</v>
+        <v>211822.6550695761</v>
       </c>
       <c r="G41">
-        <v>1389.476341529822</v>
+        <v>155822.6550695761</v>
       </c>
       <c r="H41">
-        <v>33333.33333333343</v>
+        <v>406000</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1469,22 +1469,22 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D42">
-        <v>27.65127047820542</v>
+        <v>3638.371173122148</v>
       </c>
       <c r="E42">
-        <v>444.3179371448721</v>
+        <v>5038.371173122148</v>
       </c>
       <c r="F42">
-        <v>18500.46094534136</v>
+        <v>216861.0262426983</v>
       </c>
       <c r="G42">
-        <v>1417.127612008027</v>
+        <v>159461.0262426983</v>
       </c>
       <c r="H42">
-        <v>32916.66666666677</v>
+        <v>404600</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1495,22 +1495,22 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D43">
-        <v>27.30562959722784</v>
+        <v>3625.825065628624</v>
       </c>
       <c r="E43">
-        <v>443.9722962638945</v>
+        <v>5025.825065628624</v>
       </c>
       <c r="F43">
-        <v>18944.43324160526</v>
+        <v>221886.8513083269</v>
       </c>
       <c r="G43">
-        <v>1444.433241605255</v>
+        <v>163086.8513083269</v>
       </c>
       <c r="H43">
-        <v>32500.0000000001</v>
+        <v>403200</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1521,22 +1521,22 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D44">
-        <v>26.95998871625028</v>
+        <v>3613.278958135099</v>
       </c>
       <c r="E44">
-        <v>443.626655382917</v>
+        <v>5013.278958135099</v>
       </c>
       <c r="F44">
-        <v>19388.05989698817</v>
+        <v>226900.130266462</v>
       </c>
       <c r="G44">
-        <v>1471.393230321505</v>
+        <v>166700.130266462</v>
       </c>
       <c r="H44">
-        <v>32083.33333333343</v>
+        <v>401800</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1547,22 +1547,22 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D45">
-        <v>26.61434783527271</v>
+        <v>3600.732850641574</v>
       </c>
       <c r="E45">
-        <v>443.2810145019394</v>
+        <v>5000.732850641574</v>
       </c>
       <c r="F45">
-        <v>19831.34091149011</v>
+        <v>231900.8631171036</v>
       </c>
       <c r="G45">
-        <v>1498.007578156778</v>
+        <v>170300.8631171036</v>
       </c>
       <c r="H45">
-        <v>31666.66666666676</v>
+        <v>400400</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1573,22 +1573,22 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D46">
-        <v>26.26870695429514</v>
+        <v>3588.18674314805</v>
       </c>
       <c r="E46">
-        <v>442.9353736209619</v>
+        <v>4988.18674314805</v>
       </c>
       <c r="F46">
-        <v>20274.27628511107</v>
+        <v>236889.0498602516</v>
       </c>
       <c r="G46">
-        <v>1524.276285111073</v>
+        <v>173889.0498602516</v>
       </c>
       <c r="H46">
-        <v>31250.00000000009</v>
+        <v>399000</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1599,22 +1599,22 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D47">
-        <v>25.92306607331757</v>
+        <v>3575.640635654525</v>
       </c>
       <c r="E47">
-        <v>442.5897327399842</v>
+        <v>4975.640635654525</v>
       </c>
       <c r="F47">
-        <v>20716.86601785106</v>
+        <v>241864.6904959062</v>
       </c>
       <c r="G47">
-        <v>1550.199351184391</v>
+        <v>177464.6904959062</v>
       </c>
       <c r="H47">
-        <v>30833.33333333343</v>
+        <v>397600</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1625,22 +1625,22 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D48">
-        <v>25.57742519234</v>
+        <v>3563.094528161001</v>
       </c>
       <c r="E48">
-        <v>442.2440918590067</v>
+        <v>4963.094528161</v>
       </c>
       <c r="F48">
-        <v>21159.11010971007</v>
+        <v>246827.7850240672</v>
       </c>
       <c r="G48">
-        <v>1575.776776376731</v>
+        <v>181027.7850240672</v>
       </c>
       <c r="H48">
-        <v>30416.66666666676</v>
+        <v>396200</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1651,22 +1651,22 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D49">
-        <v>25.23178431136244</v>
+        <v>3550.548420667476</v>
       </c>
       <c r="E49">
-        <v>441.8984509780291</v>
+        <v>4950.548420667476</v>
       </c>
       <c r="F49">
-        <v>21601.00856068809</v>
+        <v>251778.3334447346</v>
       </c>
       <c r="G49">
-        <v>1601.008560688093</v>
+        <v>184578.3334447346</v>
       </c>
       <c r="H49">
-        <v>30000.00000000009</v>
+        <v>394800</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1677,22 +1677,22 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D50">
-        <v>24.88614343038487</v>
+        <v>3538.002313173951</v>
       </c>
       <c r="E50">
-        <v>441.5528100970516</v>
+        <v>4938.002313173951</v>
       </c>
       <c r="F50">
-        <v>22042.56137078514</v>
+        <v>256716.3357579086</v>
       </c>
       <c r="G50">
-        <v>1625.894704118478</v>
+        <v>188116.3357579086</v>
       </c>
       <c r="H50">
-        <v>29583.33333333342</v>
+        <v>393400</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1703,22 +1703,22 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D51">
-        <v>24.5405025494073</v>
+        <v>3525.456205680427</v>
       </c>
       <c r="E51">
-        <v>441.207169216074</v>
+        <v>4925.456205680426</v>
       </c>
       <c r="F51">
-        <v>22483.76854000122</v>
+        <v>261641.791963589</v>
       </c>
       <c r="G51">
-        <v>1650.435206667885</v>
+        <v>191641.791963589</v>
       </c>
       <c r="H51">
-        <v>29166.66666666676</v>
+        <v>392000</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1729,22 +1729,22 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D52">
-        <v>24.19486166842973</v>
+        <v>3512.910098186902</v>
       </c>
       <c r="E52">
-        <v>440.8615283350964</v>
+        <v>4912.910098186901</v>
       </c>
       <c r="F52">
-        <v>22924.63006833632</v>
+        <v>266554.7020617759</v>
       </c>
       <c r="G52">
-        <v>1674.630068336315</v>
+        <v>195154.7020617759</v>
       </c>
       <c r="H52">
-        <v>28750.00000000009</v>
+        <v>390600</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1755,22 +1755,22 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D53">
-        <v>23.84922078745216</v>
+        <v>3500.363990693377</v>
       </c>
       <c r="E53">
-        <v>440.5158874541189</v>
+        <v>4900.363990693377</v>
       </c>
       <c r="F53">
-        <v>23365.14595579043</v>
+        <v>271455.0660524693</v>
       </c>
       <c r="G53">
-        <v>1698.479289123767</v>
+        <v>198655.0660524693</v>
       </c>
       <c r="H53">
-        <v>28333.33333333342</v>
+        <v>389200</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1781,22 +1781,22 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D54">
-        <v>23.50357990647459</v>
+        <v>3487.817883199853</v>
       </c>
       <c r="E54">
-        <v>440.1702465731413</v>
+        <v>4887.817883199852</v>
       </c>
       <c r="F54">
-        <v>23805.31620236357</v>
+        <v>276342.8839356691</v>
       </c>
       <c r="G54">
-        <v>1721.982869030242</v>
+        <v>202142.8839356691</v>
       </c>
       <c r="H54">
-        <v>27916.66666666675</v>
+        <v>387800</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1807,22 +1807,22 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D55">
-        <v>23.15793902549702</v>
+        <v>3475.271775706328</v>
       </c>
       <c r="E55">
-        <v>439.8246056921637</v>
+        <v>4875.271775706327</v>
       </c>
       <c r="F55">
-        <v>24245.14080805574</v>
+        <v>281218.1557113754</v>
       </c>
       <c r="G55">
-        <v>1745.140808055739</v>
+        <v>205618.1557113755</v>
       </c>
       <c r="H55">
-        <v>27500.00000000008</v>
+        <v>386400</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1833,22 +1833,22 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D56">
-        <v>22.81229814451946</v>
+        <v>3462.725668212803</v>
       </c>
       <c r="E56">
-        <v>439.4789648111861</v>
+        <v>4862.725668212803</v>
       </c>
       <c r="F56">
-        <v>24684.61977286692</v>
+        <v>286080.8813795882</v>
       </c>
       <c r="G56">
-        <v>1767.953106200258</v>
+        <v>209080.8813795883</v>
       </c>
       <c r="H56">
-        <v>27083.33333333342</v>
+        <v>385000</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1859,22 +1859,22 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D57">
-        <v>22.46665726354189</v>
+        <v>3450.179560719278</v>
       </c>
       <c r="E57">
-        <v>439.1333239302086</v>
+        <v>4850.179560719278</v>
       </c>
       <c r="F57">
-        <v>25123.75309679713</v>
+        <v>290931.0609403075</v>
       </c>
       <c r="G57">
-        <v>1790.4197634638</v>
+        <v>212531.0609403076</v>
       </c>
       <c r="H57">
-        <v>26666.66666666675</v>
+        <v>383600</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1885,22 +1885,22 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D58">
-        <v>22.12101638256432</v>
+        <v>3437.633453225754</v>
       </c>
       <c r="E58">
-        <v>438.787683049231</v>
+        <v>4837.633453225754</v>
       </c>
       <c r="F58">
-        <v>25562.54077984636</v>
+        <v>295768.6943935333</v>
       </c>
       <c r="G58">
-        <v>1812.540779846364</v>
+        <v>215968.6943935333</v>
       </c>
       <c r="H58">
-        <v>26250.00000000008</v>
+        <v>382200</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1911,22 +1911,22 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D59">
-        <v>21.77537550158675</v>
+        <v>3425.08734573223</v>
       </c>
       <c r="E59">
-        <v>438.4420421682534</v>
+        <v>4825.08734573223</v>
       </c>
       <c r="F59">
-        <v>26000.98282201462</v>
+        <v>300593.7817392655</v>
       </c>
       <c r="G59">
-        <v>1834.316155347951</v>
+        <v>219393.7817392655</v>
       </c>
       <c r="H59">
-        <v>25833.33333333341</v>
+        <v>380800</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1937,22 +1937,22 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D60">
-        <v>21.42973462060918</v>
+        <v>3412.541238238705</v>
       </c>
       <c r="E60">
-        <v>438.0964012872759</v>
+        <v>4812.541238238705</v>
       </c>
       <c r="F60">
-        <v>26439.07922330189</v>
+        <v>305406.3229775042</v>
       </c>
       <c r="G60">
-        <v>1855.74588996856</v>
+        <v>222806.3229775043</v>
       </c>
       <c r="H60">
-        <v>25416.66666666674</v>
+        <v>379400</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1963,22 +1963,22 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D61">
-        <v>21.08409373963161</v>
+        <v>3399.99513074518</v>
       </c>
       <c r="E61">
-        <v>437.7507604062983</v>
+        <v>4799.99513074518</v>
       </c>
       <c r="F61">
-        <v>26876.82998370819</v>
+        <v>310206.3181082493</v>
       </c>
       <c r="G61">
-        <v>1876.829983708192</v>
+        <v>226206.3181082494</v>
       </c>
       <c r="H61">
-        <v>25000.00000000008</v>
+        <v>378000</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1989,22 +1989,22 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D62">
-        <v>20.73845285865404</v>
+        <v>3387.449023251655</v>
       </c>
       <c r="E62">
-        <v>437.4051195253207</v>
+        <v>4787.449023251655</v>
       </c>
       <c r="F62">
-        <v>27314.23510323351</v>
+        <v>314993.767131501</v>
       </c>
       <c r="G62">
-        <v>1897.568436566846</v>
+        <v>229593.7671315011</v>
       </c>
       <c r="H62">
-        <v>24583.33333333341</v>
+        <v>376600</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2015,22 +2015,22 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D63">
-        <v>20.39281197767647</v>
+        <v>3374.902915758131</v>
       </c>
       <c r="E63">
-        <v>437.0594786443431</v>
+        <v>4774.902915758131</v>
       </c>
       <c r="F63">
-        <v>27751.29458187785</v>
+        <v>319768.6700472591</v>
       </c>
       <c r="G63">
-        <v>1917.961248544522</v>
+        <v>232968.6700472592</v>
       </c>
       <c r="H63">
-        <v>24166.66666666674</v>
+        <v>375200</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2041,22 +2041,22 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D64">
-        <v>20.04717109669891</v>
+        <v>3362.356808264606</v>
       </c>
       <c r="E64">
-        <v>436.7138377633656</v>
+        <v>4762.356808264606</v>
       </c>
       <c r="F64">
-        <v>28188.00841964122</v>
+        <v>324531.0268555238</v>
       </c>
       <c r="G64">
-        <v>1938.008419641221</v>
+        <v>236331.0268555238</v>
       </c>
       <c r="H64">
-        <v>23750.00000000007</v>
+        <v>373800</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2067,22 +2067,22 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D65">
-        <v>19.70153021572134</v>
+        <v>3349.810700771081</v>
       </c>
       <c r="E65">
-        <v>436.368196882388</v>
+        <v>4749.810700771081</v>
       </c>
       <c r="F65">
-        <v>28624.37661652361</v>
+        <v>329280.8375562949</v>
       </c>
       <c r="G65">
-        <v>1957.709949856943</v>
+        <v>239680.8375562949</v>
       </c>
       <c r="H65">
-        <v>23333.3333333334</v>
+        <v>372400</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2093,22 +2093,22 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D66">
-        <v>19.35588933474377</v>
+        <v>3337.264593277557</v>
       </c>
       <c r="E66">
-        <v>436.0225560014105</v>
+        <v>4737.264593277557</v>
       </c>
       <c r="F66">
-        <v>29060.39917252502</v>
+        <v>334018.1021495724</v>
       </c>
       <c r="G66">
-        <v>1977.065839191686</v>
+        <v>243018.1021495725</v>
       </c>
       <c r="H66">
-        <v>22916.66666666674</v>
+        <v>371000</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2119,22 +2119,22 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D67">
-        <v>19.0102484537662</v>
+        <v>3324.718485784032</v>
       </c>
       <c r="E67">
-        <v>435.6769151204329</v>
+        <v>4724.718485784032</v>
       </c>
       <c r="F67">
-        <v>29496.07608764545</v>
+        <v>338742.8206353564</v>
       </c>
       <c r="G67">
-        <v>1996.076087645453</v>
+        <v>246342.8206353565</v>
       </c>
       <c r="H67">
-        <v>22500.00000000007</v>
+        <v>369600</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2145,22 +2145,22 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D68">
-        <v>18.66460757278863</v>
+        <v>3312.172378290507</v>
       </c>
       <c r="E68">
-        <v>435.3312742394553</v>
+        <v>4712.172378290507</v>
       </c>
       <c r="F68">
-        <v>29931.40736188491</v>
+        <v>343454.9930136469</v>
       </c>
       <c r="G68">
-        <v>2014.740695218241</v>
+        <v>249654.993013647</v>
       </c>
       <c r="H68">
-        <v>22083.3333333334</v>
+        <v>368200</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2171,22 +2171,22 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D69">
-        <v>18.31896669181106</v>
+        <v>3299.626270796983</v>
       </c>
       <c r="E69">
-        <v>434.9856333584777</v>
+        <v>4699.626270796983</v>
       </c>
       <c r="F69">
-        <v>30366.39299524339</v>
+        <v>348154.6192844439</v>
       </c>
       <c r="G69">
-        <v>2033.059661910052</v>
+        <v>252954.619284444</v>
       </c>
       <c r="H69">
-        <v>21666.66666666673</v>
+        <v>366800</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2197,22 +2197,22 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D70">
-        <v>17.97332581083349</v>
+        <v>3287.080163303458</v>
       </c>
       <c r="E70">
-        <v>434.6399924775002</v>
+        <v>4687.080163303459</v>
       </c>
       <c r="F70">
-        <v>30801.03298772089</v>
+        <v>352841.6994477474</v>
       </c>
       <c r="G70">
-        <v>2051.032987720886</v>
+        <v>256241.6994477474</v>
       </c>
       <c r="H70">
-        <v>21250.00000000007</v>
+        <v>365400</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2223,22 +2223,22 @@
         <v>70</v>
       </c>
       <c r="C71">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D71">
-        <v>17.62768492985592</v>
+        <v>3274.534055809934</v>
       </c>
       <c r="E71">
-        <v>434.2943515965226</v>
+        <v>4674.534055809934</v>
       </c>
       <c r="F71">
-        <v>31235.32733931741</v>
+        <v>357516.2335035573</v>
       </c>
       <c r="G71">
-        <v>2068.660672650742</v>
+        <v>259516.2335035574</v>
       </c>
       <c r="H71">
-        <v>20833.3333333334</v>
+        <v>364000</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2249,22 +2249,22 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D72">
-        <v>17.28204404887836</v>
+        <v>3261.987948316409</v>
       </c>
       <c r="E72">
-        <v>433.948710715545</v>
+        <v>4661.98794831641</v>
       </c>
       <c r="F72">
-        <v>31669.27605003295</v>
+        <v>362178.2214518737</v>
       </c>
       <c r="G72">
-        <v>2085.94271669962</v>
+        <v>262778.2214518738</v>
       </c>
       <c r="H72">
-        <v>20416.66666666673</v>
+        <v>362600</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2275,22 +2275,22 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D73">
-        <v>16.93640316790079</v>
+        <v>3249.441840822884</v>
       </c>
       <c r="E73">
-        <v>433.6030698345675</v>
+        <v>4649.441840822885</v>
       </c>
       <c r="F73">
-        <v>32102.87911986752</v>
+        <v>366827.6632926966</v>
       </c>
       <c r="G73">
-        <v>2102.879119867521</v>
+        <v>266027.6632926966</v>
       </c>
       <c r="H73">
-        <v>20000.00000000006</v>
+        <v>361200</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2301,22 +2301,22 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D74">
-        <v>16.59076228692322</v>
+        <v>3236.89573332936</v>
       </c>
       <c r="E74">
-        <v>433.2574289535899</v>
+        <v>4636.89573332936</v>
       </c>
       <c r="F74">
-        <v>32536.13654882111</v>
+        <v>371464.5590260259</v>
       </c>
       <c r="G74">
-        <v>2119.469882154444</v>
+        <v>269264.559026026</v>
       </c>
       <c r="H74">
-        <v>19583.33333333339</v>
+        <v>359800</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2327,22 +2327,22 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D75">
-        <v>16.24512140594565</v>
+        <v>3224.349625835835</v>
       </c>
       <c r="E75">
-        <v>432.9117880726124</v>
+        <v>4624.349625835835</v>
       </c>
       <c r="F75">
-        <v>32969.04833689373</v>
+        <v>376088.9086518618</v>
       </c>
       <c r="G75">
-        <v>2135.71500356039</v>
+        <v>272488.9086518618</v>
       </c>
       <c r="H75">
-        <v>19166.66666666673</v>
+        <v>358400</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2353,22 +2353,22 @@
         <v>75</v>
       </c>
       <c r="C76">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D76">
-        <v>15.89948052496808</v>
+        <v>3211.80351834231</v>
       </c>
       <c r="E76">
-        <v>432.5661471916347</v>
+        <v>4611.803518342311</v>
       </c>
       <c r="F76">
-        <v>33401.61448408536</v>
+        <v>380700.7121702041</v>
       </c>
       <c r="G76">
-        <v>2151.614484085358</v>
+        <v>275700.7121702041</v>
       </c>
       <c r="H76">
-        <v>18750.00000000006</v>
+        <v>357000</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2379,22 +2379,22 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D77">
-        <v>15.55383964399051</v>
+        <v>3199.257410848786</v>
       </c>
       <c r="E77">
-        <v>432.2205063106572</v>
+        <v>4599.257410848786</v>
       </c>
       <c r="F77">
-        <v>33833.83499039602</v>
+        <v>385299.9695810529</v>
       </c>
       <c r="G77">
-        <v>2167.168323729348</v>
+        <v>278899.969581053</v>
       </c>
       <c r="H77">
-        <v>18333.33333333339</v>
+        <v>355600</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2405,22 +2405,22 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D78">
-        <v>15.20819876301294</v>
+        <v>3186.711303355261</v>
       </c>
       <c r="E78">
-        <v>431.8748654296796</v>
+        <v>4586.711303355261</v>
       </c>
       <c r="F78">
-        <v>34265.7098558257</v>
+        <v>389886.6808844082</v>
       </c>
       <c r="G78">
-        <v>2182.376522492361</v>
+        <v>282086.6808844082</v>
       </c>
       <c r="H78">
-        <v>17916.66666666672</v>
+        <v>354200</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2431,22 +2431,22 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D79">
-        <v>14.86255788203538</v>
+        <v>3174.165195861736</v>
       </c>
       <c r="E79">
-        <v>431.5292245487021</v>
+        <v>4574.165195861737</v>
       </c>
       <c r="F79">
-        <v>34697.2390803744</v>
+        <v>394460.8460802699</v>
       </c>
       <c r="G79">
-        <v>2197.239080374397</v>
+        <v>285260.84608027</v>
       </c>
       <c r="H79">
-        <v>17500.00000000005</v>
+        <v>352800</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2457,22 +2457,22 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D80">
-        <v>14.51691700105781</v>
+        <v>3161.619088368212</v>
       </c>
       <c r="E80">
-        <v>431.1835836677245</v>
+        <v>4561.619088368212</v>
       </c>
       <c r="F80">
-        <v>35128.42266404213</v>
+        <v>399022.4651686381</v>
       </c>
       <c r="G80">
-        <v>2211.755997375454</v>
+        <v>288422.4651686382</v>
       </c>
       <c r="H80">
-        <v>17083.33333333339</v>
+        <v>351400</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2483,22 +2483,22 @@
         <v>80</v>
       </c>
       <c r="C81">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D81">
-        <v>14.17127612008024</v>
+        <v>3149.072980874687</v>
       </c>
       <c r="E81">
-        <v>430.8379427867469</v>
+        <v>4549.072980874687</v>
       </c>
       <c r="F81">
-        <v>35559.26060682887</v>
+        <v>403571.5381495128</v>
       </c>
       <c r="G81">
-        <v>2225.927273495534</v>
+        <v>291571.5381495128</v>
       </c>
       <c r="H81">
-        <v>16666.66666666672</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2509,22 +2509,22 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D82">
-        <v>13.82563523910268</v>
+        <v>3136.526873381162</v>
       </c>
       <c r="E82">
-        <v>430.4923019057694</v>
+        <v>4536.526873381163</v>
       </c>
       <c r="F82">
-        <v>35989.75290873464</v>
+        <v>408108.0650228939</v>
       </c>
       <c r="G82">
-        <v>2239.752908734637</v>
+        <v>294708.065022894</v>
       </c>
       <c r="H82">
-        <v>16250.00000000005</v>
+        <v>348600</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2535,22 +2535,22 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D83">
-        <v>13.47999435812511</v>
+        <v>3123.980765887638</v>
       </c>
       <c r="E83">
-        <v>430.1466610247918</v>
+        <v>4523.980765887638</v>
       </c>
       <c r="F83">
-        <v>36419.89956975944</v>
+        <v>412632.0457887816</v>
       </c>
       <c r="G83">
-        <v>2253.232903092762</v>
+        <v>297832.0457887817</v>
       </c>
       <c r="H83">
-        <v>15833.33333333339</v>
+        <v>347200</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2561,22 +2561,22 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D84">
-        <v>13.13435347714755</v>
+        <v>3111.434658394113</v>
       </c>
       <c r="E84">
-        <v>429.8010201438142</v>
+        <v>4511.434658394113</v>
       </c>
       <c r="F84">
-        <v>36849.70058990325</v>
+        <v>417143.4804471757</v>
       </c>
       <c r="G84">
-        <v>2266.36725656991</v>
+        <v>300943.4804471758</v>
       </c>
       <c r="H84">
-        <v>15416.66666666672</v>
+        <v>345800</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2587,22 +2587,22 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D85">
-        <v>12.78871259616998</v>
+        <v>3098.888550900589</v>
       </c>
       <c r="E85">
-        <v>429.4553792628367</v>
+        <v>4498.888550900589</v>
       </c>
       <c r="F85">
-        <v>37279.15596916609</v>
+        <v>421642.3689980763</v>
       </c>
       <c r="G85">
-        <v>2279.15596916608</v>
+        <v>304042.3689980764</v>
       </c>
       <c r="H85">
-        <v>15000.00000000005</v>
+        <v>344400</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2613,22 +2613,22 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D86">
-        <v>12.44307171519242</v>
+        <v>3086.342443407064</v>
       </c>
       <c r="E86">
-        <v>429.1097383818591</v>
+        <v>4486.342443407064</v>
       </c>
       <c r="F86">
-        <v>37708.26570754794</v>
+        <v>426128.7114414833</v>
       </c>
       <c r="G86">
-        <v>2291.599040881272</v>
+        <v>307128.7114414834</v>
       </c>
       <c r="H86">
-        <v>14583.33333333339</v>
+        <v>343000</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2639,22 +2639,22 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D87">
-        <v>12.09743083421485</v>
+        <v>3073.796335913539</v>
       </c>
       <c r="E87">
-        <v>428.7640975008815</v>
+        <v>4473.796335913539</v>
       </c>
       <c r="F87">
-        <v>38137.02980504883</v>
+        <v>430602.5077773969</v>
       </c>
       <c r="G87">
-        <v>2303.696471715487</v>
+        <v>310202.5077773969</v>
       </c>
       <c r="H87">
-        <v>14166.66666666672</v>
+        <v>341600</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2665,22 +2665,22 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D88">
-        <v>11.75178995323728</v>
+        <v>3061.250228420015</v>
       </c>
       <c r="E88">
-        <v>428.418456619904</v>
+        <v>4461.250228420015</v>
       </c>
       <c r="F88">
-        <v>38565.44826166873</v>
+        <v>435063.7580058169</v>
       </c>
       <c r="G88">
-        <v>2315.448261668724</v>
+        <v>313263.758005817</v>
       </c>
       <c r="H88">
-        <v>13750.00000000006</v>
+        <v>340200</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2691,22 +2691,22 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D89">
-        <v>11.40614907225972</v>
+        <v>3048.70412092649</v>
       </c>
       <c r="E89">
-        <v>428.0728157389264</v>
+        <v>4448.70412092649</v>
       </c>
       <c r="F89">
-        <v>38993.52107740765</v>
+        <v>439512.4621267434</v>
       </c>
       <c r="G89">
-        <v>2326.854410740984</v>
+        <v>316312.4621267435</v>
       </c>
       <c r="H89">
-        <v>13333.33333333339</v>
+        <v>338800</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2717,22 +2717,22 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D90">
-        <v>11.06050819128215</v>
+        <v>3036.158013432965</v>
       </c>
       <c r="E90">
-        <v>427.7271748579489</v>
+        <v>4436.158013432965</v>
       </c>
       <c r="F90">
-        <v>39421.24825226561</v>
+        <v>443948.6201401764</v>
       </c>
       <c r="G90">
-        <v>2337.914918932266</v>
+        <v>319348.6201401764</v>
       </c>
       <c r="H90">
-        <v>12916.66666666672</v>
+        <v>337400</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2743,22 +2743,22 @@
         <v>90</v>
       </c>
       <c r="C91">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D91">
-        <v>10.71486731030459</v>
+        <v>3023.61190593944</v>
       </c>
       <c r="E91">
-        <v>427.3815339769713</v>
+        <v>4423.61190593944</v>
       </c>
       <c r="F91">
-        <v>39848.62978624258</v>
+        <v>448372.2320461158</v>
       </c>
       <c r="G91">
-        <v>2348.629786242571</v>
+        <v>322372.2320461159</v>
       </c>
       <c r="H91">
-        <v>12500.00000000006</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2769,22 +2769,22 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D92">
-        <v>10.36922642932702</v>
+        <v>3011.065798445916</v>
       </c>
       <c r="E92">
-        <v>427.0358930959937</v>
+        <v>4411.065798445916</v>
       </c>
       <c r="F92">
-        <v>40275.66567933857</v>
+        <v>452783.2978445617</v>
       </c>
       <c r="G92">
-        <v>2358.999012671898</v>
+        <v>325383.2978445618</v>
       </c>
       <c r="H92">
-        <v>12083.33333333339</v>
+        <v>334600</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2795,22 +2795,22 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D93">
-        <v>10.02358554834946</v>
+        <v>2998.519690952391</v>
       </c>
       <c r="E93">
-        <v>426.6902522150161</v>
+        <v>4398.519690952391</v>
       </c>
       <c r="F93">
-        <v>40702.35593155359</v>
+        <v>457181.8175355141</v>
       </c>
       <c r="G93">
-        <v>2369.022598220247</v>
+        <v>328381.8175355142</v>
       </c>
       <c r="H93">
-        <v>11666.66666666673</v>
+        <v>333200</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2821,22 +2821,22 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D94">
-        <v>9.677944667371891</v>
+        <v>2985.973583458866</v>
       </c>
       <c r="E94">
-        <v>426.3446113340386</v>
+        <v>4385.973583458866</v>
       </c>
       <c r="F94">
-        <v>41128.70054288763</v>
+        <v>461567.7911189729</v>
       </c>
       <c r="G94">
-        <v>2378.700542887619</v>
+        <v>331367.7911189731</v>
       </c>
       <c r="H94">
-        <v>11250.00000000006</v>
+        <v>331800</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2847,22 +2847,22 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D95">
-        <v>9.332303786394325</v>
+        <v>2973.427475965342</v>
       </c>
       <c r="E95">
-        <v>425.998970453061</v>
+        <v>4373.427475965342</v>
       </c>
       <c r="F95">
-        <v>41554.69951334069</v>
+        <v>465941.2185949383</v>
       </c>
       <c r="G95">
-        <v>2388.032846674013</v>
+        <v>334341.2185949384</v>
       </c>
       <c r="H95">
-        <v>10833.33333333339</v>
+        <v>330400</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2873,22 +2873,22 @@
         <v>95</v>
       </c>
       <c r="C96">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D96">
-        <v>8.986662905416759</v>
+        <v>2960.881368471817</v>
       </c>
       <c r="E96">
-        <v>425.6533295720835</v>
+        <v>4360.881368471817</v>
       </c>
       <c r="F96">
-        <v>41980.35284291277</v>
+        <v>470302.0999634101</v>
       </c>
       <c r="G96">
-        <v>2397.01950957943</v>
+        <v>337302.0999634102</v>
       </c>
       <c r="H96">
-        <v>10416.66666666673</v>
+        <v>329000</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2899,22 +2899,22 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D97">
-        <v>8.641022024439193</v>
+        <v>2948.335260978293</v>
       </c>
       <c r="E97">
-        <v>425.3076886911059</v>
+        <v>4348.335260978292</v>
       </c>
       <c r="F97">
-        <v>42405.66053160388</v>
+        <v>474650.4352243884</v>
       </c>
       <c r="G97">
-        <v>2405.660531603869</v>
+        <v>340250.4352243886</v>
       </c>
       <c r="H97">
-        <v>10000.00000000006</v>
+        <v>327600</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2925,22 +2925,22 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D98">
-        <v>8.295381143461627</v>
+        <v>2935.789153484768</v>
       </c>
       <c r="E98">
-        <v>424.9620478101283</v>
+        <v>4335.789153484768</v>
       </c>
       <c r="F98">
-        <v>42830.622579414</v>
+        <v>478986.2243778732</v>
       </c>
       <c r="G98">
-        <v>2413.955912747331</v>
+        <v>343186.2243778733</v>
       </c>
       <c r="H98">
-        <v>9583.333333333396</v>
+        <v>326200</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2951,22 +2951,22 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D99">
-        <v>7.949740262484062</v>
+        <v>2923.243045991243</v>
       </c>
       <c r="E99">
-        <v>424.6164069291507</v>
+        <v>4323.243045991243</v>
       </c>
       <c r="F99">
-        <v>43255.23898634315</v>
+        <v>483309.4674238644</v>
       </c>
       <c r="G99">
-        <v>2421.905653009816</v>
+        <v>346109.4674238645</v>
       </c>
       <c r="H99">
-        <v>9166.66666666673</v>
+        <v>324800</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2977,22 +2977,22 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D100">
-        <v>7.604099381506497</v>
+        <v>2910.696938497719</v>
       </c>
       <c r="E100">
-        <v>424.2707660481732</v>
+        <v>4310.696938497718</v>
       </c>
       <c r="F100">
-        <v>43679.50975239133</v>
+        <v>487620.1643623621</v>
       </c>
       <c r="G100">
-        <v>2429.509752391322</v>
+        <v>349020.1643623622</v>
       </c>
       <c r="H100">
-        <v>8750.000000000064</v>
+        <v>323400</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3003,22 +3003,22 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D101">
-        <v>7.258458500528931</v>
+        <v>2898.150831004194</v>
       </c>
       <c r="E101">
-        <v>423.9251251671956</v>
+        <v>4298.150831004194</v>
       </c>
       <c r="F101">
-        <v>44103.43487755852</v>
+        <v>491918.3151933663</v>
       </c>
       <c r="G101">
-        <v>2436.768210891851</v>
+        <v>351918.3151933664</v>
       </c>
       <c r="H101">
-        <v>8333.333333333398</v>
+        <v>322000</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3029,22 +3029,22 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D102">
-        <v>6.912817619551366</v>
+        <v>2885.604723510669</v>
       </c>
       <c r="E102">
-        <v>423.5794842862181</v>
+        <v>4285.604723510669</v>
       </c>
       <c r="F102">
-        <v>44527.01436184474</v>
+        <v>496203.919916877</v>
       </c>
       <c r="G102">
-        <v>2443.681028511402</v>
+        <v>354803.9199168771</v>
       </c>
       <c r="H102">
-        <v>7916.666666666731</v>
+        <v>320600</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3055,22 +3055,22 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D103">
-        <v>6.5671767385738</v>
+        <v>2873.058616017145</v>
       </c>
       <c r="E103">
-        <v>423.2338434052405</v>
+        <v>4273.058616017144</v>
       </c>
       <c r="F103">
-        <v>44950.24820524998</v>
+        <v>500476.9785328942</v>
       </c>
       <c r="G103">
-        <v>2450.248205249976</v>
+        <v>357676.9785328943</v>
       </c>
       <c r="H103">
-        <v>7500.000000000064</v>
+        <v>319200</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3081,22 +3081,22 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D104">
-        <v>6.221535857596234</v>
+        <v>2860.51250852362</v>
       </c>
       <c r="E104">
-        <v>422.8882025242629</v>
+        <v>4260.51250852362</v>
       </c>
       <c r="F104">
-        <v>45373.13640777425</v>
+        <v>504737.4910414178</v>
       </c>
       <c r="G104">
-        <v>2456.469741107572</v>
+        <v>360537.4910414179</v>
       </c>
       <c r="H104">
-        <v>7083.333333333397</v>
+        <v>317800</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3107,22 +3107,22 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D105">
-        <v>5.875894976618669</v>
+        <v>2847.966401030095</v>
       </c>
       <c r="E105">
-        <v>422.5425616432854</v>
+        <v>4247.966401030095</v>
       </c>
       <c r="F105">
-        <v>45795.67896941753</v>
+        <v>508985.4574424478</v>
       </c>
       <c r="G105">
-        <v>2462.345636084191</v>
+        <v>363385.457442448</v>
       </c>
       <c r="H105">
-        <v>6666.66666666673</v>
+        <v>316400</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3133,22 +3133,22 @@
         <v>105</v>
       </c>
       <c r="C106">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D106">
-        <v>5.530254095641103</v>
+        <v>2835.420293536571</v>
       </c>
       <c r="E106">
-        <v>422.1969207623078</v>
+        <v>4235.42029353657</v>
       </c>
       <c r="F106">
-        <v>46217.87589017984</v>
+        <v>513220.8777359844</v>
       </c>
       <c r="G106">
-        <v>2467.875890179832</v>
+        <v>366220.8777359845</v>
       </c>
       <c r="H106">
-        <v>6250.000000000063</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3159,22 +3159,22 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D107">
-        <v>5.184613214663538</v>
+        <v>2822.874186043046</v>
       </c>
       <c r="E107">
-        <v>421.8512798813302</v>
+        <v>4222.874186043046</v>
       </c>
       <c r="F107">
-        <v>46639.72717006117</v>
+        <v>517443.7519220274</v>
       </c>
       <c r="G107">
-        <v>2473.060503394495</v>
+        <v>369043.7519220276</v>
       </c>
       <c r="H107">
-        <v>5833.333333333396</v>
+        <v>313600</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3185,22 +3185,22 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D108">
-        <v>4.838972333685972</v>
+        <v>2810.328078549522</v>
       </c>
       <c r="E108">
-        <v>421.5056390003526</v>
+        <v>4210.328078549522</v>
       </c>
       <c r="F108">
-        <v>47061.23280906152</v>
+        <v>521654.080000577</v>
       </c>
       <c r="G108">
-        <v>2477.899475728181</v>
+        <v>371854.0800005771</v>
       </c>
       <c r="H108">
-        <v>5416.666666666729</v>
+        <v>312200</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3211,22 +3211,22 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D109">
-        <v>4.493331452708407</v>
+        <v>2797.781971055997</v>
       </c>
       <c r="E109">
-        <v>421.1599981193751</v>
+        <v>4197.781971055997</v>
       </c>
       <c r="F109">
-        <v>47482.39280718089</v>
+        <v>525851.8619716329</v>
       </c>
       <c r="G109">
-        <v>2482.39280718089</v>
+        <v>374651.8619716331</v>
       </c>
       <c r="H109">
-        <v>5000.000000000062</v>
+        <v>310800</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3237,22 +3237,22 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D110">
-        <v>4.147690571730841</v>
+        <v>2785.235863562472</v>
       </c>
       <c r="E110">
-        <v>420.8143572383975</v>
+        <v>4185.235863562472</v>
       </c>
       <c r="F110">
-        <v>47903.20716441929</v>
+        <v>530037.0978351954</v>
       </c>
       <c r="G110">
-        <v>2486.54049775262</v>
+        <v>377437.0978351956</v>
       </c>
       <c r="H110">
-        <v>4583.333333333395</v>
+        <v>309400</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3263,22 +3263,22 @@
         <v>110</v>
       </c>
       <c r="C111">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D111">
-        <v>3.802049690753276</v>
+        <v>2772.689756068948</v>
       </c>
       <c r="E111">
-        <v>420.46871635742</v>
+        <v>4172.689756068948</v>
       </c>
       <c r="F111">
-        <v>48323.67588077671</v>
+        <v>534209.7875912644</v>
       </c>
       <c r="G111">
-        <v>2490.342547443374</v>
+        <v>380209.7875912645</v>
       </c>
       <c r="H111">
-        <v>4166.666666666728</v>
+        <v>308000</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3289,22 +3289,22 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D112">
-        <v>3.45640880977571</v>
+        <v>2760.143648575423</v>
       </c>
       <c r="E112">
-        <v>420.1230754764424</v>
+        <v>4160.143648575423</v>
       </c>
       <c r="F112">
-        <v>48743.79895625315</v>
+        <v>538369.9312398398</v>
       </c>
       <c r="G112">
-        <v>2493.79895625315</v>
+        <v>382969.9312398399</v>
       </c>
       <c r="H112">
-        <v>3750.000000000061</v>
+        <v>306600</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3315,22 +3315,22 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D113">
-        <v>3.110767928798145</v>
+        <v>2747.597541081898</v>
       </c>
       <c r="E113">
-        <v>419.7774345954649</v>
+        <v>4147.597541081898</v>
       </c>
       <c r="F113">
-        <v>49163.57639084862</v>
+        <v>542517.5287809217</v>
       </c>
       <c r="G113">
-        <v>2496.909724181948</v>
+        <v>385717.5287809218</v>
       </c>
       <c r="H113">
-        <v>3333.333333333395</v>
+        <v>305200</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3341,22 +3341,22 @@
         <v>113</v>
       </c>
       <c r="C114">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D114">
-        <v>2.765127047820579</v>
+        <v>2735.051433588374</v>
       </c>
       <c r="E114">
-        <v>419.4317937144872</v>
+        <v>4135.051433588374</v>
       </c>
       <c r="F114">
-        <v>49583.00818456311</v>
+        <v>546652.5802145101</v>
       </c>
       <c r="G114">
-        <v>2499.674851229768</v>
+        <v>388452.5802145102</v>
       </c>
       <c r="H114">
-        <v>2916.666666666728</v>
+        <v>303800</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3367,22 +3367,22 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D115">
-        <v>2.419486166843013</v>
+        <v>2722.505326094849</v>
       </c>
       <c r="E115">
-        <v>419.0861528335097</v>
+        <v>4122.505326094849</v>
       </c>
       <c r="F115">
-        <v>50002.09433739661</v>
+        <v>550775.0855406049</v>
       </c>
       <c r="G115">
-        <v>2502.094337396611</v>
+        <v>391175.0855406051</v>
       </c>
       <c r="H115">
-        <v>2500.000000000062</v>
+        <v>302400</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3393,22 +3393,22 @@
         <v>115</v>
       </c>
       <c r="C116">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D116">
-        <v>2.073845285865448</v>
+        <v>2709.959218601324</v>
       </c>
       <c r="E116">
-        <v>418.7405119525321</v>
+        <v>4109.959218601324</v>
       </c>
       <c r="F116">
-        <v>50420.83484934915</v>
+        <v>554885.0447592062</v>
       </c>
       <c r="G116">
-        <v>2504.168182682477</v>
+        <v>393885.0447592064</v>
       </c>
       <c r="H116">
-        <v>2083.333333333395</v>
+        <v>301000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3419,22 +3419,22 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D117">
-        <v>1.728204404887882</v>
+        <v>2697.4131111078</v>
       </c>
       <c r="E117">
-        <v>418.3948710715546</v>
+        <v>4097.4131111078</v>
       </c>
       <c r="F117">
-        <v>50839.22972042071</v>
+        <v>558982.457870314</v>
       </c>
       <c r="G117">
-        <v>2505.896387087364</v>
+        <v>396582.4578703142</v>
       </c>
       <c r="H117">
-        <v>1666.666666666729</v>
+        <v>299600</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3445,22 +3445,22 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D118">
-        <v>1.382563523910317</v>
+        <v>2684.867003614275</v>
       </c>
       <c r="E118">
-        <v>418.049230190577</v>
+        <v>4084.867003614275</v>
       </c>
       <c r="F118">
-        <v>51257.27895061128</v>
+        <v>563067.3248739283</v>
       </c>
       <c r="G118">
-        <v>2507.278950611275</v>
+        <v>399267.3248739284</v>
       </c>
       <c r="H118">
-        <v>1250.000000000062</v>
+        <v>298200</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3471,22 +3471,22 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D119">
-        <v>1.036922642932751</v>
+        <v>2672.320896120751</v>
       </c>
       <c r="E119">
-        <v>417.7035893095994</v>
+        <v>4072.320896120751</v>
       </c>
       <c r="F119">
-        <v>51674.98253992088</v>
+        <v>567139.6457700491</v>
       </c>
       <c r="G119">
-        <v>2508.315873254208</v>
+        <v>401939.6457700492</v>
       </c>
       <c r="H119">
-        <v>833.3333333333951</v>
+        <v>296800</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3497,22 +3497,22 @@
         <v>119</v>
       </c>
       <c r="C120">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D120">
-        <v>0.6912817619551854</v>
+        <v>2659.774788627226</v>
       </c>
       <c r="E120">
-        <v>417.3579484286219</v>
+        <v>4059.774788627226</v>
       </c>
       <c r="F120">
-        <v>52092.3404883495</v>
+        <v>571199.4205586762</v>
       </c>
       <c r="G120">
-        <v>2509.007155016163</v>
+        <v>404599.4205586764</v>
       </c>
       <c r="H120">
-        <v>416.6666666667284</v>
+        <v>295400</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3523,22 +3523,5482 @@
         <v>120</v>
       </c>
       <c r="C121">
-        <v>416.6666666666667</v>
+        <v>1400</v>
       </c>
       <c r="D121">
-        <v>0.3456408809776199</v>
+        <v>2647.228681133701</v>
       </c>
       <c r="E121">
-        <v>417.0123075476443</v>
+        <v>4047.228681133701</v>
       </c>
       <c r="F121">
-        <v>52509.35279589715</v>
+        <v>575246.64923981</v>
       </c>
       <c r="G121">
-        <v>2509.35279589714</v>
+        <v>407246.6492398101</v>
       </c>
       <c r="H121">
-        <v>6.17319528828375E-11</v>
+        <v>294000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122">
+        <v>1400</v>
+      </c>
+      <c r="D122">
+        <v>2634.682573640177</v>
+      </c>
+      <c r="E122">
+        <v>4034.682573640177</v>
+      </c>
+      <c r="F122">
+        <v>579281.3318134501</v>
+      </c>
+      <c r="G122">
+        <v>409881.3318134503</v>
+      </c>
+      <c r="H122">
+        <v>292600</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <v>1400</v>
+      </c>
+      <c r="D123">
+        <v>2622.136466146652</v>
+      </c>
+      <c r="E123">
+        <v>4022.136466146652</v>
+      </c>
+      <c r="F123">
+        <v>583303.4682795968</v>
+      </c>
+      <c r="G123">
+        <v>412503.468279597</v>
+      </c>
+      <c r="H123">
+        <v>291200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124">
+        <v>1400</v>
+      </c>
+      <c r="D124">
+        <v>2609.590358653127</v>
+      </c>
+      <c r="E124">
+        <v>4009.590358653127</v>
+      </c>
+      <c r="F124">
+        <v>587313.0586382499</v>
+      </c>
+      <c r="G124">
+        <v>415113.0586382501</v>
+      </c>
+      <c r="H124">
+        <v>289800</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125">
+        <v>1400</v>
+      </c>
+      <c r="D125">
+        <v>2597.044251159602</v>
+      </c>
+      <c r="E125">
+        <v>3997.044251159602</v>
+      </c>
+      <c r="F125">
+        <v>591310.1028894095</v>
+      </c>
+      <c r="G125">
+        <v>417710.1028894097</v>
+      </c>
+      <c r="H125">
+        <v>288400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126">
+        <v>1400</v>
+      </c>
+      <c r="D126">
+        <v>2584.498143666078</v>
+      </c>
+      <c r="E126">
+        <v>3984.498143666078</v>
+      </c>
+      <c r="F126">
+        <v>595294.6010330756</v>
+      </c>
+      <c r="G126">
+        <v>420294.6010330758</v>
+      </c>
+      <c r="H126">
+        <v>287000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <v>1400</v>
+      </c>
+      <c r="D127">
+        <v>2571.952036172553</v>
+      </c>
+      <c r="E127">
+        <v>3971.952036172553</v>
+      </c>
+      <c r="F127">
+        <v>599266.5530692481</v>
+      </c>
+      <c r="G127">
+        <v>422866.5530692483</v>
+      </c>
+      <c r="H127">
+        <v>285600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128">
+        <v>1400</v>
+      </c>
+      <c r="D128">
+        <v>2559.405928679028</v>
+      </c>
+      <c r="E128">
+        <v>3959.405928679028</v>
+      </c>
+      <c r="F128">
+        <v>603225.9589979271</v>
+      </c>
+      <c r="G128">
+        <v>425425.9589979274</v>
+      </c>
+      <c r="H128">
+        <v>284200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129">
+        <v>1400</v>
+      </c>
+      <c r="D129">
+        <v>2546.859821185504</v>
+      </c>
+      <c r="E129">
+        <v>3946.859821185504</v>
+      </c>
+      <c r="F129">
+        <v>607172.8188191126</v>
+      </c>
+      <c r="G129">
+        <v>427972.8188191129</v>
+      </c>
+      <c r="H129">
+        <v>282800</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130">
+        <v>1400</v>
+      </c>
+      <c r="D130">
+        <v>2534.313713691979</v>
+      </c>
+      <c r="E130">
+        <v>3934.313713691979</v>
+      </c>
+      <c r="F130">
+        <v>611107.1325328046</v>
+      </c>
+      <c r="G130">
+        <v>430507.1325328049</v>
+      </c>
+      <c r="H130">
+        <v>281400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131">
+        <v>1400</v>
+      </c>
+      <c r="D131">
+        <v>2521.767606198455</v>
+      </c>
+      <c r="E131">
+        <v>3921.767606198455</v>
+      </c>
+      <c r="F131">
+        <v>615028.9001390031</v>
+      </c>
+      <c r="G131">
+        <v>433028.9001390033</v>
+      </c>
+      <c r="H131">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132">
+        <v>1400</v>
+      </c>
+      <c r="D132">
+        <v>2509.22149870493</v>
+      </c>
+      <c r="E132">
+        <v>3909.22149870493</v>
+      </c>
+      <c r="F132">
+        <v>618938.121637708</v>
+      </c>
+      <c r="G132">
+        <v>435538.1216377082</v>
+      </c>
+      <c r="H132">
+        <v>278600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133">
+        <v>1400</v>
+      </c>
+      <c r="D133">
+        <v>2496.675391211405</v>
+      </c>
+      <c r="E133">
+        <v>3896.675391211405</v>
+      </c>
+      <c r="F133">
+        <v>622834.7970289194</v>
+      </c>
+      <c r="G133">
+        <v>438034.7970289196</v>
+      </c>
+      <c r="H133">
+        <v>277200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134">
+        <v>1400</v>
+      </c>
+      <c r="D134">
+        <v>2484.129283717881</v>
+      </c>
+      <c r="E134">
+        <v>3884.129283717881</v>
+      </c>
+      <c r="F134">
+        <v>626718.9263126373</v>
+      </c>
+      <c r="G134">
+        <v>440518.9263126375</v>
+      </c>
+      <c r="H134">
+        <v>275800</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135">
+        <v>1400</v>
+      </c>
+      <c r="D135">
+        <v>2471.583176224356</v>
+      </c>
+      <c r="E135">
+        <v>3871.583176224356</v>
+      </c>
+      <c r="F135">
+        <v>630590.5094888617</v>
+      </c>
+      <c r="G135">
+        <v>442990.5094888619</v>
+      </c>
+      <c r="H135">
+        <v>274400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136">
+        <v>1400</v>
+      </c>
+      <c r="D136">
+        <v>2459.037068730831</v>
+      </c>
+      <c r="E136">
+        <v>3859.037068730831</v>
+      </c>
+      <c r="F136">
+        <v>634449.5465575925</v>
+      </c>
+      <c r="G136">
+        <v>445449.5465575927</v>
+      </c>
+      <c r="H136">
+        <v>273000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137">
+        <v>1400</v>
+      </c>
+      <c r="D137">
+        <v>2446.490961237307</v>
+      </c>
+      <c r="E137">
+        <v>3846.490961237307</v>
+      </c>
+      <c r="F137">
+        <v>638296.0375188298</v>
+      </c>
+      <c r="G137">
+        <v>447896.03751883</v>
+      </c>
+      <c r="H137">
+        <v>271600</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138">
+        <v>1400</v>
+      </c>
+      <c r="D138">
+        <v>2433.944853743782</v>
+      </c>
+      <c r="E138">
+        <v>3833.944853743782</v>
+      </c>
+      <c r="F138">
+        <v>642129.9823725736</v>
+      </c>
+      <c r="G138">
+        <v>450329.9823725738</v>
+      </c>
+      <c r="H138">
+        <v>270200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139">
+        <v>1400</v>
+      </c>
+      <c r="D139">
+        <v>2421.398746250257</v>
+      </c>
+      <c r="E139">
+        <v>3821.398746250257</v>
+      </c>
+      <c r="F139">
+        <v>645951.3811188239</v>
+      </c>
+      <c r="G139">
+        <v>452751.381118824</v>
+      </c>
+      <c r="H139">
+        <v>268800</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140">
+        <v>1400</v>
+      </c>
+      <c r="D140">
+        <v>2408.852638756733</v>
+      </c>
+      <c r="E140">
+        <v>3808.852638756733</v>
+      </c>
+      <c r="F140">
+        <v>649760.2337575806</v>
+      </c>
+      <c r="G140">
+        <v>455160.2337575807</v>
+      </c>
+      <c r="H140">
+        <v>267400</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141">
+        <v>1400</v>
+      </c>
+      <c r="D141">
+        <v>2396.306531263208</v>
+      </c>
+      <c r="E141">
+        <v>3796.306531263208</v>
+      </c>
+      <c r="F141">
+        <v>653556.5402888438</v>
+      </c>
+      <c r="G141">
+        <v>457556.540288844</v>
+      </c>
+      <c r="H141">
+        <v>266000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142">
+        <v>1400</v>
+      </c>
+      <c r="D142">
+        <v>2383.760423769683</v>
+      </c>
+      <c r="E142">
+        <v>3783.760423769683</v>
+      </c>
+      <c r="F142">
+        <v>657340.3007126135</v>
+      </c>
+      <c r="G142">
+        <v>459940.3007126137</v>
+      </c>
+      <c r="H142">
+        <v>264600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143">
+        <v>1400</v>
+      </c>
+      <c r="D143">
+        <v>2371.214316276159</v>
+      </c>
+      <c r="E143">
+        <v>3771.214316276159</v>
+      </c>
+      <c r="F143">
+        <v>661111.5150288896</v>
+      </c>
+      <c r="G143">
+        <v>462311.5150288898</v>
+      </c>
+      <c r="H143">
+        <v>263200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144">
+        <v>1400</v>
+      </c>
+      <c r="D144">
+        <v>2358.668208782634</v>
+      </c>
+      <c r="E144">
+        <v>3758.668208782634</v>
+      </c>
+      <c r="F144">
+        <v>664870.1832376723</v>
+      </c>
+      <c r="G144">
+        <v>464670.1832376724</v>
+      </c>
+      <c r="H144">
+        <v>261800</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145">
+        <v>1400</v>
+      </c>
+      <c r="D145">
+        <v>2346.12210128911</v>
+      </c>
+      <c r="E145">
+        <v>3746.12210128911</v>
+      </c>
+      <c r="F145">
+        <v>668616.3053389614</v>
+      </c>
+      <c r="G145">
+        <v>467016.3053389615</v>
+      </c>
+      <c r="H145">
+        <v>260400</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146">
+        <v>1400</v>
+      </c>
+      <c r="D146">
+        <v>2333.575993795585</v>
+      </c>
+      <c r="E146">
+        <v>3733.575993795585</v>
+      </c>
+      <c r="F146">
+        <v>672349.881332757</v>
+      </c>
+      <c r="G146">
+        <v>469349.8813327571</v>
+      </c>
+      <c r="H146">
+        <v>259000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147">
+        <v>1400</v>
+      </c>
+      <c r="D147">
+        <v>2321.02988630206</v>
+      </c>
+      <c r="E147">
+        <v>3721.02988630206</v>
+      </c>
+      <c r="F147">
+        <v>676070.911219059</v>
+      </c>
+      <c r="G147">
+        <v>471670.9112190592</v>
+      </c>
+      <c r="H147">
+        <v>257600</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148">
+        <v>1400</v>
+      </c>
+      <c r="D148">
+        <v>2308.483778808536</v>
+      </c>
+      <c r="E148">
+        <v>3708.483778808536</v>
+      </c>
+      <c r="F148">
+        <v>679779.3949978675</v>
+      </c>
+      <c r="G148">
+        <v>473979.3949978678</v>
+      </c>
+      <c r="H148">
+        <v>256200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149">
+        <v>1400</v>
+      </c>
+      <c r="D149">
+        <v>2295.937671315011</v>
+      </c>
+      <c r="E149">
+        <v>3695.937671315011</v>
+      </c>
+      <c r="F149">
+        <v>683475.3326691826</v>
+      </c>
+      <c r="G149">
+        <v>476275.3326691827</v>
+      </c>
+      <c r="H149">
+        <v>254800</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150">
+        <v>1400</v>
+      </c>
+      <c r="D150">
+        <v>2283.391563821486</v>
+      </c>
+      <c r="E150">
+        <v>3683.391563821486</v>
+      </c>
+      <c r="F150">
+        <v>687158.724233004</v>
+      </c>
+      <c r="G150">
+        <v>478558.7242330042</v>
+      </c>
+      <c r="H150">
+        <v>253400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151">
+        <v>1400</v>
+      </c>
+      <c r="D151">
+        <v>2270.845456327962</v>
+      </c>
+      <c r="E151">
+        <v>3670.845456327962</v>
+      </c>
+      <c r="F151">
+        <v>690829.569689332</v>
+      </c>
+      <c r="G151">
+        <v>480829.5696893322</v>
+      </c>
+      <c r="H151">
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152">
+        <v>1400</v>
+      </c>
+      <c r="D152">
+        <v>2258.299348834437</v>
+      </c>
+      <c r="E152">
+        <v>3658.299348834437</v>
+      </c>
+      <c r="F152">
+        <v>694487.8690381665</v>
+      </c>
+      <c r="G152">
+        <v>483087.8690381666</v>
+      </c>
+      <c r="H152">
+        <v>250600</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153">
+        <v>1400</v>
+      </c>
+      <c r="D153">
+        <v>2245.753241340912</v>
+      </c>
+      <c r="E153">
+        <v>3645.753241340912</v>
+      </c>
+      <c r="F153">
+        <v>698133.6222795073</v>
+      </c>
+      <c r="G153">
+        <v>485333.6222795075</v>
+      </c>
+      <c r="H153">
+        <v>249200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154">
+        <v>1400</v>
+      </c>
+      <c r="D154">
+        <v>2233.207133847387</v>
+      </c>
+      <c r="E154">
+        <v>3633.207133847387</v>
+      </c>
+      <c r="F154">
+        <v>701766.8294133547</v>
+      </c>
+      <c r="G154">
+        <v>487566.8294133549</v>
+      </c>
+      <c r="H154">
+        <v>247800</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155">
+        <v>1400</v>
+      </c>
+      <c r="D155">
+        <v>2220.661026353863</v>
+      </c>
+      <c r="E155">
+        <v>3620.661026353863</v>
+      </c>
+      <c r="F155">
+        <v>705387.4904397086</v>
+      </c>
+      <c r="G155">
+        <v>489787.4904397088</v>
+      </c>
+      <c r="H155">
+        <v>246400</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156">
+        <v>1400</v>
+      </c>
+      <c r="D156">
+        <v>2208.114918860339</v>
+      </c>
+      <c r="E156">
+        <v>3608.114918860339</v>
+      </c>
+      <c r="F156">
+        <v>708995.605358569</v>
+      </c>
+      <c r="G156">
+        <v>491995.6053585691</v>
+      </c>
+      <c r="H156">
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157">
+        <v>1400</v>
+      </c>
+      <c r="D157">
+        <v>2195.568811366814</v>
+      </c>
+      <c r="E157">
+        <v>3595.568811366814</v>
+      </c>
+      <c r="F157">
+        <v>712591.1741699358</v>
+      </c>
+      <c r="G157">
+        <v>494191.1741699359</v>
+      </c>
+      <c r="H157">
+        <v>243600</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158">
+        <v>1400</v>
+      </c>
+      <c r="D158">
+        <v>2183.022703873289</v>
+      </c>
+      <c r="E158">
+        <v>3583.022703873289</v>
+      </c>
+      <c r="F158">
+        <v>716174.1968738091</v>
+      </c>
+      <c r="G158">
+        <v>496374.1968738092</v>
+      </c>
+      <c r="H158">
+        <v>242200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159">
+        <v>1400</v>
+      </c>
+      <c r="D159">
+        <v>2170.476596379764</v>
+      </c>
+      <c r="E159">
+        <v>3570.476596379764</v>
+      </c>
+      <c r="F159">
+        <v>719744.6734701889</v>
+      </c>
+      <c r="G159">
+        <v>498544.673470189</v>
+      </c>
+      <c r="H159">
+        <v>240800</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160">
+        <v>1400</v>
+      </c>
+      <c r="D160">
+        <v>2157.93048888624</v>
+      </c>
+      <c r="E160">
+        <v>3557.93048888624</v>
+      </c>
+      <c r="F160">
+        <v>723302.6039590751</v>
+      </c>
+      <c r="G160">
+        <v>500702.6039590752</v>
+      </c>
+      <c r="H160">
+        <v>239400</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161">
+        <v>1400</v>
+      </c>
+      <c r="D161">
+        <v>2145.384381392715</v>
+      </c>
+      <c r="E161">
+        <v>3545.384381392715</v>
+      </c>
+      <c r="F161">
+        <v>726847.9883404678</v>
+      </c>
+      <c r="G161">
+        <v>502847.988340468</v>
+      </c>
+      <c r="H161">
+        <v>238000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162">
+        <v>1400</v>
+      </c>
+      <c r="D162">
+        <v>2132.83827389919</v>
+      </c>
+      <c r="E162">
+        <v>3532.83827389919</v>
+      </c>
+      <c r="F162">
+        <v>730380.826614367</v>
+      </c>
+      <c r="G162">
+        <v>504980.8266143671</v>
+      </c>
+      <c r="H162">
+        <v>236600</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163">
+        <v>1400</v>
+      </c>
+      <c r="D163">
+        <v>2120.292166405666</v>
+      </c>
+      <c r="E163">
+        <v>3520.292166405666</v>
+      </c>
+      <c r="F163">
+        <v>733901.1187807727</v>
+      </c>
+      <c r="G163">
+        <v>507101.1187807728</v>
+      </c>
+      <c r="H163">
+        <v>235200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164">
+        <v>1400</v>
+      </c>
+      <c r="D164">
+        <v>2107.746058912141</v>
+      </c>
+      <c r="E164">
+        <v>3507.746058912141</v>
+      </c>
+      <c r="F164">
+        <v>737408.8648396848</v>
+      </c>
+      <c r="G164">
+        <v>509208.8648396849</v>
+      </c>
+      <c r="H164">
+        <v>233800</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165">
+        <v>1400</v>
+      </c>
+      <c r="D165">
+        <v>2095.199951418616</v>
+      </c>
+      <c r="E165">
+        <v>3495.199951418616</v>
+      </c>
+      <c r="F165">
+        <v>740904.0647911034</v>
+      </c>
+      <c r="G165">
+        <v>511304.0647911035</v>
+      </c>
+      <c r="H165">
+        <v>232400</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166">
+        <v>1400</v>
+      </c>
+      <c r="D166">
+        <v>2082.653843925092</v>
+      </c>
+      <c r="E166">
+        <v>3482.653843925092</v>
+      </c>
+      <c r="F166">
+        <v>744386.7186350285</v>
+      </c>
+      <c r="G166">
+        <v>513386.7186350286</v>
+      </c>
+      <c r="H166">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167">
+        <v>1400</v>
+      </c>
+      <c r="D167">
+        <v>2070.107736431567</v>
+      </c>
+      <c r="E167">
+        <v>3470.107736431567</v>
+      </c>
+      <c r="F167">
+        <v>747856.82637146</v>
+      </c>
+      <c r="G167">
+        <v>515456.8263714602</v>
+      </c>
+      <c r="H167">
+        <v>229600</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168">
+        <v>1400</v>
+      </c>
+      <c r="D168">
+        <v>2057.561628938043</v>
+      </c>
+      <c r="E168">
+        <v>3457.561628938043</v>
+      </c>
+      <c r="F168">
+        <v>751314.3880003981</v>
+      </c>
+      <c r="G168">
+        <v>517514.3880003983</v>
+      </c>
+      <c r="H168">
+        <v>228200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169">
+        <v>1400</v>
+      </c>
+      <c r="D169">
+        <v>2045.015521444518</v>
+      </c>
+      <c r="E169">
+        <v>3445.015521444518</v>
+      </c>
+      <c r="F169">
+        <v>754759.4035218426</v>
+      </c>
+      <c r="G169">
+        <v>519559.4035218428</v>
+      </c>
+      <c r="H169">
+        <v>226800</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170">
+        <v>1400</v>
+      </c>
+      <c r="D170">
+        <v>2032.469413950993</v>
+      </c>
+      <c r="E170">
+        <v>3432.469413950993</v>
+      </c>
+      <c r="F170">
+        <v>758191.8729357936</v>
+      </c>
+      <c r="G170">
+        <v>521591.8729357938</v>
+      </c>
+      <c r="H170">
+        <v>225400</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171">
+        <v>1400</v>
+      </c>
+      <c r="D171">
+        <v>2019.923306457469</v>
+      </c>
+      <c r="E171">
+        <v>3419.923306457469</v>
+      </c>
+      <c r="F171">
+        <v>761611.7962422511</v>
+      </c>
+      <c r="G171">
+        <v>523611.7962422512</v>
+      </c>
+      <c r="H171">
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172">
+        <v>1400</v>
+      </c>
+      <c r="D172">
+        <v>2007.377198963944</v>
+      </c>
+      <c r="E172">
+        <v>3407.377198963944</v>
+      </c>
+      <c r="F172">
+        <v>765019.173441215</v>
+      </c>
+      <c r="G172">
+        <v>525619.1734412152</v>
+      </c>
+      <c r="H172">
+        <v>222600</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173">
+        <v>1400</v>
+      </c>
+      <c r="D173">
+        <v>1994.831091470419</v>
+      </c>
+      <c r="E173">
+        <v>3394.831091470419</v>
+      </c>
+      <c r="F173">
+        <v>768414.0045326854</v>
+      </c>
+      <c r="G173">
+        <v>527614.0045326856</v>
+      </c>
+      <c r="H173">
+        <v>221200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174">
+        <v>1400</v>
+      </c>
+      <c r="D174">
+        <v>1982.284983976895</v>
+      </c>
+      <c r="E174">
+        <v>3382.284983976895</v>
+      </c>
+      <c r="F174">
+        <v>771796.2895166622</v>
+      </c>
+      <c r="G174">
+        <v>529596.2895166625</v>
+      </c>
+      <c r="H174">
+        <v>219800</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175">
+        <v>1400</v>
+      </c>
+      <c r="D175">
+        <v>1969.73887648337</v>
+      </c>
+      <c r="E175">
+        <v>3369.73887648337</v>
+      </c>
+      <c r="F175">
+        <v>775166.0283931457</v>
+      </c>
+      <c r="G175">
+        <v>531566.0283931459</v>
+      </c>
+      <c r="H175">
+        <v>218400</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176">
+        <v>1400</v>
+      </c>
+      <c r="D176">
+        <v>1957.192768989845</v>
+      </c>
+      <c r="E176">
+        <v>3357.192768989845</v>
+      </c>
+      <c r="F176">
+        <v>778523.2211621355</v>
+      </c>
+      <c r="G176">
+        <v>533523.2211621357</v>
+      </c>
+      <c r="H176">
+        <v>217000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177">
+        <v>1400</v>
+      </c>
+      <c r="D177">
+        <v>1944.646661496321</v>
+      </c>
+      <c r="E177">
+        <v>3344.646661496321</v>
+      </c>
+      <c r="F177">
+        <v>781867.8678236319</v>
+      </c>
+      <c r="G177">
+        <v>535467.8678236321</v>
+      </c>
+      <c r="H177">
+        <v>215600</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178">
+        <v>1400</v>
+      </c>
+      <c r="D178">
+        <v>1932.100554002796</v>
+      </c>
+      <c r="E178">
+        <v>3332.100554002796</v>
+      </c>
+      <c r="F178">
+        <v>785199.9683776347</v>
+      </c>
+      <c r="G178">
+        <v>537399.9683776349</v>
+      </c>
+      <c r="H178">
+        <v>214200</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179">
+        <v>1400</v>
+      </c>
+      <c r="D179">
+        <v>1919.554446509271</v>
+      </c>
+      <c r="E179">
+        <v>3319.554446509272</v>
+      </c>
+      <c r="F179">
+        <v>788519.5228241439</v>
+      </c>
+      <c r="G179">
+        <v>539319.5228241441</v>
+      </c>
+      <c r="H179">
+        <v>212800</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180">
+        <v>1400</v>
+      </c>
+      <c r="D180">
+        <v>1907.008339015747</v>
+      </c>
+      <c r="E180">
+        <v>3307.008339015747</v>
+      </c>
+      <c r="F180">
+        <v>791826.5311631596</v>
+      </c>
+      <c r="G180">
+        <v>541226.5311631599</v>
+      </c>
+      <c r="H180">
+        <v>211400</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181">
+        <v>1400</v>
+      </c>
+      <c r="D181">
+        <v>1894.462231522222</v>
+      </c>
+      <c r="E181">
+        <v>3294.462231522222</v>
+      </c>
+      <c r="F181">
+        <v>795120.9933946818</v>
+      </c>
+      <c r="G181">
+        <v>543120.9933946821</v>
+      </c>
+      <c r="H181">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182">
+        <v>1400</v>
+      </c>
+      <c r="D182">
+        <v>1881.916124028697</v>
+      </c>
+      <c r="E182">
+        <v>3281.916124028698</v>
+      </c>
+      <c r="F182">
+        <v>798402.9095187106</v>
+      </c>
+      <c r="G182">
+        <v>545002.9095187108</v>
+      </c>
+      <c r="H182">
+        <v>208600</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="C183">
+        <v>1400</v>
+      </c>
+      <c r="D183">
+        <v>1869.370016535173</v>
+      </c>
+      <c r="E183">
+        <v>3269.370016535173</v>
+      </c>
+      <c r="F183">
+        <v>801672.2795352457</v>
+      </c>
+      <c r="G183">
+        <v>546872.279535246</v>
+      </c>
+      <c r="H183">
+        <v>207200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184">
+        <v>1400</v>
+      </c>
+      <c r="D184">
+        <v>1856.823909041648</v>
+      </c>
+      <c r="E184">
+        <v>3256.823909041648</v>
+      </c>
+      <c r="F184">
+        <v>804929.1034442874</v>
+      </c>
+      <c r="G184">
+        <v>548729.1034442877</v>
+      </c>
+      <c r="H184">
+        <v>205800</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185">
+        <v>1400</v>
+      </c>
+      <c r="D185">
+        <v>1844.277801548124</v>
+      </c>
+      <c r="E185">
+        <v>3244.277801548124</v>
+      </c>
+      <c r="F185">
+        <v>808173.3812458356</v>
+      </c>
+      <c r="G185">
+        <v>550573.3812458358</v>
+      </c>
+      <c r="H185">
+        <v>204400</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186">
+        <v>1400</v>
+      </c>
+      <c r="D186">
+        <v>1831.731694054599</v>
+      </c>
+      <c r="E186">
+        <v>3231.731694054599</v>
+      </c>
+      <c r="F186">
+        <v>811405.1129398901</v>
+      </c>
+      <c r="G186">
+        <v>552405.1129398904</v>
+      </c>
+      <c r="H186">
+        <v>203000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187">
+        <v>1400</v>
+      </c>
+      <c r="D187">
+        <v>1819.185586561074</v>
+      </c>
+      <c r="E187">
+        <v>3219.185586561074</v>
+      </c>
+      <c r="F187">
+        <v>814624.2985264512</v>
+      </c>
+      <c r="G187">
+        <v>554224.2985264515</v>
+      </c>
+      <c r="H187">
+        <v>201600</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188">
+        <v>1400</v>
+      </c>
+      <c r="D188">
+        <v>1806.639479067549</v>
+      </c>
+      <c r="E188">
+        <v>3206.639479067549</v>
+      </c>
+      <c r="F188">
+        <v>817830.9380055188</v>
+      </c>
+      <c r="G188">
+        <v>556030.938005519</v>
+      </c>
+      <c r="H188">
+        <v>200200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189">
+        <v>1400</v>
+      </c>
+      <c r="D189">
+        <v>1794.093371574025</v>
+      </c>
+      <c r="E189">
+        <v>3194.093371574025</v>
+      </c>
+      <c r="F189">
+        <v>821025.0313770928</v>
+      </c>
+      <c r="G189">
+        <v>557825.0313770931</v>
+      </c>
+      <c r="H189">
+        <v>198800</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>189</v>
+      </c>
+      <c r="C190">
+        <v>1400</v>
+      </c>
+      <c r="D190">
+        <v>1781.5472640805</v>
+      </c>
+      <c r="E190">
+        <v>3181.5472640805</v>
+      </c>
+      <c r="F190">
+        <v>824206.5786411733</v>
+      </c>
+      <c r="G190">
+        <v>559606.5786411735</v>
+      </c>
+      <c r="H190">
+        <v>197400</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191">
+        <v>1400</v>
+      </c>
+      <c r="D191">
+        <v>1769.001156586976</v>
+      </c>
+      <c r="E191">
+        <v>3169.001156586975</v>
+      </c>
+      <c r="F191">
+        <v>827375.5797977602</v>
+      </c>
+      <c r="G191">
+        <v>561375.5797977605</v>
+      </c>
+      <c r="H191">
+        <v>196000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>191</v>
+      </c>
+      <c r="C192">
+        <v>1400</v>
+      </c>
+      <c r="D192">
+        <v>1756.455049093451</v>
+      </c>
+      <c r="E192">
+        <v>3156.455049093451</v>
+      </c>
+      <c r="F192">
+        <v>830532.0348468537</v>
+      </c>
+      <c r="G192">
+        <v>563132.0348468539</v>
+      </c>
+      <c r="H192">
+        <v>194600</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>192</v>
+      </c>
+      <c r="C193">
+        <v>1400</v>
+      </c>
+      <c r="D193">
+        <v>1743.908941599926</v>
+      </c>
+      <c r="E193">
+        <v>3143.908941599926</v>
+      </c>
+      <c r="F193">
+        <v>833675.9437884536</v>
+      </c>
+      <c r="G193">
+        <v>564875.9437884538</v>
+      </c>
+      <c r="H193">
+        <v>193200</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>193</v>
+      </c>
+      <c r="C194">
+        <v>1400</v>
+      </c>
+      <c r="D194">
+        <v>1731.362834106402</v>
+      </c>
+      <c r="E194">
+        <v>3131.362834106401</v>
+      </c>
+      <c r="F194">
+        <v>836807.30662256</v>
+      </c>
+      <c r="G194">
+        <v>566607.3066225603</v>
+      </c>
+      <c r="H194">
+        <v>191800</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>194</v>
+      </c>
+      <c r="C195">
+        <v>1400</v>
+      </c>
+      <c r="D195">
+        <v>1718.816726612877</v>
+      </c>
+      <c r="E195">
+        <v>3118.816726612877</v>
+      </c>
+      <c r="F195">
+        <v>839926.1233491729</v>
+      </c>
+      <c r="G195">
+        <v>568326.1233491731</v>
+      </c>
+      <c r="H195">
+        <v>190400</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>195</v>
+      </c>
+      <c r="C196">
+        <v>1400</v>
+      </c>
+      <c r="D196">
+        <v>1706.270619119352</v>
+      </c>
+      <c r="E196">
+        <v>3106.270619119352</v>
+      </c>
+      <c r="F196">
+        <v>843032.3939682923</v>
+      </c>
+      <c r="G196">
+        <v>570032.3939682925</v>
+      </c>
+      <c r="H196">
+        <v>189000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>196</v>
+      </c>
+      <c r="C197">
+        <v>1400</v>
+      </c>
+      <c r="D197">
+        <v>1693.724511625828</v>
+      </c>
+      <c r="E197">
+        <v>3093.724511625828</v>
+      </c>
+      <c r="F197">
+        <v>846126.1184799181</v>
+      </c>
+      <c r="G197">
+        <v>571726.1184799183</v>
+      </c>
+      <c r="H197">
+        <v>187600</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>197</v>
+      </c>
+      <c r="C198">
+        <v>1400</v>
+      </c>
+      <c r="D198">
+        <v>1681.178404132303</v>
+      </c>
+      <c r="E198">
+        <v>3081.178404132303</v>
+      </c>
+      <c r="F198">
+        <v>849207.2968840504</v>
+      </c>
+      <c r="G198">
+        <v>573407.2968840506</v>
+      </c>
+      <c r="H198">
+        <v>186200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>198</v>
+      </c>
+      <c r="C199">
+        <v>1400</v>
+      </c>
+      <c r="D199">
+        <v>1668.632296638778</v>
+      </c>
+      <c r="E199">
+        <v>3068.632296638778</v>
+      </c>
+      <c r="F199">
+        <v>852275.9291806892</v>
+      </c>
+      <c r="G199">
+        <v>575075.9291806894</v>
+      </c>
+      <c r="H199">
+        <v>184800</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>199</v>
+      </c>
+      <c r="C200">
+        <v>1400</v>
+      </c>
+      <c r="D200">
+        <v>1656.086189145254</v>
+      </c>
+      <c r="E200">
+        <v>3056.086189145254</v>
+      </c>
+      <c r="F200">
+        <v>855332.0153698344</v>
+      </c>
+      <c r="G200">
+        <v>576732.0153698346</v>
+      </c>
+      <c r="H200">
+        <v>183400</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>200</v>
+      </c>
+      <c r="C201">
+        <v>1400</v>
+      </c>
+      <c r="D201">
+        <v>1643.540081651729</v>
+      </c>
+      <c r="E201">
+        <v>3043.540081651729</v>
+      </c>
+      <c r="F201">
+        <v>858375.5554514861</v>
+      </c>
+      <c r="G201">
+        <v>578375.5554514864</v>
+      </c>
+      <c r="H201">
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>201</v>
+      </c>
+      <c r="C202">
+        <v>1400</v>
+      </c>
+      <c r="D202">
+        <v>1630.993974158205</v>
+      </c>
+      <c r="E202">
+        <v>3030.993974158205</v>
+      </c>
+      <c r="F202">
+        <v>861406.5494256443</v>
+      </c>
+      <c r="G202">
+        <v>580006.5494256446</v>
+      </c>
+      <c r="H202">
+        <v>180600</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>202</v>
+      </c>
+      <c r="C203">
+        <v>1400</v>
+      </c>
+      <c r="D203">
+        <v>1618.44786666468</v>
+      </c>
+      <c r="E203">
+        <v>3018.44786666468</v>
+      </c>
+      <c r="F203">
+        <v>864424.9972923091</v>
+      </c>
+      <c r="G203">
+        <v>581624.9972923093</v>
+      </c>
+      <c r="H203">
+        <v>179200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>203</v>
+      </c>
+      <c r="C204">
+        <v>1400</v>
+      </c>
+      <c r="D204">
+        <v>1605.901759171155</v>
+      </c>
+      <c r="E204">
+        <v>3005.901759171155</v>
+      </c>
+      <c r="F204">
+        <v>867430.8990514802</v>
+      </c>
+      <c r="G204">
+        <v>583230.8990514805</v>
+      </c>
+      <c r="H204">
+        <v>177800</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>204</v>
+      </c>
+      <c r="C205">
+        <v>1400</v>
+      </c>
+      <c r="D205">
+        <v>1593.35565167763</v>
+      </c>
+      <c r="E205">
+        <v>2993.355651677631</v>
+      </c>
+      <c r="F205">
+        <v>870424.2547031578</v>
+      </c>
+      <c r="G205">
+        <v>584824.254703158</v>
+      </c>
+      <c r="H205">
+        <v>176400</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>205</v>
+      </c>
+      <c r="C206">
+        <v>1400</v>
+      </c>
+      <c r="D206">
+        <v>1580.809544184106</v>
+      </c>
+      <c r="E206">
+        <v>2980.809544184106</v>
+      </c>
+      <c r="F206">
+        <v>873405.0642473419</v>
+      </c>
+      <c r="G206">
+        <v>586405.0642473422</v>
+      </c>
+      <c r="H206">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>206</v>
+      </c>
+      <c r="C207">
+        <v>1400</v>
+      </c>
+      <c r="D207">
+        <v>1568.263436690581</v>
+      </c>
+      <c r="E207">
+        <v>2968.263436690581</v>
+      </c>
+      <c r="F207">
+        <v>876373.3276840325</v>
+      </c>
+      <c r="G207">
+        <v>587973.3276840327</v>
+      </c>
+      <c r="H207">
+        <v>173600</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>207</v>
+      </c>
+      <c r="C208">
+        <v>1400</v>
+      </c>
+      <c r="D208">
+        <v>1555.717329197057</v>
+      </c>
+      <c r="E208">
+        <v>2955.717329197057</v>
+      </c>
+      <c r="F208">
+        <v>879329.0450132296</v>
+      </c>
+      <c r="G208">
+        <v>589529.0450132298</v>
+      </c>
+      <c r="H208">
+        <v>172200</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>208</v>
+      </c>
+      <c r="C209">
+        <v>1400</v>
+      </c>
+      <c r="D209">
+        <v>1543.171221703532</v>
+      </c>
+      <c r="E209">
+        <v>2943.171221703532</v>
+      </c>
+      <c r="F209">
+        <v>882272.2162349331</v>
+      </c>
+      <c r="G209">
+        <v>591072.2162349334</v>
+      </c>
+      <c r="H209">
+        <v>170800</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>209</v>
+      </c>
+      <c r="C210">
+        <v>1400</v>
+      </c>
+      <c r="D210">
+        <v>1530.625114210007</v>
+      </c>
+      <c r="E210">
+        <v>2930.625114210007</v>
+      </c>
+      <c r="F210">
+        <v>885202.8413491431</v>
+      </c>
+      <c r="G210">
+        <v>592602.8413491433</v>
+      </c>
+      <c r="H210">
+        <v>169400</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>210</v>
+      </c>
+      <c r="C211">
+        <v>1400</v>
+      </c>
+      <c r="D211">
+        <v>1518.079006716483</v>
+      </c>
+      <c r="E211">
+        <v>2918.079006716483</v>
+      </c>
+      <c r="F211">
+        <v>888120.9203558596</v>
+      </c>
+      <c r="G211">
+        <v>594120.9203558598</v>
+      </c>
+      <c r="H211">
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>211</v>
+      </c>
+      <c r="C212">
+        <v>1400</v>
+      </c>
+      <c r="D212">
+        <v>1505.532899222958</v>
+      </c>
+      <c r="E212">
+        <v>2905.532899222958</v>
+      </c>
+      <c r="F212">
+        <v>891026.4532550825</v>
+      </c>
+      <c r="G212">
+        <v>595626.4532550827</v>
+      </c>
+      <c r="H212">
+        <v>166600</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>212</v>
+      </c>
+      <c r="C213">
+        <v>1400</v>
+      </c>
+      <c r="D213">
+        <v>1492.986791729433</v>
+      </c>
+      <c r="E213">
+        <v>2892.986791729433</v>
+      </c>
+      <c r="F213">
+        <v>893919.4400468119</v>
+      </c>
+      <c r="G213">
+        <v>597119.4400468122</v>
+      </c>
+      <c r="H213">
+        <v>165200</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>213</v>
+      </c>
+      <c r="C214">
+        <v>1400</v>
+      </c>
+      <c r="D214">
+        <v>1480.440684235909</v>
+      </c>
+      <c r="E214">
+        <v>2880.440684235909</v>
+      </c>
+      <c r="F214">
+        <v>896799.8807310478</v>
+      </c>
+      <c r="G214">
+        <v>598599.8807310481</v>
+      </c>
+      <c r="H214">
+        <v>163800</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>214</v>
+      </c>
+      <c r="C215">
+        <v>1400</v>
+      </c>
+      <c r="D215">
+        <v>1467.894576742384</v>
+      </c>
+      <c r="E215">
+        <v>2867.894576742384</v>
+      </c>
+      <c r="F215">
+        <v>899667.7753077903</v>
+      </c>
+      <c r="G215">
+        <v>600067.7753077905</v>
+      </c>
+      <c r="H215">
+        <v>162400</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>215</v>
+      </c>
+      <c r="C216">
+        <v>1400</v>
+      </c>
+      <c r="D216">
+        <v>1455.348469248859</v>
+      </c>
+      <c r="E216">
+        <v>2855.348469248859</v>
+      </c>
+      <c r="F216">
+        <v>902523.1237770391</v>
+      </c>
+      <c r="G216">
+        <v>601523.1237770393</v>
+      </c>
+      <c r="H216">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>216</v>
+      </c>
+      <c r="C217">
+        <v>1400</v>
+      </c>
+      <c r="D217">
+        <v>1442.802361755335</v>
+      </c>
+      <c r="E217">
+        <v>2842.802361755334</v>
+      </c>
+      <c r="F217">
+        <v>905365.9261387944</v>
+      </c>
+      <c r="G217">
+        <v>602965.9261387946</v>
+      </c>
+      <c r="H217">
+        <v>159600</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>217</v>
+      </c>
+      <c r="C218">
+        <v>1400</v>
+      </c>
+      <c r="D218">
+        <v>1430.25625426181</v>
+      </c>
+      <c r="E218">
+        <v>2830.25625426181</v>
+      </c>
+      <c r="F218">
+        <v>908196.1823930562</v>
+      </c>
+      <c r="G218">
+        <v>604396.1823930565</v>
+      </c>
+      <c r="H218">
+        <v>158200</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>218</v>
+      </c>
+      <c r="C219">
+        <v>1400</v>
+      </c>
+      <c r="D219">
+        <v>1417.710146768285</v>
+      </c>
+      <c r="E219">
+        <v>2817.710146768285</v>
+      </c>
+      <c r="F219">
+        <v>911013.8925398245</v>
+      </c>
+      <c r="G219">
+        <v>605813.8925398247</v>
+      </c>
+      <c r="H219">
+        <v>156800</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>219</v>
+      </c>
+      <c r="C220">
+        <v>1400</v>
+      </c>
+      <c r="D220">
+        <v>1405.164039274761</v>
+      </c>
+      <c r="E220">
+        <v>2805.164039274761</v>
+      </c>
+      <c r="F220">
+        <v>913819.0565790993</v>
+      </c>
+      <c r="G220">
+        <v>607219.0565790995</v>
+      </c>
+      <c r="H220">
+        <v>155400</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>220</v>
+      </c>
+      <c r="C221">
+        <v>1400</v>
+      </c>
+      <c r="D221">
+        <v>1392.617931781236</v>
+      </c>
+      <c r="E221">
+        <v>2792.617931781236</v>
+      </c>
+      <c r="F221">
+        <v>916611.6745108805</v>
+      </c>
+      <c r="G221">
+        <v>608611.6745108807</v>
+      </c>
+      <c r="H221">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>221</v>
+      </c>
+      <c r="C222">
+        <v>1400</v>
+      </c>
+      <c r="D222">
+        <v>1380.071824287711</v>
+      </c>
+      <c r="E222">
+        <v>2780.071824287711</v>
+      </c>
+      <c r="F222">
+        <v>919391.7463351683</v>
+      </c>
+      <c r="G222">
+        <v>609991.7463351685</v>
+      </c>
+      <c r="H222">
+        <v>152600</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>222</v>
+      </c>
+      <c r="C223">
+        <v>1400</v>
+      </c>
+      <c r="D223">
+        <v>1367.525716794187</v>
+      </c>
+      <c r="E223">
+        <v>2767.525716794187</v>
+      </c>
+      <c r="F223">
+        <v>922159.2720519624</v>
+      </c>
+      <c r="G223">
+        <v>611359.2720519627</v>
+      </c>
+      <c r="H223">
+        <v>151200</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>223</v>
+      </c>
+      <c r="C224">
+        <v>1400</v>
+      </c>
+      <c r="D224">
+        <v>1354.979609300662</v>
+      </c>
+      <c r="E224">
+        <v>2754.979609300662</v>
+      </c>
+      <c r="F224">
+        <v>924914.2516612631</v>
+      </c>
+      <c r="G224">
+        <v>612714.2516612633</v>
+      </c>
+      <c r="H224">
+        <v>149800</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>224</v>
+      </c>
+      <c r="C225">
+        <v>1400</v>
+      </c>
+      <c r="D225">
+        <v>1342.433501807137</v>
+      </c>
+      <c r="E225">
+        <v>2742.433501807137</v>
+      </c>
+      <c r="F225">
+        <v>927656.6851630702</v>
+      </c>
+      <c r="G225">
+        <v>614056.6851630704</v>
+      </c>
+      <c r="H225">
+        <v>148400</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>225</v>
+      </c>
+      <c r="C226">
+        <v>1400</v>
+      </c>
+      <c r="D226">
+        <v>1329.887394313613</v>
+      </c>
+      <c r="E226">
+        <v>2729.887394313613</v>
+      </c>
+      <c r="F226">
+        <v>930386.5725573838</v>
+      </c>
+      <c r="G226">
+        <v>615386.572557384</v>
+      </c>
+      <c r="H226">
+        <v>147000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>226</v>
+      </c>
+      <c r="C227">
+        <v>1400</v>
+      </c>
+      <c r="D227">
+        <v>1317.341286820088</v>
+      </c>
+      <c r="E227">
+        <v>2717.341286820088</v>
+      </c>
+      <c r="F227">
+        <v>933103.9138442039</v>
+      </c>
+      <c r="G227">
+        <v>616703.9138442042</v>
+      </c>
+      <c r="H227">
+        <v>145600</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>227</v>
+      </c>
+      <c r="C228">
+        <v>1400</v>
+      </c>
+      <c r="D228">
+        <v>1304.795179326564</v>
+      </c>
+      <c r="E228">
+        <v>2704.795179326564</v>
+      </c>
+      <c r="F228">
+        <v>935808.7090235305</v>
+      </c>
+      <c r="G228">
+        <v>618008.7090235307</v>
+      </c>
+      <c r="H228">
+        <v>144200</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>228</v>
+      </c>
+      <c r="C229">
+        <v>1400</v>
+      </c>
+      <c r="D229">
+        <v>1292.249071833039</v>
+      </c>
+      <c r="E229">
+        <v>2692.249071833039</v>
+      </c>
+      <c r="F229">
+        <v>938500.9580953636</v>
+      </c>
+      <c r="G229">
+        <v>619300.9580953638</v>
+      </c>
+      <c r="H229">
+        <v>142800</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>229</v>
+      </c>
+      <c r="C230">
+        <v>1400</v>
+      </c>
+      <c r="D230">
+        <v>1279.702964339514</v>
+      </c>
+      <c r="E230">
+        <v>2679.702964339514</v>
+      </c>
+      <c r="F230">
+        <v>941180.6610597031</v>
+      </c>
+      <c r="G230">
+        <v>620580.6610597033</v>
+      </c>
+      <c r="H230">
+        <v>141400</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>230</v>
+      </c>
+      <c r="C231">
+        <v>1400</v>
+      </c>
+      <c r="D231">
+        <v>1267.15685684599</v>
+      </c>
+      <c r="E231">
+        <v>2667.15685684599</v>
+      </c>
+      <c r="F231">
+        <v>943847.817916549</v>
+      </c>
+      <c r="G231">
+        <v>621847.8179165493</v>
+      </c>
+      <c r="H231">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>231</v>
+      </c>
+      <c r="C232">
+        <v>1400</v>
+      </c>
+      <c r="D232">
+        <v>1254.610749352465</v>
+      </c>
+      <c r="E232">
+        <v>2654.610749352465</v>
+      </c>
+      <c r="F232">
+        <v>946502.4286659015</v>
+      </c>
+      <c r="G232">
+        <v>623102.4286659018</v>
+      </c>
+      <c r="H232">
+        <v>138600</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>232</v>
+      </c>
+      <c r="C233">
+        <v>1400</v>
+      </c>
+      <c r="D233">
+        <v>1242.06464185894</v>
+      </c>
+      <c r="E233">
+        <v>2642.06464185894</v>
+      </c>
+      <c r="F233">
+        <v>949144.4933077605</v>
+      </c>
+      <c r="G233">
+        <v>624344.4933077607</v>
+      </c>
+      <c r="H233">
+        <v>137200</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>233</v>
+      </c>
+      <c r="C234">
+        <v>1400</v>
+      </c>
+      <c r="D234">
+        <v>1229.518534365416</v>
+      </c>
+      <c r="E234">
+        <v>2629.518534365416</v>
+      </c>
+      <c r="F234">
+        <v>951774.0118421259</v>
+      </c>
+      <c r="G234">
+        <v>625574.0118421261</v>
+      </c>
+      <c r="H234">
+        <v>135800</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>234</v>
+      </c>
+      <c r="C235">
+        <v>1400</v>
+      </c>
+      <c r="D235">
+        <v>1216.972426871891</v>
+      </c>
+      <c r="E235">
+        <v>2616.972426871891</v>
+      </c>
+      <c r="F235">
+        <v>954390.9842689978</v>
+      </c>
+      <c r="G235">
+        <v>626790.984268998</v>
+      </c>
+      <c r="H235">
+        <v>134400</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>235</v>
+      </c>
+      <c r="C236">
+        <v>1400</v>
+      </c>
+      <c r="D236">
+        <v>1204.426319378366</v>
+      </c>
+      <c r="E236">
+        <v>2604.426319378366</v>
+      </c>
+      <c r="F236">
+        <v>956995.4105883761</v>
+      </c>
+      <c r="G236">
+        <v>627995.4105883763</v>
+      </c>
+      <c r="H236">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>236</v>
+      </c>
+      <c r="C237">
+        <v>1400</v>
+      </c>
+      <c r="D237">
+        <v>1191.880211884842</v>
+      </c>
+      <c r="E237">
+        <v>2591.880211884842</v>
+      </c>
+      <c r="F237">
+        <v>959587.290800261</v>
+      </c>
+      <c r="G237">
+        <v>629187.2908002612</v>
+      </c>
+      <c r="H237">
+        <v>131600</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>237</v>
+      </c>
+      <c r="C238">
+        <v>1400</v>
+      </c>
+      <c r="D238">
+        <v>1179.334104391317</v>
+      </c>
+      <c r="E238">
+        <v>2579.334104391317</v>
+      </c>
+      <c r="F238">
+        <v>962166.6249046522</v>
+      </c>
+      <c r="G238">
+        <v>630366.6249046525</v>
+      </c>
+      <c r="H238">
+        <v>130200</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>238</v>
+      </c>
+      <c r="C239">
+        <v>1400</v>
+      </c>
+      <c r="D239">
+        <v>1166.787996897792</v>
+      </c>
+      <c r="E239">
+        <v>2566.787996897792</v>
+      </c>
+      <c r="F239">
+        <v>964733.4129015501</v>
+      </c>
+      <c r="G239">
+        <v>631533.4129015503</v>
+      </c>
+      <c r="H239">
+        <v>128800</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>239</v>
+      </c>
+      <c r="C240">
+        <v>1400</v>
+      </c>
+      <c r="D240">
+        <v>1154.241889404268</v>
+      </c>
+      <c r="E240">
+        <v>2554.241889404268</v>
+      </c>
+      <c r="F240">
+        <v>967287.6547909543</v>
+      </c>
+      <c r="G240">
+        <v>632687.6547909545</v>
+      </c>
+      <c r="H240">
+        <v>127400</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>240</v>
+      </c>
+      <c r="C241">
+        <v>1400</v>
+      </c>
+      <c r="D241">
+        <v>1141.695781910743</v>
+      </c>
+      <c r="E241">
+        <v>2541.695781910743</v>
+      </c>
+      <c r="F241">
+        <v>969829.3505728651</v>
+      </c>
+      <c r="G241">
+        <v>633829.3505728653</v>
+      </c>
+      <c r="H241">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>241</v>
+      </c>
+      <c r="C242">
+        <v>1400</v>
+      </c>
+      <c r="D242">
+        <v>1129.149674417218</v>
+      </c>
+      <c r="E242">
+        <v>2529.149674417218</v>
+      </c>
+      <c r="F242">
+        <v>972358.5002472823</v>
+      </c>
+      <c r="G242">
+        <v>634958.5002472826</v>
+      </c>
+      <c r="H242">
+        <v>124600</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>242</v>
+      </c>
+      <c r="C243">
+        <v>1400</v>
+      </c>
+      <c r="D243">
+        <v>1116.603566923694</v>
+      </c>
+      <c r="E243">
+        <v>2516.603566923694</v>
+      </c>
+      <c r="F243">
+        <v>974875.103814206</v>
+      </c>
+      <c r="G243">
+        <v>636075.1038142062</v>
+      </c>
+      <c r="H243">
+        <v>123200</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>243</v>
+      </c>
+      <c r="C244">
+        <v>1400</v>
+      </c>
+      <c r="D244">
+        <v>1104.057459430169</v>
+      </c>
+      <c r="E244">
+        <v>2504.057459430169</v>
+      </c>
+      <c r="F244">
+        <v>977379.1612736362</v>
+      </c>
+      <c r="G244">
+        <v>637179.1612736364</v>
+      </c>
+      <c r="H244">
+        <v>121800</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>244</v>
+      </c>
+      <c r="C245">
+        <v>1400</v>
+      </c>
+      <c r="D245">
+        <v>1091.511351936645</v>
+      </c>
+      <c r="E245">
+        <v>2491.511351936645</v>
+      </c>
+      <c r="F245">
+        <v>979870.6726255728</v>
+      </c>
+      <c r="G245">
+        <v>638270.672625573</v>
+      </c>
+      <c r="H245">
+        <v>120400</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>245</v>
+      </c>
+      <c r="C246">
+        <v>1400</v>
+      </c>
+      <c r="D246">
+        <v>1078.96524444312</v>
+      </c>
+      <c r="E246">
+        <v>2478.96524444312</v>
+      </c>
+      <c r="F246">
+        <v>982349.6378700159</v>
+      </c>
+      <c r="G246">
+        <v>639349.6378700162</v>
+      </c>
+      <c r="H246">
+        <v>119000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>246</v>
+      </c>
+      <c r="C247">
+        <v>1400</v>
+      </c>
+      <c r="D247">
+        <v>1066.419136949595</v>
+      </c>
+      <c r="E247">
+        <v>2466.419136949595</v>
+      </c>
+      <c r="F247">
+        <v>984816.0570069655</v>
+      </c>
+      <c r="G247">
+        <v>640416.0570069657</v>
+      </c>
+      <c r="H247">
+        <v>117600</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>247</v>
+      </c>
+      <c r="C248">
+        <v>1400</v>
+      </c>
+      <c r="D248">
+        <v>1053.873029456071</v>
+      </c>
+      <c r="E248">
+        <v>2453.873029456071</v>
+      </c>
+      <c r="F248">
+        <v>987269.9300364216</v>
+      </c>
+      <c r="G248">
+        <v>641469.9300364219</v>
+      </c>
+      <c r="H248">
+        <v>116200</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>248</v>
+      </c>
+      <c r="C249">
+        <v>1400</v>
+      </c>
+      <c r="D249">
+        <v>1041.326921962546</v>
+      </c>
+      <c r="E249">
+        <v>2441.326921962546</v>
+      </c>
+      <c r="F249">
+        <v>989711.2569583842</v>
+      </c>
+      <c r="G249">
+        <v>642511.2569583844</v>
+      </c>
+      <c r="H249">
+        <v>114800</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>249</v>
+      </c>
+      <c r="C250">
+        <v>1400</v>
+      </c>
+      <c r="D250">
+        <v>1028.780814469021</v>
+      </c>
+      <c r="E250">
+        <v>2428.780814469022</v>
+      </c>
+      <c r="F250">
+        <v>992140.0377728532</v>
+      </c>
+      <c r="G250">
+        <v>643540.0377728534</v>
+      </c>
+      <c r="H250">
+        <v>113400</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>250</v>
+      </c>
+      <c r="C251">
+        <v>1400</v>
+      </c>
+      <c r="D251">
+        <v>1016.234706975497</v>
+      </c>
+      <c r="E251">
+        <v>2416.234706975496</v>
+      </c>
+      <c r="F251">
+        <v>994556.2724798287</v>
+      </c>
+      <c r="G251">
+        <v>644556.2724798289</v>
+      </c>
+      <c r="H251">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>251</v>
+      </c>
+      <c r="C252">
+        <v>1400</v>
+      </c>
+      <c r="D252">
+        <v>1003.688599481972</v>
+      </c>
+      <c r="E252">
+        <v>2403.688599481972</v>
+      </c>
+      <c r="F252">
+        <v>996959.9610793106</v>
+      </c>
+      <c r="G252">
+        <v>645559.9610793109</v>
+      </c>
+      <c r="H252">
+        <v>110600</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>252</v>
+      </c>
+      <c r="C253">
+        <v>1400</v>
+      </c>
+      <c r="D253">
+        <v>991.1424919884473</v>
+      </c>
+      <c r="E253">
+        <v>2391.142491988448</v>
+      </c>
+      <c r="F253">
+        <v>999351.1035712991</v>
+      </c>
+      <c r="G253">
+        <v>646551.1035712993</v>
+      </c>
+      <c r="H253">
+        <v>109200</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>253</v>
+      </c>
+      <c r="C254">
+        <v>1400</v>
+      </c>
+      <c r="D254">
+        <v>978.5963844949226</v>
+      </c>
+      <c r="E254">
+        <v>2378.596384494923</v>
+      </c>
+      <c r="F254">
+        <v>1001729.699955794</v>
+      </c>
+      <c r="G254">
+        <v>647529.6999557943</v>
+      </c>
+      <c r="H254">
+        <v>107800</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>254</v>
+      </c>
+      <c r="C255">
+        <v>1400</v>
+      </c>
+      <c r="D255">
+        <v>966.0502770013981</v>
+      </c>
+      <c r="E255">
+        <v>2366.050277001398</v>
+      </c>
+      <c r="F255">
+        <v>1004095.750232795</v>
+      </c>
+      <c r="G255">
+        <v>648495.7502327956</v>
+      </c>
+      <c r="H255">
+        <v>106400</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>255</v>
+      </c>
+      <c r="C256">
+        <v>1400</v>
+      </c>
+      <c r="D256">
+        <v>953.5041695078734</v>
+      </c>
+      <c r="E256">
+        <v>2353.504169507873</v>
+      </c>
+      <c r="F256">
+        <v>1006449.254402303</v>
+      </c>
+      <c r="G256">
+        <v>649449.2544023035</v>
+      </c>
+      <c r="H256">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>256</v>
+      </c>
+      <c r="C257">
+        <v>1400</v>
+      </c>
+      <c r="D257">
+        <v>940.9580620143487</v>
+      </c>
+      <c r="E257">
+        <v>2340.958062014349</v>
+      </c>
+      <c r="F257">
+        <v>1008790.212464318</v>
+      </c>
+      <c r="G257">
+        <v>650390.2124643178</v>
+      </c>
+      <c r="H257">
+        <v>103600</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>257</v>
+      </c>
+      <c r="C258">
+        <v>1400</v>
+      </c>
+      <c r="D258">
+        <v>928.4119545208241</v>
+      </c>
+      <c r="E258">
+        <v>2328.411954520824</v>
+      </c>
+      <c r="F258">
+        <v>1011118.624418838</v>
+      </c>
+      <c r="G258">
+        <v>651318.6244188386</v>
+      </c>
+      <c r="H258">
+        <v>102200</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>258</v>
+      </c>
+      <c r="C259">
+        <v>1400</v>
+      </c>
+      <c r="D259">
+        <v>915.8658470272994</v>
+      </c>
+      <c r="E259">
+        <v>2315.865847027299</v>
+      </c>
+      <c r="F259">
+        <v>1013434.490265866</v>
+      </c>
+      <c r="G259">
+        <v>652234.4902658659</v>
+      </c>
+      <c r="H259">
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>259</v>
+      </c>
+      <c r="C260">
+        <v>1400</v>
+      </c>
+      <c r="D260">
+        <v>903.3197395337747</v>
+      </c>
+      <c r="E260">
+        <v>2303.319739533775</v>
+      </c>
+      <c r="F260">
+        <v>1015737.8100054</v>
+      </c>
+      <c r="G260">
+        <v>653137.8100053997</v>
+      </c>
+      <c r="H260">
+        <v>99400</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>260</v>
+      </c>
+      <c r="C261">
+        <v>1400</v>
+      </c>
+      <c r="D261">
+        <v>890.7736320402502</v>
+      </c>
+      <c r="E261">
+        <v>2290.77363204025</v>
+      </c>
+      <c r="F261">
+        <v>1018028.58363744</v>
+      </c>
+      <c r="G261">
+        <v>654028.58363744</v>
+      </c>
+      <c r="H261">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>261</v>
+      </c>
+      <c r="C262">
+        <v>1400</v>
+      </c>
+      <c r="D262">
+        <v>878.2275245467255</v>
+      </c>
+      <c r="E262">
+        <v>2278.227524546725</v>
+      </c>
+      <c r="F262">
+        <v>1020306.811161986</v>
+      </c>
+      <c r="G262">
+        <v>654906.8111619867</v>
+      </c>
+      <c r="H262">
+        <v>96600</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>262</v>
+      </c>
+      <c r="C263">
+        <v>1400</v>
+      </c>
+      <c r="D263">
+        <v>865.6814170532008</v>
+      </c>
+      <c r="E263">
+        <v>2265.681417053201</v>
+      </c>
+      <c r="F263">
+        <v>1022572.49257904</v>
+      </c>
+      <c r="G263">
+        <v>655772.4925790399</v>
+      </c>
+      <c r="H263">
+        <v>95200</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>263</v>
+      </c>
+      <c r="C264">
+        <v>1400</v>
+      </c>
+      <c r="D264">
+        <v>853.1353095596762</v>
+      </c>
+      <c r="E264">
+        <v>2253.135309559676</v>
+      </c>
+      <c r="F264">
+        <v>1024825.627888599</v>
+      </c>
+      <c r="G264">
+        <v>656625.6278885995</v>
+      </c>
+      <c r="H264">
+        <v>93800</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>264</v>
+      </c>
+      <c r="C265">
+        <v>1400</v>
+      </c>
+      <c r="D265">
+        <v>840.5892020661515</v>
+      </c>
+      <c r="E265">
+        <v>2240.589202066151</v>
+      </c>
+      <c r="F265">
+        <v>1027066.217090665</v>
+      </c>
+      <c r="G265">
+        <v>657466.2170906657</v>
+      </c>
+      <c r="H265">
+        <v>92400</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>265</v>
+      </c>
+      <c r="C266">
+        <v>1400</v>
+      </c>
+      <c r="D266">
+        <v>828.0430945726268</v>
+      </c>
+      <c r="E266">
+        <v>2228.043094572627</v>
+      </c>
+      <c r="F266">
+        <v>1029294.260185238</v>
+      </c>
+      <c r="G266">
+        <v>658294.2601852383</v>
+      </c>
+      <c r="H266">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>266</v>
+      </c>
+      <c r="C267">
+        <v>1400</v>
+      </c>
+      <c r="D267">
+        <v>815.4969870791023</v>
+      </c>
+      <c r="E267">
+        <v>2215.496987079102</v>
+      </c>
+      <c r="F267">
+        <v>1031509.757172317</v>
+      </c>
+      <c r="G267">
+        <v>659109.7571723175</v>
+      </c>
+      <c r="H267">
+        <v>89600</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>267</v>
+      </c>
+      <c r="C268">
+        <v>1400</v>
+      </c>
+      <c r="D268">
+        <v>802.9508795855776</v>
+      </c>
+      <c r="E268">
+        <v>2202.950879585578</v>
+      </c>
+      <c r="F268">
+        <v>1033712.708051903</v>
+      </c>
+      <c r="G268">
+        <v>659912.7080519031</v>
+      </c>
+      <c r="H268">
+        <v>88200</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>268</v>
+      </c>
+      <c r="C269">
+        <v>1400</v>
+      </c>
+      <c r="D269">
+        <v>790.4047720920529</v>
+      </c>
+      <c r="E269">
+        <v>2190.404772092053</v>
+      </c>
+      <c r="F269">
+        <v>1035903.112823995</v>
+      </c>
+      <c r="G269">
+        <v>660703.1128239951</v>
+      </c>
+      <c r="H269">
+        <v>86800</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>269</v>
+      </c>
+      <c r="C270">
+        <v>1400</v>
+      </c>
+      <c r="D270">
+        <v>777.8586645985283</v>
+      </c>
+      <c r="E270">
+        <v>2177.858664598528</v>
+      </c>
+      <c r="F270">
+        <v>1038080.971488593</v>
+      </c>
+      <c r="G270">
+        <v>661480.9714885936</v>
+      </c>
+      <c r="H270">
+        <v>85400</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>270</v>
+      </c>
+      <c r="C271">
+        <v>1400</v>
+      </c>
+      <c r="D271">
+        <v>765.3125571050036</v>
+      </c>
+      <c r="E271">
+        <v>2165.312557105004</v>
+      </c>
+      <c r="F271">
+        <v>1040246.284045698</v>
+      </c>
+      <c r="G271">
+        <v>662246.2840456986</v>
+      </c>
+      <c r="H271">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>271</v>
+      </c>
+      <c r="C272">
+        <v>1400</v>
+      </c>
+      <c r="D272">
+        <v>752.7664496114789</v>
+      </c>
+      <c r="E272">
+        <v>2152.766449611479</v>
+      </c>
+      <c r="F272">
+        <v>1042399.05049531</v>
+      </c>
+      <c r="G272">
+        <v>662999.0504953101</v>
+      </c>
+      <c r="H272">
+        <v>82600</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>272</v>
+      </c>
+      <c r="C273">
+        <v>1400</v>
+      </c>
+      <c r="D273">
+        <v>740.2203421179544</v>
+      </c>
+      <c r="E273">
+        <v>2140.220342117954</v>
+      </c>
+      <c r="F273">
+        <v>1044539.270837428</v>
+      </c>
+      <c r="G273">
+        <v>663739.270837428</v>
+      </c>
+      <c r="H273">
+        <v>81200</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>273</v>
+      </c>
+      <c r="C274">
+        <v>1400</v>
+      </c>
+      <c r="D274">
+        <v>727.6742346244297</v>
+      </c>
+      <c r="E274">
+        <v>2127.67423462443</v>
+      </c>
+      <c r="F274">
+        <v>1046666.945072052</v>
+      </c>
+      <c r="G274">
+        <v>664466.9450720525</v>
+      </c>
+      <c r="H274">
+        <v>79800</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>274</v>
+      </c>
+      <c r="C275">
+        <v>1400</v>
+      </c>
+      <c r="D275">
+        <v>715.128127130905</v>
+      </c>
+      <c r="E275">
+        <v>2115.128127130905</v>
+      </c>
+      <c r="F275">
+        <v>1048782.073199183</v>
+      </c>
+      <c r="G275">
+        <v>665182.0731991834</v>
+      </c>
+      <c r="H275">
+        <v>78400</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>275</v>
+      </c>
+      <c r="C276">
+        <v>1400</v>
+      </c>
+      <c r="D276">
+        <v>702.5820196373804</v>
+      </c>
+      <c r="E276">
+        <v>2102.582019637381</v>
+      </c>
+      <c r="F276">
+        <v>1050884.655218821</v>
+      </c>
+      <c r="G276">
+        <v>665884.6552188208</v>
+      </c>
+      <c r="H276">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>276</v>
+      </c>
+      <c r="C277">
+        <v>1400</v>
+      </c>
+      <c r="D277">
+        <v>690.0359121438557</v>
+      </c>
+      <c r="E277">
+        <v>2090.035912143856</v>
+      </c>
+      <c r="F277">
+        <v>1052974.691130964</v>
+      </c>
+      <c r="G277">
+        <v>666574.6911309647</v>
+      </c>
+      <c r="H277">
+        <v>75600</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>277</v>
+      </c>
+      <c r="C278">
+        <v>1400</v>
+      </c>
+      <c r="D278">
+        <v>677.4898046503311</v>
+      </c>
+      <c r="E278">
+        <v>2077.489804650331</v>
+      </c>
+      <c r="F278">
+        <v>1055052.180935615</v>
+      </c>
+      <c r="G278">
+        <v>667252.180935615</v>
+      </c>
+      <c r="H278">
+        <v>74200</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>278</v>
+      </c>
+      <c r="C279">
+        <v>1400</v>
+      </c>
+      <c r="D279">
+        <v>664.9436971568065</v>
+      </c>
+      <c r="E279">
+        <v>2064.943697156807</v>
+      </c>
+      <c r="F279">
+        <v>1057117.124632772</v>
+      </c>
+      <c r="G279">
+        <v>667917.1246327718</v>
+      </c>
+      <c r="H279">
+        <v>72800</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>279</v>
+      </c>
+      <c r="C280">
+        <v>1400</v>
+      </c>
+      <c r="D280">
+        <v>652.3975896632818</v>
+      </c>
+      <c r="E280">
+        <v>2052.397589663282</v>
+      </c>
+      <c r="F280">
+        <v>1059169.522222435</v>
+      </c>
+      <c r="G280">
+        <v>668569.5222224351</v>
+      </c>
+      <c r="H280">
+        <v>71400</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>280</v>
+      </c>
+      <c r="C281">
+        <v>1400</v>
+      </c>
+      <c r="D281">
+        <v>639.8514821697571</v>
+      </c>
+      <c r="E281">
+        <v>2039.851482169757</v>
+      </c>
+      <c r="F281">
+        <v>1061209.373704605</v>
+      </c>
+      <c r="G281">
+        <v>669209.3737046048</v>
+      </c>
+      <c r="H281">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>281</v>
+      </c>
+      <c r="C282">
+        <v>1400</v>
+      </c>
+      <c r="D282">
+        <v>627.3053746762325</v>
+      </c>
+      <c r="E282">
+        <v>2027.305374676233</v>
+      </c>
+      <c r="F282">
+        <v>1063236.679079281</v>
+      </c>
+      <c r="G282">
+        <v>669836.679079281</v>
+      </c>
+      <c r="H282">
+        <v>68600</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>282</v>
+      </c>
+      <c r="C283">
+        <v>1400</v>
+      </c>
+      <c r="D283">
+        <v>614.7592671827078</v>
+      </c>
+      <c r="E283">
+        <v>2014.759267182708</v>
+      </c>
+      <c r="F283">
+        <v>1065251.438346463</v>
+      </c>
+      <c r="G283">
+        <v>670451.4383464637</v>
+      </c>
+      <c r="H283">
+        <v>67200</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>283</v>
+      </c>
+      <c r="C284">
+        <v>1400</v>
+      </c>
+      <c r="D284">
+        <v>602.2131596891832</v>
+      </c>
+      <c r="E284">
+        <v>2002.213159689183</v>
+      </c>
+      <c r="F284">
+        <v>1067253.651506153</v>
+      </c>
+      <c r="G284">
+        <v>671053.6515061529</v>
+      </c>
+      <c r="H284">
+        <v>65800</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>284</v>
+      </c>
+      <c r="C285">
+        <v>1400</v>
+      </c>
+      <c r="D285">
+        <v>589.6670521956586</v>
+      </c>
+      <c r="E285">
+        <v>1989.667052195658</v>
+      </c>
+      <c r="F285">
+        <v>1069243.318558348</v>
+      </c>
+      <c r="G285">
+        <v>671643.3185583486</v>
+      </c>
+      <c r="H285">
+        <v>64400</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>285</v>
+      </c>
+      <c r="C286">
+        <v>1400</v>
+      </c>
+      <c r="D286">
+        <v>577.1209447021339</v>
+      </c>
+      <c r="E286">
+        <v>1977.120944702134</v>
+      </c>
+      <c r="F286">
+        <v>1071220.43950305</v>
+      </c>
+      <c r="G286">
+        <v>672220.4395030508</v>
+      </c>
+      <c r="H286">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>286</v>
+      </c>
+      <c r="C287">
+        <v>1400</v>
+      </c>
+      <c r="D287">
+        <v>564.5748372086092</v>
+      </c>
+      <c r="E287">
+        <v>1964.574837208609</v>
+      </c>
+      <c r="F287">
+        <v>1073185.014340259</v>
+      </c>
+      <c r="G287">
+        <v>672785.0143402594</v>
+      </c>
+      <c r="H287">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>287</v>
+      </c>
+      <c r="C288">
+        <v>1400</v>
+      </c>
+      <c r="D288">
+        <v>552.0287297150846</v>
+      </c>
+      <c r="E288">
+        <v>1952.028729715085</v>
+      </c>
+      <c r="F288">
+        <v>1075137.043069974</v>
+      </c>
+      <c r="G288">
+        <v>673337.0430699744</v>
+      </c>
+      <c r="H288">
+        <v>60200</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>288</v>
+      </c>
+      <c r="C289">
+        <v>1400</v>
+      </c>
+      <c r="D289">
+        <v>539.48262222156</v>
+      </c>
+      <c r="E289">
+        <v>1939.48262222156</v>
+      </c>
+      <c r="F289">
+        <v>1077076.525692196</v>
+      </c>
+      <c r="G289">
+        <v>673876.525692196</v>
+      </c>
+      <c r="H289">
+        <v>58800</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>289</v>
+      </c>
+      <c r="C290">
+        <v>1400</v>
+      </c>
+      <c r="D290">
+        <v>526.9365147280353</v>
+      </c>
+      <c r="E290">
+        <v>1926.936514728035</v>
+      </c>
+      <c r="F290">
+        <v>1079003.462206924</v>
+      </c>
+      <c r="G290">
+        <v>674403.462206924</v>
+      </c>
+      <c r="H290">
+        <v>57400</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>290</v>
+      </c>
+      <c r="C291">
+        <v>1400</v>
+      </c>
+      <c r="D291">
+        <v>514.3904072345107</v>
+      </c>
+      <c r="E291">
+        <v>1914.390407234511</v>
+      </c>
+      <c r="F291">
+        <v>1080917.852614158</v>
+      </c>
+      <c r="G291">
+        <v>674917.8526141585</v>
+      </c>
+      <c r="H291">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>291</v>
+      </c>
+      <c r="C292">
+        <v>1400</v>
+      </c>
+      <c r="D292">
+        <v>501.844299740986</v>
+      </c>
+      <c r="E292">
+        <v>1901.844299740986</v>
+      </c>
+      <c r="F292">
+        <v>1082819.696913899</v>
+      </c>
+      <c r="G292">
+        <v>675419.6969138995</v>
+      </c>
+      <c r="H292">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>292</v>
+      </c>
+      <c r="C293">
+        <v>1400</v>
+      </c>
+      <c r="D293">
+        <v>489.2981922474613</v>
+      </c>
+      <c r="E293">
+        <v>1889.298192247461</v>
+      </c>
+      <c r="F293">
+        <v>1084708.995106147</v>
+      </c>
+      <c r="G293">
+        <v>675908.995106147</v>
+      </c>
+      <c r="H293">
+        <v>53200</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>293</v>
+      </c>
+      <c r="C294">
+        <v>1400</v>
+      </c>
+      <c r="D294">
+        <v>476.7520847539367</v>
+      </c>
+      <c r="E294">
+        <v>1876.752084753937</v>
+      </c>
+      <c r="F294">
+        <v>1086585.747190901</v>
+      </c>
+      <c r="G294">
+        <v>676385.747190901</v>
+      </c>
+      <c r="H294">
+        <v>51800</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>294</v>
+      </c>
+      <c r="C295">
+        <v>1400</v>
+      </c>
+      <c r="D295">
+        <v>464.2059772604121</v>
+      </c>
+      <c r="E295">
+        <v>1864.205977260412</v>
+      </c>
+      <c r="F295">
+        <v>1088449.953168161</v>
+      </c>
+      <c r="G295">
+        <v>676849.9531681613</v>
+      </c>
+      <c r="H295">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>295</v>
+      </c>
+      <c r="C296">
+        <v>1400</v>
+      </c>
+      <c r="D296">
+        <v>451.6598697668874</v>
+      </c>
+      <c r="E296">
+        <v>1851.659869766887</v>
+      </c>
+      <c r="F296">
+        <v>1090301.613037928</v>
+      </c>
+      <c r="G296">
+        <v>677301.6130379282</v>
+      </c>
+      <c r="H296">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>296</v>
+      </c>
+      <c r="C297">
+        <v>1400</v>
+      </c>
+      <c r="D297">
+        <v>439.1137622733627</v>
+      </c>
+      <c r="E297">
+        <v>1839.113762273363</v>
+      </c>
+      <c r="F297">
+        <v>1092140.726800201</v>
+      </c>
+      <c r="G297">
+        <v>677740.7268002016</v>
+      </c>
+      <c r="H297">
+        <v>47600</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>297</v>
+      </c>
+      <c r="C298">
+        <v>1400</v>
+      </c>
+      <c r="D298">
+        <v>426.5676547798381</v>
+      </c>
+      <c r="E298">
+        <v>1826.567654779838</v>
+      </c>
+      <c r="F298">
+        <v>1093967.294454981</v>
+      </c>
+      <c r="G298">
+        <v>678167.2944549815</v>
+      </c>
+      <c r="H298">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>298</v>
+      </c>
+      <c r="C299">
+        <v>1400</v>
+      </c>
+      <c r="D299">
+        <v>414.0215472863134</v>
+      </c>
+      <c r="E299">
+        <v>1814.021547286313</v>
+      </c>
+      <c r="F299">
+        <v>1095781.316002268</v>
+      </c>
+      <c r="G299">
+        <v>678581.3160022678</v>
+      </c>
+      <c r="H299">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>299</v>
+      </c>
+      <c r="C300">
+        <v>1400</v>
+      </c>
+      <c r="D300">
+        <v>401.4754397927888</v>
+      </c>
+      <c r="E300">
+        <v>1801.475439792789</v>
+      </c>
+      <c r="F300">
+        <v>1097582.79144206</v>
+      </c>
+      <c r="G300">
+        <v>678982.7914420605</v>
+      </c>
+      <c r="H300">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>300</v>
+      </c>
+      <c r="C301">
+        <v>1400</v>
+      </c>
+      <c r="D301">
+        <v>388.9293322992642</v>
+      </c>
+      <c r="E301">
+        <v>1788.929332299264</v>
+      </c>
+      <c r="F301">
+        <v>1099371.72077436</v>
+      </c>
+      <c r="G301">
+        <v>679371.7207743598</v>
+      </c>
+      <c r="H301">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>301</v>
+      </c>
+      <c r="C302">
+        <v>1400</v>
+      </c>
+      <c r="D302">
+        <v>376.3832248057395</v>
+      </c>
+      <c r="E302">
+        <v>1776.383224805739</v>
+      </c>
+      <c r="F302">
+        <v>1101148.103999165</v>
+      </c>
+      <c r="G302">
+        <v>679748.1039991655</v>
+      </c>
+      <c r="H302">
+        <v>40600</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>302</v>
+      </c>
+      <c r="C303">
+        <v>1400</v>
+      </c>
+      <c r="D303">
+        <v>363.8371173122148</v>
+      </c>
+      <c r="E303">
+        <v>1763.837117312215</v>
+      </c>
+      <c r="F303">
+        <v>1102911.941116478</v>
+      </c>
+      <c r="G303">
+        <v>680111.9411164777</v>
+      </c>
+      <c r="H303">
+        <v>39200</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>303</v>
+      </c>
+      <c r="C304">
+        <v>1400</v>
+      </c>
+      <c r="D304">
+        <v>351.2910098186902</v>
+      </c>
+      <c r="E304">
+        <v>1751.29100981869</v>
+      </c>
+      <c r="F304">
+        <v>1104663.232126296</v>
+      </c>
+      <c r="G304">
+        <v>680463.2321262964</v>
+      </c>
+      <c r="H304">
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>304</v>
+      </c>
+      <c r="C305">
+        <v>1400</v>
+      </c>
+      <c r="D305">
+        <v>338.7449023251655</v>
+      </c>
+      <c r="E305">
+        <v>1738.744902325166</v>
+      </c>
+      <c r="F305">
+        <v>1106401.977028621</v>
+      </c>
+      <c r="G305">
+        <v>680801.9770286216</v>
+      </c>
+      <c r="H305">
+        <v>36400</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>305</v>
+      </c>
+      <c r="C306">
+        <v>1400</v>
+      </c>
+      <c r="D306">
+        <v>326.1987948316409</v>
+      </c>
+      <c r="E306">
+        <v>1726.198794831641</v>
+      </c>
+      <c r="F306">
+        <v>1108128.175823453</v>
+      </c>
+      <c r="G306">
+        <v>681128.1758234532</v>
+      </c>
+      <c r="H306">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>306</v>
+      </c>
+      <c r="C307">
+        <v>1400</v>
+      </c>
+      <c r="D307">
+        <v>313.6526873381163</v>
+      </c>
+      <c r="E307">
+        <v>1713.652687338116</v>
+      </c>
+      <c r="F307">
+        <v>1109841.828510791</v>
+      </c>
+      <c r="G307">
+        <v>681441.8285107913</v>
+      </c>
+      <c r="H307">
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>307</v>
+      </c>
+      <c r="C308">
+        <v>1400</v>
+      </c>
+      <c r="D308">
+        <v>301.1065798445916</v>
+      </c>
+      <c r="E308">
+        <v>1701.106579844592</v>
+      </c>
+      <c r="F308">
+        <v>1111542.935090636</v>
+      </c>
+      <c r="G308">
+        <v>681742.9350906359</v>
+      </c>
+      <c r="H308">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>308</v>
+      </c>
+      <c r="C309">
+        <v>1400</v>
+      </c>
+      <c r="D309">
+        <v>288.5604723510669</v>
+      </c>
+      <c r="E309">
+        <v>1688.560472351067</v>
+      </c>
+      <c r="F309">
+        <v>1113231.495562987</v>
+      </c>
+      <c r="G309">
+        <v>682031.4955629869</v>
+      </c>
+      <c r="H309">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>309</v>
+      </c>
+      <c r="C310">
+        <v>1400</v>
+      </c>
+      <c r="D310">
+        <v>276.0143648575423</v>
+      </c>
+      <c r="E310">
+        <v>1676.014364857542</v>
+      </c>
+      <c r="F310">
+        <v>1114907.509927844</v>
+      </c>
+      <c r="G310">
+        <v>682307.5099278445</v>
+      </c>
+      <c r="H310">
+        <v>29400</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>310</v>
+      </c>
+      <c r="C311">
+        <v>1400</v>
+      </c>
+      <c r="D311">
+        <v>263.4682573640176</v>
+      </c>
+      <c r="E311">
+        <v>1663.468257364018</v>
+      </c>
+      <c r="F311">
+        <v>1116570.978185209</v>
+      </c>
+      <c r="G311">
+        <v>682570.9781852085</v>
+      </c>
+      <c r="H311">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>311</v>
+      </c>
+      <c r="C312">
+        <v>1400</v>
+      </c>
+      <c r="D312">
+        <v>250.922149870493</v>
+      </c>
+      <c r="E312">
+        <v>1650.922149870493</v>
+      </c>
+      <c r="F312">
+        <v>1118221.900335079</v>
+      </c>
+      <c r="G312">
+        <v>682821.9003350791</v>
+      </c>
+      <c r="H312">
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>312</v>
+      </c>
+      <c r="C313">
+        <v>1400</v>
+      </c>
+      <c r="D313">
+        <v>238.3760423769683</v>
+      </c>
+      <c r="E313">
+        <v>1638.376042376968</v>
+      </c>
+      <c r="F313">
+        <v>1119860.276377456</v>
+      </c>
+      <c r="G313">
+        <v>683060.276377456</v>
+      </c>
+      <c r="H313">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>313</v>
+      </c>
+      <c r="C314">
+        <v>1400</v>
+      </c>
+      <c r="D314">
+        <v>225.8299348834437</v>
+      </c>
+      <c r="E314">
+        <v>1625.829934883444</v>
+      </c>
+      <c r="F314">
+        <v>1121486.106312339</v>
+      </c>
+      <c r="G314">
+        <v>683286.1063123394</v>
+      </c>
+      <c r="H314">
+        <v>23800</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>314</v>
+      </c>
+      <c r="C315">
+        <v>1400</v>
+      </c>
+      <c r="D315">
+        <v>213.2838273899191</v>
+      </c>
+      <c r="E315">
+        <v>1613.283827389919</v>
+      </c>
+      <c r="F315">
+        <v>1123099.390139729</v>
+      </c>
+      <c r="G315">
+        <v>683499.3901397294</v>
+      </c>
+      <c r="H315">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>315</v>
+      </c>
+      <c r="C316">
+        <v>1400</v>
+      </c>
+      <c r="D316">
+        <v>200.7377198963944</v>
+      </c>
+      <c r="E316">
+        <v>1600.737719896394</v>
+      </c>
+      <c r="F316">
+        <v>1124700.127859626</v>
+      </c>
+      <c r="G316">
+        <v>683700.1278596257</v>
+      </c>
+      <c r="H316">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>316</v>
+      </c>
+      <c r="C317">
+        <v>1400</v>
+      </c>
+      <c r="D317">
+        <v>188.1916124028697</v>
+      </c>
+      <c r="E317">
+        <v>1588.19161240287</v>
+      </c>
+      <c r="F317">
+        <v>1126288.319472029</v>
+      </c>
+      <c r="G317">
+        <v>683888.3194720286</v>
+      </c>
+      <c r="H317">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>317</v>
+      </c>
+      <c r="C318">
+        <v>1400</v>
+      </c>
+      <c r="D318">
+        <v>175.6455049093451</v>
+      </c>
+      <c r="E318">
+        <v>1575.645504909345</v>
+      </c>
+      <c r="F318">
+        <v>1127863.964976938</v>
+      </c>
+      <c r="G318">
+        <v>684063.964976938</v>
+      </c>
+      <c r="H318">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>318</v>
+      </c>
+      <c r="C319">
+        <v>1400</v>
+      </c>
+      <c r="D319">
+        <v>163.0993974158204</v>
+      </c>
+      <c r="E319">
+        <v>1563.09939741582</v>
+      </c>
+      <c r="F319">
+        <v>1129427.064374354</v>
+      </c>
+      <c r="G319">
+        <v>684227.0643743539</v>
+      </c>
+      <c r="H319">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>319</v>
+      </c>
+      <c r="C320">
+        <v>1400</v>
+      </c>
+      <c r="D320">
+        <v>150.5532899222958</v>
+      </c>
+      <c r="E320">
+        <v>1550.553289922296</v>
+      </c>
+      <c r="F320">
+        <v>1130977.617664276</v>
+      </c>
+      <c r="G320">
+        <v>684377.6176642762</v>
+      </c>
+      <c r="H320">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>320</v>
+      </c>
+      <c r="C321">
+        <v>1400</v>
+      </c>
+      <c r="D321">
+        <v>138.0071824287712</v>
+      </c>
+      <c r="E321">
+        <v>1538.007182428771</v>
+      </c>
+      <c r="F321">
+        <v>1132515.624846705</v>
+      </c>
+      <c r="G321">
+        <v>684515.6248467049</v>
+      </c>
+      <c r="H321">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>321</v>
+      </c>
+      <c r="C322">
+        <v>1400</v>
+      </c>
+      <c r="D322">
+        <v>125.4610749352465</v>
+      </c>
+      <c r="E322">
+        <v>1525.461074935246</v>
+      </c>
+      <c r="F322">
+        <v>1134041.08592164</v>
+      </c>
+      <c r="G322">
+        <v>684641.0859216402</v>
+      </c>
+      <c r="H322">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>322</v>
+      </c>
+      <c r="C323">
+        <v>1400</v>
+      </c>
+      <c r="D323">
+        <v>112.9149674417218</v>
+      </c>
+      <c r="E323">
+        <v>1512.914967441722</v>
+      </c>
+      <c r="F323">
+        <v>1135554.000889082</v>
+      </c>
+      <c r="G323">
+        <v>684754.0008890819</v>
+      </c>
+      <c r="H323">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>323</v>
+      </c>
+      <c r="C324">
+        <v>1400</v>
+      </c>
+      <c r="D324">
+        <v>100.3688599481972</v>
+      </c>
+      <c r="E324">
+        <v>1500.368859948197</v>
+      </c>
+      <c r="F324">
+        <v>1137054.36974903</v>
+      </c>
+      <c r="G324">
+        <v>684854.3697490301</v>
+      </c>
+      <c r="H324">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>324</v>
+      </c>
+      <c r="C325">
+        <v>1400</v>
+      </c>
+      <c r="D325">
+        <v>87.82275245467255</v>
+      </c>
+      <c r="E325">
+        <v>1487.822752454673</v>
+      </c>
+      <c r="F325">
+        <v>1138542.192501485</v>
+      </c>
+      <c r="G325">
+        <v>684942.1925014848</v>
+      </c>
+      <c r="H325">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>325</v>
+      </c>
+      <c r="C326">
+        <v>1400</v>
+      </c>
+      <c r="D326">
+        <v>75.27664496114789</v>
+      </c>
+      <c r="E326">
+        <v>1475.276644961148</v>
+      </c>
+      <c r="F326">
+        <v>1140017.469146446</v>
+      </c>
+      <c r="G326">
+        <v>685017.4691464459</v>
+      </c>
+      <c r="H326">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>326</v>
+      </c>
+      <c r="C327">
+        <v>1400</v>
+      </c>
+      <c r="D327">
+        <v>62.73053746762325</v>
+      </c>
+      <c r="E327">
+        <v>1462.730537467623</v>
+      </c>
+      <c r="F327">
+        <v>1141480.199683913</v>
+      </c>
+      <c r="G327">
+        <v>685080.1996839135</v>
+      </c>
+      <c r="H327">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>327</v>
+      </c>
+      <c r="C328">
+        <v>1400</v>
+      </c>
+      <c r="D328">
+        <v>50.1844299740986</v>
+      </c>
+      <c r="E328">
+        <v>1450.184429974099</v>
+      </c>
+      <c r="F328">
+        <v>1142930.384113888</v>
+      </c>
+      <c r="G328">
+        <v>685130.3841138876</v>
+      </c>
+      <c r="H328">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>328</v>
+      </c>
+      <c r="C329">
+        <v>1400</v>
+      </c>
+      <c r="D329">
+        <v>37.63832248057395</v>
+      </c>
+      <c r="E329">
+        <v>1437.638322480574</v>
+      </c>
+      <c r="F329">
+        <v>1144368.022436368</v>
+      </c>
+      <c r="G329">
+        <v>685168.0224363682</v>
+      </c>
+      <c r="H329">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>329</v>
+      </c>
+      <c r="C330">
+        <v>1400</v>
+      </c>
+      <c r="D330">
+        <v>25.0922149870493</v>
+      </c>
+      <c r="E330">
+        <v>1425.092214987049</v>
+      </c>
+      <c r="F330">
+        <v>1145793.114651355</v>
+      </c>
+      <c r="G330">
+        <v>685193.1146513552</v>
+      </c>
+      <c r="H330">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>330</v>
+      </c>
+      <c r="C331">
+        <v>1400</v>
+      </c>
+      <c r="D331">
+        <v>12.54610749352465</v>
+      </c>
+      <c r="E331">
+        <v>1412.546107493525</v>
+      </c>
+      <c r="F331">
+        <v>1147205.660758849</v>
+      </c>
+      <c r="G331">
+        <v>685205.6607588488</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/calculadora juros/teste_financiamento.xlsx
+++ b/calculadora juros/teste_financiamento.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H331"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D2">
-        <v>4140.215472863134</v>
+        <v>3885.917718546261</v>
       </c>
       <c r="E2">
-        <v>5540.215472863134</v>
+        <v>5677.584385212928</v>
       </c>
       <c r="F2">
-        <v>5540.215472863134</v>
+        <v>5677.584385212928</v>
       </c>
       <c r="G2">
-        <v>4140.215472863134</v>
+        <v>3885.917718546261</v>
       </c>
       <c r="H2">
-        <v>460600</v>
+        <v>428208.3333333333</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -455,22 +455,22 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D3">
-        <v>4127.66936536961</v>
+        <v>3869.726394718985</v>
       </c>
       <c r="E3">
-        <v>5527.66936536961</v>
+        <v>5661.393061385652</v>
       </c>
       <c r="F3">
-        <v>11067.88483823275</v>
+        <v>11338.97744659858</v>
       </c>
       <c r="G3">
-        <v>8267.884838232745</v>
+        <v>7755.644113265246</v>
       </c>
       <c r="H3">
-        <v>459200</v>
+        <v>426416.6666666666</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,22 +481,22 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D4">
-        <v>4115.123257876086</v>
+        <v>3853.535070891709</v>
       </c>
       <c r="E4">
-        <v>5515.123257876086</v>
+        <v>5645.201737558376</v>
       </c>
       <c r="F4">
-        <v>16583.00809610883</v>
+        <v>16984.17918415696</v>
       </c>
       <c r="G4">
-        <v>12383.00809610883</v>
+        <v>11609.17918415696</v>
       </c>
       <c r="H4">
-        <v>457800</v>
+        <v>424624.9999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -507,22 +507,22 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D5">
-        <v>4102.577150382561</v>
+        <v>3837.343747064433</v>
       </c>
       <c r="E5">
-        <v>5502.577150382561</v>
+        <v>5629.0104137311</v>
       </c>
       <c r="F5">
-        <v>22085.58524649139</v>
+        <v>22613.18959788806</v>
       </c>
       <c r="G5">
-        <v>16485.58524649139</v>
+        <v>15446.52293122139</v>
       </c>
       <c r="H5">
-        <v>456400</v>
+        <v>422833.3333333333</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -533,22 +533,22 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D6">
-        <v>4090.031042889036</v>
+        <v>3821.152423237157</v>
       </c>
       <c r="E6">
-        <v>5490.031042889035</v>
+        <v>5612.819089903824</v>
       </c>
       <c r="F6">
-        <v>27575.61628938043</v>
+        <v>28226.00868779188</v>
       </c>
       <c r="G6">
-        <v>20575.61628938043</v>
+        <v>19267.67535445854</v>
       </c>
       <c r="H6">
-        <v>455000</v>
+        <v>421041.6666666666</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -559,22 +559,22 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D7">
-        <v>4077.484935395511</v>
+        <v>3804.961099409881</v>
       </c>
       <c r="E7">
-        <v>5477.484935395511</v>
+        <v>5596.627766076548</v>
       </c>
       <c r="F7">
-        <v>33053.10122477594</v>
+        <v>33822.63645386843</v>
       </c>
       <c r="G7">
-        <v>24653.10122477594</v>
+        <v>23072.63645386842</v>
       </c>
       <c r="H7">
-        <v>453600</v>
+        <v>419249.9999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -585,22 +585,22 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D8">
-        <v>4064.938827901986</v>
+        <v>3788.769775582605</v>
       </c>
       <c r="E8">
-        <v>5464.938827901986</v>
+        <v>5580.436442249272</v>
       </c>
       <c r="F8">
-        <v>38518.04005267792</v>
+        <v>39403.0728961177</v>
       </c>
       <c r="G8">
-        <v>28718.04005267793</v>
+        <v>26861.40622945103</v>
       </c>
       <c r="H8">
-        <v>452200</v>
+        <v>417458.3333333332</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -611,22 +611,22 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D9">
-        <v>4052.392720408462</v>
+        <v>3772.578451755328</v>
       </c>
       <c r="E9">
-        <v>5452.392720408462</v>
+        <v>5564.245118421995</v>
       </c>
       <c r="F9">
-        <v>43970.43277308638</v>
+        <v>44967.3180145397</v>
       </c>
       <c r="G9">
-        <v>32770.43277308639</v>
+        <v>30633.98468120636</v>
       </c>
       <c r="H9">
-        <v>450800</v>
+        <v>415666.6666666665</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -637,22 +637,22 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D10">
-        <v>4039.846612914937</v>
+        <v>3756.387127928053</v>
       </c>
       <c r="E10">
-        <v>5439.846612914937</v>
+        <v>5548.05379459472</v>
       </c>
       <c r="F10">
-        <v>49410.27938600132</v>
+        <v>50515.37180913442</v>
       </c>
       <c r="G10">
-        <v>36810.27938600133</v>
+        <v>34390.37180913441</v>
       </c>
       <c r="H10">
-        <v>449400</v>
+        <v>413874.9999999998</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -663,22 +663,22 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D11">
-        <v>4027.300505421413</v>
+        <v>3740.195804100777</v>
       </c>
       <c r="E11">
-        <v>5427.300505421413</v>
+        <v>5531.862470767443</v>
       </c>
       <c r="F11">
-        <v>54837.57989142273</v>
+        <v>56047.23427990187</v>
       </c>
       <c r="G11">
-        <v>40837.57989142274</v>
+        <v>38130.56761323519</v>
       </c>
       <c r="H11">
-        <v>448000</v>
+        <v>412083.3333333331</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -689,22 +689,22 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D12">
-        <v>4014.754397927888</v>
+        <v>3724.0044802735</v>
       </c>
       <c r="E12">
-        <v>5414.754397927888</v>
+        <v>5515.671146940167</v>
       </c>
       <c r="F12">
-        <v>60252.33428935062</v>
+        <v>61562.90542684203</v>
       </c>
       <c r="G12">
-        <v>44852.33428935063</v>
+        <v>41854.57209350869</v>
       </c>
       <c r="H12">
-        <v>446600</v>
+        <v>410291.6666666665</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -715,22 +715,22 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D13">
-        <v>4002.208290434363</v>
+        <v>3707.813156446225</v>
       </c>
       <c r="E13">
-        <v>5402.208290434363</v>
+        <v>5499.479823112892</v>
       </c>
       <c r="F13">
-        <v>65654.54257978499</v>
+        <v>67062.38524995492</v>
       </c>
       <c r="G13">
-        <v>48854.54257978499</v>
+        <v>45562.38524995491</v>
       </c>
       <c r="H13">
-        <v>445200</v>
+        <v>408499.9999999998</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -741,22 +741,22 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D14">
-        <v>3989.662182940839</v>
+        <v>3691.621832618948</v>
       </c>
       <c r="E14">
-        <v>5389.662182940839</v>
+        <v>5483.288499285615</v>
       </c>
       <c r="F14">
-        <v>71044.20476272583</v>
+        <v>72545.67374924054</v>
       </c>
       <c r="G14">
-        <v>52844.20476272583</v>
+        <v>49254.00708257386</v>
       </c>
       <c r="H14">
-        <v>443800</v>
+        <v>406708.3333333331</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -767,22 +767,22 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D15">
-        <v>3977.116075447314</v>
+        <v>3675.430508791672</v>
       </c>
       <c r="E15">
-        <v>5377.116075447314</v>
+        <v>5467.097175458339</v>
       </c>
       <c r="F15">
-        <v>76421.32083817314</v>
+        <v>78012.77092469888</v>
       </c>
       <c r="G15">
-        <v>56821.32083817315</v>
+        <v>52929.43759136553</v>
       </c>
       <c r="H15">
-        <v>442400</v>
+        <v>404916.6666666664</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -793,22 +793,22 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D16">
-        <v>3964.569967953789</v>
+        <v>3659.239184964396</v>
       </c>
       <c r="E16">
-        <v>5364.569967953789</v>
+        <v>5450.905851631063</v>
       </c>
       <c r="F16">
-        <v>81785.89080612693</v>
+        <v>83463.67677632994</v>
       </c>
       <c r="G16">
-        <v>60785.89080612693</v>
+        <v>56588.67677632993</v>
       </c>
       <c r="H16">
-        <v>441000</v>
+        <v>403124.9999999997</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -819,22 +819,22 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D17">
-        <v>3952.023860460265</v>
+        <v>3643.04786113712</v>
       </c>
       <c r="E17">
-        <v>5352.023860460265</v>
+        <v>5434.714527803787</v>
       </c>
       <c r="F17">
-        <v>87137.9146665872</v>
+        <v>88898.39130413374</v>
       </c>
       <c r="G17">
-        <v>64737.9146665872</v>
+        <v>60231.72463746705</v>
       </c>
       <c r="H17">
-        <v>439600</v>
+        <v>401333.333333333</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -845,22 +845,22 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D18">
-        <v>3939.47775296674</v>
+        <v>3626.856537309844</v>
       </c>
       <c r="E18">
-        <v>5339.47775296674</v>
+        <v>5418.523203976511</v>
       </c>
       <c r="F18">
-        <v>92477.39241955393</v>
+        <v>94316.91450811025</v>
       </c>
       <c r="G18">
-        <v>68677.39241955393</v>
+        <v>63858.5811747769</v>
       </c>
       <c r="H18">
-        <v>438200</v>
+        <v>399541.6666666663</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -871,22 +871,22 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D19">
-        <v>3926.931645473215</v>
+        <v>3610.665213482568</v>
       </c>
       <c r="E19">
-        <v>5326.931645473215</v>
+        <v>5402.331880149235</v>
       </c>
       <c r="F19">
-        <v>97804.32406502715</v>
+        <v>99719.24638825949</v>
       </c>
       <c r="G19">
-        <v>72604.32406502715</v>
+        <v>67469.24638825946</v>
       </c>
       <c r="H19">
-        <v>436800</v>
+        <v>397749.9999999997</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -897,22 +897,22 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D20">
-        <v>3914.385537979691</v>
+        <v>3594.473889655292</v>
       </c>
       <c r="E20">
-        <v>5314.385537979691</v>
+        <v>5386.140556321959</v>
       </c>
       <c r="F20">
-        <v>103118.7096030068</v>
+        <v>105105.3869445814</v>
       </c>
       <c r="G20">
-        <v>76518.70960300684</v>
+        <v>71063.72027791475</v>
       </c>
       <c r="H20">
-        <v>435400</v>
+        <v>395958.333333333</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -923,22 +923,22 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D21">
-        <v>3901.839430486166</v>
+        <v>3578.282565828015</v>
       </c>
       <c r="E21">
-        <v>5301.839430486166</v>
+        <v>5369.949232494682</v>
       </c>
       <c r="F21">
-        <v>108420.549033493</v>
+        <v>110475.3361770761</v>
       </c>
       <c r="G21">
-        <v>80420.54903349301</v>
+        <v>74642.00284374277</v>
       </c>
       <c r="H21">
-        <v>434000</v>
+        <v>394166.6666666663</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -949,22 +949,22 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D22">
-        <v>3889.293322992642</v>
+        <v>3562.09124200074</v>
       </c>
       <c r="E22">
-        <v>5289.293322992642</v>
+        <v>5353.757908667407</v>
       </c>
       <c r="F22">
-        <v>113709.8423564856</v>
+        <v>115829.0940857435</v>
       </c>
       <c r="G22">
-        <v>84309.84235648565</v>
+        <v>78204.09408574351</v>
       </c>
       <c r="H22">
-        <v>432600</v>
+        <v>392374.9999999996</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -975,22 +975,22 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D23">
-        <v>3876.747215499117</v>
+        <v>3545.899918173463</v>
       </c>
       <c r="E23">
-        <v>5276.747215499117</v>
+        <v>5337.56658484013</v>
       </c>
       <c r="F23">
-        <v>118986.5895719848</v>
+        <v>121166.6606705837</v>
       </c>
       <c r="G23">
-        <v>88186.58957198476</v>
+        <v>81749.99400391697</v>
       </c>
       <c r="H23">
-        <v>431200</v>
+        <v>390583.3333333329</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1001,22 +1001,22 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D24">
-        <v>3864.201108005592</v>
+        <v>3529.708594346187</v>
       </c>
       <c r="E24">
-        <v>5264.201108005593</v>
+        <v>5321.375261012854</v>
       </c>
       <c r="F24">
-        <v>124250.7906799904</v>
+        <v>126488.0359315965</v>
       </c>
       <c r="G24">
-        <v>92050.79067999036</v>
+        <v>85279.70259826316</v>
       </c>
       <c r="H24">
-        <v>429800</v>
+        <v>388791.6666666662</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1027,22 +1027,22 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D25">
-        <v>3851.655000512068</v>
+        <v>3513.517270518912</v>
       </c>
       <c r="E25">
-        <v>5251.655000512068</v>
+        <v>5305.183937185579</v>
       </c>
       <c r="F25">
-        <v>129502.4456805024</v>
+        <v>131793.2198687821</v>
       </c>
       <c r="G25">
-        <v>95902.44568050242</v>
+        <v>88793.21986878208</v>
       </c>
       <c r="H25">
-        <v>428400</v>
+        <v>386999.9999999995</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1053,22 +1053,22 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D26">
-        <v>3839.108893018543</v>
+        <v>3497.325946691635</v>
       </c>
       <c r="E26">
-        <v>5239.108893018543</v>
+        <v>5288.992613358302</v>
       </c>
       <c r="F26">
-        <v>134741.554573521</v>
+        <v>137082.2124821404</v>
       </c>
       <c r="G26">
-        <v>99741.55457352096</v>
+        <v>92290.54581547371</v>
       </c>
       <c r="H26">
-        <v>427000</v>
+        <v>385208.3333333328</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1079,22 +1079,22 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D27">
-        <v>3826.562785525018</v>
+        <v>3481.134622864359</v>
       </c>
       <c r="E27">
-        <v>5226.562785525019</v>
+        <v>5272.801289531026</v>
       </c>
       <c r="F27">
-        <v>139968.117359046</v>
+        <v>142355.0137716714</v>
       </c>
       <c r="G27">
-        <v>103568.117359046</v>
+        <v>95771.68043833807</v>
       </c>
       <c r="H27">
-        <v>425600</v>
+        <v>383416.6666666662</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1105,22 +1105,22 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D28">
-        <v>3814.016678031493</v>
+        <v>3464.943299037083</v>
       </c>
       <c r="E28">
-        <v>5214.016678031494</v>
+        <v>5256.60996570375</v>
       </c>
       <c r="F28">
-        <v>145182.1340370775</v>
+        <v>147611.6237373752</v>
       </c>
       <c r="G28">
-        <v>107382.1340370775</v>
+        <v>99236.62373737515</v>
       </c>
       <c r="H28">
-        <v>424200</v>
+        <v>381624.9999999995</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1131,22 +1131,22 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D29">
-        <v>3801.470570537969</v>
+        <v>3448.751975209807</v>
       </c>
       <c r="E29">
-        <v>5201.470570537969</v>
+        <v>5240.418641876474</v>
       </c>
       <c r="F29">
-        <v>150383.6046076154</v>
+        <v>152852.0423792517</v>
       </c>
       <c r="G29">
-        <v>111183.6046076154</v>
+        <v>102685.375712585</v>
       </c>
       <c r="H29">
-        <v>422800</v>
+        <v>379833.3333333328</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1157,22 +1157,22 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D30">
-        <v>3788.924463044444</v>
+        <v>3432.560651382531</v>
       </c>
       <c r="E30">
-        <v>5188.924463044445</v>
+        <v>5224.227318049197</v>
       </c>
       <c r="F30">
-        <v>155572.5290706599</v>
+        <v>158076.2696973009</v>
       </c>
       <c r="G30">
-        <v>114972.5290706599</v>
+        <v>106117.9363639675</v>
       </c>
       <c r="H30">
-        <v>421400</v>
+        <v>378041.6666666661</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1183,22 +1183,22 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D31">
-        <v>3776.378355550919</v>
+        <v>3416.369327555255</v>
       </c>
       <c r="E31">
-        <v>5176.37835555092</v>
+        <v>5208.035994221922</v>
       </c>
       <c r="F31">
-        <v>160748.9074262108</v>
+        <v>163284.3056915228</v>
       </c>
       <c r="G31">
-        <v>118748.9074262108</v>
+        <v>109534.3056915227</v>
       </c>
       <c r="H31">
-        <v>420000</v>
+        <v>376249.9999999994</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1209,22 +1209,22 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D32">
-        <v>3763.832248057395</v>
+        <v>3400.178003727979</v>
       </c>
       <c r="E32">
-        <v>5163.832248057395</v>
+        <v>5191.844670394646</v>
       </c>
       <c r="F32">
-        <v>165912.7396742682</v>
+        <v>168476.1503619174</v>
       </c>
       <c r="G32">
-        <v>122512.7396742682</v>
+        <v>112934.4836952507</v>
       </c>
       <c r="H32">
-        <v>418600</v>
+        <v>374458.3333333327</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1235,22 +1235,22 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D33">
-        <v>3751.28614056387</v>
+        <v>3383.986679900703</v>
       </c>
       <c r="E33">
-        <v>5151.286140563871</v>
+        <v>5175.653346567369</v>
       </c>
       <c r="F33">
-        <v>171064.0258148321</v>
+        <v>173651.8037084848</v>
       </c>
       <c r="G33">
-        <v>126264.0258148321</v>
+        <v>116318.4703751514</v>
       </c>
       <c r="H33">
-        <v>417200</v>
+        <v>372666.666666666</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1261,22 +1261,22 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D34">
-        <v>3738.740033070346</v>
+        <v>3367.795356073427</v>
       </c>
       <c r="E34">
-        <v>5138.740033070346</v>
+        <v>5159.462022740094</v>
       </c>
       <c r="F34">
-        <v>176202.7658479024</v>
+        <v>178811.2657312249</v>
       </c>
       <c r="G34">
-        <v>130002.7658479024</v>
+        <v>119686.2657312248</v>
       </c>
       <c r="H34">
-        <v>415800</v>
+        <v>370874.9999999994</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1287,22 +1287,22 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D35">
-        <v>3726.193925576821</v>
+        <v>3351.60403224615</v>
       </c>
       <c r="E35">
-        <v>5126.193925576821</v>
+        <v>5143.270698912817</v>
       </c>
       <c r="F35">
-        <v>181328.9597734792</v>
+        <v>183954.5364301377</v>
       </c>
       <c r="G35">
-        <v>133728.9597734792</v>
+        <v>123037.869763471</v>
       </c>
       <c r="H35">
-        <v>414400</v>
+        <v>369083.3333333327</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1313,22 +1313,22 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D36">
-        <v>3713.647818083296</v>
+        <v>3335.412708418874</v>
       </c>
       <c r="E36">
-        <v>5113.647818083296</v>
+        <v>5127.079375085541</v>
       </c>
       <c r="F36">
-        <v>186442.6075915625</v>
+        <v>189081.6158052232</v>
       </c>
       <c r="G36">
-        <v>137442.6075915625</v>
+        <v>126373.2824718899</v>
       </c>
       <c r="H36">
-        <v>413000</v>
+        <v>367291.666666666</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1339,22 +1339,22 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D37">
-        <v>3701.101710589772</v>
+        <v>3319.221384591599</v>
       </c>
       <c r="E37">
-        <v>5101.101710589772</v>
+        <v>5110.888051258265</v>
       </c>
       <c r="F37">
-        <v>191543.7093021523</v>
+        <v>194192.5038564815</v>
       </c>
       <c r="G37">
-        <v>141143.7093021523</v>
+        <v>129692.5038564815</v>
       </c>
       <c r="H37">
-        <v>411600</v>
+        <v>365499.9999999993</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1365,22 +1365,22 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D38">
-        <v>3688.555603096247</v>
+        <v>3303.030060764323</v>
       </c>
       <c r="E38">
-        <v>5088.555603096247</v>
+        <v>5094.696727430989</v>
       </c>
       <c r="F38">
-        <v>196632.2649052485</v>
+        <v>199287.2005839125</v>
       </c>
       <c r="G38">
-        <v>144832.2649052485</v>
+        <v>132995.5339172458</v>
       </c>
       <c r="H38">
-        <v>410200</v>
+        <v>363708.3333333326</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1391,22 +1391,22 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D39">
-        <v>3676.009495602722</v>
+        <v>3286.838736937046</v>
       </c>
       <c r="E39">
-        <v>5076.009495602722</v>
+        <v>5078.505403603713</v>
       </c>
       <c r="F39">
-        <v>201708.2744008513</v>
+        <v>204365.7059875162</v>
       </c>
       <c r="G39">
-        <v>148508.2744008513</v>
+        <v>136282.3726541828</v>
       </c>
       <c r="H39">
-        <v>408800</v>
+        <v>361916.6666666659</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1417,22 +1417,22 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D40">
-        <v>3663.463388109198</v>
+        <v>3270.64741310977</v>
       </c>
       <c r="E40">
-        <v>5063.463388109198</v>
+        <v>5062.314079776437</v>
       </c>
       <c r="F40">
-        <v>206771.7377889605</v>
+        <v>209428.0200672926</v>
       </c>
       <c r="G40">
-        <v>152171.7377889605</v>
+        <v>139553.0200672926</v>
       </c>
       <c r="H40">
-        <v>407400</v>
+        <v>360124.9999999992</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1443,22 +1443,22 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D41">
-        <v>3650.917280615673</v>
+        <v>3254.456089282494</v>
       </c>
       <c r="E41">
-        <v>5050.917280615673</v>
+        <v>5046.122755949161</v>
       </c>
       <c r="F41">
-        <v>211822.6550695761</v>
+        <v>214474.1428232418</v>
       </c>
       <c r="G41">
-        <v>155822.6550695761</v>
+        <v>142807.4761565751</v>
       </c>
       <c r="H41">
-        <v>406000</v>
+        <v>358333.3333333326</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1469,22 +1469,22 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D42">
-        <v>3638.371173122148</v>
+        <v>3238.264765455218</v>
       </c>
       <c r="E42">
-        <v>5038.371173122148</v>
+        <v>5029.931432121884</v>
       </c>
       <c r="F42">
-        <v>216861.0262426983</v>
+        <v>219504.0742553637</v>
       </c>
       <c r="G42">
-        <v>159461.0262426983</v>
+        <v>146045.7409220303</v>
       </c>
       <c r="H42">
-        <v>404600</v>
+        <v>356541.6666666659</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1495,22 +1495,22 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D43">
-        <v>3625.825065628624</v>
+        <v>3222.073441627942</v>
       </c>
       <c r="E43">
-        <v>5025.825065628624</v>
+        <v>5013.740108294609</v>
       </c>
       <c r="F43">
-        <v>221886.8513083269</v>
+        <v>224517.8143636583</v>
       </c>
       <c r="G43">
-        <v>163086.8513083269</v>
+        <v>149267.8143636583</v>
       </c>
       <c r="H43">
-        <v>403200</v>
+        <v>354749.9999999992</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1521,22 +1521,22 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D44">
-        <v>3613.278958135099</v>
+        <v>3205.882117800666</v>
       </c>
       <c r="E44">
-        <v>5013.278958135099</v>
+        <v>4997.548784467333</v>
       </c>
       <c r="F44">
-        <v>226900.130266462</v>
+        <v>229515.3631481256</v>
       </c>
       <c r="G44">
-        <v>166700.130266462</v>
+        <v>152473.6964814589</v>
       </c>
       <c r="H44">
-        <v>401800</v>
+        <v>352958.3333333325</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1547,22 +1547,22 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D45">
-        <v>3600.732850641574</v>
+        <v>3189.69079397339</v>
       </c>
       <c r="E45">
-        <v>5000.732850641574</v>
+        <v>4981.357460640056</v>
       </c>
       <c r="F45">
-        <v>231900.8631171036</v>
+        <v>234496.7206087657</v>
       </c>
       <c r="G45">
-        <v>170300.8631171036</v>
+        <v>155663.3872754323</v>
       </c>
       <c r="H45">
-        <v>400400</v>
+        <v>351166.6666666658</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1573,22 +1573,22 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D46">
-        <v>3588.18674314805</v>
+        <v>3173.499470146114</v>
       </c>
       <c r="E46">
-        <v>4988.18674314805</v>
+        <v>4965.166136812781</v>
       </c>
       <c r="F46">
-        <v>236889.0498602516</v>
+        <v>239461.8867455784</v>
       </c>
       <c r="G46">
-        <v>173889.0498602516</v>
+        <v>158836.8867455784</v>
       </c>
       <c r="H46">
-        <v>399000</v>
+        <v>349374.9999999991</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1599,22 +1599,22 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D47">
-        <v>3575.640635654525</v>
+        <v>3157.308146318837</v>
       </c>
       <c r="E47">
-        <v>4975.640635654525</v>
+        <v>4948.974812985504</v>
       </c>
       <c r="F47">
-        <v>241864.6904959062</v>
+        <v>244410.8615585639</v>
       </c>
       <c r="G47">
-        <v>177464.6904959062</v>
+        <v>161994.1948918973</v>
       </c>
       <c r="H47">
-        <v>397600</v>
+        <v>347583.3333333324</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1625,22 +1625,22 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D48">
-        <v>3563.094528161001</v>
+        <v>3141.116822491561</v>
       </c>
       <c r="E48">
-        <v>4963.094528161</v>
+        <v>4932.783489158228</v>
       </c>
       <c r="F48">
-        <v>246827.7850240672</v>
+        <v>249343.6450477222</v>
       </c>
       <c r="G48">
-        <v>181027.7850240672</v>
+        <v>165135.3117143888</v>
       </c>
       <c r="H48">
-        <v>396200</v>
+        <v>345791.6666666658</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1651,22 +1651,22 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D49">
-        <v>3550.548420667476</v>
+        <v>3124.925498664285</v>
       </c>
       <c r="E49">
-        <v>4950.548420667476</v>
+        <v>4916.592165330952</v>
       </c>
       <c r="F49">
-        <v>251778.3334447346</v>
+        <v>254260.2372130531</v>
       </c>
       <c r="G49">
-        <v>184578.3334447346</v>
+        <v>168260.2372130531</v>
       </c>
       <c r="H49">
-        <v>394800</v>
+        <v>343999.9999999991</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1677,22 +1677,22 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D50">
-        <v>3538.002313173951</v>
+        <v>3108.734174837009</v>
       </c>
       <c r="E50">
-        <v>4938.002313173951</v>
+        <v>4900.400841503676</v>
       </c>
       <c r="F50">
-        <v>256716.3357579086</v>
+        <v>259160.6380545568</v>
       </c>
       <c r="G50">
-        <v>188116.3357579086</v>
+        <v>171368.9713878901</v>
       </c>
       <c r="H50">
-        <v>393400</v>
+        <v>342208.3333333324</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1703,22 +1703,22 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D51">
-        <v>3525.456205680427</v>
+        <v>3092.542851009733</v>
       </c>
       <c r="E51">
-        <v>4925.456205680426</v>
+        <v>4884.2095176764</v>
       </c>
       <c r="F51">
-        <v>261641.791963589</v>
+        <v>264044.8475722332</v>
       </c>
       <c r="G51">
-        <v>191641.791963589</v>
+        <v>174461.5142388999</v>
       </c>
       <c r="H51">
-        <v>392000</v>
+        <v>340416.6666666657</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1729,22 +1729,22 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D52">
-        <v>3512.910098186902</v>
+        <v>3076.351527182456</v>
       </c>
       <c r="E52">
-        <v>4912.910098186901</v>
+        <v>4868.018193849123</v>
       </c>
       <c r="F52">
-        <v>266554.7020617759</v>
+        <v>268912.8657660823</v>
       </c>
       <c r="G52">
-        <v>195154.7020617759</v>
+        <v>177537.8657660823</v>
       </c>
       <c r="H52">
-        <v>390600</v>
+        <v>338624.999999999</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1755,22 +1755,22 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D53">
-        <v>3500.363990693377</v>
+        <v>3060.160203355181</v>
       </c>
       <c r="E53">
-        <v>4900.363990693377</v>
+        <v>4851.826870021848</v>
       </c>
       <c r="F53">
-        <v>271455.0660524693</v>
+        <v>273764.6926361042</v>
       </c>
       <c r="G53">
-        <v>198655.0660524693</v>
+        <v>180598.0259694375</v>
       </c>
       <c r="H53">
-        <v>389200</v>
+        <v>336833.3333333323</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1781,22 +1781,22 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D54">
-        <v>3487.817883199853</v>
+        <v>3043.968879527904</v>
       </c>
       <c r="E54">
-        <v>4887.817883199852</v>
+        <v>4835.635546194571</v>
       </c>
       <c r="F54">
-        <v>276342.8839356691</v>
+        <v>278600.3281822987</v>
       </c>
       <c r="G54">
-        <v>202142.8839356691</v>
+        <v>183641.9948489654</v>
       </c>
       <c r="H54">
-        <v>387800</v>
+        <v>335041.6666666656</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1807,22 +1807,22 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D55">
-        <v>3475.271775706328</v>
+        <v>3027.777555700628</v>
       </c>
       <c r="E55">
-        <v>4875.271775706327</v>
+        <v>4819.444222367295</v>
       </c>
       <c r="F55">
-        <v>281218.1557113754</v>
+        <v>283419.7724046661</v>
       </c>
       <c r="G55">
-        <v>205618.1557113755</v>
+        <v>186669.772404666</v>
       </c>
       <c r="H55">
-        <v>386400</v>
+        <v>333249.999999999</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1833,22 +1833,22 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D56">
-        <v>3462.725668212803</v>
+        <v>3011.586231873352</v>
       </c>
       <c r="E56">
-        <v>4862.725668212803</v>
+        <v>4803.252898540019</v>
       </c>
       <c r="F56">
-        <v>286080.8813795882</v>
+        <v>288223.0253032061</v>
       </c>
       <c r="G56">
-        <v>209080.8813795883</v>
+        <v>189681.3586365394</v>
       </c>
       <c r="H56">
-        <v>385000</v>
+        <v>331458.3333333323</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1859,22 +1859,22 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D57">
-        <v>3450.179560719278</v>
+        <v>2995.394908046076</v>
       </c>
       <c r="E57">
-        <v>4850.179560719278</v>
+        <v>4787.061574712742</v>
       </c>
       <c r="F57">
-        <v>290931.0609403075</v>
+        <v>293010.0868779188</v>
       </c>
       <c r="G57">
-        <v>212531.0609403076</v>
+        <v>192676.7535445855</v>
       </c>
       <c r="H57">
-        <v>383600</v>
+        <v>329666.6666666656</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1885,22 +1885,22 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D58">
-        <v>3437.633453225754</v>
+        <v>2979.2035842188</v>
       </c>
       <c r="E58">
-        <v>4837.633453225754</v>
+        <v>4770.870250885467</v>
       </c>
       <c r="F58">
-        <v>295768.6943935333</v>
+        <v>297780.9571288043</v>
       </c>
       <c r="G58">
-        <v>215968.6943935333</v>
+        <v>195655.9571288043</v>
       </c>
       <c r="H58">
-        <v>382200</v>
+        <v>327874.9999999989</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1911,22 +1911,22 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D59">
-        <v>3425.08734573223</v>
+        <v>2963.012260391524</v>
       </c>
       <c r="E59">
-        <v>4825.08734573223</v>
+        <v>4754.67892705819</v>
       </c>
       <c r="F59">
-        <v>300593.7817392655</v>
+        <v>302535.6360558625</v>
       </c>
       <c r="G59">
-        <v>219393.7817392655</v>
+        <v>198618.9693891958</v>
       </c>
       <c r="H59">
-        <v>380800</v>
+        <v>326083.3333333322</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1937,22 +1937,22 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D60">
-        <v>3412.541238238705</v>
+        <v>2946.820936564247</v>
       </c>
       <c r="E60">
-        <v>4812.541238238705</v>
+        <v>4738.487603230914</v>
       </c>
       <c r="F60">
-        <v>305406.3229775042</v>
+        <v>307274.1236590934</v>
       </c>
       <c r="G60">
-        <v>222806.3229775043</v>
+        <v>201565.79032576</v>
       </c>
       <c r="H60">
-        <v>379400</v>
+        <v>324291.6666666655</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1963,22 +1963,22 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D61">
-        <v>3399.99513074518</v>
+        <v>2930.629612736971</v>
       </c>
       <c r="E61">
-        <v>4799.99513074518</v>
+        <v>4722.296279403638</v>
       </c>
       <c r="F61">
-        <v>310206.3181082493</v>
+        <v>311996.419938497</v>
       </c>
       <c r="G61">
-        <v>226206.3181082494</v>
+        <v>204496.419938497</v>
       </c>
       <c r="H61">
-        <v>378000</v>
+        <v>322499.9999999988</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1989,22 +1989,22 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D62">
-        <v>3387.449023251655</v>
+        <v>2914.438288909696</v>
       </c>
       <c r="E62">
-        <v>4787.449023251655</v>
+        <v>4706.104955576362</v>
       </c>
       <c r="F62">
-        <v>314993.767131501</v>
+        <v>316702.5248940734</v>
       </c>
       <c r="G62">
-        <v>229593.7671315011</v>
+        <v>207410.8582274067</v>
       </c>
       <c r="H62">
-        <v>376600</v>
+        <v>320708.3333333321</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2015,22 +2015,22 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D63">
-        <v>3374.902915758131</v>
+        <v>2898.246965082419</v>
       </c>
       <c r="E63">
-        <v>4774.902915758131</v>
+        <v>4689.913631749086</v>
       </c>
       <c r="F63">
-        <v>319768.6700472591</v>
+        <v>321392.4385258225</v>
       </c>
       <c r="G63">
-        <v>232968.6700472592</v>
+        <v>210309.1051924891</v>
       </c>
       <c r="H63">
-        <v>375200</v>
+        <v>318916.6666666655</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2041,22 +2041,22 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D64">
-        <v>3362.356808264606</v>
+        <v>2882.055641255143</v>
       </c>
       <c r="E64">
-        <v>4762.356808264606</v>
+        <v>4673.722307921809</v>
       </c>
       <c r="F64">
-        <v>324531.0268555238</v>
+        <v>326066.1608337443</v>
       </c>
       <c r="G64">
-        <v>236331.0268555238</v>
+        <v>213191.1608337443</v>
       </c>
       <c r="H64">
-        <v>373800</v>
+        <v>317124.9999999988</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2067,22 +2067,22 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D65">
-        <v>3349.810700771081</v>
+        <v>2865.864317427867</v>
       </c>
       <c r="E65">
-        <v>4749.810700771081</v>
+        <v>4657.530984094534</v>
       </c>
       <c r="F65">
-        <v>329280.8375562949</v>
+        <v>330723.6918178388</v>
       </c>
       <c r="G65">
-        <v>239680.8375562949</v>
+        <v>216057.0251511721</v>
       </c>
       <c r="H65">
-        <v>372400</v>
+        <v>315333.3333333321</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2093,22 +2093,22 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D66">
-        <v>3337.264593277557</v>
+        <v>2849.672993600591</v>
       </c>
       <c r="E66">
-        <v>4737.264593277557</v>
+        <v>4641.339660267257</v>
       </c>
       <c r="F66">
-        <v>334018.1021495724</v>
+        <v>335365.031478106</v>
       </c>
       <c r="G66">
-        <v>243018.1021495725</v>
+        <v>218906.6981447727</v>
       </c>
       <c r="H66">
-        <v>371000</v>
+        <v>313541.6666666654</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2119,22 +2119,22 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D67">
-        <v>3324.718485784032</v>
+        <v>2833.481669773314</v>
       </c>
       <c r="E67">
-        <v>4724.718485784032</v>
+        <v>4625.148336439981</v>
       </c>
       <c r="F67">
-        <v>338742.8206353564</v>
+        <v>339990.179814546</v>
       </c>
       <c r="G67">
-        <v>246342.8206353565</v>
+        <v>221740.179814546</v>
       </c>
       <c r="H67">
-        <v>369600</v>
+        <v>311749.9999999987</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2145,22 +2145,22 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D68">
-        <v>3312.172378290507</v>
+        <v>2817.290345946039</v>
       </c>
       <c r="E68">
-        <v>4712.172378290507</v>
+        <v>4608.957012612706</v>
       </c>
       <c r="F68">
-        <v>343454.9930136469</v>
+        <v>344599.1368271587</v>
       </c>
       <c r="G68">
-        <v>249654.993013647</v>
+        <v>224557.4701604921</v>
       </c>
       <c r="H68">
-        <v>368200</v>
+        <v>309958.333333332</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2171,22 +2171,22 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D69">
-        <v>3299.626270796983</v>
+        <v>2801.099022118763</v>
       </c>
       <c r="E69">
-        <v>4699.626270796983</v>
+        <v>4592.765688785429</v>
       </c>
       <c r="F69">
-        <v>348154.6192844439</v>
+        <v>349191.9025159442</v>
       </c>
       <c r="G69">
-        <v>252954.619284444</v>
+        <v>227358.5691826108</v>
       </c>
       <c r="H69">
-        <v>366800</v>
+        <v>308166.6666666653</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2197,22 +2197,22 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D70">
-        <v>3287.080163303458</v>
+        <v>2784.907698291486</v>
       </c>
       <c r="E70">
-        <v>4687.080163303459</v>
+        <v>4576.574364958153</v>
       </c>
       <c r="F70">
-        <v>352841.6994477474</v>
+        <v>353768.4768809023</v>
       </c>
       <c r="G70">
-        <v>256241.6994477474</v>
+        <v>230143.4768809023</v>
       </c>
       <c r="H70">
-        <v>365400</v>
+        <v>306374.9999999987</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2223,22 +2223,22 @@
         <v>70</v>
       </c>
       <c r="C71">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D71">
-        <v>3274.534055809934</v>
+        <v>2768.71637446421</v>
       </c>
       <c r="E71">
-        <v>4674.534055809934</v>
+        <v>4560.383041130877</v>
       </c>
       <c r="F71">
-        <v>357516.2335035573</v>
+        <v>358328.8599220332</v>
       </c>
       <c r="G71">
-        <v>259516.2335035574</v>
+        <v>232912.1932553666</v>
       </c>
       <c r="H71">
-        <v>364000</v>
+        <v>304583.333333332</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2249,22 +2249,22 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D72">
-        <v>3261.987948316409</v>
+        <v>2752.525050636934</v>
       </c>
       <c r="E72">
-        <v>4661.98794831641</v>
+        <v>4544.191717303601</v>
       </c>
       <c r="F72">
-        <v>362178.2214518737</v>
+        <v>362873.0516393368</v>
       </c>
       <c r="G72">
-        <v>262778.2214518738</v>
+        <v>235664.7183060035</v>
       </c>
       <c r="H72">
-        <v>362600</v>
+        <v>302791.6666666653</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2275,22 +2275,22 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D73">
-        <v>3249.441840822884</v>
+        <v>2736.333726809657</v>
       </c>
       <c r="E73">
-        <v>4649.441840822885</v>
+        <v>4528.000393476324</v>
       </c>
       <c r="F73">
-        <v>366827.6632926966</v>
+        <v>367401.0520328131</v>
       </c>
       <c r="G73">
-        <v>266027.6632926966</v>
+        <v>238401.0520328131</v>
       </c>
       <c r="H73">
-        <v>361200</v>
+        <v>300999.9999999986</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2301,22 +2301,22 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D74">
-        <v>3236.89573332936</v>
+        <v>2720.142402982382</v>
       </c>
       <c r="E74">
-        <v>4636.89573332936</v>
+        <v>4511.809069649049</v>
       </c>
       <c r="F74">
-        <v>371464.5590260259</v>
+        <v>371912.8611024622</v>
       </c>
       <c r="G74">
-        <v>269264.559026026</v>
+        <v>241121.1944357955</v>
       </c>
       <c r="H74">
-        <v>359800</v>
+        <v>299208.3333333319</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2327,22 +2327,22 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D75">
-        <v>3224.349625835835</v>
+        <v>2703.951079155106</v>
       </c>
       <c r="E75">
-        <v>4624.349625835835</v>
+        <v>4495.617745821773</v>
       </c>
       <c r="F75">
-        <v>376088.9086518618</v>
+        <v>376408.4788482839</v>
       </c>
       <c r="G75">
-        <v>272488.9086518618</v>
+        <v>243825.1455149506</v>
       </c>
       <c r="H75">
-        <v>358400</v>
+        <v>297416.6666666652</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2353,22 +2353,22 @@
         <v>75</v>
       </c>
       <c r="C76">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D76">
-        <v>3211.80351834231</v>
+        <v>2687.759755327829</v>
       </c>
       <c r="E76">
-        <v>4611.803518342311</v>
+        <v>4479.426421994496</v>
       </c>
       <c r="F76">
-        <v>380700.7121702041</v>
+        <v>380887.9052702785</v>
       </c>
       <c r="G76">
-        <v>275700.7121702041</v>
+        <v>246512.9052702785</v>
       </c>
       <c r="H76">
-        <v>357000</v>
+        <v>295624.9999999985</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2379,22 +2379,22 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D77">
-        <v>3199.257410848786</v>
+        <v>2671.568431500554</v>
       </c>
       <c r="E77">
-        <v>4599.257410848786</v>
+        <v>4463.235098167221</v>
       </c>
       <c r="F77">
-        <v>385299.9695810529</v>
+        <v>385351.1403684457</v>
       </c>
       <c r="G77">
-        <v>278899.969581053</v>
+        <v>249184.473701779</v>
       </c>
       <c r="H77">
-        <v>355600</v>
+        <v>293833.3333333319</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2405,22 +2405,22 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D78">
-        <v>3186.711303355261</v>
+        <v>2655.377107673278</v>
       </c>
       <c r="E78">
-        <v>4586.711303355261</v>
+        <v>4447.043774339944</v>
       </c>
       <c r="F78">
-        <v>389886.6808844082</v>
+        <v>389798.1841427856</v>
       </c>
       <c r="G78">
-        <v>282086.6808844082</v>
+        <v>251839.8508094523</v>
       </c>
       <c r="H78">
-        <v>354200</v>
+        <v>292041.6666666652</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2431,22 +2431,22 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D79">
-        <v>3174.165195861736</v>
+        <v>2639.185783846001</v>
       </c>
       <c r="E79">
-        <v>4574.165195861737</v>
+        <v>4430.852450512668</v>
       </c>
       <c r="F79">
-        <v>394460.8460802699</v>
+        <v>394229.0365932983</v>
       </c>
       <c r="G79">
-        <v>285260.84608027</v>
+        <v>254479.0365932983</v>
       </c>
       <c r="H79">
-        <v>352800</v>
+        <v>290249.9999999985</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2457,22 +2457,22 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D80">
-        <v>3161.619088368212</v>
+        <v>2622.994460018725</v>
       </c>
       <c r="E80">
-        <v>4561.619088368212</v>
+        <v>4414.661126685392</v>
       </c>
       <c r="F80">
-        <v>399022.4651686381</v>
+        <v>398643.6977199836</v>
       </c>
       <c r="G80">
-        <v>288422.4651686382</v>
+        <v>257102.031053317</v>
       </c>
       <c r="H80">
-        <v>351400</v>
+        <v>288458.3333333318</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2483,22 +2483,22 @@
         <v>80</v>
       </c>
       <c r="C81">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D81">
-        <v>3149.072980874687</v>
+        <v>2606.80313619145</v>
       </c>
       <c r="E81">
-        <v>4549.072980874687</v>
+        <v>4398.469802858116</v>
       </c>
       <c r="F81">
-        <v>403571.5381495128</v>
+        <v>403042.1675228418</v>
       </c>
       <c r="G81">
-        <v>291571.5381495128</v>
+        <v>259708.8341895085</v>
       </c>
       <c r="H81">
-        <v>350000</v>
+        <v>286666.6666666651</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2509,22 +2509,22 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D82">
-        <v>3136.526873381162</v>
+        <v>2590.611812364174</v>
       </c>
       <c r="E82">
-        <v>4536.526873381163</v>
+        <v>4382.278479030841</v>
       </c>
       <c r="F82">
-        <v>408108.0650228939</v>
+        <v>407424.4460018726</v>
       </c>
       <c r="G82">
-        <v>294708.065022894</v>
+        <v>262299.4460018727</v>
       </c>
       <c r="H82">
-        <v>348600</v>
+        <v>284874.9999999984</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2535,22 +2535,22 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D83">
-        <v>3123.980765887638</v>
+        <v>2574.420488536898</v>
       </c>
       <c r="E83">
-        <v>4523.980765887638</v>
+        <v>4366.087155203564</v>
       </c>
       <c r="F83">
-        <v>412632.0457887816</v>
+        <v>411790.5331570762</v>
       </c>
       <c r="G83">
-        <v>297832.0457887817</v>
+        <v>264873.8664904095</v>
       </c>
       <c r="H83">
-        <v>347200</v>
+        <v>283083.3333333317</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2561,22 +2561,22 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D84">
-        <v>3111.434658394113</v>
+        <v>2558.229164709621</v>
       </c>
       <c r="E84">
-        <v>4511.434658394113</v>
+        <v>4349.895831376288</v>
       </c>
       <c r="F84">
-        <v>417143.4804471757</v>
+        <v>416140.4289884525</v>
       </c>
       <c r="G84">
-        <v>300943.4804471758</v>
+        <v>267432.0956551192</v>
       </c>
       <c r="H84">
-        <v>345800</v>
+        <v>281291.6666666651</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2587,22 +2587,22 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D85">
-        <v>3098.888550900589</v>
+        <v>2542.037840882345</v>
       </c>
       <c r="E85">
-        <v>4498.888550900589</v>
+        <v>4333.704507549012</v>
       </c>
       <c r="F85">
-        <v>421642.3689980763</v>
+        <v>420474.1334960015</v>
       </c>
       <c r="G85">
-        <v>304042.3689980764</v>
+        <v>269974.1334960015</v>
       </c>
       <c r="H85">
-        <v>344400</v>
+        <v>279499.9999999984</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2613,22 +2613,22 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D86">
-        <v>3086.342443407064</v>
+        <v>2525.84651705507</v>
       </c>
       <c r="E86">
-        <v>4486.342443407064</v>
+        <v>4317.513183721737</v>
       </c>
       <c r="F86">
-        <v>426128.7114414833</v>
+        <v>424791.6466797232</v>
       </c>
       <c r="G86">
-        <v>307128.7114414834</v>
+        <v>272499.9800130565</v>
       </c>
       <c r="H86">
-        <v>343000</v>
+        <v>277708.3333333317</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2639,22 +2639,22 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D87">
-        <v>3073.796335913539</v>
+        <v>2509.655193227793</v>
       </c>
       <c r="E87">
-        <v>4473.796335913539</v>
+        <v>4301.32185989446</v>
       </c>
       <c r="F87">
-        <v>430602.5077773969</v>
+        <v>429092.9685396177</v>
       </c>
       <c r="G87">
-        <v>310202.5077773969</v>
+        <v>275009.6352062844</v>
       </c>
       <c r="H87">
-        <v>341600</v>
+        <v>275916.666666665</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2665,22 +2665,22 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D88">
-        <v>3061.250228420015</v>
+        <v>2493.463869400517</v>
       </c>
       <c r="E88">
-        <v>4461.250228420015</v>
+        <v>4285.130536067184</v>
       </c>
       <c r="F88">
-        <v>435063.7580058169</v>
+        <v>433378.0990756848</v>
       </c>
       <c r="G88">
-        <v>313263.758005817</v>
+        <v>277503.0990756848</v>
       </c>
       <c r="H88">
-        <v>340200</v>
+        <v>274124.9999999983</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2691,22 +2691,22 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D89">
-        <v>3048.70412092649</v>
+        <v>2477.272545573242</v>
       </c>
       <c r="E89">
-        <v>4448.70412092649</v>
+        <v>4268.939212239909</v>
       </c>
       <c r="F89">
-        <v>439512.4621267434</v>
+        <v>437647.0382879248</v>
       </c>
       <c r="G89">
-        <v>316312.4621267435</v>
+        <v>279980.3716212581</v>
       </c>
       <c r="H89">
-        <v>338800</v>
+        <v>272333.3333333316</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2717,22 +2717,22 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D90">
-        <v>3036.158013432965</v>
+        <v>2461.081221745966</v>
       </c>
       <c r="E90">
-        <v>4436.158013432965</v>
+        <v>4252.747888412632</v>
       </c>
       <c r="F90">
-        <v>443948.6201401764</v>
+        <v>441899.7861763374</v>
       </c>
       <c r="G90">
-        <v>319348.6201401764</v>
+        <v>282441.4528430041</v>
       </c>
       <c r="H90">
-        <v>337400</v>
+        <v>270541.6666666649</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2743,22 +2743,22 @@
         <v>90</v>
       </c>
       <c r="C91">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D91">
-        <v>3023.61190593944</v>
+        <v>2444.88989791869</v>
       </c>
       <c r="E91">
-        <v>4423.61190593944</v>
+        <v>4236.556564585357</v>
       </c>
       <c r="F91">
-        <v>448372.2320461158</v>
+        <v>446136.3427409228</v>
       </c>
       <c r="G91">
-        <v>322372.2320461159</v>
+        <v>284886.3427409228</v>
       </c>
       <c r="H91">
-        <v>336000</v>
+        <v>268749.9999999983</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2769,22 +2769,22 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D92">
-        <v>3011.065798445916</v>
+        <v>2428.698574091413</v>
       </c>
       <c r="E92">
-        <v>4411.065798445916</v>
+        <v>4220.36524075808</v>
       </c>
       <c r="F92">
-        <v>452783.2978445617</v>
+        <v>450356.7079816808</v>
       </c>
       <c r="G92">
-        <v>325383.2978445618</v>
+        <v>287315.0413150142</v>
       </c>
       <c r="H92">
-        <v>334600</v>
+        <v>266958.3333333316</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2795,22 +2795,22 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D93">
-        <v>2998.519690952391</v>
+        <v>2412.507250264137</v>
       </c>
       <c r="E93">
-        <v>4398.519690952391</v>
+        <v>4204.173916930804</v>
       </c>
       <c r="F93">
-        <v>457181.8175355141</v>
+        <v>454560.8818986116</v>
       </c>
       <c r="G93">
-        <v>328381.8175355142</v>
+        <v>289727.5485652783</v>
       </c>
       <c r="H93">
-        <v>333200</v>
+        <v>265166.6666666649</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2821,22 +2821,22 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D94">
-        <v>2985.973583458866</v>
+        <v>2396.315926436862</v>
       </c>
       <c r="E94">
-        <v>4385.973583458866</v>
+        <v>4187.982593103528</v>
       </c>
       <c r="F94">
-        <v>461567.7911189729</v>
+        <v>458748.8644917152</v>
       </c>
       <c r="G94">
-        <v>331367.7911189731</v>
+        <v>292123.8644917152</v>
       </c>
       <c r="H94">
-        <v>331800</v>
+        <v>263374.9999999982</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2847,22 +2847,22 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D95">
-        <v>2973.427475965342</v>
+        <v>2380.124602609586</v>
       </c>
       <c r="E95">
-        <v>4373.427475965342</v>
+        <v>4171.791269276252</v>
       </c>
       <c r="F95">
-        <v>465941.2185949383</v>
+        <v>462920.6557609914</v>
       </c>
       <c r="G95">
-        <v>334341.2185949384</v>
+        <v>294503.9890943248</v>
       </c>
       <c r="H95">
-        <v>330400</v>
+        <v>261583.3333333315</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2873,22 +2873,22 @@
         <v>95</v>
       </c>
       <c r="C96">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D96">
-        <v>2960.881368471817</v>
+        <v>2363.93327878231</v>
       </c>
       <c r="E96">
-        <v>4360.881368471817</v>
+        <v>4155.599945448977</v>
       </c>
       <c r="F96">
-        <v>470302.0999634101</v>
+        <v>467076.2557064404</v>
       </c>
       <c r="G96">
-        <v>337302.0999634102</v>
+        <v>296867.9223731071</v>
       </c>
       <c r="H96">
-        <v>329000</v>
+        <v>259791.6666666649</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2899,22 +2899,22 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D97">
-        <v>2948.335260978293</v>
+        <v>2347.741954955034</v>
       </c>
       <c r="E97">
-        <v>4348.335260978292</v>
+        <v>4139.4086216217</v>
       </c>
       <c r="F97">
-        <v>474650.4352243884</v>
+        <v>471215.6643280621</v>
       </c>
       <c r="G97">
-        <v>340250.4352243886</v>
+        <v>299215.6643280621</v>
       </c>
       <c r="H97">
-        <v>327600</v>
+        <v>257999.9999999982</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2925,22 +2925,22 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D98">
-        <v>2935.789153484768</v>
+        <v>2331.550631127758</v>
       </c>
       <c r="E98">
-        <v>4335.789153484768</v>
+        <v>4123.217297794425</v>
       </c>
       <c r="F98">
-        <v>478986.2243778732</v>
+        <v>475338.8816258565</v>
       </c>
       <c r="G98">
-        <v>343186.2243778733</v>
+        <v>301547.2149591899</v>
       </c>
       <c r="H98">
-        <v>326200</v>
+        <v>256208.3333333316</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2951,22 +2951,22 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D99">
-        <v>2923.243045991243</v>
+        <v>2315.359307300481</v>
       </c>
       <c r="E99">
-        <v>4323.243045991243</v>
+        <v>4107.025973967148</v>
       </c>
       <c r="F99">
-        <v>483309.4674238644</v>
+        <v>479445.9075998237</v>
       </c>
       <c r="G99">
-        <v>346109.4674238645</v>
+        <v>303862.5742664904</v>
       </c>
       <c r="H99">
-        <v>324800</v>
+        <v>254416.6666666649</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2977,22 +2977,22 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D100">
-        <v>2910.696938497719</v>
+        <v>2299.167983473205</v>
       </c>
       <c r="E100">
-        <v>4310.696938497718</v>
+        <v>4090.834650139872</v>
       </c>
       <c r="F100">
-        <v>487620.1643623621</v>
+        <v>483536.7422499635</v>
       </c>
       <c r="G100">
-        <v>349020.1643623622</v>
+        <v>306161.7422499636</v>
       </c>
       <c r="H100">
-        <v>323400</v>
+        <v>252624.9999999983</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3003,22 +3003,22 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D101">
-        <v>2898.150831004194</v>
+        <v>2282.976659645929</v>
       </c>
       <c r="E101">
-        <v>4298.150831004194</v>
+        <v>4074.643326312596</v>
       </c>
       <c r="F101">
-        <v>491918.3151933663</v>
+        <v>487611.3855762761</v>
       </c>
       <c r="G101">
-        <v>351918.3151933664</v>
+        <v>308444.7189096095</v>
       </c>
       <c r="H101">
-        <v>322000</v>
+        <v>250833.3333333316</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3029,22 +3029,22 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D102">
-        <v>2885.604723510669</v>
+        <v>2266.785335818653</v>
       </c>
       <c r="E102">
-        <v>4285.604723510669</v>
+        <v>4058.45200248532</v>
       </c>
       <c r="F102">
-        <v>496203.919916877</v>
+        <v>491669.8375787614</v>
       </c>
       <c r="G102">
-        <v>354803.9199168771</v>
+        <v>310711.5042454281</v>
       </c>
       <c r="H102">
-        <v>320600</v>
+        <v>249041.6666666649</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3055,22 +3055,22 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D103">
-        <v>2873.058616017145</v>
+        <v>2250.594011991378</v>
       </c>
       <c r="E103">
-        <v>4273.058616017144</v>
+        <v>4042.260678658045</v>
       </c>
       <c r="F103">
-        <v>500476.9785328942</v>
+        <v>495712.0982574195</v>
       </c>
       <c r="G103">
-        <v>357676.9785328943</v>
+        <v>312962.0982574195</v>
       </c>
       <c r="H103">
-        <v>319200</v>
+        <v>247249.9999999983</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3081,22 +3081,22 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D104">
-        <v>2860.51250852362</v>
+        <v>2234.402688164102</v>
       </c>
       <c r="E104">
-        <v>4260.51250852362</v>
+        <v>4026.069354830768</v>
       </c>
       <c r="F104">
-        <v>504737.4910414178</v>
+        <v>499738.1676122503</v>
       </c>
       <c r="G104">
-        <v>360537.4910414179</v>
+        <v>315196.5009455836</v>
       </c>
       <c r="H104">
-        <v>317800</v>
+        <v>245458.3333333316</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3107,22 +3107,22 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D105">
-        <v>2847.966401030095</v>
+        <v>2218.211364336826</v>
       </c>
       <c r="E105">
-        <v>4247.966401030095</v>
+        <v>4009.878031003493</v>
       </c>
       <c r="F105">
-        <v>508985.4574424478</v>
+        <v>503748.0456432537</v>
       </c>
       <c r="G105">
-        <v>363385.457442448</v>
+        <v>317414.7123099205</v>
       </c>
       <c r="H105">
-        <v>316400</v>
+        <v>243666.666666665</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3133,22 +3133,22 @@
         <v>105</v>
       </c>
       <c r="C106">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D106">
-        <v>2835.420293536571</v>
+        <v>2202.02004050955</v>
       </c>
       <c r="E106">
-        <v>4235.42029353657</v>
+        <v>3993.686707176216</v>
       </c>
       <c r="F106">
-        <v>513220.8777359844</v>
+        <v>507741.7323504299</v>
       </c>
       <c r="G106">
-        <v>366220.8777359845</v>
+        <v>319616.73235043</v>
       </c>
       <c r="H106">
-        <v>315000</v>
+        <v>241874.9999999983</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3159,22 +3159,22 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D107">
-        <v>2822.874186043046</v>
+        <v>2185.828716682273</v>
       </c>
       <c r="E107">
-        <v>4222.874186043046</v>
+        <v>3977.49538334894</v>
       </c>
       <c r="F107">
-        <v>517443.7519220274</v>
+        <v>511719.2277337789</v>
       </c>
       <c r="G107">
-        <v>369043.7519220276</v>
+        <v>321802.5610671123</v>
       </c>
       <c r="H107">
-        <v>313600</v>
+        <v>240083.3333333317</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3185,22 +3185,22 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D108">
-        <v>2810.328078549522</v>
+        <v>2169.637392854997</v>
       </c>
       <c r="E108">
-        <v>4210.328078549522</v>
+        <v>3961.304059521664</v>
       </c>
       <c r="F108">
-        <v>521654.080000577</v>
+        <v>515680.5317933005</v>
       </c>
       <c r="G108">
-        <v>371854.0800005771</v>
+        <v>323972.1984599673</v>
       </c>
       <c r="H108">
-        <v>312200</v>
+        <v>238291.666666665</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3211,22 +3211,22 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D109">
-        <v>2797.781971055997</v>
+        <v>2153.446069027721</v>
       </c>
       <c r="E109">
-        <v>4197.781971055997</v>
+        <v>3945.112735694388</v>
       </c>
       <c r="F109">
-        <v>525851.8619716329</v>
+        <v>519625.6445289949</v>
       </c>
       <c r="G109">
-        <v>374651.8619716331</v>
+        <v>326125.644528995</v>
       </c>
       <c r="H109">
-        <v>310800</v>
+        <v>236499.9999999983</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3237,22 +3237,22 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D110">
-        <v>2785.235863562472</v>
+        <v>2137.254745200446</v>
       </c>
       <c r="E110">
-        <v>4185.235863562472</v>
+        <v>3928.921411867113</v>
       </c>
       <c r="F110">
-        <v>530037.0978351954</v>
+        <v>523554.5659408621</v>
       </c>
       <c r="G110">
-        <v>377437.0978351956</v>
+        <v>328262.8992741954</v>
       </c>
       <c r="H110">
-        <v>309400</v>
+        <v>234708.3333333317</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3263,22 +3263,22 @@
         <v>110</v>
       </c>
       <c r="C111">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D111">
-        <v>2772.689756068948</v>
+        <v>2121.06342137317</v>
       </c>
       <c r="E111">
-        <v>4172.689756068948</v>
+        <v>3912.730088039836</v>
       </c>
       <c r="F111">
-        <v>534209.7875912644</v>
+        <v>527467.2960289019</v>
       </c>
       <c r="G111">
-        <v>380209.7875912645</v>
+        <v>330383.9626955686</v>
       </c>
       <c r="H111">
-        <v>308000</v>
+        <v>232916.666666665</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3289,22 +3289,22 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D112">
-        <v>2760.143648575423</v>
+        <v>2104.872097545894</v>
       </c>
       <c r="E112">
-        <v>4160.143648575423</v>
+        <v>3896.538764212561</v>
       </c>
       <c r="F112">
-        <v>538369.9312398398</v>
+        <v>531363.8347931145</v>
       </c>
       <c r="G112">
-        <v>382969.9312398399</v>
+        <v>332488.8347931145</v>
       </c>
       <c r="H112">
-        <v>306600</v>
+        <v>231124.9999999984</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3315,22 +3315,22 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D113">
-        <v>2747.597541081898</v>
+        <v>2088.680773718618</v>
       </c>
       <c r="E113">
-        <v>4147.597541081898</v>
+        <v>3880.347440385284</v>
       </c>
       <c r="F113">
-        <v>542517.5287809217</v>
+        <v>535244.1822334997</v>
       </c>
       <c r="G113">
-        <v>385717.5287809218</v>
+        <v>334577.5155668331</v>
       </c>
       <c r="H113">
-        <v>305200</v>
+        <v>229333.3333333317</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3341,22 +3341,22 @@
         <v>113</v>
       </c>
       <c r="C114">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D114">
-        <v>2735.051433588374</v>
+        <v>2072.489449891341</v>
       </c>
       <c r="E114">
-        <v>4135.051433588374</v>
+        <v>3864.156116558008</v>
       </c>
       <c r="F114">
-        <v>546652.5802145101</v>
+        <v>539108.3383500577</v>
       </c>
       <c r="G114">
-        <v>388452.5802145102</v>
+        <v>336650.0050167245</v>
       </c>
       <c r="H114">
-        <v>303800</v>
+        <v>227541.6666666651</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3367,22 +3367,22 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D115">
-        <v>2722.505326094849</v>
+        <v>2056.298126064065</v>
       </c>
       <c r="E115">
-        <v>4122.505326094849</v>
+        <v>3847.964792730732</v>
       </c>
       <c r="F115">
-        <v>550775.0855406049</v>
+        <v>542956.3031427885</v>
       </c>
       <c r="G115">
-        <v>391175.0855406051</v>
+        <v>338706.3031427885</v>
       </c>
       <c r="H115">
-        <v>302400</v>
+        <v>225749.9999999984</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3393,22 +3393,22 @@
         <v>115</v>
       </c>
       <c r="C116">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D116">
-        <v>2709.959218601324</v>
+        <v>2040.106802236789</v>
       </c>
       <c r="E116">
-        <v>4109.959218601324</v>
+        <v>3831.773468903456</v>
       </c>
       <c r="F116">
-        <v>554885.0447592062</v>
+        <v>546788.076611692</v>
       </c>
       <c r="G116">
-        <v>393885.0447592064</v>
+        <v>340746.4099450253</v>
       </c>
       <c r="H116">
-        <v>301000</v>
+        <v>223958.3333333317</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3419,22 +3419,22 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D117">
-        <v>2697.4131111078</v>
+        <v>2023.915478409514</v>
       </c>
       <c r="E117">
-        <v>4097.4131111078</v>
+        <v>3815.58214507618</v>
       </c>
       <c r="F117">
-        <v>558982.457870314</v>
+        <v>550603.6587567681</v>
       </c>
       <c r="G117">
-        <v>396582.4578703142</v>
+        <v>342770.3254234348</v>
       </c>
       <c r="H117">
-        <v>299600</v>
+        <v>222166.6666666651</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3445,22 +3445,22 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D118">
-        <v>2684.867003614275</v>
+        <v>2007.724154582238</v>
       </c>
       <c r="E118">
-        <v>4084.867003614275</v>
+        <v>3799.390821248904</v>
       </c>
       <c r="F118">
-        <v>563067.3248739283</v>
+        <v>554403.049578017</v>
       </c>
       <c r="G118">
-        <v>399267.3248739284</v>
+        <v>344778.0495780171</v>
       </c>
       <c r="H118">
-        <v>298200</v>
+        <v>220374.9999999984</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3471,22 +3471,22 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D119">
-        <v>2672.320896120751</v>
+        <v>1991.532830754961</v>
       </c>
       <c r="E119">
-        <v>4072.320896120751</v>
+        <v>3783.199497421628</v>
       </c>
       <c r="F119">
-        <v>567139.6457700491</v>
+        <v>558186.2490754386</v>
       </c>
       <c r="G119">
-        <v>401939.6457700492</v>
+        <v>346769.582408772</v>
       </c>
       <c r="H119">
-        <v>296800</v>
+        <v>218583.3333333318</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3497,22 +3497,22 @@
         <v>119</v>
       </c>
       <c r="C120">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D120">
-        <v>2659.774788627226</v>
+        <v>1975.341506927685</v>
       </c>
       <c r="E120">
-        <v>4059.774788627226</v>
+        <v>3767.008173594352</v>
       </c>
       <c r="F120">
-        <v>571199.4205586762</v>
+        <v>561953.257249033</v>
       </c>
       <c r="G120">
-        <v>404599.4205586764</v>
+        <v>348744.9239156997</v>
       </c>
       <c r="H120">
-        <v>295400</v>
+        <v>216791.6666666651</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3523,22 +3523,22 @@
         <v>120</v>
       </c>
       <c r="C121">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D121">
-        <v>2647.228681133701</v>
+        <v>1959.15018310041</v>
       </c>
       <c r="E121">
-        <v>4047.228681133701</v>
+        <v>3750.816849767076</v>
       </c>
       <c r="F121">
-        <v>575246.64923981</v>
+        <v>565704.0740988001</v>
       </c>
       <c r="G121">
-        <v>407246.6492398101</v>
+        <v>350704.0740988001</v>
       </c>
       <c r="H121">
-        <v>294000</v>
+        <v>214999.9999999985</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3549,22 +3549,22 @@
         <v>121</v>
       </c>
       <c r="C122">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D122">
-        <v>2634.682573640177</v>
+        <v>1942.958859273134</v>
       </c>
       <c r="E122">
-        <v>4034.682573640177</v>
+        <v>3734.6255259398</v>
       </c>
       <c r="F122">
-        <v>579281.3318134501</v>
+        <v>569438.6996247398</v>
       </c>
       <c r="G122">
-        <v>409881.3318134503</v>
+        <v>352647.0329580733</v>
       </c>
       <c r="H122">
-        <v>292600</v>
+        <v>213208.3333333318</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3575,22 +3575,22 @@
         <v>122</v>
       </c>
       <c r="C123">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D123">
-        <v>2622.136466146652</v>
+        <v>1926.767535445857</v>
       </c>
       <c r="E123">
-        <v>4022.136466146652</v>
+        <v>3718.434202112524</v>
       </c>
       <c r="F123">
-        <v>583303.4682795968</v>
+        <v>573157.1338268523</v>
       </c>
       <c r="G123">
-        <v>412503.468279597</v>
+        <v>354573.8004935191</v>
       </c>
       <c r="H123">
-        <v>291200</v>
+        <v>211416.6666666651</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3601,22 +3601,22 @@
         <v>123</v>
       </c>
       <c r="C124">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D124">
-        <v>2609.590358653127</v>
+        <v>1910.576211618582</v>
       </c>
       <c r="E124">
-        <v>4009.590358653127</v>
+        <v>3702.242878285248</v>
       </c>
       <c r="F124">
-        <v>587313.0586382499</v>
+        <v>576859.3767051375</v>
       </c>
       <c r="G124">
-        <v>415113.0586382501</v>
+        <v>356484.3767051377</v>
       </c>
       <c r="H124">
-        <v>289800</v>
+        <v>209624.9999999985</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3627,22 +3627,22 @@
         <v>124</v>
       </c>
       <c r="C125">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D125">
-        <v>2597.044251159602</v>
+        <v>1894.384887791306</v>
       </c>
       <c r="E125">
-        <v>3997.044251159602</v>
+        <v>3686.051554457972</v>
       </c>
       <c r="F125">
-        <v>591310.1028894095</v>
+        <v>580545.4282595955</v>
       </c>
       <c r="G125">
-        <v>417710.1028894097</v>
+        <v>358378.761592929</v>
       </c>
       <c r="H125">
-        <v>288400</v>
+        <v>207833.3333333318</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3653,22 +3653,22 @@
         <v>125</v>
       </c>
       <c r="C126">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D126">
-        <v>2584.498143666078</v>
+        <v>1878.193563964029</v>
       </c>
       <c r="E126">
-        <v>3984.498143666078</v>
+        <v>3669.860230630696</v>
       </c>
       <c r="F126">
-        <v>595294.6010330756</v>
+        <v>584215.2884902263</v>
       </c>
       <c r="G126">
-        <v>420294.6010330758</v>
+        <v>360256.9551568931</v>
       </c>
       <c r="H126">
-        <v>287000</v>
+        <v>206041.6666666652</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3679,22 +3679,22 @@
         <v>126</v>
       </c>
       <c r="C127">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D127">
-        <v>2571.952036172553</v>
+        <v>1862.002240136753</v>
       </c>
       <c r="E127">
-        <v>3971.952036172553</v>
+        <v>3653.66890680342</v>
       </c>
       <c r="F127">
-        <v>599266.5530692481</v>
+        <v>587868.9573970297</v>
       </c>
       <c r="G127">
-        <v>422866.5530692483</v>
+        <v>362118.9573970298</v>
       </c>
       <c r="H127">
-        <v>285600</v>
+        <v>204249.9999999985</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3705,22 +3705,22 @@
         <v>127</v>
       </c>
       <c r="C128">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D128">
-        <v>2559.405928679028</v>
+        <v>1845.810916309478</v>
       </c>
       <c r="E128">
-        <v>3959.405928679028</v>
+        <v>3637.477582976144</v>
       </c>
       <c r="F128">
-        <v>603225.9589979271</v>
+        <v>591506.4349800058</v>
       </c>
       <c r="G128">
-        <v>425425.9589979274</v>
+        <v>363964.7683133393</v>
       </c>
       <c r="H128">
-        <v>284200</v>
+        <v>202458.3333333319</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3731,22 +3731,22 @@
         <v>128</v>
       </c>
       <c r="C129">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D129">
-        <v>2546.859821185504</v>
+        <v>1829.619592482202</v>
       </c>
       <c r="E129">
-        <v>3946.859821185504</v>
+        <v>3621.286259148868</v>
       </c>
       <c r="F129">
-        <v>607172.8188191126</v>
+        <v>595127.7212391547</v>
       </c>
       <c r="G129">
-        <v>427972.8188191129</v>
+        <v>365794.3879058215</v>
       </c>
       <c r="H129">
-        <v>282800</v>
+        <v>200666.6666666652</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3757,22 +3757,22 @@
         <v>129</v>
       </c>
       <c r="C130">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D130">
-        <v>2534.313713691979</v>
+        <v>1813.428268654925</v>
       </c>
       <c r="E130">
-        <v>3934.313713691979</v>
+        <v>3605.094935321592</v>
       </c>
       <c r="F130">
-        <v>611107.1325328046</v>
+        <v>598732.8161744763</v>
       </c>
       <c r="G130">
-        <v>430507.1325328049</v>
+        <v>367607.8161744764</v>
       </c>
       <c r="H130">
-        <v>281400</v>
+        <v>198874.9999999985</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3783,22 +3783,22 @@
         <v>130</v>
       </c>
       <c r="C131">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D131">
-        <v>2521.767606198455</v>
+        <v>1797.236944827649</v>
       </c>
       <c r="E131">
-        <v>3921.767606198455</v>
+        <v>3588.903611494316</v>
       </c>
       <c r="F131">
-        <v>615028.9001390031</v>
+        <v>602321.7197859706</v>
       </c>
       <c r="G131">
-        <v>433028.9001390033</v>
+        <v>369405.0531193041</v>
       </c>
       <c r="H131">
-        <v>280000</v>
+        <v>197083.3333333319</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3809,22 +3809,22 @@
         <v>131</v>
       </c>
       <c r="C132">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D132">
-        <v>2509.22149870493</v>
+        <v>1781.045621000374</v>
       </c>
       <c r="E132">
-        <v>3909.22149870493</v>
+        <v>3572.71228766704</v>
       </c>
       <c r="F132">
-        <v>618938.121637708</v>
+        <v>605894.4320736377</v>
       </c>
       <c r="G132">
-        <v>435538.1216377082</v>
+        <v>371186.0987403044</v>
       </c>
       <c r="H132">
-        <v>278600</v>
+        <v>195291.6666666652</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3835,22 +3835,22 @@
         <v>132</v>
       </c>
       <c r="C133">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D133">
-        <v>2496.675391211405</v>
+        <v>1764.854297173097</v>
       </c>
       <c r="E133">
-        <v>3896.675391211405</v>
+        <v>3556.520963839764</v>
       </c>
       <c r="F133">
-        <v>622834.7970289194</v>
+        <v>609450.9530374774</v>
       </c>
       <c r="G133">
-        <v>438034.7970289196</v>
+        <v>372950.9530374775</v>
       </c>
       <c r="H133">
-        <v>277200</v>
+        <v>193499.9999999986</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3861,22 +3861,22 @@
         <v>133</v>
       </c>
       <c r="C134">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D134">
-        <v>2484.129283717881</v>
+        <v>1748.662973345821</v>
       </c>
       <c r="E134">
-        <v>3884.129283717881</v>
+        <v>3540.329640012488</v>
       </c>
       <c r="F134">
-        <v>626718.9263126373</v>
+        <v>612991.2826774899</v>
       </c>
       <c r="G134">
-        <v>440518.9263126375</v>
+        <v>374699.6160108233</v>
       </c>
       <c r="H134">
-        <v>275800</v>
+        <v>191708.3333333319</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3887,22 +3887,22 @@
         <v>134</v>
       </c>
       <c r="C135">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D135">
-        <v>2471.583176224356</v>
+        <v>1732.471649518546</v>
       </c>
       <c r="E135">
-        <v>3871.583176224356</v>
+        <v>3524.138316185212</v>
       </c>
       <c r="F135">
-        <v>630590.5094888617</v>
+        <v>616515.4209936751</v>
       </c>
       <c r="G135">
-        <v>442990.5094888619</v>
+        <v>376432.0876603419</v>
       </c>
       <c r="H135">
-        <v>274400</v>
+        <v>189916.6666666653</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3913,22 +3913,22 @@
         <v>135</v>
       </c>
       <c r="C136">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D136">
-        <v>2459.037068730831</v>
+        <v>1716.28032569127</v>
       </c>
       <c r="E136">
-        <v>3859.037068730831</v>
+        <v>3507.946992357936</v>
       </c>
       <c r="F136">
-        <v>634449.5465575925</v>
+        <v>620023.3679860331</v>
       </c>
       <c r="G136">
-        <v>445449.5465575927</v>
+        <v>378148.3679860331</v>
       </c>
       <c r="H136">
-        <v>273000</v>
+        <v>188124.9999999986</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3939,22 +3939,22 @@
         <v>136</v>
       </c>
       <c r="C137">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D137">
-        <v>2446.490961237307</v>
+        <v>1700.089001863993</v>
       </c>
       <c r="E137">
-        <v>3846.490961237307</v>
+        <v>3491.75566853066</v>
       </c>
       <c r="F137">
-        <v>638296.0375188298</v>
+        <v>623515.1236545638</v>
       </c>
       <c r="G137">
-        <v>447896.03751883</v>
+        <v>379848.4569878972</v>
       </c>
       <c r="H137">
-        <v>271600</v>
+        <v>186333.3333333319</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3965,22 +3965,22 @@
         <v>137</v>
       </c>
       <c r="C138">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D138">
-        <v>2433.944853743782</v>
+        <v>1683.897678036717</v>
       </c>
       <c r="E138">
-        <v>3833.944853743782</v>
+        <v>3475.564344703384</v>
       </c>
       <c r="F138">
-        <v>642129.9823725736</v>
+        <v>626990.6879992671</v>
       </c>
       <c r="G138">
-        <v>450329.9823725738</v>
+        <v>381532.3546659339</v>
       </c>
       <c r="H138">
-        <v>270200</v>
+        <v>184541.6666666653</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -3991,22 +3991,22 @@
         <v>138</v>
       </c>
       <c r="C139">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D139">
-        <v>2421.398746250257</v>
+        <v>1667.706354209442</v>
       </c>
       <c r="E139">
-        <v>3821.398746250257</v>
+        <v>3459.373020876108</v>
       </c>
       <c r="F139">
-        <v>645951.3811188239</v>
+        <v>630450.0610201432</v>
       </c>
       <c r="G139">
-        <v>452751.381118824</v>
+        <v>383200.0610201433</v>
       </c>
       <c r="H139">
-        <v>268800</v>
+        <v>182749.9999999986</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4017,22 +4017,22 @@
         <v>139</v>
       </c>
       <c r="C140">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D140">
-        <v>2408.852638756733</v>
+        <v>1651.515030382165</v>
       </c>
       <c r="E140">
-        <v>3808.852638756733</v>
+        <v>3443.181697048832</v>
       </c>
       <c r="F140">
-        <v>649760.2337575806</v>
+        <v>633893.242717192</v>
       </c>
       <c r="G140">
-        <v>455160.2337575807</v>
+        <v>384851.5760505255</v>
       </c>
       <c r="H140">
-        <v>267400</v>
+        <v>180958.333333332</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4043,22 +4043,22 @@
         <v>140</v>
       </c>
       <c r="C141">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D141">
-        <v>2396.306531263208</v>
+        <v>1635.323706554889</v>
       </c>
       <c r="E141">
-        <v>3796.306531263208</v>
+        <v>3426.990373221556</v>
       </c>
       <c r="F141">
-        <v>653556.5402888438</v>
+        <v>637320.2330904136</v>
       </c>
       <c r="G141">
-        <v>457556.540288844</v>
+        <v>386486.8997570804</v>
       </c>
       <c r="H141">
-        <v>266000</v>
+        <v>179166.6666666653</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4069,22 +4069,22 @@
         <v>141</v>
       </c>
       <c r="C142">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D142">
-        <v>2383.760423769683</v>
+        <v>1619.132382727614</v>
       </c>
       <c r="E142">
-        <v>3783.760423769683</v>
+        <v>3410.79904939428</v>
       </c>
       <c r="F142">
-        <v>657340.3007126135</v>
+        <v>640731.0321398079</v>
       </c>
       <c r="G142">
-        <v>459940.3007126137</v>
+        <v>388106.032139808</v>
       </c>
       <c r="H142">
-        <v>264600</v>
+        <v>177374.9999999987</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4095,22 +4095,22 @@
         <v>142</v>
       </c>
       <c r="C143">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D143">
-        <v>2371.214316276159</v>
+        <v>1602.941058900338</v>
       </c>
       <c r="E143">
-        <v>3771.214316276159</v>
+        <v>3394.607725567004</v>
       </c>
       <c r="F143">
-        <v>661111.5150288896</v>
+        <v>644125.6398653749</v>
       </c>
       <c r="G143">
-        <v>462311.5150288898</v>
+        <v>389708.9731987083</v>
       </c>
       <c r="H143">
-        <v>263200</v>
+        <v>175583.333333332</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4121,22 +4121,22 @@
         <v>143</v>
       </c>
       <c r="C144">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D144">
-        <v>2358.668208782634</v>
+        <v>1586.749735073061</v>
       </c>
       <c r="E144">
-        <v>3758.668208782634</v>
+        <v>3378.416401739728</v>
       </c>
       <c r="F144">
-        <v>664870.1832376723</v>
+        <v>647504.0562671146</v>
       </c>
       <c r="G144">
-        <v>464670.1832376724</v>
+        <v>391295.7229337814</v>
       </c>
       <c r="H144">
-        <v>261800</v>
+        <v>173791.6666666653</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4147,22 +4147,22 @@
         <v>144</v>
       </c>
       <c r="C145">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D145">
-        <v>2346.12210128911</v>
+        <v>1570.558411245785</v>
       </c>
       <c r="E145">
-        <v>3746.12210128911</v>
+        <v>3362.225077912452</v>
       </c>
       <c r="F145">
-        <v>668616.3053389614</v>
+        <v>650866.281345027</v>
       </c>
       <c r="G145">
-        <v>467016.3053389615</v>
+        <v>392866.2813450271</v>
       </c>
       <c r="H145">
-        <v>260400</v>
+        <v>171999.9999999987</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4173,22 +4173,22 @@
         <v>145</v>
       </c>
       <c r="C146">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D146">
-        <v>2333.575993795585</v>
+        <v>1554.36708741851</v>
       </c>
       <c r="E146">
-        <v>3733.575993795585</v>
+        <v>3346.033754085176</v>
       </c>
       <c r="F146">
-        <v>672349.881332757</v>
+        <v>654212.3150991122</v>
       </c>
       <c r="G146">
-        <v>469349.8813327571</v>
+        <v>394420.6484324457</v>
       </c>
       <c r="H146">
-        <v>259000</v>
+        <v>170208.333333332</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4199,22 +4199,22 @@
         <v>146</v>
       </c>
       <c r="C147">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D147">
-        <v>2321.02988630206</v>
+        <v>1538.175763591234</v>
       </c>
       <c r="E147">
-        <v>3721.02988630206</v>
+        <v>3329.842430257901</v>
       </c>
       <c r="F147">
-        <v>676070.911219059</v>
+        <v>657542.1575293702</v>
       </c>
       <c r="G147">
-        <v>471670.9112190592</v>
+        <v>395958.8241960369</v>
       </c>
       <c r="H147">
-        <v>257600</v>
+        <v>168416.6666666654</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4225,22 +4225,22 @@
         <v>147</v>
       </c>
       <c r="C148">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D148">
-        <v>2308.483778808536</v>
+        <v>1521.984439763957</v>
       </c>
       <c r="E148">
-        <v>3708.483778808536</v>
+        <v>3313.651106430624</v>
       </c>
       <c r="F148">
-        <v>679779.3949978675</v>
+        <v>660855.8086358007</v>
       </c>
       <c r="G148">
-        <v>473979.3949978678</v>
+        <v>397480.8086358008</v>
       </c>
       <c r="H148">
-        <v>256200</v>
+        <v>166624.9999999987</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4251,22 +4251,22 @@
         <v>148</v>
       </c>
       <c r="C149">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D149">
-        <v>2295.937671315011</v>
+        <v>1505.793115936681</v>
       </c>
       <c r="E149">
-        <v>3695.937671315011</v>
+        <v>3297.459782603348</v>
       </c>
       <c r="F149">
-        <v>683475.3326691826</v>
+        <v>664153.268418404</v>
       </c>
       <c r="G149">
-        <v>476275.3326691827</v>
+        <v>398986.6017517375</v>
       </c>
       <c r="H149">
-        <v>254800</v>
+        <v>164833.3333333321</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4277,22 +4277,22 @@
         <v>149</v>
       </c>
       <c r="C150">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D150">
-        <v>2283.391563821486</v>
+        <v>1489.601792109405</v>
       </c>
       <c r="E150">
-        <v>3683.391563821486</v>
+        <v>3281.268458776072</v>
       </c>
       <c r="F150">
-        <v>687158.724233004</v>
+        <v>667434.5368771801</v>
       </c>
       <c r="G150">
-        <v>478558.7242330042</v>
+        <v>400476.203543847</v>
       </c>
       <c r="H150">
-        <v>253400</v>
+        <v>163041.6666666654</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4303,22 +4303,22 @@
         <v>150</v>
       </c>
       <c r="C151">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D151">
-        <v>2270.845456327962</v>
+        <v>1473.410468282129</v>
       </c>
       <c r="E151">
-        <v>3670.845456327962</v>
+        <v>3265.077134948796</v>
       </c>
       <c r="F151">
-        <v>690829.569689332</v>
+        <v>670699.6140121289</v>
       </c>
       <c r="G151">
-        <v>480829.5696893322</v>
+        <v>401949.6140121291</v>
       </c>
       <c r="H151">
-        <v>252000</v>
+        <v>161249.9999999987</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4329,22 +4329,22 @@
         <v>151</v>
       </c>
       <c r="C152">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D152">
-        <v>2258.299348834437</v>
+        <v>1457.219144454853</v>
       </c>
       <c r="E152">
-        <v>3658.299348834437</v>
+        <v>3248.88581112152</v>
       </c>
       <c r="F152">
-        <v>694487.8690381665</v>
+        <v>673948.4998232505</v>
       </c>
       <c r="G152">
-        <v>483087.8690381666</v>
+        <v>403406.8331565839</v>
       </c>
       <c r="H152">
-        <v>250600</v>
+        <v>159458.3333333321</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4355,22 +4355,22 @@
         <v>152</v>
       </c>
       <c r="C153">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D153">
-        <v>2245.753241340912</v>
+        <v>1441.027820627576</v>
       </c>
       <c r="E153">
-        <v>3645.753241340912</v>
+        <v>3232.694487294243</v>
       </c>
       <c r="F153">
-        <v>698133.6222795073</v>
+        <v>677181.1943105448</v>
       </c>
       <c r="G153">
-        <v>485333.6222795075</v>
+        <v>404847.8609772115</v>
       </c>
       <c r="H153">
-        <v>249200</v>
+        <v>157666.6666666654</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4381,22 +4381,22 @@
         <v>153</v>
       </c>
       <c r="C154">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D154">
-        <v>2233.207133847387</v>
+        <v>1424.8364968003</v>
       </c>
       <c r="E154">
-        <v>3633.207133847387</v>
+        <v>3216.503163466967</v>
       </c>
       <c r="F154">
-        <v>701766.8294133547</v>
+        <v>680397.6974740117</v>
       </c>
       <c r="G154">
-        <v>487566.8294133549</v>
+        <v>406272.6974740118</v>
       </c>
       <c r="H154">
-        <v>247800</v>
+        <v>155874.9999999988</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4407,22 +4407,22 @@
         <v>154</v>
       </c>
       <c r="C155">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D155">
-        <v>2220.661026353863</v>
+        <v>1408.645172973024</v>
       </c>
       <c r="E155">
-        <v>3620.661026353863</v>
+        <v>3200.31183963969</v>
       </c>
       <c r="F155">
-        <v>705387.4904397086</v>
+        <v>683598.0093136514</v>
       </c>
       <c r="G155">
-        <v>489787.4904397088</v>
+        <v>407681.3426469848</v>
       </c>
       <c r="H155">
-        <v>246400</v>
+        <v>154083.3333333321</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4433,22 +4433,22 @@
         <v>155</v>
       </c>
       <c r="C156">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D156">
-        <v>2208.114918860339</v>
+        <v>1392.453849145748</v>
       </c>
       <c r="E156">
-        <v>3608.114918860339</v>
+        <v>3184.120515812414</v>
       </c>
       <c r="F156">
-        <v>708995.605358569</v>
+        <v>686782.1298294638</v>
       </c>
       <c r="G156">
-        <v>491995.6053585691</v>
+        <v>409073.7964961306</v>
       </c>
       <c r="H156">
-        <v>245000</v>
+        <v>152291.6666666655</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4459,22 +4459,22 @@
         <v>156</v>
       </c>
       <c r="C157">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D157">
-        <v>2195.568811366814</v>
+        <v>1376.262525318471</v>
       </c>
       <c r="E157">
-        <v>3595.568811366814</v>
+        <v>3167.929191985138</v>
       </c>
       <c r="F157">
-        <v>712591.1741699358</v>
+        <v>689950.0590214489</v>
       </c>
       <c r="G157">
-        <v>494191.1741699359</v>
+        <v>410450.0590214491</v>
       </c>
       <c r="H157">
-        <v>243600</v>
+        <v>150499.9999999988</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4485,22 +4485,22 @@
         <v>157</v>
       </c>
       <c r="C158">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D158">
-        <v>2183.022703873289</v>
+        <v>1360.071201491195</v>
       </c>
       <c r="E158">
-        <v>3583.022703873289</v>
+        <v>3151.737868157862</v>
       </c>
       <c r="F158">
-        <v>716174.1968738091</v>
+        <v>693101.7968896069</v>
       </c>
       <c r="G158">
-        <v>496374.1968738092</v>
+        <v>411810.1302229402</v>
       </c>
       <c r="H158">
-        <v>242200</v>
+        <v>148708.3333333321</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4511,22 +4511,22 @@
         <v>158</v>
       </c>
       <c r="C159">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D159">
-        <v>2170.476596379764</v>
+        <v>1343.879877663919</v>
       </c>
       <c r="E159">
-        <v>3570.476596379764</v>
+        <v>3135.546544330586</v>
       </c>
       <c r="F159">
-        <v>719744.6734701889</v>
+        <v>696237.3434339374</v>
       </c>
       <c r="G159">
-        <v>498544.673470189</v>
+        <v>413154.0101006042</v>
       </c>
       <c r="H159">
-        <v>240800</v>
+        <v>146916.6666666655</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4537,22 +4537,22 @@
         <v>159</v>
       </c>
       <c r="C160">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D160">
-        <v>2157.93048888624</v>
+        <v>1327.688553836643</v>
       </c>
       <c r="E160">
-        <v>3557.93048888624</v>
+        <v>3119.355220503309</v>
       </c>
       <c r="F160">
-        <v>723302.6039590751</v>
+        <v>699356.6986544407</v>
       </c>
       <c r="G160">
-        <v>500702.6039590752</v>
+        <v>414481.6986544408</v>
       </c>
       <c r="H160">
-        <v>239400</v>
+        <v>145124.9999999988</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4563,22 +4563,22 @@
         <v>160</v>
       </c>
       <c r="C161">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D161">
-        <v>2145.384381392715</v>
+        <v>1311.497230009366</v>
       </c>
       <c r="E161">
-        <v>3545.384381392715</v>
+        <v>3103.163896676033</v>
       </c>
       <c r="F161">
-        <v>726847.9883404678</v>
+        <v>702459.8625511167</v>
       </c>
       <c r="G161">
-        <v>502847.988340468</v>
+        <v>415793.1958844502</v>
       </c>
       <c r="H161">
-        <v>238000</v>
+        <v>143333.3333333322</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4589,22 +4589,22 @@
         <v>161</v>
       </c>
       <c r="C162">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D162">
-        <v>2132.83827389919</v>
+        <v>1295.30590618209</v>
       </c>
       <c r="E162">
-        <v>3532.83827389919</v>
+        <v>3086.972572848756</v>
       </c>
       <c r="F162">
-        <v>730380.826614367</v>
+        <v>705546.8351239655</v>
       </c>
       <c r="G162">
-        <v>504980.8266143671</v>
+        <v>417088.5017906323</v>
       </c>
       <c r="H162">
-        <v>236600</v>
+        <v>141541.6666666655</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4615,22 +4615,22 @@
         <v>162</v>
       </c>
       <c r="C163">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D163">
-        <v>2120.292166405666</v>
+        <v>1279.114582354814</v>
       </c>
       <c r="E163">
-        <v>3520.292166405666</v>
+        <v>3070.781249021481</v>
       </c>
       <c r="F163">
-        <v>733901.1187807727</v>
+        <v>708617.616372987</v>
       </c>
       <c r="G163">
-        <v>507101.1187807728</v>
+        <v>418367.616372987</v>
       </c>
       <c r="H163">
-        <v>235200</v>
+        <v>139749.9999999989</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4641,22 +4641,22 @@
         <v>163</v>
       </c>
       <c r="C164">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D164">
-        <v>2107.746058912141</v>
+        <v>1262.923258527537</v>
       </c>
       <c r="E164">
-        <v>3507.746058912141</v>
+        <v>3054.589925194204</v>
       </c>
       <c r="F164">
-        <v>737408.8648396848</v>
+        <v>711672.2062981812</v>
       </c>
       <c r="G164">
-        <v>509208.8648396849</v>
+        <v>419630.5396315146</v>
       </c>
       <c r="H164">
-        <v>233800</v>
+        <v>137958.3333333322</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4667,22 +4667,22 @@
         <v>164</v>
       </c>
       <c r="C165">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D165">
-        <v>2095.199951418616</v>
+        <v>1246.731934700261</v>
       </c>
       <c r="E165">
-        <v>3495.199951418616</v>
+        <v>3038.398601366928</v>
       </c>
       <c r="F165">
-        <v>740904.0647911034</v>
+        <v>714710.6048995481</v>
       </c>
       <c r="G165">
-        <v>511304.0647911035</v>
+        <v>420877.2715662149</v>
       </c>
       <c r="H165">
-        <v>232400</v>
+        <v>136166.6666666656</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4693,22 +4693,22 @@
         <v>165</v>
       </c>
       <c r="C166">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D166">
-        <v>2082.653843925092</v>
+        <v>1230.540610872985</v>
       </c>
       <c r="E166">
-        <v>3482.653843925092</v>
+        <v>3022.207277539652</v>
       </c>
       <c r="F166">
-        <v>744386.7186350285</v>
+        <v>717732.8121770878</v>
       </c>
       <c r="G166">
-        <v>513386.7186350286</v>
+        <v>422107.8121770878</v>
       </c>
       <c r="H166">
-        <v>231000</v>
+        <v>134374.9999999989</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4719,22 +4719,22 @@
         <v>166</v>
       </c>
       <c r="C167">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D167">
-        <v>2070.107736431567</v>
+        <v>1214.349287045709</v>
       </c>
       <c r="E167">
-        <v>3470.107736431567</v>
+        <v>3006.015953712375</v>
       </c>
       <c r="F167">
-        <v>747856.82637146</v>
+        <v>720738.8281308002</v>
       </c>
       <c r="G167">
-        <v>515456.8263714602</v>
+        <v>423322.1614641335</v>
       </c>
       <c r="H167">
-        <v>229600</v>
+        <v>132583.3333333322</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4745,22 +4745,22 @@
         <v>167</v>
       </c>
       <c r="C168">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D168">
-        <v>2057.561628938043</v>
+        <v>1198.157963218433</v>
       </c>
       <c r="E168">
-        <v>3457.561628938043</v>
+        <v>2989.824629885099</v>
       </c>
       <c r="F168">
-        <v>751314.3880003981</v>
+        <v>723728.6527606853</v>
       </c>
       <c r="G168">
-        <v>517514.3880003983</v>
+        <v>424520.319427352</v>
       </c>
       <c r="H168">
-        <v>228200</v>
+        <v>130791.6666666656</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4771,22 +4771,22 @@
         <v>168</v>
       </c>
       <c r="C169">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D169">
-        <v>2045.015521444518</v>
+        <v>1181.966639391156</v>
       </c>
       <c r="E169">
-        <v>3445.015521444518</v>
+        <v>2973.633306057823</v>
       </c>
       <c r="F169">
-        <v>754759.4035218426</v>
+        <v>726702.2860667431</v>
       </c>
       <c r="G169">
-        <v>519559.4035218428</v>
+        <v>425702.2860667431</v>
       </c>
       <c r="H169">
-        <v>226800</v>
+        <v>128999.9999999989</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4797,22 +4797,22 @@
         <v>169</v>
       </c>
       <c r="C170">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D170">
-        <v>2032.469413950993</v>
+        <v>1165.77531556388</v>
       </c>
       <c r="E170">
-        <v>3432.469413950993</v>
+        <v>2957.441982230547</v>
       </c>
       <c r="F170">
-        <v>758191.8729357936</v>
+        <v>729659.7280489736</v>
       </c>
       <c r="G170">
-        <v>521591.8729357938</v>
+        <v>426868.061382307</v>
       </c>
       <c r="H170">
-        <v>225400</v>
+        <v>127208.3333333322</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4823,22 +4823,22 @@
         <v>170</v>
       </c>
       <c r="C171">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D171">
-        <v>2019.923306457469</v>
+        <v>1149.583991736604</v>
       </c>
       <c r="E171">
-        <v>3419.923306457469</v>
+        <v>2941.25065840327</v>
       </c>
       <c r="F171">
-        <v>761611.7962422511</v>
+        <v>732600.9787073769</v>
       </c>
       <c r="G171">
-        <v>523611.7962422512</v>
+        <v>428017.6453740436</v>
       </c>
       <c r="H171">
-        <v>224000</v>
+        <v>125416.6666666656</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4849,22 +4849,22 @@
         <v>171</v>
       </c>
       <c r="C172">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D172">
-        <v>2007.377198963944</v>
+        <v>1133.392667909327</v>
       </c>
       <c r="E172">
-        <v>3407.377198963944</v>
+        <v>2925.059334575994</v>
       </c>
       <c r="F172">
-        <v>765019.173441215</v>
+        <v>735526.0380419529</v>
       </c>
       <c r="G172">
-        <v>525619.1734412152</v>
+        <v>429151.0380419529</v>
       </c>
       <c r="H172">
-        <v>222600</v>
+        <v>123624.9999999989</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4875,22 +4875,22 @@
         <v>172</v>
       </c>
       <c r="C173">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D173">
-        <v>1994.831091470419</v>
+        <v>1117.201344082051</v>
       </c>
       <c r="E173">
-        <v>3394.831091470419</v>
+        <v>2908.868010748718</v>
       </c>
       <c r="F173">
-        <v>768414.0045326854</v>
+        <v>738434.9060527016</v>
       </c>
       <c r="G173">
-        <v>527614.0045326856</v>
+        <v>430268.239386035</v>
       </c>
       <c r="H173">
-        <v>221200</v>
+        <v>121833.3333333322</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4901,22 +4901,22 @@
         <v>173</v>
       </c>
       <c r="C174">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D174">
-        <v>1982.284983976895</v>
+        <v>1101.010020254775</v>
       </c>
       <c r="E174">
-        <v>3382.284983976895</v>
+        <v>2892.676686921442</v>
       </c>
       <c r="F174">
-        <v>771796.2895166622</v>
+        <v>741327.582739623</v>
       </c>
       <c r="G174">
-        <v>529596.2895166625</v>
+        <v>431369.2494062898</v>
       </c>
       <c r="H174">
-        <v>219800</v>
+        <v>120041.6666666655</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4927,22 +4927,22 @@
         <v>174</v>
       </c>
       <c r="C175">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D175">
-        <v>1969.73887648337</v>
+        <v>1084.818696427499</v>
       </c>
       <c r="E175">
-        <v>3369.73887648337</v>
+        <v>2876.485363094165</v>
       </c>
       <c r="F175">
-        <v>775166.0283931457</v>
+        <v>744204.0681027172</v>
       </c>
       <c r="G175">
-        <v>531566.0283931459</v>
+        <v>432454.0681027173</v>
       </c>
       <c r="H175">
-        <v>218400</v>
+        <v>118249.9999999989</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4953,22 +4953,22 @@
         <v>175</v>
       </c>
       <c r="C176">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D176">
-        <v>1957.192768989845</v>
+        <v>1068.627372600222</v>
       </c>
       <c r="E176">
-        <v>3357.192768989845</v>
+        <v>2860.294039266889</v>
       </c>
       <c r="F176">
-        <v>778523.2211621355</v>
+        <v>747064.362141984</v>
       </c>
       <c r="G176">
-        <v>533523.2211621357</v>
+        <v>433522.6954753175</v>
       </c>
       <c r="H176">
-        <v>217000</v>
+        <v>116458.3333333322</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4979,22 +4979,22 @@
         <v>176</v>
       </c>
       <c r="C177">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D177">
-        <v>1944.646661496321</v>
+        <v>1052.436048772946</v>
       </c>
       <c r="E177">
-        <v>3344.646661496321</v>
+        <v>2844.102715439613</v>
       </c>
       <c r="F177">
-        <v>781867.8678236319</v>
+        <v>749908.4648574237</v>
       </c>
       <c r="G177">
-        <v>535467.8678236321</v>
+        <v>434575.1315240904</v>
       </c>
       <c r="H177">
-        <v>215600</v>
+        <v>114666.6666666655</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5005,22 +5005,22 @@
         <v>177</v>
       </c>
       <c r="C178">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D178">
-        <v>1932.100554002796</v>
+        <v>1036.24472494567</v>
       </c>
       <c r="E178">
-        <v>3332.100554002796</v>
+        <v>2827.911391612337</v>
       </c>
       <c r="F178">
-        <v>785199.9683776347</v>
+        <v>752736.3762490361</v>
       </c>
       <c r="G178">
-        <v>537399.9683776349</v>
+        <v>435611.3762490361</v>
       </c>
       <c r="H178">
-        <v>214200</v>
+        <v>112874.9999999989</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5031,22 +5031,22 @@
         <v>178</v>
       </c>
       <c r="C179">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D179">
-        <v>1919.554446509271</v>
+        <v>1020.053401118394</v>
       </c>
       <c r="E179">
-        <v>3319.554446509272</v>
+        <v>2811.720067785061</v>
       </c>
       <c r="F179">
-        <v>788519.5228241439</v>
+        <v>755548.0963168211</v>
       </c>
       <c r="G179">
-        <v>539319.5228241441</v>
+        <v>436631.4296501545</v>
       </c>
       <c r="H179">
-        <v>212800</v>
+        <v>111083.3333333322</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5057,22 +5057,22 @@
         <v>179</v>
       </c>
       <c r="C180">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D180">
-        <v>1907.008339015747</v>
+        <v>1003.862077291117</v>
       </c>
       <c r="E180">
-        <v>3307.008339015747</v>
+        <v>2795.528743957784</v>
       </c>
       <c r="F180">
-        <v>791826.5311631596</v>
+        <v>758343.6250607788</v>
       </c>
       <c r="G180">
-        <v>541226.5311631599</v>
+        <v>437635.2917274456</v>
       </c>
       <c r="H180">
-        <v>211400</v>
+        <v>109291.6666666655</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5083,22 +5083,22 @@
         <v>180</v>
       </c>
       <c r="C181">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D181">
-        <v>1894.462231522222</v>
+        <v>987.670753463841</v>
       </c>
       <c r="E181">
-        <v>3294.462231522222</v>
+        <v>2779.337420130508</v>
       </c>
       <c r="F181">
-        <v>795120.9933946818</v>
+        <v>761122.9624809093</v>
       </c>
       <c r="G181">
-        <v>543120.9933946821</v>
+        <v>438622.9624809095</v>
       </c>
       <c r="H181">
-        <v>210000</v>
+        <v>107499.9999999988</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5109,22 +5109,22 @@
         <v>181</v>
       </c>
       <c r="C182">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D182">
-        <v>1881.916124028697</v>
+        <v>971.4794296365648</v>
       </c>
       <c r="E182">
-        <v>3281.916124028698</v>
+        <v>2763.146096303231</v>
       </c>
       <c r="F182">
-        <v>798402.9095187106</v>
+        <v>763886.1085772126</v>
       </c>
       <c r="G182">
-        <v>545002.9095187108</v>
+        <v>439594.441910546</v>
       </c>
       <c r="H182">
-        <v>208600</v>
+        <v>105708.3333333322</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5135,22 +5135,22 @@
         <v>182</v>
       </c>
       <c r="C183">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D183">
-        <v>1869.370016535173</v>
+        <v>955.2881058092885</v>
       </c>
       <c r="E183">
-        <v>3269.370016535173</v>
+        <v>2746.954772475955</v>
       </c>
       <c r="F183">
-        <v>801672.2795352457</v>
+        <v>766633.0633496885</v>
       </c>
       <c r="G183">
-        <v>546872.279535246</v>
+        <v>440549.7300163553</v>
       </c>
       <c r="H183">
-        <v>207200</v>
+        <v>103916.6666666655</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5161,22 +5161,22 @@
         <v>183</v>
       </c>
       <c r="C184">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D184">
-        <v>1856.823909041648</v>
+        <v>939.0967819820122</v>
       </c>
       <c r="E184">
-        <v>3256.823909041648</v>
+        <v>2730.763448648679</v>
       </c>
       <c r="F184">
-        <v>804929.1034442874</v>
+        <v>769363.8267983373</v>
       </c>
       <c r="G184">
-        <v>548729.1034442877</v>
+        <v>441488.8267983373</v>
       </c>
       <c r="H184">
-        <v>205800</v>
+        <v>102124.9999999988</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5187,22 +5187,22 @@
         <v>184</v>
       </c>
       <c r="C185">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D185">
-        <v>1844.277801548124</v>
+        <v>922.905458154736</v>
       </c>
       <c r="E185">
-        <v>3244.277801548124</v>
+        <v>2714.572124821403</v>
       </c>
       <c r="F185">
-        <v>808173.3812458356</v>
+        <v>772078.3989231586</v>
       </c>
       <c r="G185">
-        <v>550573.3812458358</v>
+        <v>442411.7322564921</v>
       </c>
       <c r="H185">
-        <v>204400</v>
+        <v>100333.3333333321</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5213,22 +5213,22 @@
         <v>185</v>
       </c>
       <c r="C186">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D186">
-        <v>1831.731694054599</v>
+        <v>906.7141343274598</v>
       </c>
       <c r="E186">
-        <v>3231.731694054599</v>
+        <v>2698.380800994127</v>
       </c>
       <c r="F186">
-        <v>811405.1129398901</v>
+        <v>774776.7797241528</v>
       </c>
       <c r="G186">
-        <v>552405.1129398904</v>
+        <v>443318.4463908196</v>
       </c>
       <c r="H186">
-        <v>203000</v>
+        <v>98541.66666666548</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5239,22 +5239,22 @@
         <v>186</v>
       </c>
       <c r="C187">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D187">
-        <v>1819.185586561074</v>
+        <v>890.5228105001835</v>
       </c>
       <c r="E187">
-        <v>3219.185586561074</v>
+        <v>2682.18947716685</v>
       </c>
       <c r="F187">
-        <v>814624.2985264512</v>
+        <v>777458.9692013196</v>
       </c>
       <c r="G187">
-        <v>554224.2985264515</v>
+        <v>444208.9692013197</v>
       </c>
       <c r="H187">
-        <v>201600</v>
+        <v>96749.99999999881</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5265,22 +5265,22 @@
         <v>187</v>
       </c>
       <c r="C188">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D188">
-        <v>1806.639479067549</v>
+        <v>874.3314866729072</v>
       </c>
       <c r="E188">
-        <v>3206.639479067549</v>
+        <v>2665.998153339574</v>
       </c>
       <c r="F188">
-        <v>817830.9380055188</v>
+        <v>780124.9673546592</v>
       </c>
       <c r="G188">
-        <v>556030.938005519</v>
+        <v>445083.3006879927</v>
       </c>
       <c r="H188">
-        <v>200200</v>
+        <v>94958.33333333214</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5291,22 +5291,22 @@
         <v>188</v>
       </c>
       <c r="C189">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D189">
-        <v>1794.093371574025</v>
+        <v>858.1401628456309</v>
       </c>
       <c r="E189">
-        <v>3194.093371574025</v>
+        <v>2649.806829512298</v>
       </c>
       <c r="F189">
-        <v>821025.0313770928</v>
+        <v>782774.7741841716</v>
       </c>
       <c r="G189">
-        <v>557825.0313770931</v>
+        <v>445941.4408508383</v>
       </c>
       <c r="H189">
-        <v>198800</v>
+        <v>93166.66666666546</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5317,22 +5317,22 @@
         <v>189</v>
       </c>
       <c r="C190">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D190">
-        <v>1781.5472640805</v>
+        <v>841.9488390183546</v>
       </c>
       <c r="E190">
-        <v>3181.5472640805</v>
+        <v>2633.615505685021</v>
       </c>
       <c r="F190">
-        <v>824206.5786411733</v>
+        <v>785408.3896898566</v>
       </c>
       <c r="G190">
-        <v>559606.5786411735</v>
+        <v>446783.3896898566</v>
       </c>
       <c r="H190">
-        <v>197400</v>
+        <v>91374.99999999879</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5343,22 +5343,22 @@
         <v>190</v>
       </c>
       <c r="C191">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D191">
-        <v>1769.001156586976</v>
+        <v>825.7575151910784</v>
       </c>
       <c r="E191">
-        <v>3169.001156586975</v>
+        <v>2617.424181857745</v>
       </c>
       <c r="F191">
-        <v>827375.5797977602</v>
+        <v>788025.8138717143</v>
       </c>
       <c r="G191">
-        <v>561375.5797977605</v>
+        <v>447609.1472050477</v>
       </c>
       <c r="H191">
-        <v>196000</v>
+        <v>89583.33333333212</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5369,22 +5369,22 @@
         <v>191</v>
       </c>
       <c r="C192">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D192">
-        <v>1756.455049093451</v>
+        <v>809.5661913638021</v>
       </c>
       <c r="E192">
-        <v>3156.455049093451</v>
+        <v>2601.232858030469</v>
       </c>
       <c r="F192">
-        <v>830532.0348468537</v>
+        <v>790627.0467297448</v>
       </c>
       <c r="G192">
-        <v>563132.0348468539</v>
+        <v>448418.7133964115</v>
       </c>
       <c r="H192">
-        <v>194600</v>
+        <v>87791.66666666545</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5395,22 +5395,22 @@
         <v>192</v>
       </c>
       <c r="C193">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D193">
-        <v>1743.908941599926</v>
+        <v>793.3748675365259</v>
       </c>
       <c r="E193">
-        <v>3143.908941599926</v>
+        <v>2585.041534203193</v>
       </c>
       <c r="F193">
-        <v>833675.9437884536</v>
+        <v>793212.088263948</v>
       </c>
       <c r="G193">
-        <v>564875.9437884538</v>
+        <v>449212.088263948</v>
       </c>
       <c r="H193">
-        <v>193200</v>
+        <v>85999.99999999878</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5421,22 +5421,22 @@
         <v>193</v>
       </c>
       <c r="C194">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D194">
-        <v>1731.362834106402</v>
+        <v>777.1835437092496</v>
       </c>
       <c r="E194">
-        <v>3131.362834106401</v>
+        <v>2568.850210375917</v>
       </c>
       <c r="F194">
-        <v>836807.30662256</v>
+        <v>795780.9384743239</v>
       </c>
       <c r="G194">
-        <v>566607.3066225603</v>
+        <v>449989.2718076573</v>
       </c>
       <c r="H194">
-        <v>191800</v>
+        <v>84208.33333333211</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5447,22 +5447,22 @@
         <v>194</v>
       </c>
       <c r="C195">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D195">
-        <v>1718.816726612877</v>
+        <v>760.9922198819734</v>
       </c>
       <c r="E195">
-        <v>3118.816726612877</v>
+        <v>2552.65888654864</v>
       </c>
       <c r="F195">
-        <v>839926.1233491729</v>
+        <v>798333.5973608725</v>
       </c>
       <c r="G195">
-        <v>568326.1233491731</v>
+        <v>450750.2640275392</v>
       </c>
       <c r="H195">
-        <v>190400</v>
+        <v>82416.66666666543</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5473,22 +5473,22 @@
         <v>195</v>
       </c>
       <c r="C196">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D196">
-        <v>1706.270619119352</v>
+        <v>744.8008960546971</v>
       </c>
       <c r="E196">
-        <v>3106.270619119352</v>
+        <v>2536.467562721364</v>
       </c>
       <c r="F196">
-        <v>843032.3939682923</v>
+        <v>800870.0649235939</v>
       </c>
       <c r="G196">
-        <v>570032.3939682925</v>
+        <v>451495.0649235939</v>
       </c>
       <c r="H196">
-        <v>189000</v>
+        <v>80624.99999999876</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5499,22 +5499,22 @@
         <v>196</v>
       </c>
       <c r="C197">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D197">
-        <v>1693.724511625828</v>
+        <v>728.6095722274208</v>
       </c>
       <c r="E197">
-        <v>3093.724511625828</v>
+        <v>2520.276238894087</v>
       </c>
       <c r="F197">
-        <v>846126.1184799181</v>
+        <v>803390.341162488</v>
       </c>
       <c r="G197">
-        <v>571726.1184799183</v>
+        <v>452223.6744958214</v>
       </c>
       <c r="H197">
-        <v>187600</v>
+        <v>78833.33333333209</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5525,22 +5525,22 @@
         <v>197</v>
       </c>
       <c r="C198">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D198">
-        <v>1681.178404132303</v>
+        <v>712.4182484001445</v>
       </c>
       <c r="E198">
-        <v>3081.178404132303</v>
+        <v>2504.084915066811</v>
       </c>
       <c r="F198">
-        <v>849207.2968840504</v>
+        <v>805894.4260775548</v>
       </c>
       <c r="G198">
-        <v>573407.2968840506</v>
+        <v>452936.0927442215</v>
       </c>
       <c r="H198">
-        <v>186200</v>
+        <v>77041.66666666542</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5551,22 +5551,22 @@
         <v>198</v>
       </c>
       <c r="C199">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D199">
-        <v>1668.632296638778</v>
+        <v>696.2269245728683</v>
       </c>
       <c r="E199">
-        <v>3068.632296638778</v>
+        <v>2487.893591239535</v>
       </c>
       <c r="F199">
-        <v>852275.9291806892</v>
+        <v>808382.3196687944</v>
       </c>
       <c r="G199">
-        <v>575075.9291806894</v>
+        <v>453632.3196687944</v>
       </c>
       <c r="H199">
-        <v>184800</v>
+        <v>75249.99999999875</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5577,22 +5577,22 @@
         <v>199</v>
       </c>
       <c r="C200">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D200">
-        <v>1656.086189145254</v>
+        <v>680.035600745592</v>
       </c>
       <c r="E200">
-        <v>3056.086189145254</v>
+        <v>2471.702267412259</v>
       </c>
       <c r="F200">
-        <v>855332.0153698344</v>
+        <v>810854.0219362066</v>
       </c>
       <c r="G200">
-        <v>576732.0153698346</v>
+        <v>454312.35526954</v>
       </c>
       <c r="H200">
-        <v>183400</v>
+        <v>73458.33333333208</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5603,22 +5603,22 @@
         <v>200</v>
       </c>
       <c r="C201">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D201">
-        <v>1643.540081651729</v>
+        <v>663.8442769183158</v>
       </c>
       <c r="E201">
-        <v>3043.540081651729</v>
+        <v>2455.510943584983</v>
       </c>
       <c r="F201">
-        <v>858375.5554514861</v>
+        <v>813309.5328797916</v>
       </c>
       <c r="G201">
-        <v>578375.5554514864</v>
+        <v>454976.1995464583</v>
       </c>
       <c r="H201">
-        <v>182000</v>
+        <v>71666.66666666541</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5629,22 +5629,22 @@
         <v>201</v>
       </c>
       <c r="C202">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D202">
-        <v>1630.993974158205</v>
+        <v>647.6529530910395</v>
       </c>
       <c r="E202">
-        <v>3030.993974158205</v>
+        <v>2439.319619757706</v>
       </c>
       <c r="F202">
-        <v>861406.5494256443</v>
+        <v>815748.8524995493</v>
       </c>
       <c r="G202">
-        <v>580006.5494256446</v>
+        <v>455623.8524995493</v>
       </c>
       <c r="H202">
-        <v>180600</v>
+        <v>69874.99999999873</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5655,22 +5655,22 @@
         <v>202</v>
       </c>
       <c r="C203">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D203">
-        <v>1618.44786666468</v>
+        <v>631.4616292637633</v>
       </c>
       <c r="E203">
-        <v>3018.44786666468</v>
+        <v>2423.12829593043</v>
       </c>
       <c r="F203">
-        <v>864424.9972923091</v>
+        <v>818171.9807954797</v>
       </c>
       <c r="G203">
-        <v>581624.9972923093</v>
+        <v>456255.3141288131</v>
       </c>
       <c r="H203">
-        <v>179200</v>
+        <v>68083.33333333206</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5681,22 +5681,22 @@
         <v>203</v>
       </c>
       <c r="C204">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D204">
-        <v>1605.901759171155</v>
+        <v>615.270305436487</v>
       </c>
       <c r="E204">
-        <v>3005.901759171155</v>
+        <v>2406.936972103153</v>
       </c>
       <c r="F204">
-        <v>867430.8990514802</v>
+        <v>820578.9177675829</v>
       </c>
       <c r="G204">
-        <v>583230.8990514805</v>
+        <v>456870.5844342496</v>
       </c>
       <c r="H204">
-        <v>177800</v>
+        <v>66291.66666666539</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5707,22 +5707,22 @@
         <v>204</v>
       </c>
       <c r="C205">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D205">
-        <v>1593.35565167763</v>
+        <v>599.0789816092107</v>
       </c>
       <c r="E205">
-        <v>2993.355651677631</v>
+        <v>2390.745648275878</v>
       </c>
       <c r="F205">
-        <v>870424.2547031578</v>
+        <v>822969.6634158588</v>
       </c>
       <c r="G205">
-        <v>584824.254703158</v>
+        <v>457469.6634158588</v>
       </c>
       <c r="H205">
-        <v>176400</v>
+        <v>64499.99999999873</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5733,22 +5733,22 @@
         <v>205</v>
       </c>
       <c r="C206">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D206">
-        <v>1580.809544184106</v>
+        <v>582.8876577819344</v>
       </c>
       <c r="E206">
-        <v>2980.809544184106</v>
+        <v>2374.554324448601</v>
       </c>
       <c r="F206">
-        <v>873405.0642473419</v>
+        <v>825344.2177403073</v>
       </c>
       <c r="G206">
-        <v>586405.0642473422</v>
+        <v>458052.5510736408</v>
       </c>
       <c r="H206">
-        <v>175000</v>
+        <v>62708.33333333206</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5759,22 +5759,22 @@
         <v>206</v>
       </c>
       <c r="C207">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D207">
-        <v>1568.263436690581</v>
+        <v>566.6963339546581</v>
       </c>
       <c r="E207">
-        <v>2968.263436690581</v>
+        <v>2358.363000621325</v>
       </c>
       <c r="F207">
-        <v>876373.3276840325</v>
+        <v>827702.5807409286</v>
       </c>
       <c r="G207">
-        <v>587973.3276840327</v>
+        <v>458619.2474075954</v>
       </c>
       <c r="H207">
-        <v>173600</v>
+        <v>60916.6666666654</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5785,22 +5785,22 @@
         <v>207</v>
       </c>
       <c r="C208">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D208">
-        <v>1555.717329197057</v>
+        <v>550.5050101273819</v>
       </c>
       <c r="E208">
-        <v>2955.717329197057</v>
+        <v>2342.171676794049</v>
       </c>
       <c r="F208">
-        <v>879329.0450132296</v>
+        <v>830044.7524177227</v>
       </c>
       <c r="G208">
-        <v>589529.0450132298</v>
+        <v>459169.7524177228</v>
       </c>
       <c r="H208">
-        <v>172200</v>
+        <v>59124.99999999873</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5811,22 +5811,22 @@
         <v>208</v>
       </c>
       <c r="C209">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D209">
-        <v>1543.171221703532</v>
+        <v>534.3136863001057</v>
       </c>
       <c r="E209">
-        <v>2943.171221703532</v>
+        <v>2325.980352966772</v>
       </c>
       <c r="F209">
-        <v>882272.2162349331</v>
+        <v>832370.7327706895</v>
       </c>
       <c r="G209">
-        <v>591072.2162349334</v>
+        <v>459704.0661040229</v>
       </c>
       <c r="H209">
-        <v>170800</v>
+        <v>57333.33333333207</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5837,22 +5837,22 @@
         <v>209</v>
       </c>
       <c r="C210">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D210">
-        <v>1530.625114210007</v>
+        <v>518.1223624728294</v>
       </c>
       <c r="E210">
-        <v>2930.625114210007</v>
+        <v>2309.789029139496</v>
       </c>
       <c r="F210">
-        <v>885202.8413491431</v>
+        <v>834680.521799829</v>
       </c>
       <c r="G210">
-        <v>592602.8413491433</v>
+        <v>460222.1884664957</v>
       </c>
       <c r="H210">
-        <v>169400</v>
+        <v>55541.66666666541</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5863,22 +5863,22 @@
         <v>210</v>
       </c>
       <c r="C211">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D211">
-        <v>1518.079006716483</v>
+        <v>501.9310386455531</v>
       </c>
       <c r="E211">
-        <v>2918.079006716483</v>
+        <v>2293.59770531222</v>
       </c>
       <c r="F211">
-        <v>888120.9203558596</v>
+        <v>836974.1195051412</v>
       </c>
       <c r="G211">
-        <v>594120.9203558598</v>
+        <v>460724.1195051413</v>
       </c>
       <c r="H211">
-        <v>168000</v>
+        <v>53749.99999999874</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5889,22 +5889,22 @@
         <v>211</v>
       </c>
       <c r="C212">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D212">
-        <v>1505.532899222958</v>
+        <v>485.7397148182769</v>
       </c>
       <c r="E212">
-        <v>2905.532899222958</v>
+        <v>2277.406381484944</v>
       </c>
       <c r="F212">
-        <v>891026.4532550825</v>
+        <v>839251.5258866261</v>
       </c>
       <c r="G212">
-        <v>595626.4532550827</v>
+        <v>461209.8592199595</v>
       </c>
       <c r="H212">
-        <v>166600</v>
+        <v>51958.33333333208</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5915,22 +5915,22 @@
         <v>212</v>
       </c>
       <c r="C213">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D213">
-        <v>1492.986791729433</v>
+        <v>469.5483909910006</v>
       </c>
       <c r="E213">
-        <v>2892.986791729433</v>
+        <v>2261.215057657667</v>
       </c>
       <c r="F213">
-        <v>893919.4400468119</v>
+        <v>841512.7409442838</v>
       </c>
       <c r="G213">
-        <v>597119.4400468122</v>
+        <v>461679.4076109505</v>
       </c>
       <c r="H213">
-        <v>165200</v>
+        <v>50166.66666666541</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5941,22 +5941,22 @@
         <v>213</v>
       </c>
       <c r="C214">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D214">
-        <v>1480.440684235909</v>
+        <v>453.3570671637244</v>
       </c>
       <c r="E214">
-        <v>2880.440684235909</v>
+        <v>2245.023733830391</v>
       </c>
       <c r="F214">
-        <v>896799.8807310478</v>
+        <v>843757.7646781142</v>
       </c>
       <c r="G214">
-        <v>598599.8807310481</v>
+        <v>462132.7646781143</v>
       </c>
       <c r="H214">
-        <v>163800</v>
+        <v>48374.99999999875</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5967,22 +5967,22 @@
         <v>214</v>
       </c>
       <c r="C215">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D215">
-        <v>1467.894576742384</v>
+        <v>437.1657433364481</v>
       </c>
       <c r="E215">
-        <v>2867.894576742384</v>
+        <v>2228.832410003115</v>
       </c>
       <c r="F215">
-        <v>899667.7753077903</v>
+        <v>845986.5970881173</v>
       </c>
       <c r="G215">
-        <v>600067.7753077905</v>
+        <v>462569.9304214507</v>
       </c>
       <c r="H215">
-        <v>162400</v>
+        <v>46583.33333333208</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -5993,22 +5993,22 @@
         <v>215</v>
       </c>
       <c r="C216">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D216">
-        <v>1455.348469248859</v>
+        <v>420.9744195091718</v>
       </c>
       <c r="E216">
-        <v>2855.348469248859</v>
+        <v>2212.641086175839</v>
       </c>
       <c r="F216">
-        <v>902523.1237770391</v>
+        <v>848199.2381742931</v>
       </c>
       <c r="G216">
-        <v>601523.1237770393</v>
+        <v>462990.9048409599</v>
       </c>
       <c r="H216">
-        <v>161000</v>
+        <v>44791.66666666542</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6019,22 +6019,22 @@
         <v>216</v>
       </c>
       <c r="C217">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D217">
-        <v>1442.802361755335</v>
+        <v>404.7830956818955</v>
       </c>
       <c r="E217">
-        <v>2842.802361755334</v>
+        <v>2196.449762348562</v>
       </c>
       <c r="F217">
-        <v>905365.9261387944</v>
+        <v>850395.6879366416</v>
       </c>
       <c r="G217">
-        <v>602965.9261387946</v>
+        <v>463395.6879366418</v>
       </c>
       <c r="H217">
-        <v>159600</v>
+        <v>42999.99999999876</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6045,22 +6045,22 @@
         <v>217</v>
       </c>
       <c r="C218">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D218">
-        <v>1430.25625426181</v>
+        <v>388.5917718546193</v>
       </c>
       <c r="E218">
-        <v>2830.25625426181</v>
+        <v>2180.258438521286</v>
       </c>
       <c r="F218">
-        <v>908196.1823930562</v>
+        <v>852575.9463751629</v>
       </c>
       <c r="G218">
-        <v>604396.1823930565</v>
+        <v>463784.2797084964</v>
       </c>
       <c r="H218">
-        <v>158200</v>
+        <v>41208.33333333209</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6071,22 +6071,22 @@
         <v>218</v>
       </c>
       <c r="C219">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D219">
-        <v>1417.710146768285</v>
+        <v>372.400448027343</v>
       </c>
       <c r="E219">
-        <v>2817.710146768285</v>
+        <v>2164.06711469401</v>
       </c>
       <c r="F219">
-        <v>911013.8925398245</v>
+        <v>854740.013489857</v>
       </c>
       <c r="G219">
-        <v>605813.8925398247</v>
+        <v>464156.6801565238</v>
       </c>
       <c r="H219">
-        <v>156800</v>
+        <v>39416.66666666543</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6097,22 +6097,22 @@
         <v>219</v>
       </c>
       <c r="C220">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D220">
-        <v>1405.164039274761</v>
+        <v>356.2091242000668</v>
       </c>
       <c r="E220">
-        <v>2805.164039274761</v>
+        <v>2147.875790866733</v>
       </c>
       <c r="F220">
-        <v>913819.0565790993</v>
+        <v>856887.8892807238</v>
       </c>
       <c r="G220">
-        <v>607219.0565790995</v>
+        <v>464512.8892807238</v>
       </c>
       <c r="H220">
-        <v>155400</v>
+        <v>37624.99999999876</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6123,22 +6123,22 @@
         <v>220</v>
       </c>
       <c r="C221">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D221">
-        <v>1392.617931781236</v>
+        <v>340.0178003727905</v>
       </c>
       <c r="E221">
-        <v>2792.617931781236</v>
+        <v>2131.684467039457</v>
       </c>
       <c r="F221">
-        <v>916611.6745108805</v>
+        <v>859019.5737477632</v>
       </c>
       <c r="G221">
-        <v>608611.6745108807</v>
+        <v>464852.9070810966</v>
       </c>
       <c r="H221">
-        <v>154000</v>
+        <v>35833.3333333321</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6149,22 +6149,22 @@
         <v>221</v>
       </c>
       <c r="C222">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D222">
-        <v>1380.071824287711</v>
+        <v>323.8264765455143</v>
       </c>
       <c r="E222">
-        <v>2780.071824287711</v>
+        <v>2115.493143212181</v>
       </c>
       <c r="F222">
-        <v>919391.7463351683</v>
+        <v>861135.0668909753</v>
       </c>
       <c r="G222">
-        <v>609991.7463351685</v>
+        <v>465176.7335576421</v>
       </c>
       <c r="H222">
-        <v>152600</v>
+        <v>34041.66666666543</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6175,22 +6175,22 @@
         <v>222</v>
       </c>
       <c r="C223">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D223">
-        <v>1367.525716794187</v>
+        <v>307.635152718238</v>
       </c>
       <c r="E223">
-        <v>2767.525716794187</v>
+        <v>2099.301819384905</v>
       </c>
       <c r="F223">
-        <v>922159.2720519624</v>
+        <v>863234.3687103603</v>
       </c>
       <c r="G223">
-        <v>611359.2720519627</v>
+        <v>465484.3687103604</v>
       </c>
       <c r="H223">
-        <v>151200</v>
+        <v>32249.99999999877</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6201,22 +6201,22 @@
         <v>223</v>
       </c>
       <c r="C224">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D224">
-        <v>1354.979609300662</v>
+        <v>291.4438288909617</v>
       </c>
       <c r="E224">
-        <v>2754.979609300662</v>
+        <v>2083.110495557628</v>
       </c>
       <c r="F224">
-        <v>924914.2516612631</v>
+        <v>865317.4792059179</v>
       </c>
       <c r="G224">
-        <v>612714.2516612633</v>
+        <v>465775.8125392513</v>
       </c>
       <c r="H224">
-        <v>149800</v>
+        <v>30458.3333333321</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6227,22 +6227,22 @@
         <v>224</v>
       </c>
       <c r="C225">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D225">
-        <v>1342.433501807137</v>
+        <v>275.2525050636854</v>
       </c>
       <c r="E225">
-        <v>2742.433501807137</v>
+        <v>2066.919171730352</v>
       </c>
       <c r="F225">
-        <v>927656.6851630702</v>
+        <v>867384.3983776483</v>
       </c>
       <c r="G225">
-        <v>614056.6851630704</v>
+        <v>466051.065044315</v>
       </c>
       <c r="H225">
-        <v>148400</v>
+        <v>28666.66666666543</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6253,22 +6253,22 @@
         <v>225</v>
       </c>
       <c r="C226">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D226">
-        <v>1329.887394313613</v>
+        <v>259.0611812364092</v>
       </c>
       <c r="E226">
-        <v>2729.887394313613</v>
+        <v>2050.727847903076</v>
       </c>
       <c r="F226">
-        <v>930386.5725573838</v>
+        <v>869435.1262255514</v>
       </c>
       <c r="G226">
-        <v>615386.572557384</v>
+        <v>466310.1262255514</v>
       </c>
       <c r="H226">
-        <v>147000</v>
+        <v>26874.99999999876</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6279,22 +6279,22 @@
         <v>226</v>
       </c>
       <c r="C227">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D227">
-        <v>1317.341286820088</v>
+        <v>242.8698574091329</v>
       </c>
       <c r="E227">
-        <v>2717.341286820088</v>
+        <v>2034.5365240758</v>
       </c>
       <c r="F227">
-        <v>933103.9138442039</v>
+        <v>871469.6627496271</v>
       </c>
       <c r="G227">
-        <v>616703.9138442042</v>
+        <v>466552.9960829606</v>
       </c>
       <c r="H227">
-        <v>145600</v>
+        <v>25083.3333333321</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6305,22 +6305,22 @@
         <v>227</v>
       </c>
       <c r="C228">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D228">
-        <v>1304.795179326564</v>
+        <v>226.6785335818566</v>
       </c>
       <c r="E228">
-        <v>2704.795179326564</v>
+        <v>2018.345200248523</v>
       </c>
       <c r="F228">
-        <v>935808.7090235305</v>
+        <v>873488.0079498757</v>
       </c>
       <c r="G228">
-        <v>618008.7090235307</v>
+        <v>466779.6746165424</v>
       </c>
       <c r="H228">
-        <v>144200</v>
+        <v>23291.66666666543</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6331,22 +6331,22 @@
         <v>228</v>
       </c>
       <c r="C229">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D229">
-        <v>1292.249071833039</v>
+        <v>210.4872097545804</v>
       </c>
       <c r="E229">
-        <v>2692.249071833039</v>
+        <v>2002.153876421247</v>
       </c>
       <c r="F229">
-        <v>938500.9580953636</v>
+        <v>875490.1618262969</v>
       </c>
       <c r="G229">
-        <v>619300.9580953638</v>
+        <v>466990.161826297</v>
       </c>
       <c r="H229">
-        <v>142800</v>
+        <v>21499.99999999876</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6357,22 +6357,22 @@
         <v>229</v>
       </c>
       <c r="C230">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D230">
-        <v>1279.702964339514</v>
+        <v>194.2958859273041</v>
       </c>
       <c r="E230">
-        <v>2679.702964339514</v>
+        <v>1985.962552593971</v>
       </c>
       <c r="F230">
-        <v>941180.6610597031</v>
+        <v>877476.124378891</v>
       </c>
       <c r="G230">
-        <v>620580.6610597033</v>
+        <v>467184.4577122243</v>
       </c>
       <c r="H230">
-        <v>141400</v>
+        <v>19708.33333333209</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6383,22 +6383,22 @@
         <v>230</v>
       </c>
       <c r="C231">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D231">
-        <v>1267.15685684599</v>
+        <v>178.1045621000279</v>
       </c>
       <c r="E231">
-        <v>2667.15685684599</v>
+        <v>1969.771228766695</v>
       </c>
       <c r="F231">
-        <v>943847.817916549</v>
+        <v>879445.8956076576</v>
       </c>
       <c r="G231">
-        <v>621847.8179165493</v>
+        <v>467362.5622743243</v>
       </c>
       <c r="H231">
-        <v>140000</v>
+        <v>17916.66666666542</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6409,22 +6409,22 @@
         <v>231</v>
       </c>
       <c r="C232">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D232">
-        <v>1254.610749352465</v>
+        <v>161.9132382727516</v>
       </c>
       <c r="E232">
-        <v>2654.610749352465</v>
+        <v>1953.579904939418</v>
       </c>
       <c r="F232">
-        <v>946502.4286659015</v>
+        <v>881399.475512597</v>
       </c>
       <c r="G232">
-        <v>623102.4286659018</v>
+        <v>467524.4755125971</v>
       </c>
       <c r="H232">
-        <v>138600</v>
+        <v>16124.99999999876</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6435,22 +6435,22 @@
         <v>232</v>
       </c>
       <c r="C233">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D233">
-        <v>1242.06464185894</v>
+        <v>145.7219144454753</v>
       </c>
       <c r="E233">
-        <v>2642.06464185894</v>
+        <v>1937.388581112142</v>
       </c>
       <c r="F233">
-        <v>949144.4933077605</v>
+        <v>883336.8640937092</v>
       </c>
       <c r="G233">
-        <v>624344.4933077607</v>
+        <v>467670.1974270425</v>
       </c>
       <c r="H233">
-        <v>137200</v>
+        <v>14333.33333333209</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6461,22 +6461,22 @@
         <v>233</v>
       </c>
       <c r="C234">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D234">
-        <v>1229.518534365416</v>
+        <v>129.5305906181991</v>
       </c>
       <c r="E234">
-        <v>2629.518534365416</v>
+        <v>1921.197257284866</v>
       </c>
       <c r="F234">
-        <v>951774.0118421259</v>
+        <v>885258.061350994</v>
       </c>
       <c r="G234">
-        <v>625574.0118421261</v>
+        <v>467799.7280176607</v>
       </c>
       <c r="H234">
-        <v>135800</v>
+        <v>12541.66666666543</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6487,22 +6487,22 @@
         <v>234</v>
       </c>
       <c r="C235">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D235">
-        <v>1216.972426871891</v>
+        <v>113.3392667909228</v>
       </c>
       <c r="E235">
-        <v>2616.972426871891</v>
+        <v>1905.005933457589</v>
       </c>
       <c r="F235">
-        <v>954390.9842689978</v>
+        <v>887163.0672844517</v>
       </c>
       <c r="G235">
-        <v>626790.984268998</v>
+        <v>467913.0672844517</v>
       </c>
       <c r="H235">
-        <v>134400</v>
+        <v>10749.99999999876</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6513,22 +6513,22 @@
         <v>235</v>
       </c>
       <c r="C236">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D236">
-        <v>1204.426319378366</v>
+        <v>97.14794296364654</v>
       </c>
       <c r="E236">
-        <v>2604.426319378366</v>
+        <v>1888.814609630313</v>
       </c>
       <c r="F236">
-        <v>956995.4105883761</v>
+        <v>889051.8818940819</v>
       </c>
       <c r="G236">
-        <v>627995.4105883763</v>
+        <v>468010.2152274153</v>
       </c>
       <c r="H236">
-        <v>133000</v>
+        <v>8958.333333332093</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6539,22 +6539,22 @@
         <v>236</v>
       </c>
       <c r="C237">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D237">
-        <v>1191.880211884842</v>
+        <v>80.95661913637028</v>
       </c>
       <c r="E237">
-        <v>2591.880211884842</v>
+        <v>1872.623285803037</v>
       </c>
       <c r="F237">
-        <v>959587.290800261</v>
+        <v>890924.505179885</v>
       </c>
       <c r="G237">
-        <v>629187.2908002612</v>
+        <v>468091.1718465517</v>
       </c>
       <c r="H237">
-        <v>131600</v>
+        <v>7166.666666665426</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6565,22 +6565,22 @@
         <v>237</v>
       </c>
       <c r="C238">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D238">
-        <v>1179.334104391317</v>
+        <v>64.76529530909401</v>
       </c>
       <c r="E238">
-        <v>2579.334104391317</v>
+        <v>1856.431961975761</v>
       </c>
       <c r="F238">
-        <v>962166.6249046522</v>
+        <v>892780.9371418607</v>
       </c>
       <c r="G238">
-        <v>630366.6249046525</v>
+        <v>468155.9371418608</v>
       </c>
       <c r="H238">
-        <v>130200</v>
+        <v>5374.999999998759</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6591,22 +6591,22 @@
         <v>238</v>
       </c>
       <c r="C239">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D239">
-        <v>1166.787996897792</v>
+        <v>48.57397148181774</v>
       </c>
       <c r="E239">
-        <v>2566.787996897792</v>
+        <v>1840.240638148485</v>
       </c>
       <c r="F239">
-        <v>964733.4129015501</v>
+        <v>894621.1777800092</v>
       </c>
       <c r="G239">
-        <v>631533.4129015503</v>
+        <v>468204.5111133426</v>
       </c>
       <c r="H239">
-        <v>128800</v>
+        <v>3583.333333332092</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6617,22 +6617,22 @@
         <v>239</v>
       </c>
       <c r="C240">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D240">
-        <v>1154.241889404268</v>
+        <v>32.38264765454148</v>
       </c>
       <c r="E240">
-        <v>2554.241889404268</v>
+        <v>1824.049314321208</v>
       </c>
       <c r="F240">
-        <v>967287.6547909543</v>
+        <v>896445.2270943305</v>
       </c>
       <c r="G240">
-        <v>632687.6547909545</v>
+        <v>468236.8937609972</v>
       </c>
       <c r="H240">
-        <v>127400</v>
+        <v>1791.666666665426</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6643,2362 +6643,22 @@
         <v>240</v>
       </c>
       <c r="C241">
-        <v>1400</v>
+        <v>1791.666666666667</v>
       </c>
       <c r="D241">
-        <v>1141.695781910743</v>
+        <v>16.19132382726522</v>
       </c>
       <c r="E241">
-        <v>2541.695781910743</v>
+        <v>1807.857990493932</v>
       </c>
       <c r="F241">
-        <v>969829.3505728651</v>
+        <v>898253.0850848244</v>
       </c>
       <c r="G241">
-        <v>633829.3505728653</v>
+        <v>468253.0850848244</v>
       </c>
       <c r="H241">
-        <v>126000</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242">
-        <v>241</v>
-      </c>
-      <c r="C242">
-        <v>1400</v>
-      </c>
-      <c r="D242">
-        <v>1129.149674417218</v>
-      </c>
-      <c r="E242">
-        <v>2529.149674417218</v>
-      </c>
-      <c r="F242">
-        <v>972358.5002472823</v>
-      </c>
-      <c r="G242">
-        <v>634958.5002472826</v>
-      </c>
-      <c r="H242">
-        <v>124600</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>242</v>
-      </c>
-      <c r="C243">
-        <v>1400</v>
-      </c>
-      <c r="D243">
-        <v>1116.603566923694</v>
-      </c>
-      <c r="E243">
-        <v>2516.603566923694</v>
-      </c>
-      <c r="F243">
-        <v>974875.103814206</v>
-      </c>
-      <c r="G243">
-        <v>636075.1038142062</v>
-      </c>
-      <c r="H243">
-        <v>123200</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244">
-        <v>243</v>
-      </c>
-      <c r="C244">
-        <v>1400</v>
-      </c>
-      <c r="D244">
-        <v>1104.057459430169</v>
-      </c>
-      <c r="E244">
-        <v>2504.057459430169</v>
-      </c>
-      <c r="F244">
-        <v>977379.1612736362</v>
-      </c>
-      <c r="G244">
-        <v>637179.1612736364</v>
-      </c>
-      <c r="H244">
-        <v>121800</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245">
-        <v>244</v>
-      </c>
-      <c r="C245">
-        <v>1400</v>
-      </c>
-      <c r="D245">
-        <v>1091.511351936645</v>
-      </c>
-      <c r="E245">
-        <v>2491.511351936645</v>
-      </c>
-      <c r="F245">
-        <v>979870.6726255728</v>
-      </c>
-      <c r="G245">
-        <v>638270.672625573</v>
-      </c>
-      <c r="H245">
-        <v>120400</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246">
-        <v>245</v>
-      </c>
-      <c r="C246">
-        <v>1400</v>
-      </c>
-      <c r="D246">
-        <v>1078.96524444312</v>
-      </c>
-      <c r="E246">
-        <v>2478.96524444312</v>
-      </c>
-      <c r="F246">
-        <v>982349.6378700159</v>
-      </c>
-      <c r="G246">
-        <v>639349.6378700162</v>
-      </c>
-      <c r="H246">
-        <v>119000</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247">
-        <v>246</v>
-      </c>
-      <c r="C247">
-        <v>1400</v>
-      </c>
-      <c r="D247">
-        <v>1066.419136949595</v>
-      </c>
-      <c r="E247">
-        <v>2466.419136949595</v>
-      </c>
-      <c r="F247">
-        <v>984816.0570069655</v>
-      </c>
-      <c r="G247">
-        <v>640416.0570069657</v>
-      </c>
-      <c r="H247">
-        <v>117600</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248">
-        <v>247</v>
-      </c>
-      <c r="C248">
-        <v>1400</v>
-      </c>
-      <c r="D248">
-        <v>1053.873029456071</v>
-      </c>
-      <c r="E248">
-        <v>2453.873029456071</v>
-      </c>
-      <c r="F248">
-        <v>987269.9300364216</v>
-      </c>
-      <c r="G248">
-        <v>641469.9300364219</v>
-      </c>
-      <c r="H248">
-        <v>116200</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249">
-        <v>248</v>
-      </c>
-      <c r="C249">
-        <v>1400</v>
-      </c>
-      <c r="D249">
-        <v>1041.326921962546</v>
-      </c>
-      <c r="E249">
-        <v>2441.326921962546</v>
-      </c>
-      <c r="F249">
-        <v>989711.2569583842</v>
-      </c>
-      <c r="G249">
-        <v>642511.2569583844</v>
-      </c>
-      <c r="H249">
-        <v>114800</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250">
-        <v>249</v>
-      </c>
-      <c r="C250">
-        <v>1400</v>
-      </c>
-      <c r="D250">
-        <v>1028.780814469021</v>
-      </c>
-      <c r="E250">
-        <v>2428.780814469022</v>
-      </c>
-      <c r="F250">
-        <v>992140.0377728532</v>
-      </c>
-      <c r="G250">
-        <v>643540.0377728534</v>
-      </c>
-      <c r="H250">
-        <v>113400</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251">
-        <v>250</v>
-      </c>
-      <c r="C251">
-        <v>1400</v>
-      </c>
-      <c r="D251">
-        <v>1016.234706975497</v>
-      </c>
-      <c r="E251">
-        <v>2416.234706975496</v>
-      </c>
-      <c r="F251">
-        <v>994556.2724798287</v>
-      </c>
-      <c r="G251">
-        <v>644556.2724798289</v>
-      </c>
-      <c r="H251">
-        <v>112000</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252">
-        <v>251</v>
-      </c>
-      <c r="C252">
-        <v>1400</v>
-      </c>
-      <c r="D252">
-        <v>1003.688599481972</v>
-      </c>
-      <c r="E252">
-        <v>2403.688599481972</v>
-      </c>
-      <c r="F252">
-        <v>996959.9610793106</v>
-      </c>
-      <c r="G252">
-        <v>645559.9610793109</v>
-      </c>
-      <c r="H252">
-        <v>110600</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253">
-        <v>252</v>
-      </c>
-      <c r="C253">
-        <v>1400</v>
-      </c>
-      <c r="D253">
-        <v>991.1424919884473</v>
-      </c>
-      <c r="E253">
-        <v>2391.142491988448</v>
-      </c>
-      <c r="F253">
-        <v>999351.1035712991</v>
-      </c>
-      <c r="G253">
-        <v>646551.1035712993</v>
-      </c>
-      <c r="H253">
-        <v>109200</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254">
-        <v>253</v>
-      </c>
-      <c r="C254">
-        <v>1400</v>
-      </c>
-      <c r="D254">
-        <v>978.5963844949226</v>
-      </c>
-      <c r="E254">
-        <v>2378.596384494923</v>
-      </c>
-      <c r="F254">
-        <v>1001729.699955794</v>
-      </c>
-      <c r="G254">
-        <v>647529.6999557943</v>
-      </c>
-      <c r="H254">
-        <v>107800</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255">
-        <v>254</v>
-      </c>
-      <c r="C255">
-        <v>1400</v>
-      </c>
-      <c r="D255">
-        <v>966.0502770013981</v>
-      </c>
-      <c r="E255">
-        <v>2366.050277001398</v>
-      </c>
-      <c r="F255">
-        <v>1004095.750232795</v>
-      </c>
-      <c r="G255">
-        <v>648495.7502327956</v>
-      </c>
-      <c r="H255">
-        <v>106400</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256">
-        <v>255</v>
-      </c>
-      <c r="C256">
-        <v>1400</v>
-      </c>
-      <c r="D256">
-        <v>953.5041695078734</v>
-      </c>
-      <c r="E256">
-        <v>2353.504169507873</v>
-      </c>
-      <c r="F256">
-        <v>1006449.254402303</v>
-      </c>
-      <c r="G256">
-        <v>649449.2544023035</v>
-      </c>
-      <c r="H256">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257">
-        <v>256</v>
-      </c>
-      <c r="C257">
-        <v>1400</v>
-      </c>
-      <c r="D257">
-        <v>940.9580620143487</v>
-      </c>
-      <c r="E257">
-        <v>2340.958062014349</v>
-      </c>
-      <c r="F257">
-        <v>1008790.212464318</v>
-      </c>
-      <c r="G257">
-        <v>650390.2124643178</v>
-      </c>
-      <c r="H257">
-        <v>103600</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258">
-        <v>257</v>
-      </c>
-      <c r="C258">
-        <v>1400</v>
-      </c>
-      <c r="D258">
-        <v>928.4119545208241</v>
-      </c>
-      <c r="E258">
-        <v>2328.411954520824</v>
-      </c>
-      <c r="F258">
-        <v>1011118.624418838</v>
-      </c>
-      <c r="G258">
-        <v>651318.6244188386</v>
-      </c>
-      <c r="H258">
-        <v>102200</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259">
-        <v>258</v>
-      </c>
-      <c r="C259">
-        <v>1400</v>
-      </c>
-      <c r="D259">
-        <v>915.8658470272994</v>
-      </c>
-      <c r="E259">
-        <v>2315.865847027299</v>
-      </c>
-      <c r="F259">
-        <v>1013434.490265866</v>
-      </c>
-      <c r="G259">
-        <v>652234.4902658659</v>
-      </c>
-      <c r="H259">
-        <v>100800</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260">
-        <v>259</v>
-      </c>
-      <c r="C260">
-        <v>1400</v>
-      </c>
-      <c r="D260">
-        <v>903.3197395337747</v>
-      </c>
-      <c r="E260">
-        <v>2303.319739533775</v>
-      </c>
-      <c r="F260">
-        <v>1015737.8100054</v>
-      </c>
-      <c r="G260">
-        <v>653137.8100053997</v>
-      </c>
-      <c r="H260">
-        <v>99400</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261">
-        <v>260</v>
-      </c>
-      <c r="C261">
-        <v>1400</v>
-      </c>
-      <c r="D261">
-        <v>890.7736320402502</v>
-      </c>
-      <c r="E261">
-        <v>2290.77363204025</v>
-      </c>
-      <c r="F261">
-        <v>1018028.58363744</v>
-      </c>
-      <c r="G261">
-        <v>654028.58363744</v>
-      </c>
-      <c r="H261">
-        <v>98000</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262" s="1">
-        <v>260</v>
-      </c>
-      <c r="B262">
-        <v>261</v>
-      </c>
-      <c r="C262">
-        <v>1400</v>
-      </c>
-      <c r="D262">
-        <v>878.2275245467255</v>
-      </c>
-      <c r="E262">
-        <v>2278.227524546725</v>
-      </c>
-      <c r="F262">
-        <v>1020306.811161986</v>
-      </c>
-      <c r="G262">
-        <v>654906.8111619867</v>
-      </c>
-      <c r="H262">
-        <v>96600</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263" s="1">
-        <v>261</v>
-      </c>
-      <c r="B263">
-        <v>262</v>
-      </c>
-      <c r="C263">
-        <v>1400</v>
-      </c>
-      <c r="D263">
-        <v>865.6814170532008</v>
-      </c>
-      <c r="E263">
-        <v>2265.681417053201</v>
-      </c>
-      <c r="F263">
-        <v>1022572.49257904</v>
-      </c>
-      <c r="G263">
-        <v>655772.4925790399</v>
-      </c>
-      <c r="H263">
-        <v>95200</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" s="1">
-        <v>262</v>
-      </c>
-      <c r="B264">
-        <v>263</v>
-      </c>
-      <c r="C264">
-        <v>1400</v>
-      </c>
-      <c r="D264">
-        <v>853.1353095596762</v>
-      </c>
-      <c r="E264">
-        <v>2253.135309559676</v>
-      </c>
-      <c r="F264">
-        <v>1024825.627888599</v>
-      </c>
-      <c r="G264">
-        <v>656625.6278885995</v>
-      </c>
-      <c r="H264">
-        <v>93800</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" s="1">
-        <v>263</v>
-      </c>
-      <c r="B265">
-        <v>264</v>
-      </c>
-      <c r="C265">
-        <v>1400</v>
-      </c>
-      <c r="D265">
-        <v>840.5892020661515</v>
-      </c>
-      <c r="E265">
-        <v>2240.589202066151</v>
-      </c>
-      <c r="F265">
-        <v>1027066.217090665</v>
-      </c>
-      <c r="G265">
-        <v>657466.2170906657</v>
-      </c>
-      <c r="H265">
-        <v>92400</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="B266">
-        <v>265</v>
-      </c>
-      <c r="C266">
-        <v>1400</v>
-      </c>
-      <c r="D266">
-        <v>828.0430945726268</v>
-      </c>
-      <c r="E266">
-        <v>2228.043094572627</v>
-      </c>
-      <c r="F266">
-        <v>1029294.260185238</v>
-      </c>
-      <c r="G266">
-        <v>658294.2601852383</v>
-      </c>
-      <c r="H266">
-        <v>91000</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267">
-        <v>266</v>
-      </c>
-      <c r="C267">
-        <v>1400</v>
-      </c>
-      <c r="D267">
-        <v>815.4969870791023</v>
-      </c>
-      <c r="E267">
-        <v>2215.496987079102</v>
-      </c>
-      <c r="F267">
-        <v>1031509.757172317</v>
-      </c>
-      <c r="G267">
-        <v>659109.7571723175</v>
-      </c>
-      <c r="H267">
-        <v>89600</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="B268">
-        <v>267</v>
-      </c>
-      <c r="C268">
-        <v>1400</v>
-      </c>
-      <c r="D268">
-        <v>802.9508795855776</v>
-      </c>
-      <c r="E268">
-        <v>2202.950879585578</v>
-      </c>
-      <c r="F268">
-        <v>1033712.708051903</v>
-      </c>
-      <c r="G268">
-        <v>659912.7080519031</v>
-      </c>
-      <c r="H268">
-        <v>88200</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="1">
-        <v>267</v>
-      </c>
-      <c r="B269">
-        <v>268</v>
-      </c>
-      <c r="C269">
-        <v>1400</v>
-      </c>
-      <c r="D269">
-        <v>790.4047720920529</v>
-      </c>
-      <c r="E269">
-        <v>2190.404772092053</v>
-      </c>
-      <c r="F269">
-        <v>1035903.112823995</v>
-      </c>
-      <c r="G269">
-        <v>660703.1128239951</v>
-      </c>
-      <c r="H269">
-        <v>86800</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" s="1">
-        <v>268</v>
-      </c>
-      <c r="B270">
-        <v>269</v>
-      </c>
-      <c r="C270">
-        <v>1400</v>
-      </c>
-      <c r="D270">
-        <v>777.8586645985283</v>
-      </c>
-      <c r="E270">
-        <v>2177.858664598528</v>
-      </c>
-      <c r="F270">
-        <v>1038080.971488593</v>
-      </c>
-      <c r="G270">
-        <v>661480.9714885936</v>
-      </c>
-      <c r="H270">
-        <v>85400</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="1">
-        <v>269</v>
-      </c>
-      <c r="B271">
-        <v>270</v>
-      </c>
-      <c r="C271">
-        <v>1400</v>
-      </c>
-      <c r="D271">
-        <v>765.3125571050036</v>
-      </c>
-      <c r="E271">
-        <v>2165.312557105004</v>
-      </c>
-      <c r="F271">
-        <v>1040246.284045698</v>
-      </c>
-      <c r="G271">
-        <v>662246.2840456986</v>
-      </c>
-      <c r="H271">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" s="1">
-        <v>270</v>
-      </c>
-      <c r="B272">
-        <v>271</v>
-      </c>
-      <c r="C272">
-        <v>1400</v>
-      </c>
-      <c r="D272">
-        <v>752.7664496114789</v>
-      </c>
-      <c r="E272">
-        <v>2152.766449611479</v>
-      </c>
-      <c r="F272">
-        <v>1042399.05049531</v>
-      </c>
-      <c r="G272">
-        <v>662999.0504953101</v>
-      </c>
-      <c r="H272">
-        <v>82600</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" s="1">
-        <v>271</v>
-      </c>
-      <c r="B273">
-        <v>272</v>
-      </c>
-      <c r="C273">
-        <v>1400</v>
-      </c>
-      <c r="D273">
-        <v>740.2203421179544</v>
-      </c>
-      <c r="E273">
-        <v>2140.220342117954</v>
-      </c>
-      <c r="F273">
-        <v>1044539.270837428</v>
-      </c>
-      <c r="G273">
-        <v>663739.270837428</v>
-      </c>
-      <c r="H273">
-        <v>81200</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" s="1">
-        <v>272</v>
-      </c>
-      <c r="B274">
-        <v>273</v>
-      </c>
-      <c r="C274">
-        <v>1400</v>
-      </c>
-      <c r="D274">
-        <v>727.6742346244297</v>
-      </c>
-      <c r="E274">
-        <v>2127.67423462443</v>
-      </c>
-      <c r="F274">
-        <v>1046666.945072052</v>
-      </c>
-      <c r="G274">
-        <v>664466.9450720525</v>
-      </c>
-      <c r="H274">
-        <v>79800</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" s="1">
-        <v>273</v>
-      </c>
-      <c r="B275">
-        <v>274</v>
-      </c>
-      <c r="C275">
-        <v>1400</v>
-      </c>
-      <c r="D275">
-        <v>715.128127130905</v>
-      </c>
-      <c r="E275">
-        <v>2115.128127130905</v>
-      </c>
-      <c r="F275">
-        <v>1048782.073199183</v>
-      </c>
-      <c r="G275">
-        <v>665182.0731991834</v>
-      </c>
-      <c r="H275">
-        <v>78400</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276" s="1">
-        <v>274</v>
-      </c>
-      <c r="B276">
-        <v>275</v>
-      </c>
-      <c r="C276">
-        <v>1400</v>
-      </c>
-      <c r="D276">
-        <v>702.5820196373804</v>
-      </c>
-      <c r="E276">
-        <v>2102.582019637381</v>
-      </c>
-      <c r="F276">
-        <v>1050884.655218821</v>
-      </c>
-      <c r="G276">
-        <v>665884.6552188208</v>
-      </c>
-      <c r="H276">
-        <v>77000</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="1">
-        <v>275</v>
-      </c>
-      <c r="B277">
-        <v>276</v>
-      </c>
-      <c r="C277">
-        <v>1400</v>
-      </c>
-      <c r="D277">
-        <v>690.0359121438557</v>
-      </c>
-      <c r="E277">
-        <v>2090.035912143856</v>
-      </c>
-      <c r="F277">
-        <v>1052974.691130964</v>
-      </c>
-      <c r="G277">
-        <v>666574.6911309647</v>
-      </c>
-      <c r="H277">
-        <v>75600</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" s="1">
-        <v>276</v>
-      </c>
-      <c r="B278">
-        <v>277</v>
-      </c>
-      <c r="C278">
-        <v>1400</v>
-      </c>
-      <c r="D278">
-        <v>677.4898046503311</v>
-      </c>
-      <c r="E278">
-        <v>2077.489804650331</v>
-      </c>
-      <c r="F278">
-        <v>1055052.180935615</v>
-      </c>
-      <c r="G278">
-        <v>667252.180935615</v>
-      </c>
-      <c r="H278">
-        <v>74200</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279" s="1">
-        <v>277</v>
-      </c>
-      <c r="B279">
-        <v>278</v>
-      </c>
-      <c r="C279">
-        <v>1400</v>
-      </c>
-      <c r="D279">
-        <v>664.9436971568065</v>
-      </c>
-      <c r="E279">
-        <v>2064.943697156807</v>
-      </c>
-      <c r="F279">
-        <v>1057117.124632772</v>
-      </c>
-      <c r="G279">
-        <v>667917.1246327718</v>
-      </c>
-      <c r="H279">
-        <v>72800</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" s="1">
-        <v>278</v>
-      </c>
-      <c r="B280">
-        <v>279</v>
-      </c>
-      <c r="C280">
-        <v>1400</v>
-      </c>
-      <c r="D280">
-        <v>652.3975896632818</v>
-      </c>
-      <c r="E280">
-        <v>2052.397589663282</v>
-      </c>
-      <c r="F280">
-        <v>1059169.522222435</v>
-      </c>
-      <c r="G280">
-        <v>668569.5222224351</v>
-      </c>
-      <c r="H280">
-        <v>71400</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="A281" s="1">
-        <v>279</v>
-      </c>
-      <c r="B281">
-        <v>280</v>
-      </c>
-      <c r="C281">
-        <v>1400</v>
-      </c>
-      <c r="D281">
-        <v>639.8514821697571</v>
-      </c>
-      <c r="E281">
-        <v>2039.851482169757</v>
-      </c>
-      <c r="F281">
-        <v>1061209.373704605</v>
-      </c>
-      <c r="G281">
-        <v>669209.3737046048</v>
-      </c>
-      <c r="H281">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282" s="1">
-        <v>280</v>
-      </c>
-      <c r="B282">
-        <v>281</v>
-      </c>
-      <c r="C282">
-        <v>1400</v>
-      </c>
-      <c r="D282">
-        <v>627.3053746762325</v>
-      </c>
-      <c r="E282">
-        <v>2027.305374676233</v>
-      </c>
-      <c r="F282">
-        <v>1063236.679079281</v>
-      </c>
-      <c r="G282">
-        <v>669836.679079281</v>
-      </c>
-      <c r="H282">
-        <v>68600</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283" s="1">
-        <v>281</v>
-      </c>
-      <c r="B283">
-        <v>282</v>
-      </c>
-      <c r="C283">
-        <v>1400</v>
-      </c>
-      <c r="D283">
-        <v>614.7592671827078</v>
-      </c>
-      <c r="E283">
-        <v>2014.759267182708</v>
-      </c>
-      <c r="F283">
-        <v>1065251.438346463</v>
-      </c>
-      <c r="G283">
-        <v>670451.4383464637</v>
-      </c>
-      <c r="H283">
-        <v>67200</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="A284" s="1">
-        <v>282</v>
-      </c>
-      <c r="B284">
-        <v>283</v>
-      </c>
-      <c r="C284">
-        <v>1400</v>
-      </c>
-      <c r="D284">
-        <v>602.2131596891832</v>
-      </c>
-      <c r="E284">
-        <v>2002.213159689183</v>
-      </c>
-      <c r="F284">
-        <v>1067253.651506153</v>
-      </c>
-      <c r="G284">
-        <v>671053.6515061529</v>
-      </c>
-      <c r="H284">
-        <v>65800</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="A285" s="1">
-        <v>283</v>
-      </c>
-      <c r="B285">
-        <v>284</v>
-      </c>
-      <c r="C285">
-        <v>1400</v>
-      </c>
-      <c r="D285">
-        <v>589.6670521956586</v>
-      </c>
-      <c r="E285">
-        <v>1989.667052195658</v>
-      </c>
-      <c r="F285">
-        <v>1069243.318558348</v>
-      </c>
-      <c r="G285">
-        <v>671643.3185583486</v>
-      </c>
-      <c r="H285">
-        <v>64400</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="A286" s="1">
-        <v>284</v>
-      </c>
-      <c r="B286">
-        <v>285</v>
-      </c>
-      <c r="C286">
-        <v>1400</v>
-      </c>
-      <c r="D286">
-        <v>577.1209447021339</v>
-      </c>
-      <c r="E286">
-        <v>1977.120944702134</v>
-      </c>
-      <c r="F286">
-        <v>1071220.43950305</v>
-      </c>
-      <c r="G286">
-        <v>672220.4395030508</v>
-      </c>
-      <c r="H286">
-        <v>63000</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="A287" s="1">
-        <v>285</v>
-      </c>
-      <c r="B287">
-        <v>286</v>
-      </c>
-      <c r="C287">
-        <v>1400</v>
-      </c>
-      <c r="D287">
-        <v>564.5748372086092</v>
-      </c>
-      <c r="E287">
-        <v>1964.574837208609</v>
-      </c>
-      <c r="F287">
-        <v>1073185.014340259</v>
-      </c>
-      <c r="G287">
-        <v>672785.0143402594</v>
-      </c>
-      <c r="H287">
-        <v>61600</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
-      <c r="A288" s="1">
-        <v>286</v>
-      </c>
-      <c r="B288">
-        <v>287</v>
-      </c>
-      <c r="C288">
-        <v>1400</v>
-      </c>
-      <c r="D288">
-        <v>552.0287297150846</v>
-      </c>
-      <c r="E288">
-        <v>1952.028729715085</v>
-      </c>
-      <c r="F288">
-        <v>1075137.043069974</v>
-      </c>
-      <c r="G288">
-        <v>673337.0430699744</v>
-      </c>
-      <c r="H288">
-        <v>60200</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="A289" s="1">
-        <v>287</v>
-      </c>
-      <c r="B289">
-        <v>288</v>
-      </c>
-      <c r="C289">
-        <v>1400</v>
-      </c>
-      <c r="D289">
-        <v>539.48262222156</v>
-      </c>
-      <c r="E289">
-        <v>1939.48262222156</v>
-      </c>
-      <c r="F289">
-        <v>1077076.525692196</v>
-      </c>
-      <c r="G289">
-        <v>673876.525692196</v>
-      </c>
-      <c r="H289">
-        <v>58800</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
-      <c r="A290" s="1">
-        <v>288</v>
-      </c>
-      <c r="B290">
-        <v>289</v>
-      </c>
-      <c r="C290">
-        <v>1400</v>
-      </c>
-      <c r="D290">
-        <v>526.9365147280353</v>
-      </c>
-      <c r="E290">
-        <v>1926.936514728035</v>
-      </c>
-      <c r="F290">
-        <v>1079003.462206924</v>
-      </c>
-      <c r="G290">
-        <v>674403.462206924</v>
-      </c>
-      <c r="H290">
-        <v>57400</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="A291" s="1">
-        <v>289</v>
-      </c>
-      <c r="B291">
-        <v>290</v>
-      </c>
-      <c r="C291">
-        <v>1400</v>
-      </c>
-      <c r="D291">
-        <v>514.3904072345107</v>
-      </c>
-      <c r="E291">
-        <v>1914.390407234511</v>
-      </c>
-      <c r="F291">
-        <v>1080917.852614158</v>
-      </c>
-      <c r="G291">
-        <v>674917.8526141585</v>
-      </c>
-      <c r="H291">
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" s="1">
-        <v>290</v>
-      </c>
-      <c r="B292">
-        <v>291</v>
-      </c>
-      <c r="C292">
-        <v>1400</v>
-      </c>
-      <c r="D292">
-        <v>501.844299740986</v>
-      </c>
-      <c r="E292">
-        <v>1901.844299740986</v>
-      </c>
-      <c r="F292">
-        <v>1082819.696913899</v>
-      </c>
-      <c r="G292">
-        <v>675419.6969138995</v>
-      </c>
-      <c r="H292">
-        <v>54600</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
-      <c r="A293" s="1">
-        <v>291</v>
-      </c>
-      <c r="B293">
-        <v>292</v>
-      </c>
-      <c r="C293">
-        <v>1400</v>
-      </c>
-      <c r="D293">
-        <v>489.2981922474613</v>
-      </c>
-      <c r="E293">
-        <v>1889.298192247461</v>
-      </c>
-      <c r="F293">
-        <v>1084708.995106147</v>
-      </c>
-      <c r="G293">
-        <v>675908.995106147</v>
-      </c>
-      <c r="H293">
-        <v>53200</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
-      <c r="A294" s="1">
-        <v>292</v>
-      </c>
-      <c r="B294">
-        <v>293</v>
-      </c>
-      <c r="C294">
-        <v>1400</v>
-      </c>
-      <c r="D294">
-        <v>476.7520847539367</v>
-      </c>
-      <c r="E294">
-        <v>1876.752084753937</v>
-      </c>
-      <c r="F294">
-        <v>1086585.747190901</v>
-      </c>
-      <c r="G294">
-        <v>676385.747190901</v>
-      </c>
-      <c r="H294">
-        <v>51800</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="A295" s="1">
-        <v>293</v>
-      </c>
-      <c r="B295">
-        <v>294</v>
-      </c>
-      <c r="C295">
-        <v>1400</v>
-      </c>
-      <c r="D295">
-        <v>464.2059772604121</v>
-      </c>
-      <c r="E295">
-        <v>1864.205977260412</v>
-      </c>
-      <c r="F295">
-        <v>1088449.953168161</v>
-      </c>
-      <c r="G295">
-        <v>676849.9531681613</v>
-      </c>
-      <c r="H295">
-        <v>50400</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
-      <c r="A296" s="1">
-        <v>294</v>
-      </c>
-      <c r="B296">
-        <v>295</v>
-      </c>
-      <c r="C296">
-        <v>1400</v>
-      </c>
-      <c r="D296">
-        <v>451.6598697668874</v>
-      </c>
-      <c r="E296">
-        <v>1851.659869766887</v>
-      </c>
-      <c r="F296">
-        <v>1090301.613037928</v>
-      </c>
-      <c r="G296">
-        <v>677301.6130379282</v>
-      </c>
-      <c r="H296">
-        <v>49000</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="A297" s="1">
-        <v>295</v>
-      </c>
-      <c r="B297">
-        <v>296</v>
-      </c>
-      <c r="C297">
-        <v>1400</v>
-      </c>
-      <c r="D297">
-        <v>439.1137622733627</v>
-      </c>
-      <c r="E297">
-        <v>1839.113762273363</v>
-      </c>
-      <c r="F297">
-        <v>1092140.726800201</v>
-      </c>
-      <c r="G297">
-        <v>677740.7268002016</v>
-      </c>
-      <c r="H297">
-        <v>47600</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
-      <c r="A298" s="1">
-        <v>296</v>
-      </c>
-      <c r="B298">
-        <v>297</v>
-      </c>
-      <c r="C298">
-        <v>1400</v>
-      </c>
-      <c r="D298">
-        <v>426.5676547798381</v>
-      </c>
-      <c r="E298">
-        <v>1826.567654779838</v>
-      </c>
-      <c r="F298">
-        <v>1093967.294454981</v>
-      </c>
-      <c r="G298">
-        <v>678167.2944549815</v>
-      </c>
-      <c r="H298">
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="A299" s="1">
-        <v>297</v>
-      </c>
-      <c r="B299">
-        <v>298</v>
-      </c>
-      <c r="C299">
-        <v>1400</v>
-      </c>
-      <c r="D299">
-        <v>414.0215472863134</v>
-      </c>
-      <c r="E299">
-        <v>1814.021547286313</v>
-      </c>
-      <c r="F299">
-        <v>1095781.316002268</v>
-      </c>
-      <c r="G299">
-        <v>678581.3160022678</v>
-      </c>
-      <c r="H299">
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
-      <c r="A300" s="1">
-        <v>298</v>
-      </c>
-      <c r="B300">
-        <v>299</v>
-      </c>
-      <c r="C300">
-        <v>1400</v>
-      </c>
-      <c r="D300">
-        <v>401.4754397927888</v>
-      </c>
-      <c r="E300">
-        <v>1801.475439792789</v>
-      </c>
-      <c r="F300">
-        <v>1097582.79144206</v>
-      </c>
-      <c r="G300">
-        <v>678982.7914420605</v>
-      </c>
-      <c r="H300">
-        <v>43400</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="A301" s="1">
-        <v>299</v>
-      </c>
-      <c r="B301">
-        <v>300</v>
-      </c>
-      <c r="C301">
-        <v>1400</v>
-      </c>
-      <c r="D301">
-        <v>388.9293322992642</v>
-      </c>
-      <c r="E301">
-        <v>1788.929332299264</v>
-      </c>
-      <c r="F301">
-        <v>1099371.72077436</v>
-      </c>
-      <c r="G301">
-        <v>679371.7207743598</v>
-      </c>
-      <c r="H301">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="A302" s="1">
-        <v>300</v>
-      </c>
-      <c r="B302">
-        <v>301</v>
-      </c>
-      <c r="C302">
-        <v>1400</v>
-      </c>
-      <c r="D302">
-        <v>376.3832248057395</v>
-      </c>
-      <c r="E302">
-        <v>1776.383224805739</v>
-      </c>
-      <c r="F302">
-        <v>1101148.103999165</v>
-      </c>
-      <c r="G302">
-        <v>679748.1039991655</v>
-      </c>
-      <c r="H302">
-        <v>40600</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="A303" s="1">
-        <v>301</v>
-      </c>
-      <c r="B303">
-        <v>302</v>
-      </c>
-      <c r="C303">
-        <v>1400</v>
-      </c>
-      <c r="D303">
-        <v>363.8371173122148</v>
-      </c>
-      <c r="E303">
-        <v>1763.837117312215</v>
-      </c>
-      <c r="F303">
-        <v>1102911.941116478</v>
-      </c>
-      <c r="G303">
-        <v>680111.9411164777</v>
-      </c>
-      <c r="H303">
-        <v>39200</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="A304" s="1">
-        <v>302</v>
-      </c>
-      <c r="B304">
-        <v>303</v>
-      </c>
-      <c r="C304">
-        <v>1400</v>
-      </c>
-      <c r="D304">
-        <v>351.2910098186902</v>
-      </c>
-      <c r="E304">
-        <v>1751.29100981869</v>
-      </c>
-      <c r="F304">
-        <v>1104663.232126296</v>
-      </c>
-      <c r="G304">
-        <v>680463.2321262964</v>
-      </c>
-      <c r="H304">
-        <v>37800</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="A305" s="1">
-        <v>303</v>
-      </c>
-      <c r="B305">
-        <v>304</v>
-      </c>
-      <c r="C305">
-        <v>1400</v>
-      </c>
-      <c r="D305">
-        <v>338.7449023251655</v>
-      </c>
-      <c r="E305">
-        <v>1738.744902325166</v>
-      </c>
-      <c r="F305">
-        <v>1106401.977028621</v>
-      </c>
-      <c r="G305">
-        <v>680801.9770286216</v>
-      </c>
-      <c r="H305">
-        <v>36400</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
-      <c r="A306" s="1">
-        <v>304</v>
-      </c>
-      <c r="B306">
-        <v>305</v>
-      </c>
-      <c r="C306">
-        <v>1400</v>
-      </c>
-      <c r="D306">
-        <v>326.1987948316409</v>
-      </c>
-      <c r="E306">
-        <v>1726.198794831641</v>
-      </c>
-      <c r="F306">
-        <v>1108128.175823453</v>
-      </c>
-      <c r="G306">
-        <v>681128.1758234532</v>
-      </c>
-      <c r="H306">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" s="1">
-        <v>305</v>
-      </c>
-      <c r="B307">
-        <v>306</v>
-      </c>
-      <c r="C307">
-        <v>1400</v>
-      </c>
-      <c r="D307">
-        <v>313.6526873381163</v>
-      </c>
-      <c r="E307">
-        <v>1713.652687338116</v>
-      </c>
-      <c r="F307">
-        <v>1109841.828510791</v>
-      </c>
-      <c r="G307">
-        <v>681441.8285107913</v>
-      </c>
-      <c r="H307">
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="A308" s="1">
-        <v>306</v>
-      </c>
-      <c r="B308">
-        <v>307</v>
-      </c>
-      <c r="C308">
-        <v>1400</v>
-      </c>
-      <c r="D308">
-        <v>301.1065798445916</v>
-      </c>
-      <c r="E308">
-        <v>1701.106579844592</v>
-      </c>
-      <c r="F308">
-        <v>1111542.935090636</v>
-      </c>
-      <c r="G308">
-        <v>681742.9350906359</v>
-      </c>
-      <c r="H308">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="A309" s="1">
-        <v>307</v>
-      </c>
-      <c r="B309">
-        <v>308</v>
-      </c>
-      <c r="C309">
-        <v>1400</v>
-      </c>
-      <c r="D309">
-        <v>288.5604723510669</v>
-      </c>
-      <c r="E309">
-        <v>1688.560472351067</v>
-      </c>
-      <c r="F309">
-        <v>1113231.495562987</v>
-      </c>
-      <c r="G309">
-        <v>682031.4955629869</v>
-      </c>
-      <c r="H309">
-        <v>30800</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" s="1">
-        <v>308</v>
-      </c>
-      <c r="B310">
-        <v>309</v>
-      </c>
-      <c r="C310">
-        <v>1400</v>
-      </c>
-      <c r="D310">
-        <v>276.0143648575423</v>
-      </c>
-      <c r="E310">
-        <v>1676.014364857542</v>
-      </c>
-      <c r="F310">
-        <v>1114907.509927844</v>
-      </c>
-      <c r="G310">
-        <v>682307.5099278445</v>
-      </c>
-      <c r="H310">
-        <v>29400</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="A311" s="1">
-        <v>309</v>
-      </c>
-      <c r="B311">
-        <v>310</v>
-      </c>
-      <c r="C311">
-        <v>1400</v>
-      </c>
-      <c r="D311">
-        <v>263.4682573640176</v>
-      </c>
-      <c r="E311">
-        <v>1663.468257364018</v>
-      </c>
-      <c r="F311">
-        <v>1116570.978185209</v>
-      </c>
-      <c r="G311">
-        <v>682570.9781852085</v>
-      </c>
-      <c r="H311">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
-      <c r="A312" s="1">
-        <v>310</v>
-      </c>
-      <c r="B312">
-        <v>311</v>
-      </c>
-      <c r="C312">
-        <v>1400</v>
-      </c>
-      <c r="D312">
-        <v>250.922149870493</v>
-      </c>
-      <c r="E312">
-        <v>1650.922149870493</v>
-      </c>
-      <c r="F312">
-        <v>1118221.900335079</v>
-      </c>
-      <c r="G312">
-        <v>682821.9003350791</v>
-      </c>
-      <c r="H312">
-        <v>26600</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="A313" s="1">
-        <v>311</v>
-      </c>
-      <c r="B313">
-        <v>312</v>
-      </c>
-      <c r="C313">
-        <v>1400</v>
-      </c>
-      <c r="D313">
-        <v>238.3760423769683</v>
-      </c>
-      <c r="E313">
-        <v>1638.376042376968</v>
-      </c>
-      <c r="F313">
-        <v>1119860.276377456</v>
-      </c>
-      <c r="G313">
-        <v>683060.276377456</v>
-      </c>
-      <c r="H313">
-        <v>25200</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="A314" s="1">
-        <v>312</v>
-      </c>
-      <c r="B314">
-        <v>313</v>
-      </c>
-      <c r="C314">
-        <v>1400</v>
-      </c>
-      <c r="D314">
-        <v>225.8299348834437</v>
-      </c>
-      <c r="E314">
-        <v>1625.829934883444</v>
-      </c>
-      <c r="F314">
-        <v>1121486.106312339</v>
-      </c>
-      <c r="G314">
-        <v>683286.1063123394</v>
-      </c>
-      <c r="H314">
-        <v>23800</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
-      <c r="A315" s="1">
-        <v>313</v>
-      </c>
-      <c r="B315">
-        <v>314</v>
-      </c>
-      <c r="C315">
-        <v>1400</v>
-      </c>
-      <c r="D315">
-        <v>213.2838273899191</v>
-      </c>
-      <c r="E315">
-        <v>1613.283827389919</v>
-      </c>
-      <c r="F315">
-        <v>1123099.390139729</v>
-      </c>
-      <c r="G315">
-        <v>683499.3901397294</v>
-      </c>
-      <c r="H315">
-        <v>22400</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="A316" s="1">
-        <v>314</v>
-      </c>
-      <c r="B316">
-        <v>315</v>
-      </c>
-      <c r="C316">
-        <v>1400</v>
-      </c>
-      <c r="D316">
-        <v>200.7377198963944</v>
-      </c>
-      <c r="E316">
-        <v>1600.737719896394</v>
-      </c>
-      <c r="F316">
-        <v>1124700.127859626</v>
-      </c>
-      <c r="G316">
-        <v>683700.1278596257</v>
-      </c>
-      <c r="H316">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="A317" s="1">
-        <v>315</v>
-      </c>
-      <c r="B317">
-        <v>316</v>
-      </c>
-      <c r="C317">
-        <v>1400</v>
-      </c>
-      <c r="D317">
-        <v>188.1916124028697</v>
-      </c>
-      <c r="E317">
-        <v>1588.19161240287</v>
-      </c>
-      <c r="F317">
-        <v>1126288.319472029</v>
-      </c>
-      <c r="G317">
-        <v>683888.3194720286</v>
-      </c>
-      <c r="H317">
-        <v>19600</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
-      <c r="A318" s="1">
-        <v>316</v>
-      </c>
-      <c r="B318">
-        <v>317</v>
-      </c>
-      <c r="C318">
-        <v>1400</v>
-      </c>
-      <c r="D318">
-        <v>175.6455049093451</v>
-      </c>
-      <c r="E318">
-        <v>1575.645504909345</v>
-      </c>
-      <c r="F318">
-        <v>1127863.964976938</v>
-      </c>
-      <c r="G318">
-        <v>684063.964976938</v>
-      </c>
-      <c r="H318">
-        <v>18200</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
-      <c r="A319" s="1">
-        <v>317</v>
-      </c>
-      <c r="B319">
-        <v>318</v>
-      </c>
-      <c r="C319">
-        <v>1400</v>
-      </c>
-      <c r="D319">
-        <v>163.0993974158204</v>
-      </c>
-      <c r="E319">
-        <v>1563.09939741582</v>
-      </c>
-      <c r="F319">
-        <v>1129427.064374354</v>
-      </c>
-      <c r="G319">
-        <v>684227.0643743539</v>
-      </c>
-      <c r="H319">
-        <v>16800</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
-      <c r="A320" s="1">
-        <v>318</v>
-      </c>
-      <c r="B320">
-        <v>319</v>
-      </c>
-      <c r="C320">
-        <v>1400</v>
-      </c>
-      <c r="D320">
-        <v>150.5532899222958</v>
-      </c>
-      <c r="E320">
-        <v>1550.553289922296</v>
-      </c>
-      <c r="F320">
-        <v>1130977.617664276</v>
-      </c>
-      <c r="G320">
-        <v>684377.6176642762</v>
-      </c>
-      <c r="H320">
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
-      <c r="A321" s="1">
-        <v>319</v>
-      </c>
-      <c r="B321">
-        <v>320</v>
-      </c>
-      <c r="C321">
-        <v>1400</v>
-      </c>
-      <c r="D321">
-        <v>138.0071824287712</v>
-      </c>
-      <c r="E321">
-        <v>1538.007182428771</v>
-      </c>
-      <c r="F321">
-        <v>1132515.624846705</v>
-      </c>
-      <c r="G321">
-        <v>684515.6248467049</v>
-      </c>
-      <c r="H321">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
-      <c r="A322" s="1">
-        <v>320</v>
-      </c>
-      <c r="B322">
-        <v>321</v>
-      </c>
-      <c r="C322">
-        <v>1400</v>
-      </c>
-      <c r="D322">
-        <v>125.4610749352465</v>
-      </c>
-      <c r="E322">
-        <v>1525.461074935246</v>
-      </c>
-      <c r="F322">
-        <v>1134041.08592164</v>
-      </c>
-      <c r="G322">
-        <v>684641.0859216402</v>
-      </c>
-      <c r="H322">
-        <v>12600</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
-      <c r="A323" s="1">
-        <v>321</v>
-      </c>
-      <c r="B323">
-        <v>322</v>
-      </c>
-      <c r="C323">
-        <v>1400</v>
-      </c>
-      <c r="D323">
-        <v>112.9149674417218</v>
-      </c>
-      <c r="E323">
-        <v>1512.914967441722</v>
-      </c>
-      <c r="F323">
-        <v>1135554.000889082</v>
-      </c>
-      <c r="G323">
-        <v>684754.0008890819</v>
-      </c>
-      <c r="H323">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
-      <c r="A324" s="1">
-        <v>322</v>
-      </c>
-      <c r="B324">
-        <v>323</v>
-      </c>
-      <c r="C324">
-        <v>1400</v>
-      </c>
-      <c r="D324">
-        <v>100.3688599481972</v>
-      </c>
-      <c r="E324">
-        <v>1500.368859948197</v>
-      </c>
-      <c r="F324">
-        <v>1137054.36974903</v>
-      </c>
-      <c r="G324">
-        <v>684854.3697490301</v>
-      </c>
-      <c r="H324">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
-      <c r="A325" s="1">
-        <v>323</v>
-      </c>
-      <c r="B325">
-        <v>324</v>
-      </c>
-      <c r="C325">
-        <v>1400</v>
-      </c>
-      <c r="D325">
-        <v>87.82275245467255</v>
-      </c>
-      <c r="E325">
-        <v>1487.822752454673</v>
-      </c>
-      <c r="F325">
-        <v>1138542.192501485</v>
-      </c>
-      <c r="G325">
-        <v>684942.1925014848</v>
-      </c>
-      <c r="H325">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
-      <c r="A326" s="1">
-        <v>324</v>
-      </c>
-      <c r="B326">
-        <v>325</v>
-      </c>
-      <c r="C326">
-        <v>1400</v>
-      </c>
-      <c r="D326">
-        <v>75.27664496114789</v>
-      </c>
-      <c r="E326">
-        <v>1475.276644961148</v>
-      </c>
-      <c r="F326">
-        <v>1140017.469146446</v>
-      </c>
-      <c r="G326">
-        <v>685017.4691464459</v>
-      </c>
-      <c r="H326">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
-      <c r="A327" s="1">
-        <v>325</v>
-      </c>
-      <c r="B327">
-        <v>326</v>
-      </c>
-      <c r="C327">
-        <v>1400</v>
-      </c>
-      <c r="D327">
-        <v>62.73053746762325</v>
-      </c>
-      <c r="E327">
-        <v>1462.730537467623</v>
-      </c>
-      <c r="F327">
-        <v>1141480.199683913</v>
-      </c>
-      <c r="G327">
-        <v>685080.1996839135</v>
-      </c>
-      <c r="H327">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
-      <c r="A328" s="1">
-        <v>326</v>
-      </c>
-      <c r="B328">
-        <v>327</v>
-      </c>
-      <c r="C328">
-        <v>1400</v>
-      </c>
-      <c r="D328">
-        <v>50.1844299740986</v>
-      </c>
-      <c r="E328">
-        <v>1450.184429974099</v>
-      </c>
-      <c r="F328">
-        <v>1142930.384113888</v>
-      </c>
-      <c r="G328">
-        <v>685130.3841138876</v>
-      </c>
-      <c r="H328">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
-      <c r="A329" s="1">
-        <v>327</v>
-      </c>
-      <c r="B329">
-        <v>328</v>
-      </c>
-      <c r="C329">
-        <v>1400</v>
-      </c>
-      <c r="D329">
-        <v>37.63832248057395</v>
-      </c>
-      <c r="E329">
-        <v>1437.638322480574</v>
-      </c>
-      <c r="F329">
-        <v>1144368.022436368</v>
-      </c>
-      <c r="G329">
-        <v>685168.0224363682</v>
-      </c>
-      <c r="H329">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
-      <c r="A330" s="1">
-        <v>328</v>
-      </c>
-      <c r="B330">
-        <v>329</v>
-      </c>
-      <c r="C330">
-        <v>1400</v>
-      </c>
-      <c r="D330">
-        <v>25.0922149870493</v>
-      </c>
-      <c r="E330">
-        <v>1425.092214987049</v>
-      </c>
-      <c r="F330">
-        <v>1145793.114651355</v>
-      </c>
-      <c r="G330">
-        <v>685193.1146513552</v>
-      </c>
-      <c r="H330">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
-      <c r="A331" s="1">
-        <v>329</v>
-      </c>
-      <c r="B331">
-        <v>330</v>
-      </c>
-      <c r="C331">
-        <v>1400</v>
-      </c>
-      <c r="D331">
-        <v>12.54610749352465</v>
-      </c>
-      <c r="E331">
-        <v>1412.546107493525</v>
-      </c>
-      <c r="F331">
-        <v>1147205.660758849</v>
-      </c>
-      <c r="G331">
-        <v>685205.6607588488</v>
-      </c>
-      <c r="H331">
-        <v>0</v>
+        <v>-1.241005520569161E-09</v>
       </c>
     </row>
   </sheetData>

--- a/calculadora juros/teste_financiamento.xlsx
+++ b/calculadora juros/teste_financiamento.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D2">
-        <v>3885.917718546261</v>
+        <v>3315.756980431514</v>
       </c>
       <c r="E2">
-        <v>5677.584385212928</v>
+        <v>4436.969101643635</v>
       </c>
       <c r="F2">
-        <v>5677.584385212928</v>
+        <v>4436.969101643635</v>
       </c>
       <c r="G2">
-        <v>3885.917718546261</v>
+        <v>3315.756980431514</v>
       </c>
       <c r="H2">
-        <v>428208.3333333333</v>
+        <v>368878.7878787879</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -455,22 +455,22 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D3">
-        <v>3869.726394718985</v>
+        <v>3305.709232005965</v>
       </c>
       <c r="E3">
-        <v>5661.393061385652</v>
+        <v>4426.921353218086</v>
       </c>
       <c r="F3">
-        <v>11338.97744659858</v>
+        <v>8863.890454861721</v>
       </c>
       <c r="G3">
-        <v>7755.644113265246</v>
+        <v>6621.466212437479</v>
       </c>
       <c r="H3">
-        <v>426416.6666666666</v>
+        <v>367757.5757575758</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,22 +481,22 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D4">
-        <v>3853.535070891709</v>
+        <v>3295.661483580414</v>
       </c>
       <c r="E4">
-        <v>5645.201737558376</v>
+        <v>4416.873604792536</v>
       </c>
       <c r="F4">
-        <v>16984.17918415696</v>
+        <v>13280.76405965426</v>
       </c>
       <c r="G4">
-        <v>11609.17918415696</v>
+        <v>9917.127696017893</v>
       </c>
       <c r="H4">
-        <v>424624.9999999999</v>
+        <v>366636.3636363637</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -507,22 +507,22 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D5">
-        <v>3837.343747064433</v>
+        <v>3285.613735154865</v>
       </c>
       <c r="E5">
-        <v>5629.0104137311</v>
+        <v>4406.825856366986</v>
       </c>
       <c r="F5">
-        <v>22613.18959788806</v>
+        <v>17687.58991602124</v>
       </c>
       <c r="G5">
-        <v>15446.52293122139</v>
+        <v>13202.74143117276</v>
       </c>
       <c r="H5">
-        <v>422833.3333333333</v>
+        <v>365515.1515151516</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -533,22 +533,22 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D6">
-        <v>3821.152423237157</v>
+        <v>3275.565986729314</v>
       </c>
       <c r="E6">
-        <v>5612.819089903824</v>
+        <v>4396.778107941435</v>
       </c>
       <c r="F6">
-        <v>28226.00868779188</v>
+        <v>22084.36802396268</v>
       </c>
       <c r="G6">
-        <v>19267.67535445854</v>
+        <v>16478.30741790207</v>
       </c>
       <c r="H6">
-        <v>421041.6666666666</v>
+        <v>364393.9393939395</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -559,22 +559,22 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D7">
-        <v>3804.961099409881</v>
+        <v>3265.518238303765</v>
       </c>
       <c r="E7">
-        <v>5596.627766076548</v>
+        <v>4386.730359515886</v>
       </c>
       <c r="F7">
-        <v>33822.63645386843</v>
+        <v>26471.09838347856</v>
       </c>
       <c r="G7">
-        <v>23072.63645386842</v>
+        <v>19743.82565620583</v>
       </c>
       <c r="H7">
-        <v>419249.9999999999</v>
+        <v>363272.7272727274</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -585,22 +585,22 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D8">
-        <v>3788.769775582605</v>
+        <v>3255.470489878214</v>
       </c>
       <c r="E8">
-        <v>5580.436442249272</v>
+        <v>4376.682611090336</v>
       </c>
       <c r="F8">
-        <v>39403.0728961177</v>
+        <v>30847.7809945689</v>
       </c>
       <c r="G8">
-        <v>26861.40622945103</v>
+        <v>22999.29614608405</v>
       </c>
       <c r="H8">
-        <v>417458.3333333332</v>
+        <v>362151.5151515153</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -611,22 +611,22 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D9">
-        <v>3772.578451755328</v>
+        <v>3245.422741452664</v>
       </c>
       <c r="E9">
-        <v>5564.245118421995</v>
+        <v>4366.634862664785</v>
       </c>
       <c r="F9">
-        <v>44967.3180145397</v>
+        <v>35214.41585723368</v>
       </c>
       <c r="G9">
-        <v>30633.98468120636</v>
+        <v>26244.71888753671</v>
       </c>
       <c r="H9">
-        <v>415666.6666666665</v>
+        <v>361030.3030303032</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -637,22 +637,22 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D10">
-        <v>3756.387127928053</v>
+        <v>3235.374993027114</v>
       </c>
       <c r="E10">
-        <v>5548.05379459472</v>
+        <v>4356.587114239235</v>
       </c>
       <c r="F10">
-        <v>50515.37180913442</v>
+        <v>39571.00297147292</v>
       </c>
       <c r="G10">
-        <v>34390.37180913441</v>
+        <v>29480.09388056383</v>
       </c>
       <c r="H10">
-        <v>413874.9999999998</v>
+        <v>359909.0909090911</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -663,22 +663,22 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D11">
-        <v>3740.195804100777</v>
+        <v>3225.327244601564</v>
       </c>
       <c r="E11">
-        <v>5531.862470767443</v>
+        <v>4346.539365813685</v>
       </c>
       <c r="F11">
-        <v>56047.23427990187</v>
+        <v>43917.54233728661</v>
       </c>
       <c r="G11">
-        <v>38130.56761323519</v>
+        <v>32705.42112516539</v>
       </c>
       <c r="H11">
-        <v>412083.3333333331</v>
+        <v>358787.878787879</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -689,22 +689,22 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D12">
-        <v>3724.0044802735</v>
+        <v>3215.279496176014</v>
       </c>
       <c r="E12">
-        <v>5515.671146940167</v>
+        <v>4336.491617388136</v>
       </c>
       <c r="F12">
-        <v>61562.90542684203</v>
+        <v>48254.03395467474</v>
       </c>
       <c r="G12">
-        <v>41854.57209350869</v>
+        <v>35920.70062134141</v>
       </c>
       <c r="H12">
-        <v>410291.6666666665</v>
+        <v>357666.6666666669</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -715,22 +715,22 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D13">
-        <v>3707.813156446225</v>
+        <v>3205.231747750464</v>
       </c>
       <c r="E13">
-        <v>5499.479823112892</v>
+        <v>4326.443868962586</v>
       </c>
       <c r="F13">
-        <v>67062.38524995492</v>
+        <v>52580.47782363732</v>
       </c>
       <c r="G13">
-        <v>45562.38524995491</v>
+        <v>39125.93236909187</v>
       </c>
       <c r="H13">
-        <v>408499.9999999998</v>
+        <v>356545.4545454548</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -741,22 +741,22 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D14">
-        <v>3691.621832618948</v>
+        <v>3195.183999324914</v>
       </c>
       <c r="E14">
-        <v>5483.288499285615</v>
+        <v>4316.396120537035</v>
       </c>
       <c r="F14">
-        <v>72545.67374924054</v>
+        <v>56896.87394417436</v>
       </c>
       <c r="G14">
-        <v>49254.00708257386</v>
+        <v>42321.11636841678</v>
       </c>
       <c r="H14">
-        <v>406708.3333333331</v>
+        <v>355424.2424242427</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -767,22 +767,22 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D15">
-        <v>3675.430508791672</v>
+        <v>3185.136250899364</v>
       </c>
       <c r="E15">
-        <v>5467.097175458339</v>
+        <v>4306.348372111485</v>
       </c>
       <c r="F15">
-        <v>78012.77092469888</v>
+        <v>61203.22231628584</v>
       </c>
       <c r="G15">
-        <v>52929.43759136553</v>
+        <v>45506.25261931615</v>
       </c>
       <c r="H15">
-        <v>404916.6666666664</v>
+        <v>354303.0303030306</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -793,22 +793,22 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D16">
-        <v>3659.239184964396</v>
+        <v>3175.088502473814</v>
       </c>
       <c r="E16">
-        <v>5450.905851631063</v>
+        <v>4296.300623685935</v>
       </c>
       <c r="F16">
-        <v>83463.67677632994</v>
+        <v>65499.52293997178</v>
       </c>
       <c r="G16">
-        <v>56588.67677632993</v>
+        <v>48681.34112178996</v>
       </c>
       <c r="H16">
-        <v>403124.9999999997</v>
+        <v>353181.8181818185</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -819,22 +819,22 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D17">
-        <v>3643.04786113712</v>
+        <v>3165.040754048264</v>
       </c>
       <c r="E17">
-        <v>5434.714527803787</v>
+        <v>4286.252875260385</v>
       </c>
       <c r="F17">
-        <v>88898.39130413374</v>
+        <v>69785.77581523216</v>
       </c>
       <c r="G17">
-        <v>60231.72463746705</v>
+        <v>51846.38187583823</v>
       </c>
       <c r="H17">
-        <v>401333.333333333</v>
+        <v>352060.6060606064</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -845,22 +845,22 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D18">
-        <v>3626.856537309844</v>
+        <v>3154.993005622714</v>
       </c>
       <c r="E18">
-        <v>5418.523203976511</v>
+        <v>4276.205126834835</v>
       </c>
       <c r="F18">
-        <v>94316.91450811025</v>
+        <v>74061.98094206699</v>
       </c>
       <c r="G18">
-        <v>63858.5811747769</v>
+        <v>55001.37488146094</v>
       </c>
       <c r="H18">
-        <v>399541.6666666663</v>
+        <v>350939.3939393943</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -871,22 +871,22 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D19">
-        <v>3610.665213482568</v>
+        <v>3144.945257197164</v>
       </c>
       <c r="E19">
-        <v>5402.331880149235</v>
+        <v>4266.157378409285</v>
       </c>
       <c r="F19">
-        <v>99719.24638825949</v>
+        <v>78328.13832047628</v>
       </c>
       <c r="G19">
-        <v>67469.24638825946</v>
+        <v>58146.32013865811</v>
       </c>
       <c r="H19">
-        <v>397749.9999999997</v>
+        <v>349818.1818181822</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -897,22 +897,22 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D20">
-        <v>3594.473889655292</v>
+        <v>3134.897508771614</v>
       </c>
       <c r="E20">
-        <v>5386.140556321959</v>
+        <v>4256.109629983735</v>
       </c>
       <c r="F20">
-        <v>105105.3869445814</v>
+        <v>82584.24795046002</v>
       </c>
       <c r="G20">
-        <v>71063.72027791475</v>
+        <v>61281.21764742972</v>
       </c>
       <c r="H20">
-        <v>395958.333333333</v>
+        <v>348696.9696969701</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -923,22 +923,22 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D21">
-        <v>3578.282565828015</v>
+        <v>3124.849760346064</v>
       </c>
       <c r="E21">
-        <v>5369.949232494682</v>
+        <v>4246.061881558186</v>
       </c>
       <c r="F21">
-        <v>110475.3361770761</v>
+        <v>86830.3098320182</v>
       </c>
       <c r="G21">
-        <v>74642.00284374277</v>
+        <v>64406.06740777579</v>
       </c>
       <c r="H21">
-        <v>394166.6666666663</v>
+        <v>347575.757575758</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -949,22 +949,22 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D22">
-        <v>3562.09124200074</v>
+        <v>3114.802011920513</v>
       </c>
       <c r="E22">
-        <v>5353.757908667407</v>
+        <v>4236.014133132635</v>
       </c>
       <c r="F22">
-        <v>115829.0940857435</v>
+        <v>91066.32396515083</v>
       </c>
       <c r="G22">
-        <v>78204.09408574351</v>
+        <v>67520.8694196963</v>
       </c>
       <c r="H22">
-        <v>392374.9999999996</v>
+        <v>346454.5454545459</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -975,22 +975,22 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D23">
-        <v>3545.899918173463</v>
+        <v>3104.754263494964</v>
       </c>
       <c r="E23">
-        <v>5337.56658484013</v>
+        <v>4225.966384707085</v>
       </c>
       <c r="F23">
-        <v>121166.6606705837</v>
+        <v>95292.29034985793</v>
       </c>
       <c r="G23">
-        <v>81749.99400391697</v>
+        <v>70625.62368319127</v>
       </c>
       <c r="H23">
-        <v>390583.3333333329</v>
+        <v>345333.3333333338</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1001,22 +1001,22 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D24">
-        <v>3529.708594346187</v>
+        <v>3094.706515069413</v>
       </c>
       <c r="E24">
-        <v>5321.375261012854</v>
+        <v>4215.918636281534</v>
       </c>
       <c r="F24">
-        <v>126488.0359315965</v>
+        <v>99508.20898613946</v>
       </c>
       <c r="G24">
-        <v>85279.70259826316</v>
+        <v>73720.33019826068</v>
       </c>
       <c r="H24">
-        <v>388791.6666666662</v>
+        <v>344212.1212121217</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1027,22 +1027,22 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D25">
-        <v>3513.517270518912</v>
+        <v>3084.658766643864</v>
       </c>
       <c r="E25">
-        <v>5305.183937185579</v>
+        <v>4205.870887855985</v>
       </c>
       <c r="F25">
-        <v>131793.2198687821</v>
+        <v>103714.0798739954</v>
       </c>
       <c r="G25">
-        <v>88793.21986878208</v>
+        <v>76804.98896490454</v>
       </c>
       <c r="H25">
-        <v>386999.9999999995</v>
+        <v>343090.9090909096</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1053,22 +1053,22 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D26">
-        <v>3497.325946691635</v>
+        <v>3074.611018218314</v>
       </c>
       <c r="E26">
-        <v>5288.992613358302</v>
+        <v>4195.823139430435</v>
       </c>
       <c r="F26">
-        <v>137082.2124821404</v>
+        <v>107909.9030134259</v>
       </c>
       <c r="G26">
-        <v>92290.54581547371</v>
+        <v>79879.59998312285</v>
       </c>
       <c r="H26">
-        <v>385208.3333333328</v>
+        <v>341969.6969696975</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1079,22 +1079,22 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D27">
-        <v>3481.134622864359</v>
+        <v>3064.563269792764</v>
       </c>
       <c r="E27">
-        <v>5272.801289531026</v>
+        <v>4185.775391004885</v>
       </c>
       <c r="F27">
-        <v>142355.0137716714</v>
+        <v>112095.6784044308</v>
       </c>
       <c r="G27">
-        <v>95771.68043833807</v>
+        <v>82944.16325291562</v>
       </c>
       <c r="H27">
-        <v>383416.6666666662</v>
+        <v>340848.4848484854</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1105,22 +1105,22 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D28">
-        <v>3464.943299037083</v>
+        <v>3054.515521367214</v>
       </c>
       <c r="E28">
-        <v>5256.60996570375</v>
+        <v>4175.727642579335</v>
       </c>
       <c r="F28">
-        <v>147611.6237373752</v>
+        <v>116271.4060470101</v>
       </c>
       <c r="G28">
-        <v>99236.62373737515</v>
+        <v>85998.67877428283</v>
       </c>
       <c r="H28">
-        <v>381624.9999999995</v>
+        <v>339727.2727272733</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1131,22 +1131,22 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D29">
-        <v>3448.751975209807</v>
+        <v>3044.467772941663</v>
       </c>
       <c r="E29">
-        <v>5240.418641876474</v>
+        <v>4165.679894153785</v>
       </c>
       <c r="F29">
-        <v>152852.0423792517</v>
+        <v>120437.0859411639</v>
       </c>
       <c r="G29">
-        <v>102685.375712585</v>
+        <v>89043.14654722449</v>
       </c>
       <c r="H29">
-        <v>379833.3333333328</v>
+        <v>338606.0606060612</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1157,22 +1157,22 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D30">
-        <v>3432.560651382531</v>
+        <v>3034.420024516113</v>
       </c>
       <c r="E30">
-        <v>5224.227318049197</v>
+        <v>4155.632145728235</v>
       </c>
       <c r="F30">
-        <v>158076.2696973009</v>
+        <v>124592.7180868921</v>
       </c>
       <c r="G30">
-        <v>106117.9363639675</v>
+        <v>92077.56657174061</v>
       </c>
       <c r="H30">
-        <v>378041.6666666661</v>
+        <v>337484.8484848491</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1183,22 +1183,22 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D31">
-        <v>3416.369327555255</v>
+        <v>3024.372276090563</v>
       </c>
       <c r="E31">
-        <v>5208.035994221922</v>
+        <v>4145.584397302685</v>
       </c>
       <c r="F31">
-        <v>163284.3056915228</v>
+        <v>128738.3024841948</v>
       </c>
       <c r="G31">
-        <v>109534.3056915227</v>
+        <v>95101.93884783117</v>
       </c>
       <c r="H31">
-        <v>376249.9999999994</v>
+        <v>336363.6363636371</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1209,22 +1209,22 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D32">
-        <v>3400.178003727979</v>
+        <v>3014.324527665013</v>
       </c>
       <c r="E32">
-        <v>5191.844670394646</v>
+        <v>4135.536648877134</v>
       </c>
       <c r="F32">
-        <v>168476.1503619174</v>
+        <v>132873.8391330719</v>
       </c>
       <c r="G32">
-        <v>112934.4836952507</v>
+        <v>98116.26337549619</v>
       </c>
       <c r="H32">
-        <v>374458.3333333327</v>
+        <v>335242.424242425</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1235,22 +1235,22 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D33">
-        <v>3383.986679900703</v>
+        <v>3004.276779239463</v>
       </c>
       <c r="E33">
-        <v>5175.653346567369</v>
+        <v>4125.488900451584</v>
       </c>
       <c r="F33">
-        <v>173651.8037084848</v>
+        <v>136999.3280335235</v>
       </c>
       <c r="G33">
-        <v>116318.4703751514</v>
+        <v>101120.5401547356</v>
       </c>
       <c r="H33">
-        <v>372666.666666666</v>
+        <v>334121.2121212129</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1261,22 +1261,22 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D34">
-        <v>3367.795356073427</v>
+        <v>2994.229030813914</v>
       </c>
       <c r="E34">
-        <v>5159.462022740094</v>
+        <v>4115.441152026035</v>
       </c>
       <c r="F34">
-        <v>178811.2657312249</v>
+        <v>141114.7691855496</v>
       </c>
       <c r="G34">
-        <v>119686.2657312248</v>
+        <v>104114.7691855496</v>
       </c>
       <c r="H34">
-        <v>370874.9999999994</v>
+        <v>333000.0000000008</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1287,22 +1287,22 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D35">
-        <v>3351.60403224615</v>
+        <v>2984.181282388363</v>
       </c>
       <c r="E35">
-        <v>5143.270698912817</v>
+        <v>4105.393403600484</v>
       </c>
       <c r="F35">
-        <v>183954.5364301377</v>
+        <v>145220.16258915</v>
       </c>
       <c r="G35">
-        <v>123037.869763471</v>
+        <v>107098.9504679379</v>
       </c>
       <c r="H35">
-        <v>369083.3333333327</v>
+        <v>331878.7878787887</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1313,22 +1313,22 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D36">
-        <v>3335.412708418874</v>
+        <v>2974.133533962813</v>
       </c>
       <c r="E36">
-        <v>5127.079375085541</v>
+        <v>4095.345655174934</v>
       </c>
       <c r="F36">
-        <v>189081.6158052232</v>
+        <v>149315.508244325</v>
       </c>
       <c r="G36">
-        <v>126373.2824718899</v>
+        <v>110073.0840019007</v>
       </c>
       <c r="H36">
-        <v>367291.666666666</v>
+        <v>330757.5757575766</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1339,22 +1339,22 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D37">
-        <v>3319.221384591599</v>
+        <v>2964.085785537263</v>
       </c>
       <c r="E37">
-        <v>5110.888051258265</v>
+        <v>4085.297906749384</v>
       </c>
       <c r="F37">
-        <v>194192.5038564815</v>
+        <v>153400.8061510744</v>
       </c>
       <c r="G37">
-        <v>129692.5038564815</v>
+        <v>113037.169787438</v>
       </c>
       <c r="H37">
-        <v>365499.9999999993</v>
+        <v>329636.3636363645</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1365,22 +1365,22 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D38">
-        <v>3303.030060764323</v>
+        <v>2954.038037111713</v>
       </c>
       <c r="E38">
-        <v>5094.696727430989</v>
+        <v>4075.250158323835</v>
       </c>
       <c r="F38">
-        <v>199287.2005839125</v>
+        <v>157476.0563093982</v>
       </c>
       <c r="G38">
-        <v>132995.5339172458</v>
+        <v>115991.2078245497</v>
       </c>
       <c r="H38">
-        <v>363708.3333333326</v>
+        <v>328515.1515151524</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1391,22 +1391,22 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D39">
-        <v>3286.838736937046</v>
+        <v>2943.990288686163</v>
       </c>
       <c r="E39">
-        <v>5078.505403603713</v>
+        <v>4065.202409898285</v>
       </c>
       <c r="F39">
-        <v>204365.7059875162</v>
+        <v>161541.2587192965</v>
       </c>
       <c r="G39">
-        <v>136282.3726541828</v>
+        <v>118935.1981132359</v>
       </c>
       <c r="H39">
-        <v>361916.6666666659</v>
+        <v>327393.9393939403</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1417,22 +1417,22 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D40">
-        <v>3270.64741310977</v>
+        <v>2933.942540260613</v>
       </c>
       <c r="E40">
-        <v>5062.314079776437</v>
+        <v>4055.154661472734</v>
       </c>
       <c r="F40">
-        <v>209428.0200672926</v>
+        <v>165596.4133807692</v>
       </c>
       <c r="G40">
-        <v>139553.0200672926</v>
+        <v>121869.1406534965</v>
       </c>
       <c r="H40">
-        <v>360124.9999999992</v>
+        <v>326272.7272727282</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1443,22 +1443,22 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D41">
-        <v>3254.456089282494</v>
+        <v>2923.894791835063</v>
       </c>
       <c r="E41">
-        <v>5046.122755949161</v>
+        <v>4045.106913047184</v>
       </c>
       <c r="F41">
-        <v>214474.1428232418</v>
+        <v>169641.5202938164</v>
       </c>
       <c r="G41">
-        <v>142807.4761565751</v>
+        <v>124793.0354453316</v>
       </c>
       <c r="H41">
-        <v>358333.3333333326</v>
+        <v>325151.5151515161</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1469,22 +1469,22 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D42">
-        <v>3238.264765455218</v>
+        <v>2913.847043409513</v>
       </c>
       <c r="E42">
-        <v>5029.931432121884</v>
+        <v>4035.059164621634</v>
       </c>
       <c r="F42">
-        <v>219504.0742553637</v>
+        <v>173676.579458438</v>
       </c>
       <c r="G42">
-        <v>146045.7409220303</v>
+        <v>127706.8824887411</v>
       </c>
       <c r="H42">
-        <v>356541.6666666659</v>
+        <v>324030.303030304</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1495,22 +1495,22 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D43">
-        <v>3222.073441627942</v>
+        <v>2903.799294983963</v>
       </c>
       <c r="E43">
-        <v>5013.740108294609</v>
+        <v>4025.011416196084</v>
       </c>
       <c r="F43">
-        <v>224517.8143636583</v>
+        <v>177701.5908746341</v>
       </c>
       <c r="G43">
-        <v>149267.8143636583</v>
+        <v>130610.681783725</v>
       </c>
       <c r="H43">
-        <v>354749.9999999992</v>
+        <v>322909.0909090919</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1521,22 +1521,22 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D44">
-        <v>3205.882117800666</v>
+        <v>2893.751546558413</v>
       </c>
       <c r="E44">
-        <v>4997.548784467333</v>
+        <v>4014.963667770534</v>
       </c>
       <c r="F44">
-        <v>229515.3631481256</v>
+        <v>181716.5545424047</v>
       </c>
       <c r="G44">
-        <v>152473.6964814589</v>
+        <v>133504.4333302834</v>
       </c>
       <c r="H44">
-        <v>352958.3333333325</v>
+        <v>321787.8787878798</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1547,22 +1547,22 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D45">
-        <v>3189.69079397339</v>
+        <v>2883.703798132863</v>
       </c>
       <c r="E45">
-        <v>4981.357460640056</v>
+        <v>4004.915919344984</v>
       </c>
       <c r="F45">
-        <v>234496.7206087657</v>
+        <v>185721.4704617496</v>
       </c>
       <c r="G45">
-        <v>155663.3872754323</v>
+        <v>136388.1371284163</v>
       </c>
       <c r="H45">
-        <v>351166.6666666658</v>
+        <v>320666.6666666677</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1573,22 +1573,22 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D46">
-        <v>3173.499470146114</v>
+        <v>2873.656049707313</v>
       </c>
       <c r="E46">
-        <v>4965.166136812781</v>
+        <v>3994.868170919434</v>
       </c>
       <c r="F46">
-        <v>239461.8867455784</v>
+        <v>189716.3386326691</v>
       </c>
       <c r="G46">
-        <v>158836.8867455784</v>
+        <v>139261.7931781236</v>
       </c>
       <c r="H46">
-        <v>349374.9999999991</v>
+        <v>319545.4545454556</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1599,22 +1599,22 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D47">
-        <v>3157.308146318837</v>
+        <v>2863.608301281763</v>
       </c>
       <c r="E47">
-        <v>4948.974812985504</v>
+        <v>3984.820422493885</v>
       </c>
       <c r="F47">
-        <v>244410.8615585639</v>
+        <v>193701.1590551629</v>
       </c>
       <c r="G47">
-        <v>161994.1948918973</v>
+        <v>142125.4014794054</v>
       </c>
       <c r="H47">
-        <v>347583.3333333324</v>
+        <v>318424.2424242435</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1625,22 +1625,22 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D48">
-        <v>3141.116822491561</v>
+        <v>2853.560552856213</v>
       </c>
       <c r="E48">
-        <v>4932.783489158228</v>
+        <v>3974.772674068334</v>
       </c>
       <c r="F48">
-        <v>249343.6450477222</v>
+        <v>197675.9317292313</v>
       </c>
       <c r="G48">
-        <v>165135.3117143888</v>
+        <v>144978.9620322616</v>
       </c>
       <c r="H48">
-        <v>345791.6666666658</v>
+        <v>317303.0303030314</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1651,22 +1651,22 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D49">
-        <v>3124.925498664285</v>
+        <v>2843.512804430663</v>
       </c>
       <c r="E49">
-        <v>4916.592165330952</v>
+        <v>3964.724925642784</v>
       </c>
       <c r="F49">
-        <v>254260.2372130531</v>
+        <v>201640.6566548741</v>
       </c>
       <c r="G49">
-        <v>168260.2372130531</v>
+        <v>147822.4748366923</v>
       </c>
       <c r="H49">
-        <v>343999.9999999991</v>
+        <v>316181.8181818193</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1677,22 +1677,22 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D50">
-        <v>3108.734174837009</v>
+        <v>2833.465056005113</v>
       </c>
       <c r="E50">
-        <v>4900.400841503676</v>
+        <v>3954.677177217234</v>
       </c>
       <c r="F50">
-        <v>259160.6380545568</v>
+        <v>205595.3338320913</v>
       </c>
       <c r="G50">
-        <v>171368.9713878901</v>
+        <v>150655.9398926974</v>
       </c>
       <c r="H50">
-        <v>342208.3333333324</v>
+        <v>315060.6060606072</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1703,22 +1703,22 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D51">
-        <v>3092.542851009733</v>
+        <v>2823.417307579562</v>
       </c>
       <c r="E51">
-        <v>4884.2095176764</v>
+        <v>3944.629428791683</v>
       </c>
       <c r="F51">
-        <v>264044.8475722332</v>
+        <v>209539.963260883</v>
       </c>
       <c r="G51">
-        <v>174461.5142388999</v>
+        <v>153479.357200277</v>
       </c>
       <c r="H51">
-        <v>340416.6666666657</v>
+        <v>313939.3939393951</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1729,22 +1729,22 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D52">
-        <v>3076.351527182456</v>
+        <v>2813.369559154013</v>
       </c>
       <c r="E52">
-        <v>4868.018193849123</v>
+        <v>3934.581680366134</v>
       </c>
       <c r="F52">
-        <v>268912.8657660823</v>
+        <v>213474.5449412491</v>
       </c>
       <c r="G52">
-        <v>177537.8657660823</v>
+        <v>156292.726759431</v>
       </c>
       <c r="H52">
-        <v>338624.999999999</v>
+        <v>312818.181818183</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1755,22 +1755,22 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D53">
-        <v>3060.160203355181</v>
+        <v>2803.321810728463</v>
       </c>
       <c r="E53">
-        <v>4851.826870021848</v>
+        <v>3924.533931940584</v>
       </c>
       <c r="F53">
-        <v>273764.6926361042</v>
+        <v>217399.0788731897</v>
       </c>
       <c r="G53">
-        <v>180598.0259694375</v>
+        <v>159096.0485701594</v>
       </c>
       <c r="H53">
-        <v>336833.3333333323</v>
+        <v>311696.9696969709</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1781,22 +1781,22 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D54">
-        <v>3043.968879527904</v>
+        <v>2793.274062302913</v>
       </c>
       <c r="E54">
-        <v>4835.635546194571</v>
+        <v>3914.486183515034</v>
       </c>
       <c r="F54">
-        <v>278600.3281822987</v>
+        <v>221313.5650567047</v>
       </c>
       <c r="G54">
-        <v>183641.9948489654</v>
+        <v>161889.3226324623</v>
       </c>
       <c r="H54">
-        <v>335041.6666666656</v>
+        <v>310575.7575757588</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1807,22 +1807,22 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D55">
-        <v>3027.777555700628</v>
+        <v>2783.226313877363</v>
       </c>
       <c r="E55">
-        <v>4819.444222367295</v>
+        <v>3904.438435089484</v>
       </c>
       <c r="F55">
-        <v>283419.7724046661</v>
+        <v>225218.0034917942</v>
       </c>
       <c r="G55">
-        <v>186669.772404666</v>
+        <v>164672.5489463397</v>
       </c>
       <c r="H55">
-        <v>333249.999999999</v>
+        <v>309454.5454545467</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1833,22 +1833,22 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D56">
-        <v>3011.586231873352</v>
+        <v>2773.178565451812</v>
       </c>
       <c r="E56">
-        <v>4803.252898540019</v>
+        <v>3894.390686663934</v>
       </c>
       <c r="F56">
-        <v>288223.0253032061</v>
+        <v>229112.3941784582</v>
       </c>
       <c r="G56">
-        <v>189681.3586365394</v>
+        <v>167445.7275117915</v>
       </c>
       <c r="H56">
-        <v>331458.3333333323</v>
+        <v>308333.3333333346</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1859,22 +1859,22 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D57">
-        <v>2995.394908046076</v>
+        <v>2763.130817026262</v>
       </c>
       <c r="E57">
-        <v>4787.061574712742</v>
+        <v>3884.342938238384</v>
       </c>
       <c r="F57">
-        <v>293010.0868779188</v>
+        <v>232996.7371166965</v>
       </c>
       <c r="G57">
-        <v>192676.7535445855</v>
+        <v>170208.8583288178</v>
       </c>
       <c r="H57">
-        <v>329666.6666666656</v>
+        <v>307212.1212121225</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1885,22 +1885,22 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D58">
-        <v>2979.2035842188</v>
+        <v>2753.083068600713</v>
       </c>
       <c r="E58">
-        <v>4770.870250885467</v>
+        <v>3874.295189812834</v>
       </c>
       <c r="F58">
-        <v>297780.9571288043</v>
+        <v>236871.0323065094</v>
       </c>
       <c r="G58">
-        <v>195655.9571288043</v>
+        <v>172961.9413974185</v>
       </c>
       <c r="H58">
-        <v>327874.9999999989</v>
+        <v>306090.9090909104</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1911,22 +1911,22 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D59">
-        <v>2963.012260391524</v>
+        <v>2743.035320175162</v>
       </c>
       <c r="E59">
-        <v>4754.67892705819</v>
+        <v>3864.247441387283</v>
       </c>
       <c r="F59">
-        <v>302535.6360558625</v>
+        <v>240735.2797478967</v>
       </c>
       <c r="G59">
-        <v>198618.9693891958</v>
+        <v>175704.9767175936</v>
       </c>
       <c r="H59">
-        <v>326083.3333333322</v>
+        <v>304969.6969696983</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1937,22 +1937,22 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D60">
-        <v>2946.820936564247</v>
+        <v>2732.987571749612</v>
       </c>
       <c r="E60">
-        <v>4738.487603230914</v>
+        <v>3854.199692961733</v>
       </c>
       <c r="F60">
-        <v>307274.1236590934</v>
+        <v>244589.4794408584</v>
       </c>
       <c r="G60">
-        <v>201565.79032576</v>
+        <v>178437.9642893432</v>
       </c>
       <c r="H60">
-        <v>324291.6666666655</v>
+        <v>303848.4848484862</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1963,22 +1963,22 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D61">
-        <v>2930.629612736971</v>
+        <v>2722.939823324062</v>
       </c>
       <c r="E61">
-        <v>4722.296279403638</v>
+        <v>3844.151944536184</v>
       </c>
       <c r="F61">
-        <v>311996.419938497</v>
+        <v>248433.6313853946</v>
       </c>
       <c r="G61">
-        <v>204496.419938497</v>
+        <v>181160.9041126673</v>
       </c>
       <c r="H61">
-        <v>322499.9999999988</v>
+        <v>302727.2727272741</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1989,22 +1989,22 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D62">
-        <v>2914.438288909696</v>
+        <v>2712.892074898512</v>
       </c>
       <c r="E62">
-        <v>4706.104955576362</v>
+        <v>3834.104196110634</v>
       </c>
       <c r="F62">
-        <v>316702.5248940734</v>
+        <v>252267.7355815052</v>
       </c>
       <c r="G62">
-        <v>207410.8582274067</v>
+        <v>183873.7961875658</v>
       </c>
       <c r="H62">
-        <v>320708.3333333321</v>
+        <v>301606.060606062</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2015,22 +2015,22 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D63">
-        <v>2898.246965082419</v>
+        <v>2702.844326472963</v>
       </c>
       <c r="E63">
-        <v>4689.913631749086</v>
+        <v>3824.056447685084</v>
       </c>
       <c r="F63">
-        <v>321392.4385258225</v>
+        <v>256091.7920291903</v>
       </c>
       <c r="G63">
-        <v>210309.1051924891</v>
+        <v>186576.6405140388</v>
       </c>
       <c r="H63">
-        <v>318916.6666666655</v>
+        <v>300484.8484848499</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2041,22 +2041,22 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D64">
-        <v>2882.055641255143</v>
+        <v>2692.796578047412</v>
       </c>
       <c r="E64">
-        <v>4673.722307921809</v>
+        <v>3814.008699259533</v>
       </c>
       <c r="F64">
-        <v>326066.1608337443</v>
+        <v>259905.8007284498</v>
       </c>
       <c r="G64">
-        <v>213191.1608337443</v>
+        <v>189269.4370920862</v>
       </c>
       <c r="H64">
-        <v>317124.9999999988</v>
+        <v>299363.6363636378</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2067,22 +2067,22 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D65">
-        <v>2865.864317427867</v>
+        <v>2682.748829621862</v>
       </c>
       <c r="E65">
-        <v>4657.530984094534</v>
+        <v>3803.960950833983</v>
       </c>
       <c r="F65">
-        <v>330723.6918178388</v>
+        <v>263709.7616792838</v>
       </c>
       <c r="G65">
-        <v>216057.0251511721</v>
+        <v>191952.1859217081</v>
       </c>
       <c r="H65">
-        <v>315333.3333333321</v>
+        <v>298242.4242424257</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2093,22 +2093,22 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D66">
-        <v>2849.672993600591</v>
+        <v>2672.701081196312</v>
       </c>
       <c r="E66">
-        <v>4641.339660267257</v>
+        <v>3793.913202408433</v>
       </c>
       <c r="F66">
-        <v>335365.031478106</v>
+        <v>267503.6748816922</v>
       </c>
       <c r="G66">
-        <v>218906.6981447727</v>
+        <v>194624.8870029044</v>
       </c>
       <c r="H66">
-        <v>313541.6666666654</v>
+        <v>297121.2121212136</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2119,22 +2119,22 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D67">
-        <v>2833.481669773314</v>
+        <v>2662.653332770762</v>
       </c>
       <c r="E67">
-        <v>4625.148336439981</v>
+        <v>3783.865453982883</v>
       </c>
       <c r="F67">
-        <v>339990.179814546</v>
+        <v>271287.5403356751</v>
       </c>
       <c r="G67">
-        <v>221740.179814546</v>
+        <v>197287.5403356751</v>
       </c>
       <c r="H67">
-        <v>311749.9999999987</v>
+        <v>296000.0000000015</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2145,22 +2145,22 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D68">
-        <v>2817.290345946039</v>
+        <v>2652.605584345212</v>
       </c>
       <c r="E68">
-        <v>4608.957012612706</v>
+        <v>3773.817705557333</v>
       </c>
       <c r="F68">
-        <v>344599.1368271587</v>
+        <v>275061.3580412325</v>
       </c>
       <c r="G68">
-        <v>224557.4701604921</v>
+        <v>199940.1459200204</v>
       </c>
       <c r="H68">
-        <v>309958.333333332</v>
+        <v>294878.7878787894</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2171,22 +2171,22 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D69">
-        <v>2801.099022118763</v>
+        <v>2642.557835919661</v>
       </c>
       <c r="E69">
-        <v>4592.765688785429</v>
+        <v>3763.769957131783</v>
       </c>
       <c r="F69">
-        <v>349191.9025159442</v>
+        <v>278825.1279983642</v>
       </c>
       <c r="G69">
-        <v>227358.5691826108</v>
+        <v>202582.70375594</v>
       </c>
       <c r="H69">
-        <v>308166.6666666653</v>
+        <v>293757.5757575773</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2197,22 +2197,22 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D70">
-        <v>2784.907698291486</v>
+        <v>2632.510087494111</v>
       </c>
       <c r="E70">
-        <v>4576.574364958153</v>
+        <v>3753.722208706233</v>
       </c>
       <c r="F70">
-        <v>353768.4768809023</v>
+        <v>282578.8502070705</v>
       </c>
       <c r="G70">
-        <v>230143.4768809023</v>
+        <v>205215.2138434341</v>
       </c>
       <c r="H70">
-        <v>306374.9999999987</v>
+        <v>292636.3636363652</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2223,22 +2223,22 @@
         <v>70</v>
       </c>
       <c r="C71">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D71">
-        <v>2768.71637446421</v>
+        <v>2622.462339068562</v>
       </c>
       <c r="E71">
-        <v>4560.383041130877</v>
+        <v>3743.674460280683</v>
       </c>
       <c r="F71">
-        <v>358328.8599220332</v>
+        <v>286322.5246673512</v>
       </c>
       <c r="G71">
-        <v>232912.1932553666</v>
+        <v>207837.6761825027</v>
       </c>
       <c r="H71">
-        <v>304583.333333332</v>
+        <v>291515.1515151531</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2249,22 +2249,22 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D72">
-        <v>2752.525050636934</v>
+        <v>2612.414590643011</v>
       </c>
       <c r="E72">
-        <v>4544.191717303601</v>
+        <v>3733.626711855132</v>
       </c>
       <c r="F72">
-        <v>362873.0516393368</v>
+        <v>290056.1513792063</v>
       </c>
       <c r="G72">
-        <v>235664.7183060035</v>
+        <v>210450.0907731457</v>
       </c>
       <c r="H72">
-        <v>302791.6666666653</v>
+        <v>290393.939393941</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2275,22 +2275,22 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D73">
-        <v>2736.333726809657</v>
+        <v>2602.366842217461</v>
       </c>
       <c r="E73">
-        <v>4528.000393476324</v>
+        <v>3723.578963429582</v>
       </c>
       <c r="F73">
-        <v>367401.0520328131</v>
+        <v>293779.7303426359</v>
       </c>
       <c r="G73">
-        <v>238401.0520328131</v>
+        <v>213052.4576153631</v>
       </c>
       <c r="H73">
-        <v>300999.9999999986</v>
+        <v>289272.7272727289</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2301,22 +2301,22 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D74">
-        <v>2720.142402982382</v>
+        <v>2592.319093791911</v>
       </c>
       <c r="E74">
-        <v>4511.809069649049</v>
+        <v>3713.531215004033</v>
       </c>
       <c r="F74">
-        <v>371912.8611024622</v>
+        <v>297493.2615576399</v>
       </c>
       <c r="G74">
-        <v>241121.1944357955</v>
+        <v>215644.7767091551</v>
       </c>
       <c r="H74">
-        <v>299208.3333333319</v>
+        <v>288151.5151515168</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2327,22 +2327,22 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D75">
-        <v>2703.951079155106</v>
+        <v>2582.271345366361</v>
       </c>
       <c r="E75">
-        <v>4495.617745821773</v>
+        <v>3703.483466578483</v>
       </c>
       <c r="F75">
-        <v>376408.4788482839</v>
+        <v>301196.7450242184</v>
       </c>
       <c r="G75">
-        <v>243825.1455149506</v>
+        <v>218227.0480545214</v>
       </c>
       <c r="H75">
-        <v>297416.6666666652</v>
+        <v>287030.3030303047</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2353,22 +2353,22 @@
         <v>75</v>
       </c>
       <c r="C76">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D76">
-        <v>2687.759755327829</v>
+        <v>2572.223596940811</v>
       </c>
       <c r="E76">
-        <v>4479.426421994496</v>
+        <v>3693.435718152932</v>
       </c>
       <c r="F76">
-        <v>380887.9052702785</v>
+        <v>304890.1807423713</v>
       </c>
       <c r="G76">
-        <v>246512.9052702785</v>
+        <v>220799.2716514622</v>
       </c>
       <c r="H76">
-        <v>295624.9999999985</v>
+        <v>285909.0909090926</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2379,22 +2379,22 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D77">
-        <v>2671.568431500554</v>
+        <v>2562.17584851526</v>
       </c>
       <c r="E77">
-        <v>4463.235098167221</v>
+        <v>3683.387969727381</v>
       </c>
       <c r="F77">
-        <v>385351.1403684457</v>
+        <v>308573.5687120987</v>
       </c>
       <c r="G77">
-        <v>249184.473701779</v>
+        <v>223361.4474999775</v>
       </c>
       <c r="H77">
-        <v>293833.3333333319</v>
+        <v>284787.8787878805</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2405,22 +2405,22 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D78">
-        <v>2655.377107673278</v>
+        <v>2552.128100089711</v>
       </c>
       <c r="E78">
-        <v>4447.043774339944</v>
+        <v>3673.340221301832</v>
       </c>
       <c r="F78">
-        <v>389798.1841427856</v>
+        <v>312246.9089334005</v>
       </c>
       <c r="G78">
-        <v>251839.8508094523</v>
+        <v>225913.5756000672</v>
       </c>
       <c r="H78">
-        <v>292041.6666666652</v>
+        <v>283666.6666666684</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2431,22 +2431,22 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D79">
-        <v>2639.185783846001</v>
+        <v>2542.080351664161</v>
       </c>
       <c r="E79">
-        <v>4430.852450512668</v>
+        <v>3663.292472876282</v>
       </c>
       <c r="F79">
-        <v>394229.0365932983</v>
+        <v>315910.2014062768</v>
       </c>
       <c r="G79">
-        <v>254479.0365932983</v>
+        <v>228455.6559517314</v>
       </c>
       <c r="H79">
-        <v>290249.9999999985</v>
+        <v>282545.4545454563</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2457,22 +2457,22 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D80">
-        <v>2622.994460018725</v>
+        <v>2532.032603238611</v>
       </c>
       <c r="E80">
-        <v>4414.661126685392</v>
+        <v>3653.244724450732</v>
       </c>
       <c r="F80">
-        <v>398643.6977199836</v>
+        <v>319563.4461307275</v>
       </c>
       <c r="G80">
-        <v>257102.031053317</v>
+        <v>230987.68855497</v>
       </c>
       <c r="H80">
-        <v>288458.3333333318</v>
+        <v>281424.2424242442</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2483,22 +2483,22 @@
         <v>80</v>
       </c>
       <c r="C81">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D81">
-        <v>2606.80313619145</v>
+        <v>2521.98485481306</v>
       </c>
       <c r="E81">
-        <v>4398.469802858116</v>
+        <v>3643.196976025181</v>
       </c>
       <c r="F81">
-        <v>403042.1675228418</v>
+        <v>323206.6431067527</v>
       </c>
       <c r="G81">
-        <v>259708.8341895085</v>
+        <v>233509.673409783</v>
       </c>
       <c r="H81">
-        <v>286666.6666666651</v>
+        <v>280303.0303030321</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2509,22 +2509,22 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D82">
-        <v>2590.611812364174</v>
+        <v>2511.93710638751</v>
       </c>
       <c r="E82">
-        <v>4382.278479030841</v>
+        <v>3633.149227599632</v>
       </c>
       <c r="F82">
-        <v>407424.4460018726</v>
+        <v>326839.7923343523</v>
       </c>
       <c r="G82">
-        <v>262299.4460018727</v>
+        <v>236021.6105161706</v>
       </c>
       <c r="H82">
-        <v>284874.9999999984</v>
+        <v>279181.81818182</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2535,22 +2535,22 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D83">
-        <v>2574.420488536898</v>
+        <v>2501.88935796196</v>
       </c>
       <c r="E83">
-        <v>4366.087155203564</v>
+        <v>3623.101479174082</v>
       </c>
       <c r="F83">
-        <v>411790.5331570762</v>
+        <v>330462.8938135264</v>
       </c>
       <c r="G83">
-        <v>264873.8664904095</v>
+        <v>238523.4998741325</v>
       </c>
       <c r="H83">
-        <v>283083.3333333317</v>
+        <v>278060.6060606079</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2561,22 +2561,22 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D84">
-        <v>2558.229164709621</v>
+        <v>2491.84160953641</v>
       </c>
       <c r="E84">
-        <v>4349.895831376288</v>
+        <v>3613.053730748531</v>
       </c>
       <c r="F84">
-        <v>416140.4289884525</v>
+        <v>334075.947544275</v>
       </c>
       <c r="G84">
-        <v>267432.0956551192</v>
+        <v>241015.3414836689</v>
       </c>
       <c r="H84">
-        <v>281291.6666666651</v>
+        <v>276939.3939393958</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2587,22 +2587,22 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D85">
-        <v>2542.037840882345</v>
+        <v>2481.79386111086</v>
       </c>
       <c r="E85">
-        <v>4333.704507549012</v>
+        <v>3603.005982322981</v>
       </c>
       <c r="F85">
-        <v>420474.1334960015</v>
+        <v>337678.9535265979</v>
       </c>
       <c r="G85">
-        <v>269974.1334960015</v>
+        <v>243497.1353447798</v>
       </c>
       <c r="H85">
-        <v>279499.9999999984</v>
+        <v>275818.1818181837</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2613,22 +2613,22 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D86">
-        <v>2525.84651705507</v>
+        <v>2471.74611268531</v>
       </c>
       <c r="E86">
-        <v>4317.513183721737</v>
+        <v>3592.958233897431</v>
       </c>
       <c r="F86">
-        <v>424791.6466797232</v>
+        <v>341271.9117604954</v>
       </c>
       <c r="G86">
-        <v>272499.9800130565</v>
+        <v>245968.8814574651</v>
       </c>
       <c r="H86">
-        <v>277708.3333333317</v>
+        <v>274696.9696969716</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2639,22 +2639,22 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D87">
-        <v>2509.655193227793</v>
+        <v>2461.69836425976</v>
       </c>
       <c r="E87">
-        <v>4301.32185989446</v>
+        <v>3582.910485471882</v>
       </c>
       <c r="F87">
-        <v>429092.9685396177</v>
+        <v>344854.8222459673</v>
       </c>
       <c r="G87">
-        <v>275009.6352062844</v>
+        <v>248430.5798217249</v>
       </c>
       <c r="H87">
-        <v>275916.666666665</v>
+        <v>273575.7575757595</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2665,22 +2665,22 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D88">
-        <v>2493.463869400517</v>
+        <v>2451.650615834209</v>
       </c>
       <c r="E88">
-        <v>4285.130536067184</v>
+        <v>3572.862737046331</v>
       </c>
       <c r="F88">
-        <v>433378.0990756848</v>
+        <v>348427.6849830136</v>
       </c>
       <c r="G88">
-        <v>277503.0990756848</v>
+        <v>250882.2304375591</v>
       </c>
       <c r="H88">
-        <v>274124.9999999983</v>
+        <v>272454.5454545474</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2691,22 +2691,22 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D89">
-        <v>2477.272545573242</v>
+        <v>2441.602867408659</v>
       </c>
       <c r="E89">
-        <v>4268.939212239909</v>
+        <v>3562.81498862078</v>
       </c>
       <c r="F89">
-        <v>437647.0382879248</v>
+        <v>351990.4999716344</v>
       </c>
       <c r="G89">
-        <v>279980.3716212581</v>
+        <v>253323.8333049677</v>
       </c>
       <c r="H89">
-        <v>272333.3333333316</v>
+        <v>271333.3333333354</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2717,22 +2717,22 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D90">
-        <v>2461.081221745966</v>
+        <v>2431.555118983109</v>
       </c>
       <c r="E90">
-        <v>4252.747888412632</v>
+        <v>3552.76724019523</v>
       </c>
       <c r="F90">
-        <v>441899.7861763374</v>
+        <v>355543.2672118296</v>
       </c>
       <c r="G90">
-        <v>282441.4528430041</v>
+        <v>255755.3884239508</v>
       </c>
       <c r="H90">
-        <v>270541.6666666649</v>
+        <v>270212.1212121233</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2743,22 +2743,22 @@
         <v>90</v>
       </c>
       <c r="C91">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D91">
-        <v>2444.88989791869</v>
+        <v>2421.50737055756</v>
       </c>
       <c r="E91">
-        <v>4236.556564585357</v>
+        <v>3542.719491769681</v>
       </c>
       <c r="F91">
-        <v>446136.3427409228</v>
+        <v>359085.9867035993</v>
       </c>
       <c r="G91">
-        <v>284886.3427409228</v>
+        <v>258176.8957945084</v>
       </c>
       <c r="H91">
-        <v>268749.9999999983</v>
+        <v>269090.9090909112</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2769,22 +2769,22 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D92">
-        <v>2428.698574091413</v>
+        <v>2411.459622132009</v>
       </c>
       <c r="E92">
-        <v>4220.36524075808</v>
+        <v>3532.671743344131</v>
       </c>
       <c r="F92">
-        <v>450356.7079816808</v>
+        <v>362618.6584469434</v>
       </c>
       <c r="G92">
-        <v>287315.0413150142</v>
+        <v>260588.3554166404</v>
       </c>
       <c r="H92">
-        <v>266958.3333333316</v>
+        <v>267969.6969696991</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2795,22 +2795,22 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D93">
-        <v>2412.507250264137</v>
+        <v>2401.411873706459</v>
       </c>
       <c r="E93">
-        <v>4204.173916930804</v>
+        <v>3522.62399491858</v>
       </c>
       <c r="F93">
-        <v>454560.8818986116</v>
+        <v>366141.282441862</v>
       </c>
       <c r="G93">
-        <v>289727.5485652783</v>
+        <v>262989.7672903468</v>
       </c>
       <c r="H93">
-        <v>265166.6666666649</v>
+        <v>266848.484848487</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2821,22 +2821,22 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D94">
-        <v>2396.315926436862</v>
+        <v>2391.364125280909</v>
       </c>
       <c r="E94">
-        <v>4187.982593103528</v>
+        <v>3512.57624649303</v>
       </c>
       <c r="F94">
-        <v>458748.8644917152</v>
+        <v>369653.858688355</v>
       </c>
       <c r="G94">
-        <v>292123.8644917152</v>
+        <v>265381.1314156278</v>
       </c>
       <c r="H94">
-        <v>263374.9999999982</v>
+        <v>265727.2727272749</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2847,22 +2847,22 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D95">
-        <v>2380.124602609586</v>
+        <v>2381.316376855359</v>
       </c>
       <c r="E95">
-        <v>4171.791269276252</v>
+        <v>3502.528498067481</v>
       </c>
       <c r="F95">
-        <v>462920.6557609914</v>
+        <v>373156.3871864225</v>
       </c>
       <c r="G95">
-        <v>294503.9890943248</v>
+        <v>267762.4477924831</v>
       </c>
       <c r="H95">
-        <v>261583.3333333315</v>
+        <v>264606.0606060628</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2873,22 +2873,22 @@
         <v>95</v>
       </c>
       <c r="C96">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D96">
-        <v>2363.93327878231</v>
+        <v>2371.268628429809</v>
       </c>
       <c r="E96">
-        <v>4155.599945448977</v>
+        <v>3492.48074964193</v>
       </c>
       <c r="F96">
-        <v>467076.2557064404</v>
+        <v>376648.8679360644</v>
       </c>
       <c r="G96">
-        <v>296867.9223731071</v>
+        <v>270133.7164209129</v>
       </c>
       <c r="H96">
-        <v>259791.6666666649</v>
+        <v>263484.8484848507</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2899,22 +2899,22 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D97">
-        <v>2347.741954955034</v>
+        <v>2361.220880004259</v>
       </c>
       <c r="E97">
-        <v>4139.4086216217</v>
+        <v>3482.43300121638</v>
       </c>
       <c r="F97">
-        <v>471215.6643280621</v>
+        <v>380131.3009372808</v>
       </c>
       <c r="G97">
-        <v>299215.6643280621</v>
+        <v>272494.9373009172</v>
       </c>
       <c r="H97">
-        <v>257999.9999999982</v>
+        <v>262363.6363636386</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2925,22 +2925,22 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D98">
-        <v>2331.550631127758</v>
+        <v>2351.173131578709</v>
       </c>
       <c r="E98">
-        <v>4123.217297794425</v>
+        <v>3472.38525279083</v>
       </c>
       <c r="F98">
-        <v>475338.8816258565</v>
+        <v>383603.6861900716</v>
       </c>
       <c r="G98">
-        <v>301547.2149591899</v>
+        <v>274846.1104324959</v>
       </c>
       <c r="H98">
-        <v>256208.3333333316</v>
+        <v>261242.4242424264</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2951,22 +2951,22 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D99">
-        <v>2315.359307300481</v>
+        <v>2341.125383153159</v>
       </c>
       <c r="E99">
-        <v>4107.025973967148</v>
+        <v>3462.33750436528</v>
       </c>
       <c r="F99">
-        <v>479445.9075998237</v>
+        <v>387066.0236944369</v>
       </c>
       <c r="G99">
-        <v>303862.5742664904</v>
+        <v>277187.2358156491</v>
       </c>
       <c r="H99">
-        <v>254416.6666666649</v>
+        <v>260121.2121212143</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2977,22 +2977,22 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D100">
-        <v>2299.167983473205</v>
+        <v>2331.077634727608</v>
       </c>
       <c r="E100">
-        <v>4090.834650139872</v>
+        <v>3452.28975593973</v>
       </c>
       <c r="F100">
-        <v>483536.7422499635</v>
+        <v>390518.3134503767</v>
       </c>
       <c r="G100">
-        <v>306161.7422499636</v>
+        <v>279518.3134503767</v>
       </c>
       <c r="H100">
-        <v>252624.9999999983</v>
+        <v>259000.0000000022</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3003,22 +3003,22 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D101">
-        <v>2282.976659645929</v>
+        <v>2321.029886302058</v>
       </c>
       <c r="E101">
-        <v>4074.643326312596</v>
+        <v>3442.24200751418</v>
       </c>
       <c r="F101">
-        <v>487611.3855762761</v>
+        <v>393960.5554578908</v>
       </c>
       <c r="G101">
-        <v>308444.7189096095</v>
+        <v>281839.3433366788</v>
       </c>
       <c r="H101">
-        <v>250833.3333333316</v>
+        <v>257878.7878787901</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3029,22 +3029,22 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D102">
-        <v>2266.785335818653</v>
+        <v>2310.982137876508</v>
       </c>
       <c r="E102">
-        <v>4058.45200248532</v>
+        <v>3432.194259088629</v>
       </c>
       <c r="F102">
-        <v>491669.8375787614</v>
+        <v>397392.7497169795</v>
       </c>
       <c r="G102">
-        <v>310711.5042454281</v>
+        <v>284150.3254745553</v>
       </c>
       <c r="H102">
-        <v>249041.6666666649</v>
+        <v>256757.5757575779</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3055,22 +3055,22 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D103">
-        <v>2250.594011991378</v>
+        <v>2300.934389450958</v>
       </c>
       <c r="E103">
-        <v>4042.260678658045</v>
+        <v>3422.146510663079</v>
       </c>
       <c r="F103">
-        <v>495712.0982574195</v>
+        <v>400814.8962276425</v>
       </c>
       <c r="G103">
-        <v>312962.0982574195</v>
+        <v>286451.2598640062</v>
       </c>
       <c r="H103">
-        <v>247249.9999999983</v>
+        <v>255636.3636363658</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3081,22 +3081,22 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D104">
-        <v>2234.402688164102</v>
+        <v>2290.886641025408</v>
       </c>
       <c r="E104">
-        <v>4026.069354830768</v>
+        <v>3412.09876223753</v>
       </c>
       <c r="F104">
-        <v>499738.1676122503</v>
+        <v>404226.9949898801</v>
       </c>
       <c r="G104">
-        <v>315196.5009455836</v>
+        <v>288742.1465050316</v>
       </c>
       <c r="H104">
-        <v>245458.3333333316</v>
+        <v>254515.1515151537</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3107,22 +3107,22 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D105">
-        <v>2218.211364336826</v>
+        <v>2280.838892599858</v>
       </c>
       <c r="E105">
-        <v>4009.878031003493</v>
+        <v>3402.051013811979</v>
       </c>
       <c r="F105">
-        <v>503748.0456432537</v>
+        <v>407629.046003692</v>
       </c>
       <c r="G105">
-        <v>317414.7123099205</v>
+        <v>291022.9853976315</v>
       </c>
       <c r="H105">
-        <v>243666.666666665</v>
+        <v>253393.9393939415</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3133,22 +3133,22 @@
         <v>105</v>
       </c>
       <c r="C106">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D106">
-        <v>2202.02004050955</v>
+        <v>2270.791144174308</v>
       </c>
       <c r="E106">
-        <v>3993.686707176216</v>
+        <v>3392.003265386429</v>
       </c>
       <c r="F106">
-        <v>507741.7323504299</v>
+        <v>411021.0492690785</v>
       </c>
       <c r="G106">
-        <v>319616.73235043</v>
+        <v>293293.7765418058</v>
       </c>
       <c r="H106">
-        <v>241874.9999999983</v>
+        <v>252272.7272727294</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3159,22 +3159,22 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D107">
-        <v>2185.828716682273</v>
+        <v>2260.743395748758</v>
       </c>
       <c r="E107">
-        <v>3977.49538334894</v>
+        <v>3381.955516960879</v>
       </c>
       <c r="F107">
-        <v>511719.2277337789</v>
+        <v>414403.0047860394</v>
       </c>
       <c r="G107">
-        <v>321802.5610671123</v>
+        <v>295554.5199375545</v>
       </c>
       <c r="H107">
-        <v>240083.3333333317</v>
+        <v>251151.5151515173</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3185,22 +3185,22 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D108">
-        <v>2169.637392854997</v>
+        <v>2250.695647323208</v>
       </c>
       <c r="E108">
-        <v>3961.304059521664</v>
+        <v>3371.907768535329</v>
       </c>
       <c r="F108">
-        <v>515680.5317933005</v>
+        <v>417774.9125545747</v>
       </c>
       <c r="G108">
-        <v>323972.1984599673</v>
+        <v>297805.2155848778</v>
       </c>
       <c r="H108">
-        <v>238291.666666665</v>
+        <v>250030.3030303052</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3211,22 +3211,22 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D109">
-        <v>2153.446069027721</v>
+        <v>2240.647898897658</v>
       </c>
       <c r="E109">
-        <v>3945.112735694388</v>
+        <v>3361.860020109779</v>
       </c>
       <c r="F109">
-        <v>519625.6445289949</v>
+        <v>421136.7725746845</v>
       </c>
       <c r="G109">
-        <v>326125.644528995</v>
+        <v>300045.8634837754</v>
       </c>
       <c r="H109">
-        <v>236499.9999999983</v>
+        <v>248909.090909093</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3237,22 +3237,22 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D110">
-        <v>2137.254745200446</v>
+        <v>2230.600150472108</v>
       </c>
       <c r="E110">
-        <v>3928.921411867113</v>
+        <v>3351.812271684229</v>
       </c>
       <c r="F110">
-        <v>523554.5659408621</v>
+        <v>424488.5848463687</v>
       </c>
       <c r="G110">
-        <v>328262.8992741954</v>
+        <v>302276.4636342475</v>
       </c>
       <c r="H110">
-        <v>234708.3333333317</v>
+        <v>247787.8787878809</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3263,22 +3263,22 @@
         <v>110</v>
       </c>
       <c r="C111">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D111">
-        <v>2121.06342137317</v>
+        <v>2220.552402046557</v>
       </c>
       <c r="E111">
-        <v>3912.730088039836</v>
+        <v>3341.764523258678</v>
       </c>
       <c r="F111">
-        <v>527467.2960289019</v>
+        <v>427830.3493696274</v>
       </c>
       <c r="G111">
-        <v>330383.9626955686</v>
+        <v>304497.0160362941</v>
       </c>
       <c r="H111">
-        <v>232916.666666665</v>
+        <v>246666.6666666688</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3289,22 +3289,22 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D112">
-        <v>2104.872097545894</v>
+        <v>2210.504653621007</v>
       </c>
       <c r="E112">
-        <v>3896.538764212561</v>
+        <v>3331.716774833129</v>
       </c>
       <c r="F112">
-        <v>531363.8347931145</v>
+        <v>431162.0661444605</v>
       </c>
       <c r="G112">
-        <v>332488.8347931145</v>
+        <v>306707.5206899151</v>
       </c>
       <c r="H112">
-        <v>231124.9999999984</v>
+        <v>245545.4545454567</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3315,22 +3315,22 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D113">
-        <v>2088.680773718618</v>
+        <v>2200.456905195457</v>
       </c>
       <c r="E113">
-        <v>3880.347440385284</v>
+        <v>3321.669026407579</v>
       </c>
       <c r="F113">
-        <v>535244.1822334997</v>
+        <v>434483.7351708681</v>
       </c>
       <c r="G113">
-        <v>334577.5155668331</v>
+        <v>308907.9775951105</v>
       </c>
       <c r="H113">
-        <v>229333.3333333317</v>
+        <v>244424.2424242445</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3341,22 +3341,22 @@
         <v>113</v>
       </c>
       <c r="C114">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D114">
-        <v>2072.489449891341</v>
+        <v>2190.409156769907</v>
       </c>
       <c r="E114">
-        <v>3864.156116558008</v>
+        <v>3311.621277982028</v>
       </c>
       <c r="F114">
-        <v>539108.3383500577</v>
+        <v>437795.3564488501</v>
       </c>
       <c r="G114">
-        <v>336650.0050167245</v>
+        <v>311098.3867518805</v>
       </c>
       <c r="H114">
-        <v>227541.6666666651</v>
+        <v>243303.0303030324</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3367,22 +3367,22 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D115">
-        <v>2056.298126064065</v>
+        <v>2180.361408344357</v>
       </c>
       <c r="E115">
-        <v>3847.964792730732</v>
+        <v>3301.573529556478</v>
       </c>
       <c r="F115">
-        <v>542956.3031427885</v>
+        <v>441096.9299784066</v>
       </c>
       <c r="G115">
-        <v>338706.3031427885</v>
+        <v>313278.7481602248</v>
       </c>
       <c r="H115">
-        <v>225749.9999999984</v>
+        <v>242181.8181818203</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3393,22 +3393,22 @@
         <v>115</v>
       </c>
       <c r="C116">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D116">
-        <v>2040.106802236789</v>
+        <v>2170.313659918807</v>
       </c>
       <c r="E116">
-        <v>3831.773468903456</v>
+        <v>3291.525781130928</v>
       </c>
       <c r="F116">
-        <v>546788.076611692</v>
+        <v>444388.4557595375</v>
       </c>
       <c r="G116">
-        <v>340746.4099450253</v>
+        <v>315449.0618201436</v>
       </c>
       <c r="H116">
-        <v>223958.3333333317</v>
+        <v>241060.6060606081</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3419,22 +3419,22 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D117">
-        <v>2023.915478409514</v>
+        <v>2160.265911493257</v>
       </c>
       <c r="E117">
-        <v>3815.58214507618</v>
+        <v>3281.478032705378</v>
       </c>
       <c r="F117">
-        <v>550603.6587567681</v>
+        <v>447669.9337922429</v>
       </c>
       <c r="G117">
-        <v>342770.3254234348</v>
+        <v>317609.3277316369</v>
       </c>
       <c r="H117">
-        <v>222166.6666666651</v>
+        <v>239939.393939396</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3445,22 +3445,22 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D118">
-        <v>2007.724154582238</v>
+        <v>2150.218163067707</v>
       </c>
       <c r="E118">
-        <v>3799.390821248904</v>
+        <v>3271.430284279828</v>
       </c>
       <c r="F118">
-        <v>554403.049578017</v>
+        <v>450941.3640765227</v>
       </c>
       <c r="G118">
-        <v>344778.0495780171</v>
+        <v>319759.5458947046</v>
       </c>
       <c r="H118">
-        <v>220374.9999999984</v>
+        <v>238818.1818181839</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3471,22 +3471,22 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D119">
-        <v>1991.532830754961</v>
+        <v>2140.170414642157</v>
       </c>
       <c r="E119">
-        <v>3783.199497421628</v>
+        <v>3261.382535854278</v>
       </c>
       <c r="F119">
-        <v>558186.2490754386</v>
+        <v>454202.746612377</v>
       </c>
       <c r="G119">
-        <v>346769.582408772</v>
+        <v>321899.7163093467</v>
       </c>
       <c r="H119">
-        <v>218583.3333333318</v>
+        <v>237696.9696969718</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3497,22 +3497,22 @@
         <v>119</v>
       </c>
       <c r="C120">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D120">
-        <v>1975.341506927685</v>
+        <v>2130.122666216606</v>
       </c>
       <c r="E120">
-        <v>3767.008173594352</v>
+        <v>3251.334787428727</v>
       </c>
       <c r="F120">
-        <v>561953.257249033</v>
+        <v>457454.0813998057</v>
       </c>
       <c r="G120">
-        <v>348744.9239156997</v>
+        <v>324029.8389755634</v>
       </c>
       <c r="H120">
-        <v>216791.6666666651</v>
+        <v>236575.7575757596</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3523,22 +3523,22 @@
         <v>120</v>
       </c>
       <c r="C121">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D121">
-        <v>1959.15018310041</v>
+        <v>2120.074917791057</v>
       </c>
       <c r="E121">
-        <v>3750.816849767076</v>
+        <v>3241.287039003178</v>
       </c>
       <c r="F121">
-        <v>565704.0740988001</v>
+        <v>460695.3684388089</v>
       </c>
       <c r="G121">
-        <v>350704.0740988001</v>
+        <v>326149.9138933544</v>
       </c>
       <c r="H121">
-        <v>214999.9999999985</v>
+        <v>235454.5454545475</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3549,22 +3549,22 @@
         <v>121</v>
       </c>
       <c r="C122">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D122">
-        <v>1942.958859273134</v>
+        <v>2110.027169365506</v>
       </c>
       <c r="E122">
-        <v>3734.6255259398</v>
+        <v>3231.239290577628</v>
       </c>
       <c r="F122">
-        <v>569438.6996247398</v>
+        <v>463926.6077293865</v>
       </c>
       <c r="G122">
-        <v>352647.0329580733</v>
+        <v>328259.9410627199</v>
       </c>
       <c r="H122">
-        <v>213208.3333333318</v>
+        <v>234333.3333333354</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3575,22 +3575,22 @@
         <v>122</v>
       </c>
       <c r="C123">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D123">
-        <v>1926.767535445857</v>
+        <v>2099.979420939956</v>
       </c>
       <c r="E123">
-        <v>3718.434202112524</v>
+        <v>3221.191542152077</v>
       </c>
       <c r="F123">
-        <v>573157.1338268523</v>
+        <v>467147.7992715386</v>
       </c>
       <c r="G123">
-        <v>354573.8004935191</v>
+        <v>330359.9204836599</v>
       </c>
       <c r="H123">
-        <v>211416.6666666651</v>
+        <v>233212.1212121233</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3601,22 +3601,22 @@
         <v>123</v>
       </c>
       <c r="C124">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D124">
-        <v>1910.576211618582</v>
+        <v>2089.931672514406</v>
       </c>
       <c r="E124">
-        <v>3702.242878285248</v>
+        <v>3211.143793726527</v>
       </c>
       <c r="F124">
-        <v>576859.3767051375</v>
+        <v>470358.9430652651</v>
       </c>
       <c r="G124">
-        <v>356484.3767051377</v>
+        <v>332449.8521561743</v>
       </c>
       <c r="H124">
-        <v>209624.9999999985</v>
+        <v>232090.9090909111</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3627,22 +3627,22 @@
         <v>124</v>
       </c>
       <c r="C125">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D125">
-        <v>1894.384887791306</v>
+        <v>2079.883924088856</v>
       </c>
       <c r="E125">
-        <v>3686.051554457972</v>
+        <v>3201.096045300977</v>
       </c>
       <c r="F125">
-        <v>580545.4282595955</v>
+        <v>473560.0391105661</v>
       </c>
       <c r="G125">
-        <v>358378.761592929</v>
+        <v>334529.7360802632</v>
       </c>
       <c r="H125">
-        <v>207833.3333333318</v>
+        <v>230969.696969699</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3653,22 +3653,22 @@
         <v>125</v>
       </c>
       <c r="C126">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D126">
-        <v>1878.193563964029</v>
+        <v>2069.836175663306</v>
       </c>
       <c r="E126">
-        <v>3669.860230630696</v>
+        <v>3191.048296875427</v>
       </c>
       <c r="F126">
-        <v>584215.2884902263</v>
+        <v>476751.0874074416</v>
       </c>
       <c r="G126">
-        <v>360256.9551568931</v>
+        <v>336599.5722559264</v>
       </c>
       <c r="H126">
-        <v>206041.6666666652</v>
+        <v>229848.4848484869</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3679,22 +3679,22 @@
         <v>126</v>
       </c>
       <c r="C127">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D127">
-        <v>1862.002240136753</v>
+        <v>2059.788427237756</v>
       </c>
       <c r="E127">
-        <v>3653.66890680342</v>
+        <v>3181.000548449877</v>
       </c>
       <c r="F127">
-        <v>587868.9573970297</v>
+        <v>479932.0879558914</v>
       </c>
       <c r="G127">
-        <v>362118.9573970298</v>
+        <v>338659.3606831642</v>
       </c>
       <c r="H127">
-        <v>204249.9999999985</v>
+        <v>228727.2727272747</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3705,22 +3705,22 @@
         <v>127</v>
       </c>
       <c r="C128">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D128">
-        <v>1845.810916309478</v>
+        <v>2049.740678812206</v>
       </c>
       <c r="E128">
-        <v>3637.477582976144</v>
+        <v>3170.952800024327</v>
       </c>
       <c r="F128">
-        <v>591506.4349800058</v>
+        <v>483103.0407559157</v>
       </c>
       <c r="G128">
-        <v>363964.7683133393</v>
+        <v>340709.1013619764</v>
       </c>
       <c r="H128">
-        <v>202458.3333333319</v>
+        <v>227606.0606060626</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3731,22 +3731,22 @@
         <v>128</v>
       </c>
       <c r="C129">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D129">
-        <v>1829.619592482202</v>
+        <v>2039.692930386656</v>
       </c>
       <c r="E129">
-        <v>3621.286259148868</v>
+        <v>3160.905051598777</v>
       </c>
       <c r="F129">
-        <v>595127.7212391547</v>
+        <v>486263.9458075145</v>
       </c>
       <c r="G129">
-        <v>365794.3879058215</v>
+        <v>342748.794292363</v>
       </c>
       <c r="H129">
-        <v>200666.6666666652</v>
+        <v>226484.8484848505</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3757,22 +3757,22 @@
         <v>129</v>
       </c>
       <c r="C130">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D130">
-        <v>1813.428268654925</v>
+        <v>2029.645181961105</v>
       </c>
       <c r="E130">
-        <v>3605.094935321592</v>
+        <v>3150.857303173227</v>
       </c>
       <c r="F130">
-        <v>598732.8161744763</v>
+        <v>489414.8031106878</v>
       </c>
       <c r="G130">
-        <v>367607.8161744764</v>
+        <v>344778.4394743242</v>
       </c>
       <c r="H130">
-        <v>198874.9999999985</v>
+        <v>225363.6363636384</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3783,22 +3783,22 @@
         <v>130</v>
       </c>
       <c r="C131">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D131">
-        <v>1797.236944827649</v>
+        <v>2019.597433535555</v>
       </c>
       <c r="E131">
-        <v>3588.903611494316</v>
+        <v>3140.809554747677</v>
       </c>
       <c r="F131">
-        <v>602321.7197859706</v>
+        <v>492555.6126654354</v>
       </c>
       <c r="G131">
-        <v>369405.0531193041</v>
+        <v>346798.0369078597</v>
       </c>
       <c r="H131">
-        <v>197083.3333333319</v>
+        <v>224242.4242424262</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3809,22 +3809,22 @@
         <v>131</v>
       </c>
       <c r="C132">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D132">
-        <v>1781.045621000374</v>
+        <v>2009.549685110005</v>
       </c>
       <c r="E132">
-        <v>3572.71228766704</v>
+        <v>3130.761806322127</v>
       </c>
       <c r="F132">
-        <v>605894.4320736377</v>
+        <v>495686.3744717576</v>
       </c>
       <c r="G132">
-        <v>371186.0987403044</v>
+        <v>348807.5865929697</v>
       </c>
       <c r="H132">
-        <v>195291.6666666652</v>
+        <v>223121.2121212141</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3835,22 +3835,22 @@
         <v>132</v>
       </c>
       <c r="C133">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D133">
-        <v>1764.854297173097</v>
+        <v>1999.501936684455</v>
       </c>
       <c r="E133">
-        <v>3556.520963839764</v>
+        <v>3120.714057896576</v>
       </c>
       <c r="F133">
-        <v>609450.9530374774</v>
+        <v>498807.0885296541</v>
       </c>
       <c r="G133">
-        <v>372950.9530374775</v>
+        <v>350807.0885296542</v>
       </c>
       <c r="H133">
-        <v>193499.9999999986</v>
+        <v>222000.000000002</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3861,22 +3861,22 @@
         <v>133</v>
       </c>
       <c r="C134">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D134">
-        <v>1748.662973345821</v>
+        <v>1989.454188258905</v>
       </c>
       <c r="E134">
-        <v>3540.329640012488</v>
+        <v>3110.666309471027</v>
       </c>
       <c r="F134">
-        <v>612991.2826774899</v>
+        <v>501917.7548391251</v>
       </c>
       <c r="G134">
-        <v>374699.6160108233</v>
+        <v>352796.5427179131</v>
       </c>
       <c r="H134">
-        <v>191708.3333333319</v>
+        <v>220878.7878787899</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3887,22 +3887,22 @@
         <v>134</v>
       </c>
       <c r="C135">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D135">
-        <v>1732.471649518546</v>
+        <v>1979.406439833355</v>
       </c>
       <c r="E135">
-        <v>3524.138316185212</v>
+        <v>3100.618561045476</v>
       </c>
       <c r="F135">
-        <v>616515.4209936751</v>
+        <v>505018.3734001706</v>
       </c>
       <c r="G135">
-        <v>376432.0876603419</v>
+        <v>354775.9491577465</v>
       </c>
       <c r="H135">
-        <v>189916.6666666653</v>
+        <v>219757.5757575777</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3913,22 +3913,22 @@
         <v>135</v>
       </c>
       <c r="C136">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D136">
-        <v>1716.28032569127</v>
+        <v>1969.358691407805</v>
       </c>
       <c r="E136">
-        <v>3507.946992357936</v>
+        <v>3090.570812619926</v>
       </c>
       <c r="F136">
-        <v>620023.3679860331</v>
+        <v>508108.9442127906</v>
       </c>
       <c r="G136">
-        <v>378148.3679860331</v>
+        <v>356745.3078491543</v>
       </c>
       <c r="H136">
-        <v>188124.9999999986</v>
+        <v>218636.3636363656</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3939,22 +3939,22 @@
         <v>136</v>
       </c>
       <c r="C137">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D137">
-        <v>1700.089001863993</v>
+        <v>1959.310942982255</v>
       </c>
       <c r="E137">
-        <v>3491.75566853066</v>
+        <v>3080.523064194376</v>
       </c>
       <c r="F137">
-        <v>623515.1236545638</v>
+        <v>511189.4672769849</v>
       </c>
       <c r="G137">
-        <v>379848.4569878972</v>
+        <v>358704.6187921365</v>
       </c>
       <c r="H137">
-        <v>186333.3333333319</v>
+        <v>217515.1515151535</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3965,22 +3965,22 @@
         <v>137</v>
       </c>
       <c r="C138">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D138">
-        <v>1683.897678036717</v>
+        <v>1949.263194556705</v>
       </c>
       <c r="E138">
-        <v>3475.564344703384</v>
+        <v>3070.475315768826</v>
       </c>
       <c r="F138">
-        <v>626990.6879992671</v>
+        <v>514259.9425927538</v>
       </c>
       <c r="G138">
-        <v>381532.3546659339</v>
+        <v>360653.8819866932</v>
       </c>
       <c r="H138">
-        <v>184541.6666666653</v>
+        <v>216393.9393939413</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -3991,22 +3991,22 @@
         <v>138</v>
       </c>
       <c r="C139">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D139">
-        <v>1667.706354209442</v>
+        <v>1939.215446131155</v>
       </c>
       <c r="E139">
-        <v>3459.373020876108</v>
+        <v>3060.427567343276</v>
       </c>
       <c r="F139">
-        <v>630450.0610201432</v>
+        <v>517320.3701600971</v>
       </c>
       <c r="G139">
-        <v>383200.0610201433</v>
+        <v>362593.0974328244</v>
       </c>
       <c r="H139">
-        <v>182749.9999999986</v>
+        <v>215272.7272727292</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4017,22 +4017,22 @@
         <v>139</v>
       </c>
       <c r="C140">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D140">
-        <v>1651.515030382165</v>
+        <v>1929.167697705604</v>
       </c>
       <c r="E140">
-        <v>3443.181697048832</v>
+        <v>3050.379818917726</v>
       </c>
       <c r="F140">
-        <v>633893.242717192</v>
+        <v>520370.7499790148</v>
       </c>
       <c r="G140">
-        <v>384851.5760505255</v>
+        <v>364522.26513053</v>
       </c>
       <c r="H140">
-        <v>180958.333333332</v>
+        <v>214151.5151515171</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4043,22 +4043,22 @@
         <v>140</v>
       </c>
       <c r="C141">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D141">
-        <v>1635.323706554889</v>
+        <v>1919.119949280054</v>
       </c>
       <c r="E141">
-        <v>3426.990373221556</v>
+        <v>3040.332070492176</v>
       </c>
       <c r="F141">
-        <v>637320.2330904136</v>
+        <v>523411.0820495069</v>
       </c>
       <c r="G141">
-        <v>386486.8997570804</v>
+        <v>366441.38507981</v>
       </c>
       <c r="H141">
-        <v>179166.6666666653</v>
+        <v>213030.303030305</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4069,22 +4069,22 @@
         <v>141</v>
       </c>
       <c r="C142">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D142">
-        <v>1619.132382727614</v>
+        <v>1909.072200854504</v>
       </c>
       <c r="E142">
-        <v>3410.79904939428</v>
+        <v>3030.284322066625</v>
       </c>
       <c r="F142">
-        <v>640731.0321398079</v>
+        <v>526441.3663715735</v>
       </c>
       <c r="G142">
-        <v>388106.032139808</v>
+        <v>368350.4572806645</v>
       </c>
       <c r="H142">
-        <v>177374.9999999987</v>
+        <v>211909.0909090928</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4095,22 +4095,22 @@
         <v>142</v>
       </c>
       <c r="C143">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D143">
-        <v>1602.941058900338</v>
+        <v>1899.024452428954</v>
       </c>
       <c r="E143">
-        <v>3394.607725567004</v>
+        <v>3020.236573641076</v>
       </c>
       <c r="F143">
-        <v>644125.6398653749</v>
+        <v>529461.6029452146</v>
       </c>
       <c r="G143">
-        <v>389708.9731987083</v>
+        <v>370249.4817330935</v>
       </c>
       <c r="H143">
-        <v>175583.333333332</v>
+        <v>210787.8787878807</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4121,22 +4121,22 @@
         <v>143</v>
       </c>
       <c r="C144">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D144">
-        <v>1586.749735073061</v>
+        <v>1888.976704003404</v>
       </c>
       <c r="E144">
-        <v>3378.416401739728</v>
+        <v>3010.188825215525</v>
       </c>
       <c r="F144">
-        <v>647504.0562671146</v>
+        <v>532471.7917704302</v>
       </c>
       <c r="G144">
-        <v>391295.7229337814</v>
+        <v>372138.4584370969</v>
       </c>
       <c r="H144">
-        <v>173791.6666666653</v>
+        <v>209666.6666666686</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4147,22 +4147,22 @@
         <v>144</v>
       </c>
       <c r="C145">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D145">
-        <v>1570.558411245785</v>
+        <v>1878.928955577854</v>
       </c>
       <c r="E145">
-        <v>3362.225077912452</v>
+        <v>3000.141076789975</v>
       </c>
       <c r="F145">
-        <v>650866.281345027</v>
+        <v>535471.9328472201</v>
       </c>
       <c r="G145">
-        <v>392866.2813450271</v>
+        <v>374017.3873926747</v>
       </c>
       <c r="H145">
-        <v>171999.9999999987</v>
+        <v>208545.4545454565</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4173,22 +4173,22 @@
         <v>145</v>
       </c>
       <c r="C146">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D146">
-        <v>1554.36708741851</v>
+        <v>1868.881207152304</v>
       </c>
       <c r="E146">
-        <v>3346.033754085176</v>
+        <v>2990.093328364425</v>
       </c>
       <c r="F146">
-        <v>654212.3150991122</v>
+        <v>538462.0261755845</v>
       </c>
       <c r="G146">
-        <v>394420.6484324457</v>
+        <v>375886.2685998271</v>
       </c>
       <c r="H146">
-        <v>170208.333333332</v>
+        <v>207424.2424242443</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4199,22 +4199,22 @@
         <v>146</v>
       </c>
       <c r="C147">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D147">
-        <v>1538.175763591234</v>
+        <v>1858.833458726754</v>
       </c>
       <c r="E147">
-        <v>3329.842430257901</v>
+        <v>2980.045579938875</v>
       </c>
       <c r="F147">
-        <v>657542.1575293702</v>
+        <v>541442.0717555234</v>
       </c>
       <c r="G147">
-        <v>395958.8241960369</v>
+        <v>377745.1020585538</v>
       </c>
       <c r="H147">
-        <v>168416.6666666654</v>
+        <v>206303.0303030322</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4225,22 +4225,22 @@
         <v>147</v>
       </c>
       <c r="C148">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D148">
-        <v>1521.984439763957</v>
+        <v>1848.785710301204</v>
       </c>
       <c r="E148">
-        <v>3313.651106430624</v>
+        <v>2969.997831513325</v>
       </c>
       <c r="F148">
-        <v>660855.8086358007</v>
+        <v>544412.0695870367</v>
       </c>
       <c r="G148">
-        <v>397480.8086358008</v>
+        <v>379593.887768855</v>
       </c>
       <c r="H148">
-        <v>166624.9999999987</v>
+        <v>205181.8181818201</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4251,22 +4251,22 @@
         <v>148</v>
       </c>
       <c r="C149">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D149">
-        <v>1505.793115936681</v>
+        <v>1838.737961875654</v>
       </c>
       <c r="E149">
-        <v>3297.459782603348</v>
+        <v>2959.950083087775</v>
       </c>
       <c r="F149">
-        <v>664153.268418404</v>
+        <v>547372.0196701245</v>
       </c>
       <c r="G149">
-        <v>398986.6017517375</v>
+        <v>381432.6257307307</v>
       </c>
       <c r="H149">
-        <v>164833.3333333321</v>
+        <v>204060.6060606079</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4277,22 +4277,22 @@
         <v>149</v>
       </c>
       <c r="C150">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D150">
-        <v>1489.601792109405</v>
+        <v>1828.690213450104</v>
       </c>
       <c r="E150">
-        <v>3281.268458776072</v>
+        <v>2949.902334662225</v>
       </c>
       <c r="F150">
-        <v>667434.5368771801</v>
+        <v>550321.9220047868</v>
       </c>
       <c r="G150">
-        <v>400476.203543847</v>
+        <v>383261.3159441808</v>
       </c>
       <c r="H150">
-        <v>163041.6666666654</v>
+        <v>202939.3939393958</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4303,22 +4303,22 @@
         <v>150</v>
       </c>
       <c r="C151">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D151">
-        <v>1473.410468282129</v>
+        <v>1818.642465024553</v>
       </c>
       <c r="E151">
-        <v>3265.077134948796</v>
+        <v>2939.854586236675</v>
       </c>
       <c r="F151">
-        <v>670699.6140121289</v>
+        <v>553261.7765910234</v>
       </c>
       <c r="G151">
-        <v>401949.6140121291</v>
+        <v>385079.9584092054</v>
       </c>
       <c r="H151">
-        <v>161249.9999999987</v>
+        <v>201818.1818181837</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4329,22 +4329,22 @@
         <v>151</v>
       </c>
       <c r="C152">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D152">
-        <v>1457.219144454853</v>
+        <v>1808.594716599003</v>
       </c>
       <c r="E152">
-        <v>3248.88581112152</v>
+        <v>2929.806837811125</v>
       </c>
       <c r="F152">
-        <v>673948.4998232505</v>
+        <v>556191.5834288346</v>
       </c>
       <c r="G152">
-        <v>403406.8331565839</v>
+        <v>386888.5531258043</v>
       </c>
       <c r="H152">
-        <v>159458.3333333321</v>
+        <v>200696.9696969716</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4355,22 +4355,22 @@
         <v>152</v>
       </c>
       <c r="C153">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D153">
-        <v>1441.027820627576</v>
+        <v>1798.546968173453</v>
       </c>
       <c r="E153">
-        <v>3232.694487294243</v>
+        <v>2919.759089385574</v>
       </c>
       <c r="F153">
-        <v>677181.1943105448</v>
+        <v>559111.3425182202</v>
       </c>
       <c r="G153">
-        <v>404847.8609772115</v>
+        <v>388687.1000939778</v>
       </c>
       <c r="H153">
-        <v>157666.6666666654</v>
+        <v>199575.7575757594</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4381,22 +4381,22 @@
         <v>153</v>
       </c>
       <c r="C154">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D154">
-        <v>1424.8364968003</v>
+        <v>1788.499219747903</v>
       </c>
       <c r="E154">
-        <v>3216.503163466967</v>
+        <v>2909.711340960024</v>
       </c>
       <c r="F154">
-        <v>680397.6974740117</v>
+        <v>562021.0538591802</v>
       </c>
       <c r="G154">
-        <v>406272.6974740118</v>
+        <v>390475.5993137257</v>
       </c>
       <c r="H154">
-        <v>155874.9999999988</v>
+        <v>198454.5454545473</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4407,22 +4407,22 @@
         <v>154</v>
       </c>
       <c r="C155">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D155">
-        <v>1408.645172973024</v>
+        <v>1778.451471322353</v>
       </c>
       <c r="E155">
-        <v>3200.31183963969</v>
+        <v>2899.663592534474</v>
       </c>
       <c r="F155">
-        <v>683598.0093136514</v>
+        <v>564920.7174517147</v>
       </c>
       <c r="G155">
-        <v>407681.3426469848</v>
+        <v>392254.050785048</v>
       </c>
       <c r="H155">
-        <v>154083.3333333321</v>
+        <v>197333.3333333352</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4433,22 +4433,22 @@
         <v>155</v>
       </c>
       <c r="C156">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D156">
-        <v>1392.453849145748</v>
+        <v>1768.403722896803</v>
       </c>
       <c r="E156">
-        <v>3184.120515812414</v>
+        <v>2889.615844108924</v>
       </c>
       <c r="F156">
-        <v>686782.1298294638</v>
+        <v>567810.3332958237</v>
       </c>
       <c r="G156">
-        <v>409073.7964961306</v>
+        <v>394022.4545079449</v>
       </c>
       <c r="H156">
-        <v>152291.6666666655</v>
+        <v>196212.121212123</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4459,22 +4459,22 @@
         <v>156</v>
       </c>
       <c r="C157">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D157">
-        <v>1376.262525318471</v>
+        <v>1758.355974471253</v>
       </c>
       <c r="E157">
-        <v>3167.929191985138</v>
+        <v>2879.568095683374</v>
       </c>
       <c r="F157">
-        <v>689950.0590214489</v>
+        <v>570689.901391507</v>
       </c>
       <c r="G157">
-        <v>410450.0590214491</v>
+        <v>395780.8104824161</v>
       </c>
       <c r="H157">
-        <v>150499.9999999988</v>
+        <v>195090.9090909109</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4485,22 +4485,22 @@
         <v>157</v>
       </c>
       <c r="C158">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D158">
-        <v>1360.071201491195</v>
+        <v>1748.308226045703</v>
       </c>
       <c r="E158">
-        <v>3151.737868157862</v>
+        <v>2869.520347257824</v>
       </c>
       <c r="F158">
-        <v>693101.7968896069</v>
+        <v>573559.4217387649</v>
       </c>
       <c r="G158">
-        <v>411810.1302229402</v>
+        <v>397529.1187084618</v>
       </c>
       <c r="H158">
-        <v>148708.3333333321</v>
+        <v>193969.6969696988</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4511,22 +4511,22 @@
         <v>158</v>
       </c>
       <c r="C159">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D159">
-        <v>1343.879877663919</v>
+        <v>1738.260477620153</v>
       </c>
       <c r="E159">
-        <v>3135.546544330586</v>
+        <v>2859.472598832274</v>
       </c>
       <c r="F159">
-        <v>696237.3434339374</v>
+        <v>576418.8943375971</v>
       </c>
       <c r="G159">
-        <v>413154.0101006042</v>
+        <v>399267.379186082</v>
       </c>
       <c r="H159">
-        <v>146916.6666666655</v>
+        <v>192848.4848484867</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4537,22 +4537,22 @@
         <v>159</v>
       </c>
       <c r="C160">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D160">
-        <v>1327.688553836643</v>
+        <v>1728.212729194603</v>
       </c>
       <c r="E160">
-        <v>3119.355220503309</v>
+        <v>2849.424850406724</v>
       </c>
       <c r="F160">
-        <v>699356.6986544407</v>
+        <v>579268.3191880038</v>
       </c>
       <c r="G160">
-        <v>414481.6986544408</v>
+        <v>400995.5919152766</v>
       </c>
       <c r="H160">
-        <v>145124.9999999988</v>
+        <v>191727.2727272745</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4563,22 +4563,22 @@
         <v>160</v>
       </c>
       <c r="C161">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D161">
-        <v>1311.497230009366</v>
+        <v>1718.164980769052</v>
       </c>
       <c r="E161">
-        <v>3103.163896676033</v>
+        <v>2839.377101981174</v>
       </c>
       <c r="F161">
-        <v>702459.8625511167</v>
+        <v>582107.696289985</v>
       </c>
       <c r="G161">
-        <v>415793.1958844502</v>
+        <v>402713.7568960456</v>
       </c>
       <c r="H161">
-        <v>143333.3333333322</v>
+        <v>190606.0606060624</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4589,22 +4589,22 @@
         <v>161</v>
       </c>
       <c r="C162">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D162">
-        <v>1295.30590618209</v>
+        <v>1708.117232343502</v>
       </c>
       <c r="E162">
-        <v>3086.972572848756</v>
+        <v>2829.329353555624</v>
       </c>
       <c r="F162">
-        <v>705546.8351239655</v>
+        <v>584937.0256435405</v>
       </c>
       <c r="G162">
-        <v>417088.5017906323</v>
+        <v>404421.8741283892</v>
       </c>
       <c r="H162">
-        <v>141541.6666666655</v>
+        <v>189484.8484848503</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4615,22 +4615,22 @@
         <v>162</v>
       </c>
       <c r="C163">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D163">
-        <v>1279.114582354814</v>
+        <v>1698.069483917952</v>
       </c>
       <c r="E163">
-        <v>3070.781249021481</v>
+        <v>2819.281605130073</v>
       </c>
       <c r="F163">
-        <v>708617.616372987</v>
+        <v>587756.3072486706</v>
       </c>
       <c r="G163">
-        <v>418367.616372987</v>
+        <v>406119.9436123071</v>
       </c>
       <c r="H163">
-        <v>139749.9999999989</v>
+        <v>188363.6363636382</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4641,22 +4641,22 @@
         <v>163</v>
       </c>
       <c r="C164">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D164">
-        <v>1262.923258527537</v>
+        <v>1688.021735492402</v>
       </c>
       <c r="E164">
-        <v>3054.589925194204</v>
+        <v>2809.233856704524</v>
       </c>
       <c r="F164">
-        <v>711672.2062981812</v>
+        <v>590565.5411053752</v>
       </c>
       <c r="G164">
-        <v>419630.5396315146</v>
+        <v>407807.9653477995</v>
       </c>
       <c r="H164">
-        <v>137958.3333333322</v>
+        <v>187242.424242426</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4667,22 +4667,22 @@
         <v>164</v>
       </c>
       <c r="C165">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D165">
-        <v>1246.731934700261</v>
+        <v>1677.973987066852</v>
       </c>
       <c r="E165">
-        <v>3038.398601366928</v>
+        <v>2799.186108278973</v>
       </c>
       <c r="F165">
-        <v>714710.6048995481</v>
+        <v>593364.7272136541</v>
       </c>
       <c r="G165">
-        <v>420877.2715662149</v>
+        <v>409485.9393348664</v>
       </c>
       <c r="H165">
-        <v>136166.6666666656</v>
+        <v>186121.2121212139</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4693,22 +4693,22 @@
         <v>165</v>
       </c>
       <c r="C166">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D166">
-        <v>1230.540610872985</v>
+        <v>1667.926238641302</v>
       </c>
       <c r="E166">
-        <v>3022.207277539652</v>
+        <v>2789.138359853423</v>
       </c>
       <c r="F166">
-        <v>717732.8121770878</v>
+        <v>596153.8655735075</v>
       </c>
       <c r="G166">
-        <v>422107.8121770878</v>
+        <v>411153.8655735077</v>
       </c>
       <c r="H166">
-        <v>134374.9999999989</v>
+        <v>185000.0000000018</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4719,22 +4719,22 @@
         <v>166</v>
       </c>
       <c r="C167">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D167">
-        <v>1214.349287045709</v>
+        <v>1657.878490215752</v>
       </c>
       <c r="E167">
-        <v>3006.015953712375</v>
+        <v>2779.090611427873</v>
       </c>
       <c r="F167">
-        <v>720738.8281308002</v>
+        <v>598932.9561849354</v>
       </c>
       <c r="G167">
-        <v>423322.1614641335</v>
+        <v>412811.7440637234</v>
       </c>
       <c r="H167">
-        <v>132583.3333333322</v>
+        <v>183878.7878787896</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4745,22 +4745,22 @@
         <v>167</v>
       </c>
       <c r="C168">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D168">
-        <v>1198.157963218433</v>
+        <v>1647.830741790202</v>
       </c>
       <c r="E168">
-        <v>2989.824629885099</v>
+        <v>2769.042863002323</v>
       </c>
       <c r="F168">
-        <v>723728.6527606853</v>
+        <v>601701.9990479377</v>
       </c>
       <c r="G168">
-        <v>424520.319427352</v>
+        <v>414459.5748055136</v>
       </c>
       <c r="H168">
-        <v>130791.6666666656</v>
+        <v>182757.5757575775</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4771,22 +4771,22 @@
         <v>168</v>
       </c>
       <c r="C169">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D169">
-        <v>1181.966639391156</v>
+        <v>1637.782993364652</v>
       </c>
       <c r="E169">
-        <v>2973.633306057823</v>
+        <v>2758.995114576773</v>
       </c>
       <c r="F169">
-        <v>726702.2860667431</v>
+        <v>604460.9941625145</v>
       </c>
       <c r="G169">
-        <v>425702.2860667431</v>
+        <v>416097.3577988783</v>
       </c>
       <c r="H169">
-        <v>128999.9999999989</v>
+        <v>181636.3636363654</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4797,22 +4797,22 @@
         <v>169</v>
       </c>
       <c r="C170">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D170">
-        <v>1165.77531556388</v>
+        <v>1627.735244939101</v>
       </c>
       <c r="E170">
-        <v>2957.441982230547</v>
+        <v>2748.947366151223</v>
       </c>
       <c r="F170">
-        <v>729659.7280489736</v>
+        <v>607209.9415286657</v>
       </c>
       <c r="G170">
-        <v>426868.061382307</v>
+        <v>417725.0930438174</v>
       </c>
       <c r="H170">
-        <v>127208.3333333322</v>
+        <v>180515.1515151533</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4823,22 +4823,22 @@
         <v>170</v>
       </c>
       <c r="C171">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D171">
-        <v>1149.583991736604</v>
+        <v>1617.687496513551</v>
       </c>
       <c r="E171">
-        <v>2941.25065840327</v>
+        <v>2738.899617725673</v>
       </c>
       <c r="F171">
-        <v>732600.9787073769</v>
+        <v>609948.8411463914</v>
       </c>
       <c r="G171">
-        <v>428017.6453740436</v>
+        <v>419342.7805403309</v>
       </c>
       <c r="H171">
-        <v>125416.6666666656</v>
+        <v>179393.9393939411</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4849,22 +4849,22 @@
         <v>171</v>
       </c>
       <c r="C172">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D172">
-        <v>1133.392667909327</v>
+        <v>1607.639748088001</v>
       </c>
       <c r="E172">
-        <v>2925.059334575994</v>
+        <v>2728.851869300122</v>
       </c>
       <c r="F172">
-        <v>735526.0380419529</v>
+        <v>612677.6930156915</v>
       </c>
       <c r="G172">
-        <v>429151.0380419529</v>
+        <v>420950.4202884189</v>
       </c>
       <c r="H172">
-        <v>123624.9999999989</v>
+        <v>178272.727272729</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4875,22 +4875,22 @@
         <v>172</v>
       </c>
       <c r="C173">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D173">
-        <v>1117.201344082051</v>
+        <v>1597.591999662451</v>
       </c>
       <c r="E173">
-        <v>2908.868010748718</v>
+        <v>2718.804120874573</v>
       </c>
       <c r="F173">
-        <v>738434.9060527016</v>
+        <v>615396.4971365661</v>
       </c>
       <c r="G173">
-        <v>430268.239386035</v>
+        <v>422548.0122880814</v>
       </c>
       <c r="H173">
-        <v>121833.3333333322</v>
+        <v>177151.5151515169</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4901,22 +4901,22 @@
         <v>173</v>
       </c>
       <c r="C174">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D174">
-        <v>1101.010020254775</v>
+        <v>1587.544251236901</v>
       </c>
       <c r="E174">
-        <v>2892.676686921442</v>
+        <v>2708.756372449022</v>
       </c>
       <c r="F174">
-        <v>741327.582739623</v>
+        <v>618105.2535090151</v>
       </c>
       <c r="G174">
-        <v>431369.2494062898</v>
+        <v>424135.5565393183</v>
       </c>
       <c r="H174">
-        <v>120041.6666666655</v>
+        <v>176030.3030303048</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4927,22 +4927,22 @@
         <v>174</v>
       </c>
       <c r="C175">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D175">
-        <v>1084.818696427499</v>
+        <v>1577.496502811351</v>
       </c>
       <c r="E175">
-        <v>2876.485363094165</v>
+        <v>2698.708624023472</v>
       </c>
       <c r="F175">
-        <v>744204.0681027172</v>
+        <v>620803.9621330386</v>
       </c>
       <c r="G175">
-        <v>432454.0681027173</v>
+        <v>425713.0530421296</v>
       </c>
       <c r="H175">
-        <v>118249.9999999989</v>
+        <v>174909.0909090926</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4953,22 +4953,22 @@
         <v>175</v>
       </c>
       <c r="C176">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D176">
-        <v>1068.627372600222</v>
+        <v>1567.448754385801</v>
       </c>
       <c r="E176">
-        <v>2860.294039266889</v>
+        <v>2688.660875597922</v>
       </c>
       <c r="F176">
-        <v>747064.362141984</v>
+        <v>623492.6230086365</v>
       </c>
       <c r="G176">
-        <v>433522.6954753175</v>
+        <v>427280.5017965154</v>
       </c>
       <c r="H176">
-        <v>116458.3333333322</v>
+        <v>173787.8787878805</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4979,22 +4979,22 @@
         <v>176</v>
       </c>
       <c r="C177">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D177">
-        <v>1052.436048772946</v>
+        <v>1557.401005960251</v>
       </c>
       <c r="E177">
-        <v>2844.102715439613</v>
+        <v>2678.613127172372</v>
       </c>
       <c r="F177">
-        <v>749908.4648574237</v>
+        <v>626171.2361358089</v>
       </c>
       <c r="G177">
-        <v>434575.1315240904</v>
+        <v>428837.9028024757</v>
       </c>
       <c r="H177">
-        <v>114666.6666666655</v>
+        <v>172666.6666666684</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5005,22 +5005,22 @@
         <v>177</v>
       </c>
       <c r="C178">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D178">
-        <v>1036.24472494567</v>
+        <v>1547.353257534701</v>
       </c>
       <c r="E178">
-        <v>2827.911391612337</v>
+        <v>2668.565378746822</v>
       </c>
       <c r="F178">
-        <v>752736.3762490361</v>
+        <v>628839.8015145557</v>
       </c>
       <c r="G178">
-        <v>435611.3762490361</v>
+        <v>430385.2560600103</v>
       </c>
       <c r="H178">
-        <v>112874.9999999989</v>
+        <v>171545.4545454562</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5031,22 +5031,22 @@
         <v>178</v>
       </c>
       <c r="C179">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D179">
-        <v>1020.053401118394</v>
+        <v>1537.305509109151</v>
       </c>
       <c r="E179">
-        <v>2811.720067785061</v>
+        <v>2658.517630321272</v>
       </c>
       <c r="F179">
-        <v>755548.0963168211</v>
+        <v>631498.319144877</v>
       </c>
       <c r="G179">
-        <v>436631.4296501545</v>
+        <v>431922.5615691195</v>
       </c>
       <c r="H179">
-        <v>111083.3333333322</v>
+        <v>170424.2424242441</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5057,22 +5057,22 @@
         <v>179</v>
       </c>
       <c r="C180">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D180">
-        <v>1003.862077291117</v>
+        <v>1527.257760683601</v>
       </c>
       <c r="E180">
-        <v>2795.528743957784</v>
+        <v>2648.469881895722</v>
       </c>
       <c r="F180">
-        <v>758343.6250607788</v>
+        <v>634146.7890267727</v>
       </c>
       <c r="G180">
-        <v>437635.2917274456</v>
+        <v>433449.8193298031</v>
       </c>
       <c r="H180">
-        <v>109291.6666666655</v>
+        <v>169303.030303032</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5083,22 +5083,22 @@
         <v>180</v>
       </c>
       <c r="C181">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D181">
-        <v>987.670753463841</v>
+        <v>1517.21001225805</v>
       </c>
       <c r="E181">
-        <v>2779.337420130508</v>
+        <v>2638.422133470172</v>
       </c>
       <c r="F181">
-        <v>761122.9624809093</v>
+        <v>636785.2111602429</v>
       </c>
       <c r="G181">
-        <v>438622.9624809095</v>
+        <v>434967.0293420611</v>
       </c>
       <c r="H181">
-        <v>107499.9999999988</v>
+        <v>168181.8181818199</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5109,22 +5109,22 @@
         <v>181</v>
       </c>
       <c r="C182">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D182">
-        <v>971.4794296365648</v>
+        <v>1507.1622638325</v>
       </c>
       <c r="E182">
-        <v>2763.146096303231</v>
+        <v>2628.374385044622</v>
       </c>
       <c r="F182">
-        <v>763886.1085772126</v>
+        <v>639413.5855452876</v>
       </c>
       <c r="G182">
-        <v>439594.441910546</v>
+        <v>436474.1916058937</v>
       </c>
       <c r="H182">
-        <v>105708.3333333322</v>
+        <v>167060.6060606077</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5135,22 +5135,22 @@
         <v>182</v>
       </c>
       <c r="C183">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D183">
-        <v>955.2881058092885</v>
+        <v>1497.11451540695</v>
       </c>
       <c r="E183">
-        <v>2746.954772475955</v>
+        <v>2618.326636619071</v>
       </c>
       <c r="F183">
-        <v>766633.0633496885</v>
+        <v>642031.9121819066</v>
       </c>
       <c r="G183">
-        <v>440549.7300163553</v>
+        <v>437971.3061213006</v>
       </c>
       <c r="H183">
-        <v>103916.6666666655</v>
+        <v>165939.3939393956</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5161,22 +5161,22 @@
         <v>183</v>
       </c>
       <c r="C184">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D184">
-        <v>939.0967819820122</v>
+        <v>1487.0667669814</v>
       </c>
       <c r="E184">
-        <v>2730.763448648679</v>
+        <v>2608.278888193521</v>
       </c>
       <c r="F184">
-        <v>769363.8267983373</v>
+        <v>644640.1910701002</v>
       </c>
       <c r="G184">
-        <v>441488.8267983373</v>
+        <v>439458.372888282</v>
       </c>
       <c r="H184">
-        <v>102124.9999999988</v>
+        <v>164818.1818181835</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5187,22 +5187,22 @@
         <v>184</v>
       </c>
       <c r="C185">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D185">
-        <v>922.905458154736</v>
+        <v>1477.01901855585</v>
       </c>
       <c r="E185">
-        <v>2714.572124821403</v>
+        <v>2598.231139767971</v>
       </c>
       <c r="F185">
-        <v>772078.3989231586</v>
+        <v>647238.4222098681</v>
       </c>
       <c r="G185">
-        <v>442411.7322564921</v>
+        <v>440935.3919068379</v>
       </c>
       <c r="H185">
-        <v>100333.3333333321</v>
+        <v>163696.9696969714</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5213,22 +5213,22 @@
         <v>185</v>
       </c>
       <c r="C186">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D186">
-        <v>906.7141343274598</v>
+        <v>1466.9712701303</v>
       </c>
       <c r="E186">
-        <v>2698.380800994127</v>
+        <v>2588.183391342421</v>
       </c>
       <c r="F186">
-        <v>774776.7797241528</v>
+        <v>649826.6056012105</v>
       </c>
       <c r="G186">
-        <v>443318.4463908196</v>
+        <v>442402.3631769682</v>
       </c>
       <c r="H186">
-        <v>98541.66666666548</v>
+        <v>162575.7575757592</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5239,22 +5239,22 @@
         <v>186</v>
       </c>
       <c r="C187">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D187">
-        <v>890.5228105001835</v>
+        <v>1456.92352170475</v>
       </c>
       <c r="E187">
-        <v>2682.18947716685</v>
+        <v>2578.135642916871</v>
       </c>
       <c r="F187">
-        <v>777458.9692013196</v>
+        <v>652404.7412441274</v>
       </c>
       <c r="G187">
-        <v>444208.9692013197</v>
+        <v>443859.2866986729</v>
       </c>
       <c r="H187">
-        <v>96749.99999999881</v>
+        <v>161454.5454545471</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5265,22 +5265,22 @@
         <v>187</v>
       </c>
       <c r="C188">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D188">
-        <v>874.3314866729072</v>
+        <v>1446.8757732792</v>
       </c>
       <c r="E188">
-        <v>2665.998153339574</v>
+        <v>2568.087894491321</v>
       </c>
       <c r="F188">
-        <v>780124.9673546592</v>
+        <v>654972.8291386187</v>
       </c>
       <c r="G188">
-        <v>445083.3006879927</v>
+        <v>445306.1624719521</v>
       </c>
       <c r="H188">
-        <v>94958.33333333214</v>
+        <v>160333.333333335</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5291,22 +5291,22 @@
         <v>188</v>
       </c>
       <c r="C189">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D189">
-        <v>858.1401628456309</v>
+        <v>1436.82802485365</v>
       </c>
       <c r="E189">
-        <v>2649.806829512298</v>
+        <v>2558.040146065771</v>
       </c>
       <c r="F189">
-        <v>782774.7741841716</v>
+        <v>657530.8692846844</v>
       </c>
       <c r="G189">
-        <v>445941.4408508383</v>
+        <v>446742.9904968058</v>
       </c>
       <c r="H189">
-        <v>93166.66666666546</v>
+        <v>159212.1212121228</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5317,22 +5317,22 @@
         <v>189</v>
       </c>
       <c r="C190">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D190">
-        <v>841.9488390183546</v>
+        <v>1426.7802764281</v>
       </c>
       <c r="E190">
-        <v>2633.615505685021</v>
+        <v>2547.992397640221</v>
       </c>
       <c r="F190">
-        <v>785408.3896898566</v>
+        <v>660078.8616823247</v>
       </c>
       <c r="G190">
-        <v>446783.3896898566</v>
+        <v>448169.7707732338</v>
       </c>
       <c r="H190">
-        <v>91374.99999999879</v>
+        <v>158090.9090909107</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5343,22 +5343,22 @@
         <v>190</v>
       </c>
       <c r="C191">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D191">
-        <v>825.7575151910784</v>
+        <v>1416.732528002549</v>
       </c>
       <c r="E191">
-        <v>2617.424181857745</v>
+        <v>2537.944649214671</v>
       </c>
       <c r="F191">
-        <v>788025.8138717143</v>
+        <v>662616.8063315393</v>
       </c>
       <c r="G191">
-        <v>447609.1472050477</v>
+        <v>449586.5033012364</v>
       </c>
       <c r="H191">
-        <v>89583.33333333212</v>
+        <v>156969.6969696986</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5369,22 +5369,22 @@
         <v>191</v>
       </c>
       <c r="C192">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D192">
-        <v>809.5661913638021</v>
+        <v>1406.684779576999</v>
       </c>
       <c r="E192">
-        <v>2601.232858030469</v>
+        <v>2527.896900789121</v>
       </c>
       <c r="F192">
-        <v>790627.0467297448</v>
+        <v>665144.7032323284</v>
       </c>
       <c r="G192">
-        <v>448418.7133964115</v>
+        <v>450993.1880808134</v>
       </c>
       <c r="H192">
-        <v>87791.66666666545</v>
+        <v>155848.4848484865</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5395,22 +5395,22 @@
         <v>192</v>
       </c>
       <c r="C193">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D193">
-        <v>793.3748675365259</v>
+        <v>1396.637031151449</v>
       </c>
       <c r="E193">
-        <v>2585.041534203193</v>
+        <v>2517.84915236357</v>
       </c>
       <c r="F193">
-        <v>793212.088263948</v>
+        <v>667662.552384692</v>
       </c>
       <c r="G193">
-        <v>449212.088263948</v>
+        <v>452389.8251119648</v>
       </c>
       <c r="H193">
-        <v>85999.99999999878</v>
+        <v>154727.2727272743</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5421,22 +5421,22 @@
         <v>193</v>
       </c>
       <c r="C194">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D194">
-        <v>777.1835437092496</v>
+        <v>1386.589282725899</v>
       </c>
       <c r="E194">
-        <v>2568.850210375917</v>
+        <v>2507.80140393802</v>
       </c>
       <c r="F194">
-        <v>795780.9384743239</v>
+        <v>670170.35378863</v>
       </c>
       <c r="G194">
-        <v>449989.2718076573</v>
+        <v>453776.4143946907</v>
       </c>
       <c r="H194">
-        <v>84208.33333333211</v>
+        <v>153606.0606060622</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5447,22 +5447,22 @@
         <v>194</v>
       </c>
       <c r="C195">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D195">
-        <v>760.9922198819734</v>
+        <v>1376.541534300349</v>
       </c>
       <c r="E195">
-        <v>2552.65888654864</v>
+        <v>2497.75365551247</v>
       </c>
       <c r="F195">
-        <v>798333.5973608725</v>
+        <v>672668.1074441425</v>
       </c>
       <c r="G195">
-        <v>450750.2640275392</v>
+        <v>455152.9559289911</v>
       </c>
       <c r="H195">
-        <v>82416.66666666543</v>
+        <v>152484.8484848501</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5473,22 +5473,22 @@
         <v>195</v>
       </c>
       <c r="C196">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D196">
-        <v>744.8008960546971</v>
+        <v>1366.493785874799</v>
       </c>
       <c r="E196">
-        <v>2536.467562721364</v>
+        <v>2487.70590708692</v>
       </c>
       <c r="F196">
-        <v>800870.0649235939</v>
+        <v>675155.8133512294</v>
       </c>
       <c r="G196">
-        <v>451495.0649235939</v>
+        <v>456519.4497148659</v>
       </c>
       <c r="H196">
-        <v>80624.99999999876</v>
+        <v>151363.636363638</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5499,22 +5499,22 @@
         <v>196</v>
       </c>
       <c r="C197">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D197">
-        <v>728.6095722274208</v>
+        <v>1356.446037449249</v>
       </c>
       <c r="E197">
-        <v>2520.276238894087</v>
+        <v>2477.65815866137</v>
       </c>
       <c r="F197">
-        <v>803390.341162488</v>
+        <v>677633.4715098907</v>
       </c>
       <c r="G197">
-        <v>452223.6744958214</v>
+        <v>457875.8957523151</v>
       </c>
       <c r="H197">
-        <v>78833.33333333209</v>
+        <v>150242.4242424258</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5525,22 +5525,22 @@
         <v>197</v>
       </c>
       <c r="C198">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D198">
-        <v>712.4182484001445</v>
+        <v>1346.398289023699</v>
       </c>
       <c r="E198">
-        <v>2504.084915066811</v>
+        <v>2467.61041023582</v>
       </c>
       <c r="F198">
-        <v>805894.4260775548</v>
+        <v>680101.0819201266</v>
       </c>
       <c r="G198">
-        <v>452936.0927442215</v>
+        <v>459222.2940413388</v>
       </c>
       <c r="H198">
-        <v>77041.66666666542</v>
+        <v>149121.2121212137</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5551,22 +5551,22 @@
         <v>198</v>
       </c>
       <c r="C199">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D199">
-        <v>696.2269245728683</v>
+        <v>1336.350540598149</v>
       </c>
       <c r="E199">
-        <v>2487.893591239535</v>
+        <v>2457.56266181027</v>
       </c>
       <c r="F199">
-        <v>808382.3196687944</v>
+        <v>682558.6445819369</v>
       </c>
       <c r="G199">
-        <v>453632.3196687944</v>
+        <v>460558.644581937</v>
       </c>
       <c r="H199">
-        <v>75249.99999999875</v>
+        <v>148000.0000000016</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5577,22 +5577,22 @@
         <v>199</v>
       </c>
       <c r="C200">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D200">
-        <v>680.035600745592</v>
+        <v>1326.302792172599</v>
       </c>
       <c r="E200">
-        <v>2471.702267412259</v>
+        <v>2447.51491338472</v>
       </c>
       <c r="F200">
-        <v>810854.0219362066</v>
+        <v>685006.1594953216</v>
       </c>
       <c r="G200">
-        <v>454312.35526954</v>
+        <v>461884.9473741096</v>
       </c>
       <c r="H200">
-        <v>73458.33333333208</v>
+        <v>146878.7878787894</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5603,22 +5603,22 @@
         <v>200</v>
       </c>
       <c r="C201">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D201">
-        <v>663.8442769183158</v>
+        <v>1316.255043747048</v>
       </c>
       <c r="E201">
-        <v>2455.510943584983</v>
+        <v>2437.46716495917</v>
       </c>
       <c r="F201">
-        <v>813309.5328797916</v>
+        <v>687443.6266602807</v>
       </c>
       <c r="G201">
-        <v>454976.1995464583</v>
+        <v>463201.2024178566</v>
       </c>
       <c r="H201">
-        <v>71666.66666666541</v>
+        <v>145757.5757575773</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5629,22 +5629,22 @@
         <v>201</v>
       </c>
       <c r="C202">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D202">
-        <v>647.6529530910395</v>
+        <v>1306.207295321498</v>
       </c>
       <c r="E202">
-        <v>2439.319619757706</v>
+        <v>2427.419416533619</v>
       </c>
       <c r="F202">
-        <v>815748.8524995493</v>
+        <v>689871.0460768144</v>
       </c>
       <c r="G202">
-        <v>455623.8524995493</v>
+        <v>464507.4097131781</v>
       </c>
       <c r="H202">
-        <v>69874.99999999873</v>
+        <v>144636.3636363652</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5655,22 +5655,22 @@
         <v>202</v>
       </c>
       <c r="C203">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D203">
-        <v>631.4616292637633</v>
+        <v>1296.159546895948</v>
       </c>
       <c r="E203">
-        <v>2423.12829593043</v>
+        <v>2417.37166810807</v>
       </c>
       <c r="F203">
-        <v>818171.9807954797</v>
+        <v>692288.4177449225</v>
       </c>
       <c r="G203">
-        <v>456255.3141288131</v>
+        <v>465803.5692600741</v>
       </c>
       <c r="H203">
-        <v>68083.33333333206</v>
+        <v>143515.1515151531</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5681,22 +5681,22 @@
         <v>203</v>
       </c>
       <c r="C204">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D204">
-        <v>615.270305436487</v>
+        <v>1286.111798470398</v>
       </c>
       <c r="E204">
-        <v>2406.936972103153</v>
+        <v>2407.323919682519</v>
       </c>
       <c r="F204">
-        <v>820578.9177675829</v>
+        <v>694695.741664605</v>
       </c>
       <c r="G204">
-        <v>456870.5844342496</v>
+        <v>467089.6810585444</v>
       </c>
       <c r="H204">
-        <v>66291.66666666539</v>
+        <v>142393.9393939409</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5707,22 +5707,22 @@
         <v>204</v>
       </c>
       <c r="C205">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D205">
-        <v>599.0789816092107</v>
+        <v>1276.064050044848</v>
       </c>
       <c r="E205">
-        <v>2390.745648275878</v>
+        <v>2397.276171256969</v>
       </c>
       <c r="F205">
-        <v>822969.6634158588</v>
+        <v>697093.017835862</v>
       </c>
       <c r="G205">
-        <v>457469.6634158588</v>
+        <v>468365.7451085893</v>
       </c>
       <c r="H205">
-        <v>64499.99999999873</v>
+        <v>141272.7272727288</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5733,22 +5733,22 @@
         <v>205</v>
       </c>
       <c r="C206">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D206">
-        <v>582.8876577819344</v>
+        <v>1266.016301619298</v>
       </c>
       <c r="E206">
-        <v>2374.554324448601</v>
+        <v>2387.228422831419</v>
       </c>
       <c r="F206">
-        <v>825344.2177403073</v>
+        <v>699480.2462586934</v>
       </c>
       <c r="G206">
-        <v>458052.5510736408</v>
+        <v>469631.7614102086</v>
       </c>
       <c r="H206">
-        <v>62708.33333333206</v>
+        <v>140151.5151515167</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5759,22 +5759,22 @@
         <v>206</v>
       </c>
       <c r="C207">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D207">
-        <v>566.6963339546581</v>
+        <v>1255.968553193748</v>
       </c>
       <c r="E207">
-        <v>2358.363000621325</v>
+        <v>2377.180674405869</v>
       </c>
       <c r="F207">
-        <v>827702.5807409286</v>
+        <v>701857.4269330993</v>
       </c>
       <c r="G207">
-        <v>458619.2474075954</v>
+        <v>470887.7299634023</v>
       </c>
       <c r="H207">
-        <v>60916.6666666654</v>
+        <v>139030.3030303046</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5785,22 +5785,22 @@
         <v>207</v>
       </c>
       <c r="C208">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D208">
-        <v>550.5050101273819</v>
+        <v>1245.920804768198</v>
       </c>
       <c r="E208">
-        <v>2342.171676794049</v>
+        <v>2367.132925980319</v>
       </c>
       <c r="F208">
-        <v>830044.7524177227</v>
+        <v>704224.5598590797</v>
       </c>
       <c r="G208">
-        <v>459169.7524177228</v>
+        <v>472133.6507681705</v>
       </c>
       <c r="H208">
-        <v>59124.99999999873</v>
+        <v>137909.0909090924</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5811,22 +5811,22 @@
         <v>208</v>
       </c>
       <c r="C209">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D209">
-        <v>534.3136863001057</v>
+        <v>1235.873056342648</v>
       </c>
       <c r="E209">
-        <v>2325.980352966772</v>
+        <v>2357.085177554769</v>
       </c>
       <c r="F209">
-        <v>832370.7327706895</v>
+        <v>706581.6450366344</v>
       </c>
       <c r="G209">
-        <v>459704.0661040229</v>
+        <v>473369.5238245132</v>
       </c>
       <c r="H209">
-        <v>57333.33333333207</v>
+        <v>136787.8787878803</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5837,22 +5837,22 @@
         <v>209</v>
       </c>
       <c r="C210">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D210">
-        <v>518.1223624728294</v>
+        <v>1225.825307917097</v>
       </c>
       <c r="E210">
-        <v>2309.789029139496</v>
+        <v>2347.037429129219</v>
       </c>
       <c r="F210">
-        <v>834680.521799829</v>
+        <v>708928.6824657636</v>
       </c>
       <c r="G210">
-        <v>460222.1884664957</v>
+        <v>474595.3491324303</v>
       </c>
       <c r="H210">
-        <v>55541.66666666541</v>
+        <v>135666.6666666682</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5863,22 +5863,22 @@
         <v>210</v>
       </c>
       <c r="C211">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D211">
-        <v>501.9310386455531</v>
+        <v>1215.777559491547</v>
       </c>
       <c r="E211">
-        <v>2293.59770531222</v>
+        <v>2336.989680703668</v>
       </c>
       <c r="F211">
-        <v>836974.1195051412</v>
+        <v>711265.6721464673</v>
       </c>
       <c r="G211">
-        <v>460724.1195051413</v>
+        <v>475811.1266919218</v>
       </c>
       <c r="H211">
-        <v>53749.99999999874</v>
+        <v>134545.454545456</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5889,22 +5889,22 @@
         <v>211</v>
       </c>
       <c r="C212">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D212">
-        <v>485.7397148182769</v>
+        <v>1205.729811065997</v>
       </c>
       <c r="E212">
-        <v>2277.406381484944</v>
+        <v>2326.941932278119</v>
       </c>
       <c r="F212">
-        <v>839251.5258866261</v>
+        <v>713592.6140787454</v>
       </c>
       <c r="G212">
-        <v>461209.8592199595</v>
+        <v>477016.8565029879</v>
       </c>
       <c r="H212">
-        <v>51958.33333333208</v>
+        <v>133424.2424242439</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5915,22 +5915,22 @@
         <v>212</v>
       </c>
       <c r="C213">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D213">
-        <v>469.5483909910006</v>
+        <v>1195.682062640447</v>
       </c>
       <c r="E213">
-        <v>2261.215057657667</v>
+        <v>2316.894183852568</v>
       </c>
       <c r="F213">
-        <v>841512.7409442838</v>
+        <v>715909.508262598</v>
       </c>
       <c r="G213">
-        <v>461679.4076109505</v>
+        <v>478212.5385656283</v>
       </c>
       <c r="H213">
-        <v>50166.66666666541</v>
+        <v>132303.0303030318</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5941,22 +5941,22 @@
         <v>213</v>
       </c>
       <c r="C214">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D214">
-        <v>453.3570671637244</v>
+        <v>1185.634314214897</v>
       </c>
       <c r="E214">
-        <v>2245.023733830391</v>
+        <v>2306.846435427018</v>
       </c>
       <c r="F214">
-        <v>843757.7646781142</v>
+        <v>718216.3546980249</v>
       </c>
       <c r="G214">
-        <v>462132.7646781143</v>
+        <v>479398.1728798432</v>
       </c>
       <c r="H214">
-        <v>48374.99999999875</v>
+        <v>131181.8181818197</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5967,22 +5967,22 @@
         <v>214</v>
       </c>
       <c r="C215">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D215">
-        <v>437.1657433364481</v>
+        <v>1175.586565789347</v>
       </c>
       <c r="E215">
-        <v>2228.832410003115</v>
+        <v>2296.798687001468</v>
       </c>
       <c r="F215">
-        <v>845986.5970881173</v>
+        <v>720513.1533850264</v>
       </c>
       <c r="G215">
-        <v>462569.9304214507</v>
+        <v>480573.7594456325</v>
       </c>
       <c r="H215">
-        <v>46583.33333333208</v>
+        <v>130060.6060606075</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -5993,22 +5993,22 @@
         <v>215</v>
       </c>
       <c r="C216">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D216">
-        <v>420.9744195091718</v>
+        <v>1165.538817363797</v>
       </c>
       <c r="E216">
-        <v>2212.641086175839</v>
+        <v>2286.750938575918</v>
       </c>
       <c r="F216">
-        <v>848199.2381742931</v>
+        <v>722799.9043236023</v>
       </c>
       <c r="G216">
-        <v>462990.9048409599</v>
+        <v>481739.2982629963</v>
       </c>
       <c r="H216">
-        <v>44791.66666666542</v>
+        <v>128939.3939393954</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6019,22 +6019,22 @@
         <v>216</v>
       </c>
       <c r="C217">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D217">
-        <v>404.7830956818955</v>
+        <v>1155.491068938247</v>
       </c>
       <c r="E217">
-        <v>2196.449762348562</v>
+        <v>2276.703190150368</v>
       </c>
       <c r="F217">
-        <v>850395.6879366416</v>
+        <v>725076.6075137526</v>
       </c>
       <c r="G217">
-        <v>463395.6879366418</v>
+        <v>482894.7893319345</v>
       </c>
       <c r="H217">
-        <v>42999.99999999876</v>
+        <v>127818.1818181833</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6045,22 +6045,22 @@
         <v>217</v>
       </c>
       <c r="C218">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D218">
-        <v>388.5917718546193</v>
+        <v>1145.443320512697</v>
       </c>
       <c r="E218">
-        <v>2180.258438521286</v>
+        <v>2266.655441724818</v>
       </c>
       <c r="F218">
-        <v>852575.9463751629</v>
+        <v>727343.2629554775</v>
       </c>
       <c r="G218">
-        <v>463784.2797084964</v>
+        <v>484040.2326524472</v>
       </c>
       <c r="H218">
-        <v>41208.33333333209</v>
+        <v>126696.9696969712</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6071,22 +6071,22 @@
         <v>218</v>
       </c>
       <c r="C219">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D219">
-        <v>372.400448027343</v>
+        <v>1135.395572087147</v>
       </c>
       <c r="E219">
-        <v>2164.06711469401</v>
+        <v>2256.607693299268</v>
       </c>
       <c r="F219">
-        <v>854740.013489857</v>
+        <v>729599.8706487768</v>
       </c>
       <c r="G219">
-        <v>464156.6801565238</v>
+        <v>485175.6282245344</v>
       </c>
       <c r="H219">
-        <v>39416.66666666543</v>
+        <v>125575.757575759</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6097,22 +6097,22 @@
         <v>219</v>
       </c>
       <c r="C220">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D220">
-        <v>356.2091242000668</v>
+        <v>1125.347823661597</v>
       </c>
       <c r="E220">
-        <v>2147.875790866733</v>
+        <v>2246.559944873718</v>
       </c>
       <c r="F220">
-        <v>856887.8892807238</v>
+        <v>731846.4305936504</v>
       </c>
       <c r="G220">
-        <v>464512.8892807238</v>
+        <v>486300.976048196</v>
       </c>
       <c r="H220">
-        <v>37624.99999999876</v>
+        <v>124454.5454545469</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6123,22 +6123,22 @@
         <v>220</v>
       </c>
       <c r="C221">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D221">
-        <v>340.0178003727905</v>
+        <v>1115.300075236046</v>
       </c>
       <c r="E221">
-        <v>2131.684467039457</v>
+        <v>2236.512196448168</v>
       </c>
       <c r="F221">
-        <v>859019.5737477632</v>
+        <v>734082.9427900986</v>
       </c>
       <c r="G221">
-        <v>464852.9070810966</v>
+        <v>487416.276123432</v>
       </c>
       <c r="H221">
-        <v>35833.3333333321</v>
+        <v>123333.3333333348</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6149,22 +6149,22 @@
         <v>221</v>
       </c>
       <c r="C222">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D222">
-        <v>323.8264765455143</v>
+        <v>1105.252326810496</v>
       </c>
       <c r="E222">
-        <v>2115.493143212181</v>
+        <v>2226.464448022617</v>
       </c>
       <c r="F222">
-        <v>861135.0668909753</v>
+        <v>736309.4072381213</v>
       </c>
       <c r="G222">
-        <v>465176.7335576421</v>
+        <v>488521.5284502425</v>
       </c>
       <c r="H222">
-        <v>34041.66666666543</v>
+        <v>122212.1212121226</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6175,22 +6175,22 @@
         <v>222</v>
       </c>
       <c r="C223">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D223">
-        <v>307.635152718238</v>
+        <v>1095.204578384946</v>
       </c>
       <c r="E223">
-        <v>2099.301819384905</v>
+        <v>2216.416699597067</v>
       </c>
       <c r="F223">
-        <v>863234.3687103603</v>
+        <v>738525.8239377183</v>
       </c>
       <c r="G223">
-        <v>465484.3687103604</v>
+        <v>489616.7330286275</v>
       </c>
       <c r="H223">
-        <v>32249.99999999877</v>
+        <v>121090.9090909105</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6201,22 +6201,22 @@
         <v>223</v>
       </c>
       <c r="C224">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D224">
-        <v>291.4438288909617</v>
+        <v>1085.156829959396</v>
       </c>
       <c r="E224">
-        <v>2083.110495557628</v>
+        <v>2206.368951171517</v>
       </c>
       <c r="F224">
-        <v>865317.4792059179</v>
+        <v>740732.1928888898</v>
       </c>
       <c r="G224">
-        <v>465775.8125392513</v>
+        <v>490701.8898585869</v>
       </c>
       <c r="H224">
-        <v>30458.3333333321</v>
+        <v>119969.6969696984</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6227,22 +6227,22 @@
         <v>224</v>
       </c>
       <c r="C225">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D225">
-        <v>275.2525050636854</v>
+        <v>1075.109081533846</v>
       </c>
       <c r="E225">
-        <v>2066.919171730352</v>
+        <v>2196.321202745967</v>
       </c>
       <c r="F225">
-        <v>867384.3983776483</v>
+        <v>742928.5140916358</v>
       </c>
       <c r="G225">
-        <v>466051.065044315</v>
+        <v>491776.9989401207</v>
       </c>
       <c r="H225">
-        <v>28666.66666666543</v>
+        <v>118848.4848484863</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6253,22 +6253,22 @@
         <v>225</v>
       </c>
       <c r="C226">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D226">
-        <v>259.0611812364092</v>
+        <v>1065.061333108296</v>
       </c>
       <c r="E226">
-        <v>2050.727847903076</v>
+        <v>2186.273454320417</v>
       </c>
       <c r="F226">
-        <v>869435.1262255514</v>
+        <v>745114.7875459562</v>
       </c>
       <c r="G226">
-        <v>466310.1262255514</v>
+        <v>492842.060273229</v>
       </c>
       <c r="H226">
-        <v>26874.99999999876</v>
+        <v>117727.2727272741</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6279,22 +6279,22 @@
         <v>226</v>
       </c>
       <c r="C227">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D227">
-        <v>242.8698574091329</v>
+        <v>1055.013584682746</v>
       </c>
       <c r="E227">
-        <v>2034.5365240758</v>
+        <v>2176.225705894867</v>
       </c>
       <c r="F227">
-        <v>871469.6627496271</v>
+        <v>747291.0132518511</v>
       </c>
       <c r="G227">
-        <v>466552.9960829606</v>
+        <v>493897.0738579117</v>
       </c>
       <c r="H227">
-        <v>25083.3333333321</v>
+        <v>116606.060606062</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6305,22 +6305,22 @@
         <v>227</v>
       </c>
       <c r="C228">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D228">
-        <v>226.6785335818566</v>
+        <v>1044.965836257196</v>
       </c>
       <c r="E228">
-        <v>2018.345200248523</v>
+        <v>2166.177957469317</v>
       </c>
       <c r="F228">
-        <v>873488.0079498757</v>
+        <v>749457.1912093204</v>
       </c>
       <c r="G228">
-        <v>466779.6746165424</v>
+        <v>494942.039694169</v>
       </c>
       <c r="H228">
-        <v>23291.66666666543</v>
+        <v>115484.8484848499</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6331,22 +6331,22 @@
         <v>228</v>
       </c>
       <c r="C229">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D229">
-        <v>210.4872097545804</v>
+        <v>1034.918087831646</v>
       </c>
       <c r="E229">
-        <v>2002.153876421247</v>
+        <v>2156.130209043767</v>
       </c>
       <c r="F229">
-        <v>875490.1618262969</v>
+        <v>751613.3214183642</v>
       </c>
       <c r="G229">
-        <v>466990.161826297</v>
+        <v>495976.9577820006</v>
       </c>
       <c r="H229">
-        <v>21499.99999999876</v>
+        <v>114363.6363636378</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6357,22 +6357,22 @@
         <v>229</v>
       </c>
       <c r="C230">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D230">
-        <v>194.2958859273041</v>
+        <v>1024.870339406096</v>
       </c>
       <c r="E230">
-        <v>1985.962552593971</v>
+        <v>2146.082460618217</v>
       </c>
       <c r="F230">
-        <v>877476.124378891</v>
+        <v>753759.4038789824</v>
       </c>
       <c r="G230">
-        <v>467184.4577122243</v>
+        <v>497001.8281214067</v>
       </c>
       <c r="H230">
-        <v>19708.33333333209</v>
+        <v>113242.4242424256</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6383,22 +6383,22 @@
         <v>230</v>
       </c>
       <c r="C231">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D231">
-        <v>178.1045621000279</v>
+        <v>1014.822590980545</v>
       </c>
       <c r="E231">
-        <v>1969.771228766695</v>
+        <v>2136.034712192667</v>
       </c>
       <c r="F231">
-        <v>879445.8956076576</v>
+        <v>755895.4385911751</v>
       </c>
       <c r="G231">
-        <v>467362.5622743243</v>
+        <v>498016.6507123872</v>
       </c>
       <c r="H231">
-        <v>17916.66666666542</v>
+        <v>112121.2121212135</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6409,22 +6409,22 @@
         <v>231</v>
       </c>
       <c r="C232">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D232">
-        <v>161.9132382727516</v>
+        <v>1004.774842554995</v>
       </c>
       <c r="E232">
-        <v>1953.579904939418</v>
+        <v>2125.986963767116</v>
       </c>
       <c r="F232">
-        <v>881399.475512597</v>
+        <v>758021.4255549422</v>
       </c>
       <c r="G232">
-        <v>467524.4755125971</v>
+        <v>499021.4255549422</v>
       </c>
       <c r="H232">
-        <v>16124.99999999876</v>
+        <v>111000.0000000014</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6435,22 +6435,22 @@
         <v>232</v>
       </c>
       <c r="C233">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D233">
-        <v>145.7219144454753</v>
+        <v>994.7270941294453</v>
       </c>
       <c r="E233">
-        <v>1937.388581112142</v>
+        <v>2115.939215341567</v>
       </c>
       <c r="F233">
-        <v>883336.8640937092</v>
+        <v>760137.3647702838</v>
       </c>
       <c r="G233">
-        <v>467670.1974270425</v>
+        <v>500016.1526490716</v>
       </c>
       <c r="H233">
-        <v>14333.33333333209</v>
+        <v>109878.7878787892</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6461,22 +6461,22 @@
         <v>233</v>
       </c>
       <c r="C234">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D234">
-        <v>129.5305906181991</v>
+        <v>984.6793457038951</v>
       </c>
       <c r="E234">
-        <v>1921.197257284866</v>
+        <v>2105.891466916016</v>
       </c>
       <c r="F234">
-        <v>885258.061350994</v>
+        <v>762243.2562371999</v>
       </c>
       <c r="G234">
-        <v>467799.7280176607</v>
+        <v>501000.8319947756</v>
       </c>
       <c r="H234">
-        <v>12541.66666666543</v>
+        <v>108757.5757575771</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6487,22 +6487,22 @@
         <v>234</v>
       </c>
       <c r="C235">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D235">
-        <v>113.3392667909228</v>
+        <v>974.631597278345</v>
       </c>
       <c r="E235">
-        <v>1905.005933457589</v>
+        <v>2095.843718490466</v>
       </c>
       <c r="F235">
-        <v>887163.0672844517</v>
+        <v>764339.0999556903</v>
       </c>
       <c r="G235">
-        <v>467913.0672844517</v>
+        <v>501975.4635920539</v>
       </c>
       <c r="H235">
-        <v>10749.99999999876</v>
+        <v>107636.363636365</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6513,22 +6513,22 @@
         <v>235</v>
       </c>
       <c r="C236">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D236">
-        <v>97.14794296364654</v>
+        <v>964.583848852795</v>
       </c>
       <c r="E236">
-        <v>1888.814609630313</v>
+        <v>2085.795970064916</v>
       </c>
       <c r="F236">
-        <v>889051.8818940819</v>
+        <v>766424.8959257553</v>
       </c>
       <c r="G236">
-        <v>468010.2152274153</v>
+        <v>502940.0474409067</v>
       </c>
       <c r="H236">
-        <v>8958.333333332093</v>
+        <v>106515.1515151529</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6539,22 +6539,22 @@
         <v>236</v>
       </c>
       <c r="C237">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D237">
-        <v>80.95661913637028</v>
+        <v>954.5361004272451</v>
       </c>
       <c r="E237">
-        <v>1872.623285803037</v>
+        <v>2075.748221639366</v>
       </c>
       <c r="F237">
-        <v>890924.505179885</v>
+        <v>768500.6441473946</v>
       </c>
       <c r="G237">
-        <v>468091.1718465517</v>
+        <v>503894.583541334</v>
       </c>
       <c r="H237">
-        <v>7166.666666665426</v>
+        <v>105393.9393939407</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6565,22 +6565,22 @@
         <v>237</v>
       </c>
       <c r="C238">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D238">
-        <v>64.76529530909401</v>
+        <v>944.4883520016953</v>
       </c>
       <c r="E238">
-        <v>1856.431961975761</v>
+        <v>2065.700473213817</v>
       </c>
       <c r="F238">
-        <v>892780.9371418607</v>
+        <v>770566.3446206084</v>
       </c>
       <c r="G238">
-        <v>468155.9371418608</v>
+        <v>504839.0718933357</v>
       </c>
       <c r="H238">
-        <v>5374.999999998759</v>
+        <v>104272.7272727286</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6591,22 +6591,22 @@
         <v>238</v>
       </c>
       <c r="C239">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D239">
-        <v>48.57397148181774</v>
+        <v>934.4406035761455</v>
       </c>
       <c r="E239">
-        <v>1840.240638148485</v>
+        <v>2055.652724788267</v>
       </c>
       <c r="F239">
-        <v>894621.1777800092</v>
+        <v>772621.9973453967</v>
       </c>
       <c r="G239">
-        <v>468204.5111133426</v>
+        <v>505773.5124969118</v>
       </c>
       <c r="H239">
-        <v>3583.333333332092</v>
+        <v>103151.5151515165</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6617,22 +6617,22 @@
         <v>239</v>
       </c>
       <c r="C240">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D240">
-        <v>32.38264765454148</v>
+        <v>924.3928551505956</v>
       </c>
       <c r="E240">
-        <v>1824.049314321208</v>
+        <v>2045.604976362717</v>
       </c>
       <c r="F240">
-        <v>896445.2270943305</v>
+        <v>774667.6023217593</v>
       </c>
       <c r="G240">
-        <v>468236.8937609972</v>
+        <v>506697.9053520624</v>
       </c>
       <c r="H240">
-        <v>1791.666666665426</v>
+        <v>102030.3030303043</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6643,22 +6643,2362 @@
         <v>240</v>
       </c>
       <c r="C241">
-        <v>1791.666666666667</v>
+        <v>1121.212121212121</v>
       </c>
       <c r="D241">
-        <v>16.19132382726522</v>
+        <v>914.3451067250458</v>
       </c>
       <c r="E241">
-        <v>1807.857990493932</v>
+        <v>2035.557227937167</v>
       </c>
       <c r="F241">
-        <v>898253.0850848244</v>
+        <v>776703.1595496965</v>
       </c>
       <c r="G241">
-        <v>468253.0850848244</v>
+        <v>507612.2504587874</v>
       </c>
       <c r="H241">
-        <v>-1.241005520569161E-09</v>
+        <v>100909.0909090922</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>241</v>
+      </c>
+      <c r="C242">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D242">
+        <v>904.297358299496</v>
+      </c>
+      <c r="E242">
+        <v>2025.509479511617</v>
+      </c>
+      <c r="F242">
+        <v>778728.6690292081</v>
+      </c>
+      <c r="G242">
+        <v>508516.5478170869</v>
+      </c>
+      <c r="H242">
+        <v>99787.87878788009</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>242</v>
+      </c>
+      <c r="C243">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D243">
+        <v>894.249609873946</v>
+      </c>
+      <c r="E243">
+        <v>2015.461731086067</v>
+      </c>
+      <c r="F243">
+        <v>780744.1307602942</v>
+      </c>
+      <c r="G243">
+        <v>509410.7974269608</v>
+      </c>
+      <c r="H243">
+        <v>98666.66666666797</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>243</v>
+      </c>
+      <c r="C244">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D244">
+        <v>884.2018614483962</v>
+      </c>
+      <c r="E244">
+        <v>2005.413982660517</v>
+      </c>
+      <c r="F244">
+        <v>782749.5447429547</v>
+      </c>
+      <c r="G244">
+        <v>510294.9992884092</v>
+      </c>
+      <c r="H244">
+        <v>97545.45454545584</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>244</v>
+      </c>
+      <c r="C245">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D245">
+        <v>874.1541130228464</v>
+      </c>
+      <c r="E245">
+        <v>1995.366234234968</v>
+      </c>
+      <c r="F245">
+        <v>784744.9109771897</v>
+      </c>
+      <c r="G245">
+        <v>511169.1534014321</v>
+      </c>
+      <c r="H245">
+        <v>96424.24242424371</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>245</v>
+      </c>
+      <c r="C246">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D246">
+        <v>864.1063645972965</v>
+      </c>
+      <c r="E246">
+        <v>1985.318485809418</v>
+      </c>
+      <c r="F246">
+        <v>786730.229462999</v>
+      </c>
+      <c r="G246">
+        <v>512033.2597660294</v>
+      </c>
+      <c r="H246">
+        <v>95303.03030303158</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>246</v>
+      </c>
+      <c r="C247">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D247">
+        <v>854.0586161717467</v>
+      </c>
+      <c r="E247">
+        <v>1975.270737383868</v>
+      </c>
+      <c r="F247">
+        <v>788705.5002003829</v>
+      </c>
+      <c r="G247">
+        <v>512887.3183822011</v>
+      </c>
+      <c r="H247">
+        <v>94181.81818181946</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>247</v>
+      </c>
+      <c r="C248">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D248">
+        <v>844.0108677461968</v>
+      </c>
+      <c r="E248">
+        <v>1965.222988958318</v>
+      </c>
+      <c r="F248">
+        <v>790670.7231893413</v>
+      </c>
+      <c r="G248">
+        <v>513731.3292499473</v>
+      </c>
+      <c r="H248">
+        <v>93060.60606060733</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>248</v>
+      </c>
+      <c r="C249">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D249">
+        <v>833.963119320647</v>
+      </c>
+      <c r="E249">
+        <v>1955.175240532768</v>
+      </c>
+      <c r="F249">
+        <v>792625.898429874</v>
+      </c>
+      <c r="G249">
+        <v>514565.292369268</v>
+      </c>
+      <c r="H249">
+        <v>91939.3939393952</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>249</v>
+      </c>
+      <c r="C250">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D250">
+        <v>823.9153708950972</v>
+      </c>
+      <c r="E250">
+        <v>1945.127492107219</v>
+      </c>
+      <c r="F250">
+        <v>794571.0259219812</v>
+      </c>
+      <c r="G250">
+        <v>515389.2077401631</v>
+      </c>
+      <c r="H250">
+        <v>90818.18181818307</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>250</v>
+      </c>
+      <c r="C251">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D251">
+        <v>813.8676224695473</v>
+      </c>
+      <c r="E251">
+        <v>1935.079743681669</v>
+      </c>
+      <c r="F251">
+        <v>796506.1056656629</v>
+      </c>
+      <c r="G251">
+        <v>516203.0753626326</v>
+      </c>
+      <c r="H251">
+        <v>89696.96969697095</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>251</v>
+      </c>
+      <c r="C252">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D252">
+        <v>803.8198740439975</v>
+      </c>
+      <c r="E252">
+        <v>1925.031995256119</v>
+      </c>
+      <c r="F252">
+        <v>798431.137660919</v>
+      </c>
+      <c r="G252">
+        <v>517006.8952366766</v>
+      </c>
+      <c r="H252">
+        <v>88575.75757575882</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>252</v>
+      </c>
+      <c r="C253">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D253">
+        <v>793.7721256184477</v>
+      </c>
+      <c r="E253">
+        <v>1914.984246830569</v>
+      </c>
+      <c r="F253">
+        <v>800346.1219077496</v>
+      </c>
+      <c r="G253">
+        <v>517800.6673622951</v>
+      </c>
+      <c r="H253">
+        <v>87454.54545454669</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>253</v>
+      </c>
+      <c r="C254">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D254">
+        <v>783.7243771928978</v>
+      </c>
+      <c r="E254">
+        <v>1904.936498405019</v>
+      </c>
+      <c r="F254">
+        <v>802251.0584061546</v>
+      </c>
+      <c r="G254">
+        <v>518584.391739488</v>
+      </c>
+      <c r="H254">
+        <v>86333.33333333457</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>254</v>
+      </c>
+      <c r="C255">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D255">
+        <v>773.676628767348</v>
+      </c>
+      <c r="E255">
+        <v>1894.888749979469</v>
+      </c>
+      <c r="F255">
+        <v>804145.9471561341</v>
+      </c>
+      <c r="G255">
+        <v>519358.0683682553</v>
+      </c>
+      <c r="H255">
+        <v>85212.12121212244</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>255</v>
+      </c>
+      <c r="C256">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D256">
+        <v>763.6288803417982</v>
+      </c>
+      <c r="E256">
+        <v>1884.841001553919</v>
+      </c>
+      <c r="F256">
+        <v>806030.788157688</v>
+      </c>
+      <c r="G256">
+        <v>520121.6972485971</v>
+      </c>
+      <c r="H256">
+        <v>84090.90909091031</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>256</v>
+      </c>
+      <c r="C257">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D257">
+        <v>753.5811319162483</v>
+      </c>
+      <c r="E257">
+        <v>1874.79325312837</v>
+      </c>
+      <c r="F257">
+        <v>807905.5814108164</v>
+      </c>
+      <c r="G257">
+        <v>520875.2783805134</v>
+      </c>
+      <c r="H257">
+        <v>82969.69696969818</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>257</v>
+      </c>
+      <c r="C258">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D258">
+        <v>743.5333834906985</v>
+      </c>
+      <c r="E258">
+        <v>1864.74550470282</v>
+      </c>
+      <c r="F258">
+        <v>809770.3269155192</v>
+      </c>
+      <c r="G258">
+        <v>521618.8117640041</v>
+      </c>
+      <c r="H258">
+        <v>81848.48484848606</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>258</v>
+      </c>
+      <c r="C259">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D259">
+        <v>733.4856350651487</v>
+      </c>
+      <c r="E259">
+        <v>1854.69775627727</v>
+      </c>
+      <c r="F259">
+        <v>811625.0246717965</v>
+      </c>
+      <c r="G259">
+        <v>522352.2973990692</v>
+      </c>
+      <c r="H259">
+        <v>80727.27272727393</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>259</v>
+      </c>
+      <c r="C260">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D260">
+        <v>723.4378866395988</v>
+      </c>
+      <c r="E260">
+        <v>1844.65000785172</v>
+      </c>
+      <c r="F260">
+        <v>813469.6746796482</v>
+      </c>
+      <c r="G260">
+        <v>523075.7352857088</v>
+      </c>
+      <c r="H260">
+        <v>79606.0606060618</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>260</v>
+      </c>
+      <c r="C261">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D261">
+        <v>713.390138214049</v>
+      </c>
+      <c r="E261">
+        <v>1834.60225942617</v>
+      </c>
+      <c r="F261">
+        <v>815304.2769390744</v>
+      </c>
+      <c r="G261">
+        <v>523789.1254239228</v>
+      </c>
+      <c r="H261">
+        <v>78484.84848484967</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>261</v>
+      </c>
+      <c r="C262">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D262">
+        <v>703.3423897884992</v>
+      </c>
+      <c r="E262">
+        <v>1824.554511000621</v>
+      </c>
+      <c r="F262">
+        <v>817128.831450075</v>
+      </c>
+      <c r="G262">
+        <v>524492.4678137114</v>
+      </c>
+      <c r="H262">
+        <v>77363.63636363755</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>262</v>
+      </c>
+      <c r="C263">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D263">
+        <v>693.2946413629493</v>
+      </c>
+      <c r="E263">
+        <v>1814.506762575071</v>
+      </c>
+      <c r="F263">
+        <v>818943.3382126502</v>
+      </c>
+      <c r="G263">
+        <v>525185.7624550743</v>
+      </c>
+      <c r="H263">
+        <v>76242.42424242542</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>263</v>
+      </c>
+      <c r="C264">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D264">
+        <v>683.2468929373995</v>
+      </c>
+      <c r="E264">
+        <v>1804.459014149521</v>
+      </c>
+      <c r="F264">
+        <v>820747.7972267997</v>
+      </c>
+      <c r="G264">
+        <v>525869.0093480117</v>
+      </c>
+      <c r="H264">
+        <v>75121.21212121329</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>264</v>
+      </c>
+      <c r="C265">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D265">
+        <v>673.1991445118496</v>
+      </c>
+      <c r="E265">
+        <v>1794.411265723971</v>
+      </c>
+      <c r="F265">
+        <v>822542.2084925236</v>
+      </c>
+      <c r="G265">
+        <v>526542.2084925235</v>
+      </c>
+      <c r="H265">
+        <v>74000.00000000116</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>265</v>
+      </c>
+      <c r="C266">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D266">
+        <v>663.1513960862998</v>
+      </c>
+      <c r="E266">
+        <v>1784.363517298421</v>
+      </c>
+      <c r="F266">
+        <v>824326.572009822</v>
+      </c>
+      <c r="G266">
+        <v>527205.3598886098</v>
+      </c>
+      <c r="H266">
+        <v>72878.78787878904</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>266</v>
+      </c>
+      <c r="C267">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D267">
+        <v>653.10364766075</v>
+      </c>
+      <c r="E267">
+        <v>1774.315768872871</v>
+      </c>
+      <c r="F267">
+        <v>826100.8877786949</v>
+      </c>
+      <c r="G267">
+        <v>527858.4635362705</v>
+      </c>
+      <c r="H267">
+        <v>71757.57575757691</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>267</v>
+      </c>
+      <c r="C268">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D268">
+        <v>643.0558992352001</v>
+      </c>
+      <c r="E268">
+        <v>1764.268020447321</v>
+      </c>
+      <c r="F268">
+        <v>827865.1557991422</v>
+      </c>
+      <c r="G268">
+        <v>528501.5194355057</v>
+      </c>
+      <c r="H268">
+        <v>70636.36363636478</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>268</v>
+      </c>
+      <c r="C269">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D269">
+        <v>633.0081508096503</v>
+      </c>
+      <c r="E269">
+        <v>1754.220272021772</v>
+      </c>
+      <c r="F269">
+        <v>829619.3760711639</v>
+      </c>
+      <c r="G269">
+        <v>529134.5275863154</v>
+      </c>
+      <c r="H269">
+        <v>69515.15151515265</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>269</v>
+      </c>
+      <c r="C270">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D270">
+        <v>622.9604023841005</v>
+      </c>
+      <c r="E270">
+        <v>1744.172523596222</v>
+      </c>
+      <c r="F270">
+        <v>831363.5485947601</v>
+      </c>
+      <c r="G270">
+        <v>529757.4879886995</v>
+      </c>
+      <c r="H270">
+        <v>68393.93939394053</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>270</v>
+      </c>
+      <c r="C271">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D271">
+        <v>612.9126539585505</v>
+      </c>
+      <c r="E271">
+        <v>1734.124775170672</v>
+      </c>
+      <c r="F271">
+        <v>833097.6733699308</v>
+      </c>
+      <c r="G271">
+        <v>530370.400642658</v>
+      </c>
+      <c r="H271">
+        <v>67272.7272727284</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>271</v>
+      </c>
+      <c r="C272">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D272">
+        <v>602.8649055330008</v>
+      </c>
+      <c r="E272">
+        <v>1724.077026745122</v>
+      </c>
+      <c r="F272">
+        <v>834821.7503966759</v>
+      </c>
+      <c r="G272">
+        <v>530973.265548191</v>
+      </c>
+      <c r="H272">
+        <v>66151.51515151627</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>272</v>
+      </c>
+      <c r="C273">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D273">
+        <v>592.817157107451</v>
+      </c>
+      <c r="E273">
+        <v>1714.029278319572</v>
+      </c>
+      <c r="F273">
+        <v>836535.7796749955</v>
+      </c>
+      <c r="G273">
+        <v>531566.0827052984</v>
+      </c>
+      <c r="H273">
+        <v>65030.30303030415</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>273</v>
+      </c>
+      <c r="C274">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D274">
+        <v>582.769408681901</v>
+      </c>
+      <c r="E274">
+        <v>1703.981529894022</v>
+      </c>
+      <c r="F274">
+        <v>838239.7612048895</v>
+      </c>
+      <c r="G274">
+        <v>532148.8521139803</v>
+      </c>
+      <c r="H274">
+        <v>63909.09090909203</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>274</v>
+      </c>
+      <c r="C275">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D275">
+        <v>572.7216602563512</v>
+      </c>
+      <c r="E275">
+        <v>1693.933781468472</v>
+      </c>
+      <c r="F275">
+        <v>839933.6949863579</v>
+      </c>
+      <c r="G275">
+        <v>532721.5737742367</v>
+      </c>
+      <c r="H275">
+        <v>62787.87878787991</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>275</v>
+      </c>
+      <c r="C276">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D276">
+        <v>562.6739118308014</v>
+      </c>
+      <c r="E276">
+        <v>1683.886033042923</v>
+      </c>
+      <c r="F276">
+        <v>841617.5810194009</v>
+      </c>
+      <c r="G276">
+        <v>533284.2476860675</v>
+      </c>
+      <c r="H276">
+        <v>61666.66666666779</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>276</v>
+      </c>
+      <c r="C277">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D277">
+        <v>552.6261634052515</v>
+      </c>
+      <c r="E277">
+        <v>1673.838284617373</v>
+      </c>
+      <c r="F277">
+        <v>843291.4193040183</v>
+      </c>
+      <c r="G277">
+        <v>533836.8738494727</v>
+      </c>
+      <c r="H277">
+        <v>60545.45454545567</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>277</v>
+      </c>
+      <c r="C278">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D278">
+        <v>542.5784149797017</v>
+      </c>
+      <c r="E278">
+        <v>1663.790536191823</v>
+      </c>
+      <c r="F278">
+        <v>844955.20984021</v>
+      </c>
+      <c r="G278">
+        <v>534379.4522644525</v>
+      </c>
+      <c r="H278">
+        <v>59424.24242424355</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>278</v>
+      </c>
+      <c r="C279">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D279">
+        <v>532.5306665541519</v>
+      </c>
+      <c r="E279">
+        <v>1653.742787766273</v>
+      </c>
+      <c r="F279">
+        <v>846608.9526279763</v>
+      </c>
+      <c r="G279">
+        <v>534911.9829310066</v>
+      </c>
+      <c r="H279">
+        <v>58303.03030303143</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>279</v>
+      </c>
+      <c r="C280">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D280">
+        <v>522.482918128602</v>
+      </c>
+      <c r="E280">
+        <v>1643.695039340723</v>
+      </c>
+      <c r="F280">
+        <v>848252.6476673171</v>
+      </c>
+      <c r="G280">
+        <v>535434.4658491352</v>
+      </c>
+      <c r="H280">
+        <v>57181.81818181931</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>280</v>
+      </c>
+      <c r="C281">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D281">
+        <v>512.4351697030522</v>
+      </c>
+      <c r="E281">
+        <v>1633.647290915173</v>
+      </c>
+      <c r="F281">
+        <v>849886.2949582322</v>
+      </c>
+      <c r="G281">
+        <v>535946.9010188383</v>
+      </c>
+      <c r="H281">
+        <v>56060.60606060719</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>281</v>
+      </c>
+      <c r="C282">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D282">
+        <v>502.3874212775024</v>
+      </c>
+      <c r="E282">
+        <v>1623.599542489624</v>
+      </c>
+      <c r="F282">
+        <v>851509.8945007218</v>
+      </c>
+      <c r="G282">
+        <v>536449.2884401157</v>
+      </c>
+      <c r="H282">
+        <v>54939.39393939507</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>282</v>
+      </c>
+      <c r="C283">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D283">
+        <v>492.3396728519525</v>
+      </c>
+      <c r="E283">
+        <v>1613.551794064074</v>
+      </c>
+      <c r="F283">
+        <v>853123.4462947859</v>
+      </c>
+      <c r="G283">
+        <v>536941.6281129677</v>
+      </c>
+      <c r="H283">
+        <v>53818.18181818295</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>283</v>
+      </c>
+      <c r="C284">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D284">
+        <v>482.2919244264027</v>
+      </c>
+      <c r="E284">
+        <v>1603.504045638524</v>
+      </c>
+      <c r="F284">
+        <v>854726.9503404244</v>
+      </c>
+      <c r="G284">
+        <v>537423.9200373942</v>
+      </c>
+      <c r="H284">
+        <v>52696.96969697083</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>284</v>
+      </c>
+      <c r="C285">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D285">
+        <v>472.2441760008529</v>
+      </c>
+      <c r="E285">
+        <v>1593.456297212974</v>
+      </c>
+      <c r="F285">
+        <v>856320.4066376374</v>
+      </c>
+      <c r="G285">
+        <v>537896.164213395</v>
+      </c>
+      <c r="H285">
+        <v>51575.75757575871</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>285</v>
+      </c>
+      <c r="C286">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D286">
+        <v>462.196427575303</v>
+      </c>
+      <c r="E286">
+        <v>1583.408548787424</v>
+      </c>
+      <c r="F286">
+        <v>857903.8151864249</v>
+      </c>
+      <c r="G286">
+        <v>538358.3606409703</v>
+      </c>
+      <c r="H286">
+        <v>50454.54545454659</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>286</v>
+      </c>
+      <c r="C287">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D287">
+        <v>452.1486791497531</v>
+      </c>
+      <c r="E287">
+        <v>1573.360800361874</v>
+      </c>
+      <c r="F287">
+        <v>859477.1759867867</v>
+      </c>
+      <c r="G287">
+        <v>538810.5093201201</v>
+      </c>
+      <c r="H287">
+        <v>49333.33333333447</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>287</v>
+      </c>
+      <c r="C288">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D288">
+        <v>442.1009307242034</v>
+      </c>
+      <c r="E288">
+        <v>1563.313051936325</v>
+      </c>
+      <c r="F288">
+        <v>861040.4890387231</v>
+      </c>
+      <c r="G288">
+        <v>539252.6102508443</v>
+      </c>
+      <c r="H288">
+        <v>48212.12121212235</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>288</v>
+      </c>
+      <c r="C289">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D289">
+        <v>432.0531822986535</v>
+      </c>
+      <c r="E289">
+        <v>1553.265303510775</v>
+      </c>
+      <c r="F289">
+        <v>862593.7543422339</v>
+      </c>
+      <c r="G289">
+        <v>539684.6634331429</v>
+      </c>
+      <c r="H289">
+        <v>47090.90909091023</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>289</v>
+      </c>
+      <c r="C290">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D290">
+        <v>422.0054338731036</v>
+      </c>
+      <c r="E290">
+        <v>1543.217555085225</v>
+      </c>
+      <c r="F290">
+        <v>864136.9718973191</v>
+      </c>
+      <c r="G290">
+        <v>540106.6688670161</v>
+      </c>
+      <c r="H290">
+        <v>45969.69696969811</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>290</v>
+      </c>
+      <c r="C291">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D291">
+        <v>411.9576854475538</v>
+      </c>
+      <c r="E291">
+        <v>1533.169806659675</v>
+      </c>
+      <c r="F291">
+        <v>865670.1417039788</v>
+      </c>
+      <c r="G291">
+        <v>540518.6265524636</v>
+      </c>
+      <c r="H291">
+        <v>44848.48484848599</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>291</v>
+      </c>
+      <c r="C292">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D292">
+        <v>401.909937022004</v>
+      </c>
+      <c r="E292">
+        <v>1523.122058234125</v>
+      </c>
+      <c r="F292">
+        <v>867193.2637622129</v>
+      </c>
+      <c r="G292">
+        <v>540920.5364894856</v>
+      </c>
+      <c r="H292">
+        <v>43727.27272727387</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>292</v>
+      </c>
+      <c r="C293">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D293">
+        <v>391.8621885964541</v>
+      </c>
+      <c r="E293">
+        <v>1513.074309808575</v>
+      </c>
+      <c r="F293">
+        <v>868706.3380720215</v>
+      </c>
+      <c r="G293">
+        <v>541312.3986780822</v>
+      </c>
+      <c r="H293">
+        <v>42606.06060606175</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>293</v>
+      </c>
+      <c r="C294">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D294">
+        <v>381.8144401709043</v>
+      </c>
+      <c r="E294">
+        <v>1503.026561383026</v>
+      </c>
+      <c r="F294">
+        <v>870209.3646334045</v>
+      </c>
+      <c r="G294">
+        <v>541694.213118253</v>
+      </c>
+      <c r="H294">
+        <v>41484.84848484963</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>294</v>
+      </c>
+      <c r="C295">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D295">
+        <v>371.7666917453545</v>
+      </c>
+      <c r="E295">
+        <v>1492.978812957476</v>
+      </c>
+      <c r="F295">
+        <v>871702.3434463621</v>
+      </c>
+      <c r="G295">
+        <v>542065.9798099984</v>
+      </c>
+      <c r="H295">
+        <v>40363.63636363751</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>295</v>
+      </c>
+      <c r="C296">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D296">
+        <v>361.7189433198046</v>
+      </c>
+      <c r="E296">
+        <v>1482.931064531926</v>
+      </c>
+      <c r="F296">
+        <v>873185.274510894</v>
+      </c>
+      <c r="G296">
+        <v>542427.6987533182</v>
+      </c>
+      <c r="H296">
+        <v>39242.42424242539</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>296</v>
+      </c>
+      <c r="C297">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D297">
+        <v>351.6711948942548</v>
+      </c>
+      <c r="E297">
+        <v>1472.883316106376</v>
+      </c>
+      <c r="F297">
+        <v>874658.1578270004</v>
+      </c>
+      <c r="G297">
+        <v>542779.3699482124</v>
+      </c>
+      <c r="H297">
+        <v>38121.21212121327</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>297</v>
+      </c>
+      <c r="C298">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D298">
+        <v>341.623446468705</v>
+      </c>
+      <c r="E298">
+        <v>1462.835567680826</v>
+      </c>
+      <c r="F298">
+        <v>876120.9933946811</v>
+      </c>
+      <c r="G298">
+        <v>543120.9933946811</v>
+      </c>
+      <c r="H298">
+        <v>37000.00000000115</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>298</v>
+      </c>
+      <c r="C299">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D299">
+        <v>331.5756980431551</v>
+      </c>
+      <c r="E299">
+        <v>1452.787819255276</v>
+      </c>
+      <c r="F299">
+        <v>877573.7812139364</v>
+      </c>
+      <c r="G299">
+        <v>543452.5690927242</v>
+      </c>
+      <c r="H299">
+        <v>35878.78787878903</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>299</v>
+      </c>
+      <c r="C300">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D300">
+        <v>321.5279496176053</v>
+      </c>
+      <c r="E300">
+        <v>1442.740070829726</v>
+      </c>
+      <c r="F300">
+        <v>879016.5212847661</v>
+      </c>
+      <c r="G300">
+        <v>543774.0970423418</v>
+      </c>
+      <c r="H300">
+        <v>34757.57575757691</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>300</v>
+      </c>
+      <c r="C301">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D301">
+        <v>311.4802011920554</v>
+      </c>
+      <c r="E301">
+        <v>1432.692322404177</v>
+      </c>
+      <c r="F301">
+        <v>880449.2136071703</v>
+      </c>
+      <c r="G301">
+        <v>544085.5772435339</v>
+      </c>
+      <c r="H301">
+        <v>33636.36363636479</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>301</v>
+      </c>
+      <c r="C302">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D302">
+        <v>301.4324527665056</v>
+      </c>
+      <c r="E302">
+        <v>1422.644573978627</v>
+      </c>
+      <c r="F302">
+        <v>881871.8581811489</v>
+      </c>
+      <c r="G302">
+        <v>544387.0096963004</v>
+      </c>
+      <c r="H302">
+        <v>32515.15151515267</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>302</v>
+      </c>
+      <c r="C303">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D303">
+        <v>291.3847043409558</v>
+      </c>
+      <c r="E303">
+        <v>1412.596825553077</v>
+      </c>
+      <c r="F303">
+        <v>883284.455006702</v>
+      </c>
+      <c r="G303">
+        <v>544678.3944006413</v>
+      </c>
+      <c r="H303">
+        <v>31393.93939394055</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>303</v>
+      </c>
+      <c r="C304">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D304">
+        <v>281.3369559154059</v>
+      </c>
+      <c r="E304">
+        <v>1402.549077127527</v>
+      </c>
+      <c r="F304">
+        <v>884687.0040838295</v>
+      </c>
+      <c r="G304">
+        <v>544959.7313565568</v>
+      </c>
+      <c r="H304">
+        <v>30272.72727272843</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>304</v>
+      </c>
+      <c r="C305">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D305">
+        <v>271.2892074898561</v>
+      </c>
+      <c r="E305">
+        <v>1392.501328701977</v>
+      </c>
+      <c r="F305">
+        <v>886079.5054125314</v>
+      </c>
+      <c r="G305">
+        <v>545231.0205640466</v>
+      </c>
+      <c r="H305">
+        <v>29151.51515151631</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>305</v>
+      </c>
+      <c r="C306">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D306">
+        <v>261.2414590643062</v>
+      </c>
+      <c r="E306">
+        <v>1382.453580276428</v>
+      </c>
+      <c r="F306">
+        <v>887461.9589928079</v>
+      </c>
+      <c r="G306">
+        <v>545492.2620231109</v>
+      </c>
+      <c r="H306">
+        <v>28030.30303030419</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>306</v>
+      </c>
+      <c r="C307">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D307">
+        <v>251.1937106387564</v>
+      </c>
+      <c r="E307">
+        <v>1372.405831850878</v>
+      </c>
+      <c r="F307">
+        <v>888834.3648246587</v>
+      </c>
+      <c r="G307">
+        <v>545743.4557337497</v>
+      </c>
+      <c r="H307">
+        <v>26909.09090909207</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>307</v>
+      </c>
+      <c r="C308">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D308">
+        <v>241.1459622132066</v>
+      </c>
+      <c r="E308">
+        <v>1362.358083425328</v>
+      </c>
+      <c r="F308">
+        <v>890196.722908084</v>
+      </c>
+      <c r="G308">
+        <v>545984.6016959628</v>
+      </c>
+      <c r="H308">
+        <v>25787.87878787995</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>308</v>
+      </c>
+      <c r="C309">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D309">
+        <v>231.0982137876567</v>
+      </c>
+      <c r="E309">
+        <v>1352.310334999778</v>
+      </c>
+      <c r="F309">
+        <v>891549.0332430839</v>
+      </c>
+      <c r="G309">
+        <v>546215.6999097505</v>
+      </c>
+      <c r="H309">
+        <v>24666.66666666783</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>309</v>
+      </c>
+      <c r="C310">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D310">
+        <v>221.0504653621069</v>
+      </c>
+      <c r="E310">
+        <v>1342.262586574228</v>
+      </c>
+      <c r="F310">
+        <v>892891.295829658</v>
+      </c>
+      <c r="G310">
+        <v>546436.7503751126</v>
+      </c>
+      <c r="H310">
+        <v>23545.45454545571</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>310</v>
+      </c>
+      <c r="C311">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D311">
+        <v>211.0027169365571</v>
+      </c>
+      <c r="E311">
+        <v>1332.214838148678</v>
+      </c>
+      <c r="F311">
+        <v>894223.5106678067</v>
+      </c>
+      <c r="G311">
+        <v>546647.7530920492</v>
+      </c>
+      <c r="H311">
+        <v>22424.24242424359</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>311</v>
+      </c>
+      <c r="C312">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D312">
+        <v>200.9549685110072</v>
+      </c>
+      <c r="E312">
+        <v>1322.167089723128</v>
+      </c>
+      <c r="F312">
+        <v>895545.6777575299</v>
+      </c>
+      <c r="G312">
+        <v>546848.7080605602</v>
+      </c>
+      <c r="H312">
+        <v>21303.03030303147</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>312</v>
+      </c>
+      <c r="C313">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D313">
+        <v>190.9072200854574</v>
+      </c>
+      <c r="E313">
+        <v>1312.119341297579</v>
+      </c>
+      <c r="F313">
+        <v>896857.7970988274</v>
+      </c>
+      <c r="G313">
+        <v>547039.6152806457</v>
+      </c>
+      <c r="H313">
+        <v>20181.81818181935</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>313</v>
+      </c>
+      <c r="C314">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D314">
+        <v>180.8594716599075</v>
+      </c>
+      <c r="E314">
+        <v>1302.071592872029</v>
+      </c>
+      <c r="F314">
+        <v>898159.8686916995</v>
+      </c>
+      <c r="G314">
+        <v>547220.4747523055</v>
+      </c>
+      <c r="H314">
+        <v>19060.60606060723</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>314</v>
+      </c>
+      <c r="C315">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D315">
+        <v>170.8117232343577</v>
+      </c>
+      <c r="E315">
+        <v>1292.023844446479</v>
+      </c>
+      <c r="F315">
+        <v>899451.892536146</v>
+      </c>
+      <c r="G315">
+        <v>547391.2864755399</v>
+      </c>
+      <c r="H315">
+        <v>17939.39393939511</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>315</v>
+      </c>
+      <c r="C316">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D316">
+        <v>160.7639748088079</v>
+      </c>
+      <c r="E316">
+        <v>1281.976096020929</v>
+      </c>
+      <c r="F316">
+        <v>900733.8686321669</v>
+      </c>
+      <c r="G316">
+        <v>547552.0504503488</v>
+      </c>
+      <c r="H316">
+        <v>16818.18181818299</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>316</v>
+      </c>
+      <c r="C317">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D317">
+        <v>150.716226383258</v>
+      </c>
+      <c r="E317">
+        <v>1271.928347595379</v>
+      </c>
+      <c r="F317">
+        <v>902005.7969797623</v>
+      </c>
+      <c r="G317">
+        <v>547702.766676732</v>
+      </c>
+      <c r="H317">
+        <v>15696.96969697087</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>317</v>
+      </c>
+      <c r="C318">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D318">
+        <v>140.6684779577082</v>
+      </c>
+      <c r="E318">
+        <v>1261.880599169829</v>
+      </c>
+      <c r="F318">
+        <v>903267.6775789321</v>
+      </c>
+      <c r="G318">
+        <v>547843.4351546897</v>
+      </c>
+      <c r="H318">
+        <v>14575.75757575874</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>318</v>
+      </c>
+      <c r="C319">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D319">
+        <v>130.6207295321583</v>
+      </c>
+      <c r="E319">
+        <v>1251.83285074428</v>
+      </c>
+      <c r="F319">
+        <v>904519.5104296764</v>
+      </c>
+      <c r="G319">
+        <v>547974.0558842219</v>
+      </c>
+      <c r="H319">
+        <v>13454.54545454662</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>319</v>
+      </c>
+      <c r="C320">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D320">
+        <v>120.5729811066085</v>
+      </c>
+      <c r="E320">
+        <v>1241.78510231873</v>
+      </c>
+      <c r="F320">
+        <v>905761.2955319951</v>
+      </c>
+      <c r="G320">
+        <v>548094.6288653285</v>
+      </c>
+      <c r="H320">
+        <v>12333.3333333345</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>320</v>
+      </c>
+      <c r="C321">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D321">
+        <v>110.5252326810587</v>
+      </c>
+      <c r="E321">
+        <v>1231.73735389318</v>
+      </c>
+      <c r="F321">
+        <v>906993.0328858884</v>
+      </c>
+      <c r="G321">
+        <v>548205.1540980096</v>
+      </c>
+      <c r="H321">
+        <v>11212.12121212238</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>321</v>
+      </c>
+      <c r="C322">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D322">
+        <v>100.4774842555088</v>
+      </c>
+      <c r="E322">
+        <v>1221.68960546763</v>
+      </c>
+      <c r="F322">
+        <v>908214.722491356</v>
+      </c>
+      <c r="G322">
+        <v>548305.6315822651</v>
+      </c>
+      <c r="H322">
+        <v>10090.90909091026</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>322</v>
+      </c>
+      <c r="C323">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D323">
+        <v>90.42973582995899</v>
+      </c>
+      <c r="E323">
+        <v>1211.64185704208</v>
+      </c>
+      <c r="F323">
+        <v>909426.3643483981</v>
+      </c>
+      <c r="G323">
+        <v>548396.0613180951</v>
+      </c>
+      <c r="H323">
+        <v>8969.696969698134</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>323</v>
+      </c>
+      <c r="C324">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D324">
+        <v>80.38198740440914</v>
+      </c>
+      <c r="E324">
+        <v>1201.59410861653</v>
+      </c>
+      <c r="F324">
+        <v>910627.9584570146</v>
+      </c>
+      <c r="G324">
+        <v>548476.4433054995</v>
+      </c>
+      <c r="H324">
+        <v>7848.484848486013</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>324</v>
+      </c>
+      <c r="C325">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D325">
+        <v>70.3342389788593</v>
+      </c>
+      <c r="E325">
+        <v>1191.546360190981</v>
+      </c>
+      <c r="F325">
+        <v>911819.5048172056</v>
+      </c>
+      <c r="G325">
+        <v>548546.7775444783</v>
+      </c>
+      <c r="H325">
+        <v>6727.272727273892</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>325</v>
+      </c>
+      <c r="C326">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D326">
+        <v>60.28649055330946</v>
+      </c>
+      <c r="E326">
+        <v>1181.498611765431</v>
+      </c>
+      <c r="F326">
+        <v>913001.003428971</v>
+      </c>
+      <c r="G326">
+        <v>548607.0640350316</v>
+      </c>
+      <c r="H326">
+        <v>5606.060606061771</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>326</v>
+      </c>
+      <c r="C327">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D327">
+        <v>50.23874212775963</v>
+      </c>
+      <c r="E327">
+        <v>1171.450863339881</v>
+      </c>
+      <c r="F327">
+        <v>914172.454292311</v>
+      </c>
+      <c r="G327">
+        <v>548657.3027771594</v>
+      </c>
+      <c r="H327">
+        <v>4484.84848484965</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>327</v>
+      </c>
+      <c r="C328">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D328">
+        <v>40.19099370220979</v>
+      </c>
+      <c r="E328">
+        <v>1161.403114914331</v>
+      </c>
+      <c r="F328">
+        <v>915333.8574072253</v>
+      </c>
+      <c r="G328">
+        <v>548697.4937708615</v>
+      </c>
+      <c r="H328">
+        <v>3363.636363637529</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>328</v>
+      </c>
+      <c r="C329">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D329">
+        <v>30.14324527665995</v>
+      </c>
+      <c r="E329">
+        <v>1151.355366488781</v>
+      </c>
+      <c r="F329">
+        <v>916485.2127737141</v>
+      </c>
+      <c r="G329">
+        <v>548727.6370161382</v>
+      </c>
+      <c r="H329">
+        <v>2242.424242425408</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>329</v>
+      </c>
+      <c r="C330">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D330">
+        <v>20.09549685111011</v>
+      </c>
+      <c r="E330">
+        <v>1141.307618063231</v>
+      </c>
+      <c r="F330">
+        <v>917626.5203917773</v>
+      </c>
+      <c r="G330">
+        <v>548747.7325129893</v>
+      </c>
+      <c r="H330">
+        <v>1121.212121213287</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>330</v>
+      </c>
+      <c r="C331">
+        <v>1121.212121212121</v>
+      </c>
+      <c r="D331">
+        <v>10.04774842556027</v>
+      </c>
+      <c r="E331">
+        <v>1131.259869637682</v>
+      </c>
+      <c r="F331">
+        <v>918757.7802614149</v>
+      </c>
+      <c r="G331">
+        <v>548757.7802614148</v>
+      </c>
+      <c r="H331">
+        <v>1.165517460322008E-09</v>
       </c>
     </row>
   </sheetData>
